--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B5DC82-89F0-43B5-BCA8-57248C1AF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EF225-5EEA-4248-A9B4-C0B77C7D2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="153">
   <si>
     <t>Assets</t>
   </si>
@@ -554,8 +554,11 @@
     <t>1. Payback $1200 to Mom</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Payback $1300 to Mom </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. Payback $1339 to Mom - </t>
+      <t xml:space="preserve">1. Payback $1439 to Mom - </t>
     </r>
     <r>
       <rPr>
@@ -1445,49 +1448,34 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,20 +1484,14 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1523,50 +1505,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1589,6 +1538,90 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,41 +1631,8 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1652,11 +1652,14 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2316,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1010"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:D25"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2334,13 +2337,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2361,7 +2364,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="5">
-        <v>0.47</v>
+        <v>100.47</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2517,7 +2520,7 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(C3:C7)</f>
-        <v>49.17</v>
+        <v>149.16999999999999</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2549,7 +2552,7 @@
       </c>
       <c r="C9" s="58">
         <f>E97-(C73-SUM(E86,E95))</f>
-        <v>-12745.83</v>
+        <v>-12845.83</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2603,13 +2606,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="115"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2637,7 +2640,7 @@
       <c r="B13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="81"/>
@@ -2652,10 +2655,10 @@
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2677,13 +2680,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="115"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2714,7 +2717,7 @@
       <c r="C18" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="75" t="s">
         <v>5</v>
       </c>
@@ -2726,10 +2729,10 @@
       <c r="B19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="119"/>
+      <c r="D19" s="120"/>
       <c r="E19" s="68">
         <v>2405</v>
       </c>
@@ -2754,13 +2757,13 @@
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A22" s="113" t="s">
+      <c r="A22" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -2788,7 +2791,7 @@
       <c r="B23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="81"/>
@@ -2803,7 +2806,7 @@
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="111" t="s">
+      <c r="C24" s="101" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="81"/>
@@ -2818,10 +2821,10 @@
       <c r="B25" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="132" t="s">
+      <c r="C25" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="133"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="68">
         <v>0</v>
       </c>
@@ -2857,10 +2860,10 @@
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
@@ -2876,10 +2879,10 @@
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="109"/>
       <c r="C32" s="81"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
@@ -2913,16 +2916,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="122"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="123"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="125"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="107"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -2971,10 +2974,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="79" t="s">
+      <c r="A43" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="81"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
@@ -3010,11 +3013,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="79" t="s">
+      <c r="A47" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="83"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="129"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -3056,11 +3059,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="83"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="129"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -3084,11 +3087,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="91"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="118"/>
     </row>
     <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" s="33" t="s">
@@ -3112,11 +3115,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="124"/>
-      <c r="C58" s="115"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="86"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="27" t="s">
@@ -3160,11 +3163,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="93"/>
-      <c r="C63" s="94"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="89"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="59" t="s">
@@ -3220,11 +3223,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="136"/>
-      <c r="C69" s="94"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="89"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="43" t="s">
@@ -3232,7 +3235,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
-        <v>9739</v>
+        <v>9939</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
@@ -3260,7 +3263,7 @@
       </c>
       <c r="C73" s="50">
         <f>SUM(C70:C72)</f>
-        <v>14739</v>
+        <v>14939</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
@@ -3283,64 +3286,64 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="86" t="s">
+      <c r="A77" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="127"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="128"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="138"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="87" t="s">
+      <c r="B78" s="133"/>
+      <c r="C78" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="88"/>
+      <c r="D78" s="133"/>
       <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="85"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="131"/>
       <c r="E79" s="45">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="130" t="s">
+      <c r="C80" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="131"/>
+      <c r="D80" s="125"/>
       <c r="E80" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="109"/>
       <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="86" t="s">
+      <c r="A83" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="81"/>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="81"/>
@@ -3349,63 +3352,63 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="134" t="s">
+      <c r="A84" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="138"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="137"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="91"/>
       <c r="E84" s="38">
         <f>E80</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="101" t="s">
+      <c r="A85" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="102"/>
-      <c r="C85" s="99" t="s">
+      <c r="B85" s="95"/>
+      <c r="C85" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="100"/>
+      <c r="D85" s="99"/>
       <c r="E85" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="103"/>
-      <c r="B86" s="104"/>
-      <c r="C86" s="99" t="s">
+      <c r="A86" s="96"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="D86" s="105"/>
+      <c r="D86" s="121"/>
       <c r="E86" s="53">
         <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="134" t="s">
+      <c r="A87" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="112"/>
-      <c r="C87" s="96" t="s">
+      <c r="B87" s="83"/>
+      <c r="C87" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="D87" s="97"/>
+      <c r="D87" s="127"/>
       <c r="E87" s="67">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="98" t="s">
+      <c r="C88" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D88" s="81"/>
       <c r="E88" s="38">
         <f>SUM(C3:C7)</f>
-        <v>49.17</v>
+        <v>149.16999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -3423,20 +3426,20 @@
       <c r="E90" s="25"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="135" t="s">
+      <c r="A91" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="114"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="114"/>
-      <c r="E91" s="115"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="86"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="86" t="s">
+      <c r="A92" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B92" s="81"/>
-      <c r="C92" s="86" t="s">
+      <c r="C92" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D92" s="81"/>
@@ -3445,47 +3448,47 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="134" t="s">
+      <c r="A93" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="112"/>
-      <c r="C93" s="95"/>
+      <c r="B93" s="83"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="81"/>
       <c r="E93" s="38">
         <f>E88</f>
-        <v>49.17</v>
+        <v>149.16999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="101" t="s">
+      <c r="A94" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="102"/>
-      <c r="C94" s="99" t="s">
+      <c r="B94" s="95"/>
+      <c r="C94" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="100"/>
+      <c r="D94" s="99"/>
       <c r="E94" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="103"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="99" t="s">
+      <c r="A95" s="96"/>
+      <c r="B95" s="97"/>
+      <c r="C95" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="105"/>
+      <c r="D95" s="121"/>
       <c r="E95" s="53">
         <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="134" t="s">
+      <c r="A96" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="112"/>
-      <c r="C96" s="95"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="81"/>
       <c r="E96" s="24">
         <f>C74</f>
@@ -3493,13 +3496,13 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="98" t="s">
+      <c r="C97" s="80" t="s">
         <v>30</v>
       </c>
       <c r="D97" s="81"/>
       <c r="E97" s="53">
         <f>(E26+E93)-SUM(E94:E96)</f>
-        <v>-6.8299999999999272</v>
+        <v>93.170000000000073</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
@@ -7156,6 +7159,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A85:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A91:E91"/>
@@ -7168,43 +7204,10 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A94:B95"/>
     <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A58:C58"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -7261,8 +7264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
   <dimension ref="A1:Y1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7279,13 +7282,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7307,7 +7310,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E97</f>
-        <v>-6.8299999999999272</v>
+        <v>93.170000000000073</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7402,7 +7405,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>23.370000000000072</v>
+        <v>123.37000000000008</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7488,13 +7491,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7522,7 +7525,7 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="81"/>
@@ -7537,10 +7540,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="112"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7562,13 +7565,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7596,7 +7599,7 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="81"/>
@@ -7611,7 +7614,7 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="101" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="81"/>
@@ -7639,13 +7642,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7676,7 +7679,7 @@
       <c r="C21" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="91"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -7688,10 +7691,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="119"/>
+      <c r="D22" s="120"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -7701,8 +7704,8 @@
       <c r="B23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
       <c r="E23" s="68">
         <v>204</v>
       </c>
@@ -7745,10 +7748,10 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="81"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
@@ -7764,10 +7767,10 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="81"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
@@ -7801,16 +7804,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="121"/>
-      <c r="C35" s="122"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="123"/>
-      <c r="B36" s="124"/>
-      <c r="C36" s="125"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="107"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -7859,10 +7862,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="109"/>
       <c r="C42" s="81"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
@@ -7898,11 +7901,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="79" t="s">
+      <c r="A46" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="129"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -7944,11 +7947,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="83"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="129"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -7972,11 +7975,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="91"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="118"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="33" t="s">
@@ -8000,11 +8003,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="129" t="s">
+      <c r="A57" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="124"/>
-      <c r="C57" s="115"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="86"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="27" t="s">
@@ -8048,11 +8051,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="94"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="89"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="59" t="s">
@@ -8069,7 +8072,7 @@
       <c r="A64" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="149" t="s">
+      <c r="B64" s="79" t="s">
         <v>86</v>
       </c>
       <c r="C64" s="71">
@@ -8119,11 +8122,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="92" t="s">
+      <c r="A69" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="136"/>
-      <c r="C69" s="94"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="89"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="43" t="s">
@@ -8131,8 +8134,8 @@
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
-        <f>'April 2024 - June 2024'!C70-'April 2024 - June 2024'!E94</f>
-        <v>9739</v>
+        <f>'April 2024 - June 2024'!C70</f>
+        <v>9939</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
@@ -8160,7 +8163,7 @@
       </c>
       <c r="C73" s="50">
         <f>SUM(C70:C72)</f>
-        <v>14739</v>
+        <v>14939</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
@@ -8183,89 +8186,89 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="86" t="s">
+      <c r="A77" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="109"/>
       <c r="E77" s="81"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="91"/>
-      <c r="C78" s="87" t="s">
+      <c r="B78" s="118"/>
+      <c r="C78" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="91"/>
+      <c r="D78" s="118"/>
       <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="144" t="s">
+      <c r="A79" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="144"/>
-      <c r="C79" s="142" t="s">
+      <c r="B79" s="143"/>
+      <c r="C79" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="143"/>
+      <c r="D79" s="142"/>
       <c r="E79" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="145"/>
-      <c r="B80" s="145"/>
-      <c r="C80" s="146" t="s">
+      <c r="A80" s="144"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="147"/>
+      <c r="D80" s="146"/>
       <c r="E80" s="53">
         <v>850</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="106" t="s">
+      <c r="A81" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="107"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="85"/>
+      <c r="B81" s="123"/>
+      <c r="C81" s="130"/>
+      <c r="D81" s="131"/>
       <c r="E81" s="45">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="130" t="s">
+      <c r="C82" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="80"/>
+      <c r="D82" s="109"/>
       <c r="E82" s="38">
         <f>(C6+E13)-SUM(E79:E81)</f>
-        <v>117.36999999999989</v>
+        <v>217.36999999999989</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="86" t="s">
+      <c r="A84" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="80"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="80"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="109"/>
+      <c r="D84" s="109"/>
       <c r="E84" s="81"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="86" t="s">
+      <c r="A85" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B85" s="81"/>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="81"/>
@@ -8274,47 +8277,47 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="134" t="s">
+      <c r="A86" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="112"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="141"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="149"/>
       <c r="E86" s="38">
         <f>E82</f>
-        <v>117.36999999999989</v>
+        <v>217.36999999999989</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="102"/>
-      <c r="C87" s="96" t="s">
+      <c r="B87" s="95"/>
+      <c r="C87" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="140"/>
+      <c r="D87" s="148"/>
       <c r="E87" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="103"/>
-      <c r="B88" s="104"/>
-      <c r="C88" s="99" t="s">
+      <c r="A88" s="96"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="139"/>
+      <c r="D88" s="147"/>
       <c r="E88" s="53">
         <v>850</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="134" t="s">
+      <c r="A89" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="112"/>
-      <c r="C89" s="95"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="81"/>
       <c r="E89" s="67">
         <f>C74</f>
@@ -8322,13 +8325,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="98" t="s">
+      <c r="C90" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D90" s="81"/>
       <c r="E90" s="38">
         <f>(E18+E86)-SUM(E87:E89)</f>
-        <v>211.36999999999989</v>
+        <v>311.36999999999989</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
@@ -8346,20 +8349,20 @@
       <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
+      <c r="A93" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="114"/>
-      <c r="C93" s="114"/>
-      <c r="D93" s="114"/>
-      <c r="E93" s="115"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="86"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="86" t="s">
+      <c r="A94" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B94" s="81"/>
-      <c r="C94" s="86" t="s">
+      <c r="C94" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="81"/>
@@ -8368,26 +8371,26 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="134" t="s">
+      <c r="A95" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="112"/>
-      <c r="C95" s="95"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="81"/>
       <c r="E95" s="38">
         <f>E90</f>
-        <v>211.36999999999989</v>
+        <v>311.36999999999989</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="134" t="s">
+      <c r="A96" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="138"/>
-      <c r="C96" s="99" t="s">
+      <c r="B96" s="93"/>
+      <c r="C96" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="100"/>
+      <c r="D96" s="99"/>
       <c r="E96" s="53">
         <v>0</v>
       </c>
@@ -8395,20 +8398,20 @@
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
       <c r="A97" s="77"/>
       <c r="B97" s="78"/>
-      <c r="C97" s="99" t="s">
+      <c r="C97" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="139"/>
+      <c r="D97" s="147"/>
       <c r="E97" s="53">
         <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="134" t="s">
+      <c r="A98" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="112"/>
-      <c r="C98" s="95"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="81"/>
       <c r="E98" s="67">
         <f>C74</f>
@@ -8416,13 +8419,13 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="98" t="s">
+      <c r="C99" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D99" s="81"/>
       <c r="E99" s="53">
         <f>(E24+E95)-SUM(E96:E98)</f>
-        <v>559.36999999999989</v>
+        <v>659.36999999999989</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
@@ -12079,6 +12082,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A62:C62"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:E1"/>
@@ -12095,42 +12134,6 @@
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -12192,7 +12195,7 @@
   <dimension ref="A1:Y1008"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12209,13 +12212,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="113" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12237,7 +12240,7 @@
       </c>
       <c r="C3" s="5">
         <f>'July 2024 - September 2024'!E99</f>
-        <v>559.36999999999989</v>
+        <v>659.36999999999989</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12332,7 +12335,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>589.56999999999994</v>
+        <v>689.56999999999994</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -12364,7 +12367,7 @@
       </c>
       <c r="C7" s="58">
         <f>('July 2024 - September 2024'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>-5652.8899999999994</v>
+        <v>-5552.8899999999994</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -12418,13 +12421,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12452,7 +12455,7 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="81"/>
@@ -12467,10 +12470,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="112"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12492,13 +12495,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12526,7 +12529,7 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="81"/>
@@ -12541,7 +12544,7 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="101" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="81"/>
@@ -12569,13 +12572,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12606,7 +12609,7 @@
       <c r="C21" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="91"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -12618,10 +12621,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="119"/>
+      <c r="D22" s="120"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -12664,10 +12667,10 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="81"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
@@ -12683,10 +12686,10 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
@@ -12720,16 +12723,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -12778,10 +12781,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="81"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
@@ -12817,11 +12820,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="83"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="129"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -12863,11 +12866,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="83"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="129"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -12891,11 +12894,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="118"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -12919,11 +12922,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="129" t="s">
+      <c r="A56" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="86"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -12967,11 +12970,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -13038,11 +13041,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="136"/>
-      <c r="C68" s="94"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -13050,8 +13053,8 @@
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="50">
-        <f>'April 2024 - June 2024'!C70-'April 2024 - June 2024'!E94</f>
-        <v>9739</v>
+        <f>'July 2024 - September 2024'!C70</f>
+        <v>9939</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -13079,7 +13082,7 @@
       </c>
       <c r="C72" s="50">
         <f>SUM(C69:C71)</f>
-        <v>14739</v>
+        <v>14939</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
@@ -13102,78 +13105,78 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
       <c r="E76" s="81"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="87" t="s">
+      <c r="B77" s="118"/>
+      <c r="C77" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="91"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="144" t="s">
+      <c r="A78" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="102"/>
-      <c r="C78" s="142" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="143"/>
+      <c r="D78" s="142"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="85"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="131"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="130" t="s">
+      <c r="C80" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="80"/>
+      <c r="D80" s="109"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>537.56999999999971</v>
+        <v>637.56999999999971</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="109"/>
       <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="86" t="s">
+      <c r="A83" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="81"/>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="81"/>
@@ -13182,36 +13185,36 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="134" t="s">
+      <c r="A84" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="112"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="141"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="149"/>
       <c r="E84" s="38">
         <f>E80</f>
-        <v>537.56999999999971</v>
+        <v>637.56999999999971</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="134" t="s">
+      <c r="A85" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="99" t="s">
+      <c r="B85" s="93"/>
+      <c r="C85" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="140"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="134" t="s">
+      <c r="A86" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="112"/>
-      <c r="C86" s="95"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="90"/>
       <c r="D86" s="81"/>
       <c r="E86" s="67">
         <f>C73</f>
@@ -13219,13 +13222,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="98" t="s">
+      <c r="C87" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D87" s="81"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>485.56999999999971</v>
+        <v>585.56999999999971</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
@@ -13243,20 +13246,20 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="135" t="s">
+      <c r="A90" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="115"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="86" t="s">
+      <c r="A91" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="81"/>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="81"/>
@@ -13265,36 +13268,36 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="134" t="s">
+      <c r="A92" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="112"/>
-      <c r="C92" s="95"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="81"/>
       <c r="E92" s="38">
         <f>E87</f>
-        <v>485.56999999999971</v>
+        <v>585.56999999999971</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="134" t="s">
+      <c r="A93" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="99" t="s">
+      <c r="B93" s="93"/>
+      <c r="C93" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="100"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="134" t="s">
+      <c r="A94" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="95"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="81"/>
       <c r="E94" s="67">
         <f>C73</f>
@@ -13302,13 +13305,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="98" t="s">
+      <c r="C95" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="81"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>433.56999999999971</v>
+        <v>533.56999999999971</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -16965,36 +16968,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C87:D87"/>
@@ -17008,11 +16986,36 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -17072,8 +17075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
   <dimension ref="A1:Y1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17090,13 +17093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17118,7 +17121,7 @@
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E95</f>
-        <v>433.56999999999971</v>
+        <v>533.56999999999971</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17213,7 +17216,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>463.7699999999997</v>
+        <v>563.76999999999975</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17245,7 +17248,7 @@
       </c>
       <c r="C7" s="58">
         <f>('October 2024 - December 2024'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>-1745.12</v>
+        <v>-1545.12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -17299,13 +17302,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17333,7 +17336,7 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="81"/>
@@ -17348,10 +17351,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="112"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17373,13 +17376,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17407,7 +17410,7 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="81"/>
@@ -17422,7 +17425,7 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="101" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="81"/>
@@ -17450,13 +17453,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17487,7 +17490,7 @@
       <c r="C21" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="91"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -17499,10 +17502,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="119"/>
+      <c r="D22" s="120"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -17545,10 +17548,10 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="81"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
@@ -17564,10 +17567,10 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
@@ -17601,16 +17604,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -17659,10 +17662,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="81"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
@@ -17698,11 +17701,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="83"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="129"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -17744,11 +17747,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="83"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="129"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -17772,11 +17775,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="118"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -17800,11 +17803,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="129" t="s">
+      <c r="A56" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="86"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -17848,11 +17851,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -17919,11 +17922,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="136"/>
-      <c r="C68" s="94"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -17931,8 +17934,8 @@
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="50">
-        <f>'April 2024 - June 2024'!C70-'April 2024 - June 2024'!E94</f>
-        <v>9739</v>
+        <f>'October 2024 - December 2024'!C69</f>
+        <v>9939</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -17960,7 +17963,7 @@
       </c>
       <c r="C72" s="50">
         <f>SUM(C69:C71)</f>
-        <v>14739</v>
+        <v>14939</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
@@ -17983,78 +17986,78 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
       <c r="E76" s="81"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="87" t="s">
+      <c r="B77" s="118"/>
+      <c r="C77" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="91"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="144" t="s">
+      <c r="A78" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="102"/>
-      <c r="C78" s="142" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="143"/>
+      <c r="D78" s="142"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="85"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="131"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="130" t="s">
+      <c r="C80" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="80"/>
+      <c r="D80" s="109"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>411.76999999999953</v>
+        <v>511.76999999999953</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="109"/>
       <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="86" t="s">
+      <c r="A83" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="81"/>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="81"/>
@@ -18063,36 +18066,36 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="134" t="s">
+      <c r="A84" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="112"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="141"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="149"/>
       <c r="E84" s="38">
         <f>E80</f>
-        <v>411.76999999999953</v>
+        <v>511.76999999999953</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="134" t="s">
+      <c r="A85" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="99" t="s">
+      <c r="B85" s="93"/>
+      <c r="C85" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="140"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="134" t="s">
+      <c r="A86" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="112"/>
-      <c r="C86" s="95"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="90"/>
       <c r="D86" s="81"/>
       <c r="E86" s="67">
         <f>C73</f>
@@ -18100,13 +18103,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="98" t="s">
+      <c r="C87" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D87" s="81"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>359.76999999999953</v>
+        <v>459.76999999999953</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
@@ -18124,20 +18127,20 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="135" t="s">
+      <c r="A90" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="115"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="86" t="s">
+      <c r="A91" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="81"/>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="81"/>
@@ -18146,36 +18149,36 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="134" t="s">
+      <c r="A92" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="112"/>
-      <c r="C92" s="95"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="81"/>
       <c r="E92" s="38">
         <f>E87</f>
-        <v>359.76999999999953</v>
+        <v>459.76999999999953</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="134" t="s">
+      <c r="A93" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="99" t="s">
+      <c r="B93" s="93"/>
+      <c r="C93" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="100"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="134" t="s">
+      <c r="A94" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="95"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="81"/>
       <c r="E94" s="67">
         <f>C73</f>
@@ -18183,13 +18186,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="98" t="s">
+      <c r="C95" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="81"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>307.76999999999953</v>
+        <v>407.76999999999953</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -21846,34 +21849,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A34:C35"/>
@@ -21882,18 +21869,34 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -21954,7 +21957,7 @@
   <dimension ref="A1:Y1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -21971,13 +21974,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -21999,7 +22002,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E95</f>
-        <v>307.76999999999953</v>
+        <v>407.76999999999953</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22094,7 +22097,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>337.96999999999952</v>
+        <v>437.96999999999952</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22126,7 +22129,7 @@
       </c>
       <c r="C7" s="58">
         <f>('January 2025 - March 2025'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>2036.8499999999995</v>
+        <v>2336.8499999999995</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -22180,13 +22183,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22214,7 +22217,7 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="81"/>
@@ -22229,10 +22232,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="112"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22254,13 +22257,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22288,7 +22291,7 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="100" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="81"/>
@@ -22303,7 +22306,7 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="101" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="81"/>
@@ -22331,13 +22334,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22368,7 +22371,7 @@
       <c r="C21" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="91"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -22380,10 +22383,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="119"/>
+      <c r="D22" s="120"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -22426,10 +22429,10 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="81"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
@@ -22445,10 +22448,10 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="79" t="s">
+      <c r="A30" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
@@ -22482,16 +22485,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="121"/>
-      <c r="C34" s="122"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
+      <c r="A35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -22540,10 +22543,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="80"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="81"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
@@ -22579,11 +22582,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="83"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="129"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -22625,11 +22628,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="79" t="s">
+      <c r="A50" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="83"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="129"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -22653,11 +22656,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="118"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -22681,11 +22684,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="129" t="s">
+      <c r="A56" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="115"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="86"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -22729,11 +22732,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="92" t="s">
+      <c r="A61" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="93"/>
-      <c r="C61" s="94"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -22800,11 +22803,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="136"/>
-      <c r="C68" s="94"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -22812,8 +22815,8 @@
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="50">
-        <f>'April 2024 - June 2024'!C70-'April 2024 - June 2024'!E94</f>
-        <v>9739</v>
+        <f>'January 2025 - March 2025'!C69</f>
+        <v>9939</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -22841,7 +22844,7 @@
       </c>
       <c r="C72" s="50">
         <f>SUM(C69:C71)</f>
-        <v>14739</v>
+        <v>14939</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
@@ -22864,78 +22867,78 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
       <c r="E76" s="81"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="87" t="s">
+      <c r="B77" s="118"/>
+      <c r="C77" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="91"/>
+      <c r="D77" s="118"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="144" t="s">
+      <c r="A78" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="102"/>
-      <c r="C78" s="142" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="143"/>
+      <c r="D78" s="142"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="107"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="85"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="131"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="130" t="s">
+      <c r="C80" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="80"/>
+      <c r="D80" s="109"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>285.96999999999935</v>
+        <v>385.96999999999935</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
+      <c r="B82" s="109"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="109"/>
       <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="86" t="s">
+      <c r="A83" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="81"/>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="81"/>
@@ -22944,36 +22947,36 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="134" t="s">
+      <c r="A84" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="112"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="141"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="126"/>
+      <c r="D84" s="149"/>
       <c r="E84" s="38">
         <f>E80</f>
-        <v>285.96999999999935</v>
+        <v>385.96999999999935</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="134" t="s">
+      <c r="A85" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="99" t="s">
+      <c r="B85" s="93"/>
+      <c r="C85" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="140"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="53">
-        <v>1339</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="134" t="s">
+      <c r="A86" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="112"/>
-      <c r="C86" s="95"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="90"/>
       <c r="D86" s="81"/>
       <c r="E86" s="67">
         <f>C73</f>
@@ -22981,13 +22984,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="98" t="s">
+      <c r="C87" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D87" s="81"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>94.969999999999345</v>
+        <v>233.96999999999935</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
@@ -23005,20 +23008,20 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="135" t="s">
+      <c r="A90" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="114"/>
-      <c r="C90" s="114"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="115"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="86" t="s">
+      <c r="A91" s="92" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="81"/>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="92" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="81"/>
@@ -23027,34 +23030,36 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="134" t="s">
+      <c r="A92" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="112"/>
-      <c r="C92" s="95"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="81"/>
       <c r="E92" s="38">
         <f>E87</f>
-        <v>94.969999999999345</v>
+        <v>233.96999999999935</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="134" t="s">
+      <c r="A93" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="138"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="100"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="99"/>
       <c r="E93" s="53">
-        <v>0</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="134" t="s">
+      <c r="A94" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="112"/>
-      <c r="C94" s="95"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="81"/>
       <c r="E94" s="67">
         <f>C73</f>
@@ -23062,13 +23067,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="98" t="s">
+      <c r="C95" s="80" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="81"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>1242.9699999999993</v>
+        <v>-57.030000000000655</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -26725,34 +26730,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A34:C35"/>
@@ -26761,18 +26750,34 @@
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EF225-5EEA-4248-A9B4-C0B77C7D2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCCB4F-E309-4D54-95EC-231FB54B1A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="154">
   <si>
     <t>Assets</t>
   </si>
@@ -571,6 +571,9 @@
       <t>LAST PAYMENT</t>
     </r>
   </si>
+  <si>
+    <t>All amount in terms of Hundred Million</t>
+  </si>
 </sst>
 </file>
 
@@ -584,7 +587,7 @@
     <numFmt numFmtId="167" formatCode="[$$-3C09]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$$-380A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,8 +782,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +843,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1451,131 +1468,68 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1590,49 +1544,118 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1652,14 +1675,11 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2317,10 +2337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1010"/>
+  <dimension ref="A1:Y1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2336,97 +2356,44 @@
     <col min="10" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:25" ht="15" customHeight="1">
+      <c r="A1" s="150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A3" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="5">
-        <v>100.47</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="C5" s="5">
-        <v>9</v>
+        <v>0.47</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2453,8 +2420,8 @@
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="36" t="s">
-        <v>40</v>
+      <c r="B6" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -2484,11 +2451,11 @@
     </row>
     <row r="7" spans="1:25" ht="35.25" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="36" t="s">
-        <v>49</v>
+      <c r="B7" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C7" s="5">
-        <v>30.2</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2515,12 +2482,11 @@
     </row>
     <row r="8" spans="1:25" ht="35.25" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="65" t="s">
-        <v>59</v>
+      <c r="B8" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="5">
-        <f>SUM(C3:C7)</f>
-        <v>149.16999999999999</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2545,14 +2511,13 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="58">
-        <f>E97-(C73-SUM(E86,E95))</f>
-        <v>-12845.83</v>
+    <row r="9" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30.2</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2577,12 +2542,17 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+    <row r="10" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="5">
+        <f>SUM(C5:C9)</f>
+        <v>41.67</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2604,914 +2574,965 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="58">
+        <f>E99-(C75-SUM(E88,E97))</f>
+        <v>-12953.33</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A14" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-    </row>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="100"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C15" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="17" t="s">
+      <c r="D15" s="82"/>
+      <c r="E15" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C16" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="18">
+      <c r="D16" s="120"/>
+      <c r="E16" s="18">
         <v>2405</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="12" t="s">
+    <row r="17" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="49">
-        <f>SUM(E14:E14)</f>
+      <c r="E17" s="49">
+        <f>SUM(E16:E16)</f>
         <v>2405</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="116" t="s">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A19" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-    </row>
-    <row r="18" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A18" s="73" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="100"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+    </row>
+    <row r="20" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A20" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B20" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C20" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="75" t="s">
+      <c r="D20" s="92"/>
+      <c r="E20" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A19" s="33" t="s">
+    <row r="21" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A21" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C21" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="68">
+      <c r="D21" s="126"/>
+      <c r="E21" s="68">
         <v>2405</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48" t="s">
+    <row r="22" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="49">
-        <f>E19</f>
+      <c r="E22" s="49">
+        <f>E21</f>
         <v>2405</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A22" s="116" t="s">
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A24" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-    </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="100"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+    </row>
+    <row r="25" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C25" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="81"/>
-      <c r="E23" s="17" t="s">
+      <c r="D25" s="82"/>
+      <c r="E25" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A24" s="2" t="s">
+    <row r="26" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C26" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="19">
+      <c r="D26" s="82"/>
+      <c r="E26" s="19">
         <v>2405</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A25" s="33" t="s">
+    <row r="27" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A27" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B27" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C27" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="68">
+      <c r="D27" s="134"/>
+      <c r="E27" s="68">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="49">
-        <f>SUM(E24:E25)</f>
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-    </row>
-    <row r="29" spans="1:25" ht="13.5" customHeight="1">
+      <c r="D28" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="49">
+        <f>SUM(E26:E27)</f>
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="13.15" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A32" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="81"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="20" t="s">
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A33" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C33" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="110" t="s">
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A34" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="109"/>
-      <c r="C32" s="81"/>
-    </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="26" t="s">
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A35" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="19">
+      <c r="B35" s="2"/>
+      <c r="C35" s="19">
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="27" t="s">
+    <row r="36" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B36" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C36" s="28">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="26" t="s">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="30">
-        <f>SUM(C33:C34)</f>
+      <c r="C37" s="30">
+        <f>SUM(C35:C36)</f>
         <v>401</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="102" t="s">
+    <row r="38" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A38" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="104"/>
-    </row>
-    <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="107"/>
-    </row>
-    <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="128"/>
+      <c r="C38" s="129"/>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A39" s="130"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="131"/>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="18">
+      <c r="B40" s="2"/>
+      <c r="C40" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="10">
-        <f>SUM(C38:C41)</f>
+      <c r="C44" s="10">
+        <f>SUM(C40:C43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="110" t="s">
+    <row r="45" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A45" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="109"/>
-      <c r="C43" s="81"/>
-    </row>
-    <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C46" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C47" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="26" t="s">
+    <row r="48" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="19">
-        <f>SUM(C44:C45)</f>
+      <c r="C48" s="19">
+        <f>SUM(C46:C47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="110" t="s">
+    <row r="49" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A49" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="128"/>
-      <c r="C47" s="129"/>
-    </row>
-    <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B49" s="83"/>
+      <c r="C49" s="84"/>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="32">
+      <c r="C50" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="27"/>
+      <c r="B53" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="32">
-        <f>SUM(C48:C50)</f>
+      <c r="C53" s="32">
+        <f>SUM(C50:C52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="110" t="s">
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="128"/>
-      <c r="C52" s="129"/>
-    </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="B54" s="83"/>
+      <c r="C54" s="84"/>
+    </row>
+    <row r="55" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C55" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="27"/>
-      <c r="B54" s="31" t="s">
+    <row r="56" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A56" s="27"/>
+      <c r="B56" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="32">
-        <f>SUM(C53)</f>
+      <c r="C56" s="32">
+        <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="134" t="s">
+    <row r="57" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A57" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="135"/>
-      <c r="C55" s="118"/>
-    </row>
-    <row r="56" spans="1:3" ht="33" customHeight="1">
-      <c r="A56" s="33" t="s">
+      <c r="B57" s="91"/>
+      <c r="C57" s="92"/>
+    </row>
+    <row r="58" spans="1:3" ht="33" customHeight="1">
+      <c r="A58" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B58" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C58" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34" t="s">
+    <row r="59" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="35">
-        <f>SUM(C56)</f>
+      <c r="C59" s="35">
+        <f>SUM(C58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="139" t="s">
+    <row r="60" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A60" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="106"/>
-      <c r="C58" s="86"/>
-    </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="27" t="s">
+      <c r="B60" s="99"/>
+      <c r="C60" s="100"/>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
-      <c r="A60" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="B61" s="27"/>
       <c r="C61" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34" t="s">
+    <row r="62" spans="1:3" ht="15" customHeight="1">
+      <c r="A62" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="35">
-        <f>SUM(C59:C61)</f>
+      <c r="C64" s="35">
+        <f>SUM(C61:C63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="87" t="s">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="136"/>
-      <c r="C63" s="89"/>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="59" t="s">
+      <c r="B65" s="94"/>
+      <c r="C65" s="95"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B66" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="61">
+      <c r="C66" s="61">
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="60" t="s">
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B67" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="62">
+      <c r="C67" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="31" t="s">
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B68" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C68" s="32">
         <v>760</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="39" t="s">
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="29"/>
+      <c r="B69" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="40">
-        <f>SUM(C64:C66)</f>
+      <c r="C69" s="40">
+        <f>SUM(C66:C68)</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="55" t="s">
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="29"/>
+      <c r="B70" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="40">
-        <f>C35+C42+C46+C51+C54+C57+C62+C67</f>
+      <c r="C70" s="40">
+        <f>C37+C44+C48+C53+C56+C59+C64+C69</f>
         <v>1461</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="87" t="s">
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="89"/>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="43" t="s">
+      <c r="B71" s="137"/>
+      <c r="C71" s="95"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A72" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="50">
+      <c r="B72" s="39"/>
+      <c r="C72" s="50">
         <v>9939</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="72" t="s">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="50">
+      <c r="B73" s="39"/>
+      <c r="C73" s="50">
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="66" t="s">
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="50">
+      <c r="B74" s="56"/>
+      <c r="C74" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="57" t="s">
+    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A75" s="29"/>
+      <c r="B75" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="50">
-        <f>SUM(C70:C72)</f>
+      <c r="C75" s="50">
+        <f>SUM(C72:C74)</f>
         <v>14939</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="41" t="s">
+    <row r="76" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A76" s="33"/>
+      <c r="B76" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="42">
-        <f>C68</f>
+      <c r="C76" s="42">
+        <f>C70</f>
         <v>1461</v>
       </c>
-      <c r="H74" s="37"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="137"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="137"/>
-      <c r="E77" s="138"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="132" t="s">
+      <c r="B79" s="96"/>
+      <c r="C79" s="96"/>
+      <c r="D79" s="96"/>
+      <c r="E79" s="97"/>
+    </row>
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="133"/>
-      <c r="C78" s="132" t="s">
+      <c r="B80" s="89"/>
+      <c r="C80" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="133"/>
-      <c r="E78" s="44" t="s">
+      <c r="D80" s="89"/>
+      <c r="E80" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="122" t="s">
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="123"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="45">
-        <f>C74</f>
+      <c r="B81" s="102"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="86"/>
+      <c r="E81" s="45">
+        <f>C76</f>
         <v>1461</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="124" t="s">
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C82" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="125"/>
-      <c r="E80" s="38">
+      <c r="D82" s="104"/>
+      <c r="E82" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
+    <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="81"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="B84" s="81"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="82"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B85" s="82"/>
+      <c r="C85" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="23" t="s">
+      <c r="D85" s="82"/>
+      <c r="E85" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="93"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="38">
-        <f>E80</f>
+      <c r="B86" s="139"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="38">
+        <f>E82</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="94" t="s">
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="95"/>
-      <c r="C85" s="98" t="s">
+      <c r="B87" s="112"/>
+      <c r="C87" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="99"/>
-      <c r="E85" s="53">
+      <c r="D87" s="110"/>
+      <c r="E87" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="96"/>
-      <c r="B86" s="97"/>
-      <c r="C86" s="98" t="s">
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="113"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="D86" s="121"/>
-      <c r="E86" s="53">
+      <c r="D88" s="115"/>
+      <c r="E88" s="53">
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="82" t="s">
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="83"/>
-      <c r="C87" s="126" t="s">
+      <c r="B89" s="120"/>
+      <c r="C89" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="D87" s="127"/>
-      <c r="E87" s="67">
-        <f>C74</f>
+      <c r="D89" s="107"/>
+      <c r="E89" s="67">
+        <f>C76</f>
         <v>1461</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="80" t="s">
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C90" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="81"/>
-      <c r="E88" s="38">
-        <f>SUM(C3:C7)</f>
-        <v>149.16999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="38">
+        <f>SUM(C5:C9)</f>
+        <v>41.67</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="84" t="s">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="86"/>
-    </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="92" t="s">
+      <c r="B93" s="122"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="100"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B92" s="81"/>
-      <c r="C92" s="92" t="s">
+      <c r="B94" s="82"/>
+      <c r="C94" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="81"/>
-      <c r="E92" s="23" t="s">
+      <c r="D94" s="82"/>
+      <c r="E94" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="38">
-        <f>E88</f>
-        <v>149.16999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="94" t="s">
+      <c r="B95" s="120"/>
+      <c r="C95" s="105"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="38">
+        <f>E90</f>
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="95"/>
-      <c r="C94" s="98" t="s">
+      <c r="B96" s="112"/>
+      <c r="C96" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="99"/>
-      <c r="E94" s="53">
+      <c r="D96" s="110"/>
+      <c r="E96" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="96"/>
-      <c r="B95" s="97"/>
-      <c r="C95" s="98" t="s">
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A97" s="113"/>
+      <c r="B97" s="114"/>
+      <c r="C97" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="121"/>
-      <c r="E95" s="53">
+      <c r="D97" s="115"/>
+      <c r="E97" s="53">
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="82" t="s">
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="83"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="24">
-        <f>C74</f>
+      <c r="B98" s="120"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="24">
+        <f>C76</f>
         <v>1461</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="80" t="s">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C99" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="81"/>
-      <c r="E97" s="53">
-        <f>(E26+E93)-SUM(E94:E96)</f>
-        <v>93.170000000000073</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="53">
+        <f>(E28+E95)-SUM(E96:E98)</f>
+        <v>-14.329999999999927</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
       <c r="A100" s="11"/>
@@ -7157,65 +7178,74 @@
       <c r="A1010" s="11"/>
       <c r="B1010" s="11"/>
     </row>
+    <row r="1011" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1011" s="11"/>
+      <c r="B1011" s="11"/>
+    </row>
+    <row r="1012" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1012" s="11"/>
+      <c r="B1012" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A79:B79"/>
+  <mergeCells count="50">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A96:B97"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A84:E84"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C82:D82"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="C9">
+  <conditionalFormatting sqref="C11">
     <cfRule type="cellIs" dxfId="58" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" dxfId="57" priority="26" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7223,7 +7253,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="55" priority="22" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7231,7 +7261,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="53" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7239,7 +7269,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="E95">
     <cfRule type="cellIs" dxfId="51" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7247,7 +7277,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E99">
     <cfRule type="cellIs" dxfId="49" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7282,13 +7312,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7309,8 +7339,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'April 2024 - June 2024'!E97</f>
-        <v>93.170000000000073</v>
+        <f>'April 2024 - June 2024'!E99</f>
+        <v>-14.329999999999927</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7372,7 +7402,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="5">
-        <f>'April 2024 - June 2024'!C7</f>
+        <f>'April 2024 - June 2024'!C9</f>
         <v>30.2</v>
       </c>
       <c r="D5" s="6"/>
@@ -7405,7 +7435,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>123.37000000000008</v>
+        <v>15.870000000000072</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7436,8 +7466,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('April 2024 - June 2024'!C9+E99)+SUM(E80,E88,E97)</f>
-        <v>-9686.4599999999991</v>
+        <f>('April 2024 - June 2024'!C11+E99)+SUM(E80,E88,E97)</f>
+        <v>-9901.4599999999991</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7491,13 +7521,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="121" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="100"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7525,10 +7555,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -7540,10 +7570,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7565,13 +7595,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="100"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7599,10 +7629,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -7614,10 +7644,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7642,13 +7672,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="100"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7676,10 +7706,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="118"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -7691,10 +7721,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="120"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -7704,8 +7734,8 @@
       <c r="B23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="119"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
       <c r="E23" s="68">
         <v>204</v>
       </c>
@@ -7748,11 +7778,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="109"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -7767,11 +7797,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="109"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="26" t="s">
@@ -7804,16 +7834,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="129"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="107"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="131"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -7862,11 +7892,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="110" t="s">
+      <c r="A42" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -7901,11 +7931,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="128"/>
-      <c r="C46" s="129"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="84"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -7947,11 +7977,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="128"/>
-      <c r="C51" s="129"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -7975,11 +8005,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="134" t="s">
+      <c r="A54" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="135"/>
-      <c r="C54" s="118"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="92"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="33" t="s">
@@ -8003,11 +8033,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="139" t="s">
+      <c r="A57" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="106"/>
-      <c r="C57" s="86"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="100"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="27" t="s">
@@ -8051,11 +8081,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="87" t="s">
+      <c r="A62" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="136"/>
-      <c r="C62" s="89"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="95"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="59" t="s">
@@ -8122,11 +8152,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="89"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="95"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="43" t="s">
@@ -8134,7 +8164,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
-        <f>'April 2024 - June 2024'!C70</f>
+        <f>'April 2024 - June 2024'!C72</f>
         <v>9939</v>
       </c>
     </row>
@@ -8186,152 +8216,152 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="109"/>
-      <c r="C77" s="109"/>
-      <c r="D77" s="109"/>
-      <c r="E77" s="81"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="82"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="132" t="s">
+      <c r="A78" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="118"/>
-      <c r="C78" s="132" t="s">
+      <c r="B78" s="92"/>
+      <c r="C78" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="118"/>
+      <c r="D78" s="92"/>
       <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="143" t="s">
+      <c r="A79" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="143"/>
-      <c r="C79" s="141" t="s">
+      <c r="B79" s="145"/>
+      <c r="C79" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="142"/>
+      <c r="D79" s="144"/>
       <c r="E79" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="144"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="145" t="s">
+      <c r="A80" s="146"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="146"/>
+      <c r="D80" s="148"/>
       <c r="E80" s="53">
         <v>850</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="122" t="s">
+      <c r="A81" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="123"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="131"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="86"/>
       <c r="E81" s="45">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="124" t="s">
+      <c r="C82" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="109"/>
+      <c r="D82" s="81"/>
       <c r="E82" s="38">
         <f>(C6+E13)-SUM(E79:E81)</f>
-        <v>217.36999999999989</v>
+        <v>109.86999999999989</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="109"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="81"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="82"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="92" t="s">
+      <c r="A85" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="92" t="s">
+      <c r="B85" s="82"/>
+      <c r="C85" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="81"/>
+      <c r="D85" s="82"/>
       <c r="E85" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="149"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="106"/>
+      <c r="D86" s="142"/>
       <c r="E86" s="38">
         <f>E82</f>
-        <v>217.36999999999989</v>
+        <v>109.86999999999989</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="94" t="s">
+      <c r="A87" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="126" t="s">
+      <c r="B87" s="112"/>
+      <c r="C87" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="148"/>
+      <c r="D87" s="141"/>
       <c r="E87" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="96"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="98" t="s">
+      <c r="A88" s="113"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="147"/>
+      <c r="D88" s="140"/>
       <c r="E88" s="53">
         <v>850</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="82" t="s">
+      <c r="A89" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="83"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="81"/>
+      <c r="B89" s="120"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="82"/>
       <c r="E89" s="67">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="81"/>
+      <c r="D90" s="82"/>
       <c r="E90" s="38">
         <f>(E18+E86)-SUM(E87:E89)</f>
-        <v>311.36999999999989</v>
+        <v>203.86999999999989</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
@@ -8349,48 +8379,48 @@
       <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="84" t="s">
+      <c r="A93" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="86"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="122"/>
+      <c r="D93" s="122"/>
+      <c r="E93" s="100"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="92" t="s">
+      <c r="A94" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="81"/>
-      <c r="C94" s="92" t="s">
+      <c r="B94" s="82"/>
+      <c r="C94" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="81"/>
+      <c r="D94" s="82"/>
       <c r="E94" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="82" t="s">
+      <c r="A95" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="83"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="81"/>
+      <c r="B95" s="120"/>
+      <c r="C95" s="105"/>
+      <c r="D95" s="82"/>
       <c r="E95" s="38">
         <f>E90</f>
-        <v>311.36999999999989</v>
+        <v>203.86999999999989</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="82" t="s">
+      <c r="A96" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="93"/>
-      <c r="C96" s="98" t="s">
+      <c r="B96" s="139"/>
+      <c r="C96" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="99"/>
+      <c r="D96" s="110"/>
       <c r="E96" s="53">
         <v>0</v>
       </c>
@@ -8398,34 +8428,34 @@
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
       <c r="A97" s="77"/>
       <c r="B97" s="78"/>
-      <c r="C97" s="98" t="s">
+      <c r="C97" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="147"/>
+      <c r="D97" s="140"/>
       <c r="E97" s="53">
         <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="82" t="s">
+      <c r="A98" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="81"/>
+      <c r="B98" s="120"/>
+      <c r="C98" s="105"/>
+      <c r="D98" s="82"/>
       <c r="E98" s="67">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="80" t="s">
+      <c r="C99" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="81"/>
+      <c r="D99" s="82"/>
       <c r="E99" s="53">
         <f>(E24+E95)-SUM(E96:E98)</f>
-        <v>659.36999999999989</v>
+        <v>551.86999999999989</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
@@ -12082,42 +12112,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A62:C62"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:E1"/>
@@ -12134,6 +12128,42 @@
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="C78:D78"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -12212,13 +12242,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12240,7 +12270,7 @@
       </c>
       <c r="C3" s="5">
         <f>'July 2024 - September 2024'!E99</f>
-        <v>659.36999999999989</v>
+        <v>551.86999999999989</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12335,7 +12365,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>689.56999999999994</v>
+        <v>582.06999999999994</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -12367,7 +12397,7 @@
       </c>
       <c r="C7" s="58">
         <f>('July 2024 - September 2024'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>-5552.8899999999994</v>
+        <v>-5875.3899999999994</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -12421,13 +12451,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="100"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12455,10 +12485,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -12470,10 +12500,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12495,13 +12525,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="100"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12529,10 +12559,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -12544,10 +12574,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12572,13 +12602,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="100"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12606,10 +12636,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="118"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -12621,10 +12651,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="120"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -12667,11 +12697,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -12686,11 +12716,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -12723,16 +12753,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="104"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -12781,11 +12811,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -12820,11 +12850,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="129"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="84"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -12866,11 +12896,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="128"/>
-      <c r="C50" s="129"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -12894,11 +12924,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="135"/>
-      <c r="C53" s="118"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -12922,11 +12952,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="139" t="s">
+      <c r="A56" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="86"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="100"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -12970,11 +13000,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="136"/>
-      <c r="C61" s="89"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -13041,11 +13071,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="95"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -13105,130 +13135,130 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="81"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="118"/>
-      <c r="C77" s="132" t="s">
+      <c r="B77" s="92"/>
+      <c r="C77" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="118"/>
+      <c r="D77" s="92"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="143" t="s">
+      <c r="A78" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="141" t="s">
+      <c r="B78" s="112"/>
+      <c r="C78" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="142"/>
+      <c r="D78" s="144"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="122" t="s">
+      <c r="A79" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="123"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="131"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="124" t="s">
+      <c r="C80" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="109"/>
+      <c r="D80" s="81"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>637.56999999999971</v>
+        <v>530.06999999999971</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="81"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="82"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B83" s="82"/>
+      <c r="C83" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="126"/>
-      <c r="D84" s="149"/>
+      <c r="B84" s="120"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="142"/>
       <c r="E84" s="38">
         <f>E80</f>
-        <v>637.56999999999971</v>
+        <v>530.06999999999971</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="98" t="s">
+      <c r="B85" s="139"/>
+      <c r="C85" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="148"/>
+      <c r="D85" s="141"/>
       <c r="E85" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="81"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="82"/>
       <c r="E86" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="81"/>
+      <c r="D87" s="82"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>585.56999999999971</v>
+        <v>478.06999999999971</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
@@ -13246,72 +13276,72 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="86"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="122"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="100"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="92" t="s">
+      <c r="B91" s="82"/>
+      <c r="C91" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="81"/>
+      <c r="D91" s="82"/>
       <c r="E91" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="81"/>
+      <c r="B92" s="120"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="82"/>
       <c r="E92" s="38">
         <f>E87</f>
-        <v>585.56999999999971</v>
+        <v>478.06999999999971</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="98" t="s">
+      <c r="B93" s="139"/>
+      <c r="C93" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="99"/>
+      <c r="D93" s="110"/>
       <c r="E93" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="81"/>
+      <c r="B94" s="120"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="82"/>
       <c r="E94" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="81"/>
+      <c r="D95" s="82"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>533.56999999999971</v>
+        <v>426.06999999999971</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -16968,11 +16998,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C87:D87"/>
@@ -16986,36 +17041,11 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -17093,13 +17123,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17121,7 +17151,7 @@
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E95</f>
-        <v>533.56999999999971</v>
+        <v>426.06999999999971</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17216,7 +17246,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>563.76999999999975</v>
+        <v>456.2699999999997</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17248,7 +17278,7 @@
       </c>
       <c r="C7" s="58">
         <f>('October 2024 - December 2024'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>-1545.12</v>
+        <v>-1975.12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -17302,13 +17332,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="100"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17336,10 +17366,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -17351,10 +17381,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17376,13 +17406,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="121" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="100"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17410,10 +17440,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -17425,10 +17455,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17453,13 +17483,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="121" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="100"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17487,10 +17517,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="118"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -17502,10 +17532,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="120"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -17548,11 +17578,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -17567,11 +17597,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -17604,16 +17634,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="104"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -17662,11 +17692,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -17701,11 +17731,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="129"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="84"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -17747,11 +17777,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="128"/>
-      <c r="C50" s="129"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -17775,11 +17805,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="135"/>
-      <c r="C53" s="118"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -17803,11 +17833,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="139" t="s">
+      <c r="A56" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="86"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="100"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -17851,11 +17881,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="136"/>
-      <c r="C61" s="89"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -17922,11 +17952,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="95"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -17986,130 +18016,130 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="81"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="118"/>
-      <c r="C77" s="132" t="s">
+      <c r="B77" s="92"/>
+      <c r="C77" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="118"/>
+      <c r="D77" s="92"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="143" t="s">
+      <c r="A78" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="141" t="s">
+      <c r="B78" s="112"/>
+      <c r="C78" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="142"/>
+      <c r="D78" s="144"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="122" t="s">
+      <c r="A79" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="123"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="131"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="124" t="s">
+      <c r="C80" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="109"/>
+      <c r="D80" s="81"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>511.76999999999953</v>
+        <v>404.26999999999953</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="81"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="82"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B83" s="82"/>
+      <c r="C83" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="126"/>
-      <c r="D84" s="149"/>
+      <c r="B84" s="120"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="142"/>
       <c r="E84" s="38">
         <f>E80</f>
-        <v>511.76999999999953</v>
+        <v>404.26999999999953</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="98" t="s">
+      <c r="B85" s="139"/>
+      <c r="C85" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="148"/>
+      <c r="D85" s="141"/>
       <c r="E85" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="81"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="82"/>
       <c r="E86" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="81"/>
+      <c r="D87" s="82"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>459.76999999999953</v>
+        <v>352.26999999999953</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
@@ -18127,72 +18157,72 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="86"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="122"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="100"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="92" t="s">
+      <c r="B91" s="82"/>
+      <c r="C91" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="81"/>
+      <c r="D91" s="82"/>
       <c r="E91" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="81"/>
+      <c r="B92" s="120"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="82"/>
       <c r="E92" s="38">
         <f>E87</f>
-        <v>459.76999999999953</v>
+        <v>352.26999999999953</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="98" t="s">
+      <c r="B93" s="139"/>
+      <c r="C93" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="99"/>
+      <c r="D93" s="110"/>
       <c r="E93" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="81"/>
+      <c r="B94" s="120"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="82"/>
       <c r="E94" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="81"/>
+      <c r="D95" s="82"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>407.76999999999953</v>
+        <v>300.26999999999953</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -21849,18 +21879,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A34:C35"/>
@@ -21874,29 +21915,18 @@
     <mergeCell ref="A76:E76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -21956,8 +21986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -21974,13 +22004,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="116" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22002,7 +22032,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E95</f>
-        <v>407.76999999999953</v>
+        <v>300.26999999999953</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22097,7 +22127,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>437.96999999999952</v>
+        <v>330.46999999999952</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22129,7 +22159,7 @@
       </c>
       <c r="C7" s="58">
         <f>('January 2025 - March 2025'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>2336.8499999999995</v>
+        <v>1799.3499999999995</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -22183,13 +22213,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="100"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22217,10 +22247,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -22232,10 +22262,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="120"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22257,13 +22287,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="121" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="100"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22291,10 +22321,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -22306,10 +22336,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22334,13 +22364,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="121" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="100"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22368,10 +22398,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="118"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -22383,10 +22413,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="120"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -22429,11 +22459,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="109"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22448,11 +22478,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="110" t="s">
+      <c r="A30" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="109"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -22485,16 +22515,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="104"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -22543,11 +22573,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -22582,11 +22612,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="128"/>
-      <c r="C45" s="129"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="84"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -22628,11 +22658,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="128"/>
-      <c r="C50" s="129"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -22656,11 +22686,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="135"/>
-      <c r="C53" s="118"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -22684,11 +22714,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="139" t="s">
+      <c r="A56" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="106"/>
-      <c r="C56" s="86"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="100"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -22732,11 +22762,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="87" t="s">
+      <c r="A61" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="136"/>
-      <c r="C61" s="89"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -22803,11 +22833,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="95"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -22867,130 +22897,130 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="81"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="132" t="s">
+      <c r="A77" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="118"/>
-      <c r="C77" s="132" t="s">
+      <c r="B77" s="92"/>
+      <c r="C77" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="118"/>
+      <c r="D77" s="92"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="143" t="s">
+      <c r="A78" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="141" t="s">
+      <c r="B78" s="112"/>
+      <c r="C78" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="142"/>
+      <c r="D78" s="144"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="122" t="s">
+      <c r="A79" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="123"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="131"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="86"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="124" t="s">
+      <c r="C80" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="109"/>
+      <c r="D80" s="81"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>385.96999999999935</v>
+        <v>278.46999999999935</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="81"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="82"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B83" s="82"/>
+      <c r="C83" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
+      <c r="D83" s="82"/>
       <c r="E83" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
+      <c r="A84" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="126"/>
-      <c r="D84" s="149"/>
+      <c r="B84" s="120"/>
+      <c r="C84" s="106"/>
+      <c r="D84" s="142"/>
       <c r="E84" s="38">
         <f>E80</f>
-        <v>385.96999999999935</v>
+        <v>278.46999999999935</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="98" t="s">
+      <c r="B85" s="139"/>
+      <c r="C85" s="109" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="148"/>
+      <c r="D85" s="141"/>
       <c r="E85" s="53">
         <v>1300</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+      <c r="A86" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="81"/>
+      <c r="B86" s="120"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="82"/>
       <c r="E86" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="81"/>
+      <c r="D87" s="82"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>233.96999999999935</v>
+        <v>126.46999999999935</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
@@ -23008,72 +23038,72 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="84" t="s">
+      <c r="A90" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="86"/>
+      <c r="B90" s="122"/>
+      <c r="C90" s="122"/>
+      <c r="D90" s="122"/>
+      <c r="E90" s="100"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="92" t="s">
+      <c r="B91" s="82"/>
+      <c r="C91" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="81"/>
+      <c r="D91" s="82"/>
       <c r="E91" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="82" t="s">
+      <c r="A92" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="81"/>
+      <c r="B92" s="120"/>
+      <c r="C92" s="105"/>
+      <c r="D92" s="82"/>
       <c r="E92" s="38">
         <f>E87</f>
-        <v>233.96999999999935</v>
+        <v>126.46999999999935</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="98" t="s">
+      <c r="B93" s="139"/>
+      <c r="C93" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="D93" s="99"/>
+      <c r="D93" s="110"/>
       <c r="E93" s="53">
         <v>1439</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="82" t="s">
+      <c r="A94" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="81"/>
+      <c r="B94" s="120"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="82"/>
       <c r="E94" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="81"/>
+      <c r="D95" s="82"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>-57.030000000000655</v>
+        <v>-164.53000000000065</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -26730,18 +26760,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A34:C35"/>
@@ -26755,29 +26796,18 @@
     <mergeCell ref="A76:E76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCCB4F-E309-4D54-95EC-231FB54B1A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091FB94E-A29B-441B-960F-3DEFBE46966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="October 2024 - December 2024" sheetId="3" r:id="rId3"/>
     <sheet name="January 2025 - March 2025" sheetId="4" r:id="rId4"/>
     <sheet name="April 2025 - June 2025" sheetId="5" r:id="rId5"/>
+    <sheet name="July 2025 - September 2025" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,14 +32,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miw8YORLM0X7wgYWvV1rSQRho1R8Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miw8YORLM0X7wgYWvV1rSQRho1R8Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="167">
   <si>
     <t>Assets</t>
   </si>
@@ -573,6 +574,45 @@
   </si>
   <si>
     <t>All amount in terms of Hundred Million</t>
+  </si>
+  <si>
+    <t>July 2025 Revenue / Defered Debts Or Expenses</t>
+  </si>
+  <si>
+    <t>20th July 2025</t>
+  </si>
+  <si>
+    <t>Debts Or Credits For the Comming July 2025</t>
+  </si>
+  <si>
+    <t>Balance Brought Forward From July 2025</t>
+  </si>
+  <si>
+    <t>Alan Tang's Income Expense For the Forecast Year 2025 July - 2025 September</t>
+  </si>
+  <si>
+    <t>September 2025 Revenue / Defered Debts Or Expenses</t>
+  </si>
+  <si>
+    <t>20th September 2025</t>
+  </si>
+  <si>
+    <t>Fixed Expense For the Year 2025 July - 2025 September</t>
+  </si>
+  <si>
+    <t>Debts Or Credits For the Comming September 2025</t>
+  </si>
+  <si>
+    <t>August 2025 Revenue / Defered Debts Or Expenses</t>
+  </si>
+  <si>
+    <t>20th August 2025</t>
+  </si>
+  <si>
+    <t>Debts Or Credits For the Coming August 2025</t>
+  </si>
+  <si>
+    <t>Balance Brought Forward From August 2025</t>
   </si>
 </sst>
 </file>
@@ -1468,29 +1508,14 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1515,6 +1540,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1542,39 +1576,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1609,6 +1610,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1632,6 +1639,42 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1678,14 +1721,101 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="71">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2357,22 +2487,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" customHeight="1">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
     </row>
     <row r="3" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A3" s="116" t="s">
+      <c r="A3" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2635,13 +2765,13 @@
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="100"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="98"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -2669,7 +2799,7 @@
       <c r="B15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="82"/>
@@ -2684,10 +2814,10 @@
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="120"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="18">
         <v>2405</v>
       </c>
@@ -2709,13 +2839,13 @@
       <c r="B18" s="11"/>
     </row>
     <row r="19" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="122"/>
-      <c r="C19" s="122"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="98"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -2743,10 +2873,10 @@
       <c r="B20" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="92"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="75" t="s">
         <v>5</v>
       </c>
@@ -2758,10 +2888,10 @@
       <c r="B21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="126"/>
+      <c r="D21" s="113"/>
       <c r="E21" s="68">
         <v>2405</v>
       </c>
@@ -2786,13 +2916,13 @@
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A24" s="121" t="s">
+      <c r="A24" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="100"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="98"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -2820,7 +2950,7 @@
       <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="82"/>
@@ -2835,7 +2965,7 @@
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="106" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="82"/>
@@ -2850,10 +2980,10 @@
       <c r="B27" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="133" t="s">
+      <c r="C27" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="134"/>
+      <c r="D27" s="123"/>
       <c r="E27" s="68">
         <v>0</v>
       </c>
@@ -2889,7 +3019,7 @@
       <c r="B31" s="11"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="121" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="81"/>
@@ -2908,7 +3038,7 @@
       <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="81"/>
@@ -2945,16 +3075,16 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A38" s="127" t="s">
+      <c r="A38" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="129"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="118"/>
     </row>
     <row r="39" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A39" s="130"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="131"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="120"/>
     </row>
     <row r="40" spans="1:4" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3003,7 +3133,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="81"/>
@@ -3042,11 +3172,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="80" t="s">
+      <c r="A49" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="84"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="93"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3088,11 +3218,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="83"/>
-      <c r="C54" s="84"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="93"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3116,11 +3246,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="92"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="87"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="33" t="s">
@@ -3144,11 +3274,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="98" t="s">
+      <c r="A60" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="99"/>
-      <c r="C60" s="100"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="98"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="27" t="s">
@@ -3192,11 +3322,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="93" t="s">
+      <c r="A65" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="94"/>
-      <c r="C65" s="95"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="59" t="s">
@@ -3252,11 +3382,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="137"/>
-      <c r="C71" s="95"/>
+      <c r="B71" s="138"/>
+      <c r="C71" s="90"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="43" t="s">
@@ -3315,51 +3445,51 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="87" t="s">
+      <c r="A79" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B79" s="96"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="96"/>
-      <c r="E79" s="97"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="95"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="88" t="s">
+      <c r="A80" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="89"/>
-      <c r="C80" s="88" t="s">
+      <c r="B80" s="84"/>
+      <c r="C80" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="89"/>
+      <c r="D80" s="84"/>
       <c r="E80" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="102"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="86"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="134"/>
       <c r="E81" s="45">
         <f>C76</f>
         <v>1461</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="103" t="s">
+      <c r="C82" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="104"/>
+      <c r="D82" s="102"/>
       <c r="E82" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="80" t="s">
         <v>64</v>
       </c>
       <c r="B84" s="81"/>
@@ -3368,11 +3498,11 @@
       <c r="E84" s="82"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="87" t="s">
+      <c r="A85" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B85" s="82"/>
-      <c r="C85" s="87" t="s">
+      <c r="C85" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="82"/>
@@ -3381,34 +3511,34 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
+      <c r="A86" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="139"/>
-      <c r="C86" s="105"/>
-      <c r="D86" s="138"/>
+      <c r="B86" s="140"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="139"/>
       <c r="E86" s="38">
         <f>E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="111" t="s">
+      <c r="A87" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="112"/>
-      <c r="C87" s="109" t="s">
+      <c r="B87" s="130"/>
+      <c r="C87" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="110"/>
+      <c r="D87" s="128"/>
       <c r="E87" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="113"/>
-      <c r="B88" s="114"/>
-      <c r="C88" s="109" t="s">
+      <c r="A88" s="131"/>
+      <c r="B88" s="132"/>
+      <c r="C88" s="114" t="s">
         <v>92</v>
       </c>
       <c r="D88" s="115"/>
@@ -3417,21 +3547,21 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="135" t="s">
+      <c r="A89" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="120"/>
-      <c r="C89" s="106" t="s">
+      <c r="B89" s="107"/>
+      <c r="C89" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="D89" s="107"/>
+      <c r="D89" s="126"/>
       <c r="E89" s="67">
         <f>C76</f>
         <v>1461</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="108" t="s">
+      <c r="C90" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D90" s="82"/>
@@ -3455,20 +3585,20 @@
       <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="B93" s="122"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="122"/>
-      <c r="E93" s="100"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="98"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="87" t="s">
+      <c r="A94" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B94" s="82"/>
-      <c r="C94" s="87" t="s">
+      <c r="C94" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="82"/>
@@ -3477,11 +3607,11 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
+      <c r="A95" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="120"/>
-      <c r="C95" s="105"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="124"/>
       <c r="D95" s="82"/>
       <c r="E95" s="38">
         <f>E90</f>
@@ -3489,22 +3619,22 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="111" t="s">
+      <c r="A96" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="112"/>
-      <c r="C96" s="109" t="s">
+      <c r="B96" s="130"/>
+      <c r="C96" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="110"/>
+      <c r="D96" s="128"/>
       <c r="E96" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="113"/>
-      <c r="B97" s="114"/>
-      <c r="C97" s="109" t="s">
+      <c r="A97" s="131"/>
+      <c r="B97" s="132"/>
+      <c r="C97" s="114" t="s">
         <v>92</v>
       </c>
       <c r="D97" s="115"/>
@@ -3513,11 +3643,11 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="135" t="s">
+      <c r="A98" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="120"/>
-      <c r="C98" s="105"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="124"/>
       <c r="D98" s="82"/>
       <c r="E98" s="24">
         <f>C76</f>
@@ -3525,7 +3655,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="108" t="s">
+      <c r="C99" s="127" t="s">
         <v>30</v>
       </c>
       <c r="D99" s="82"/>
@@ -7211,14 +7341,6 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
@@ -7228,6 +7350,14 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="A57:C57"/>
@@ -7241,47 +7371,47 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="58" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="57" priority="26" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="69" priority="26" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="55" priority="22" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="67" priority="22" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="23" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="53" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="51" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="21" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="49" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7312,13 +7442,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7521,13 +7651,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="100"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7555,7 +7685,7 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="82"/>
@@ -7570,10 +7700,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="120"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7595,13 +7725,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="100"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7629,7 +7759,7 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="82"/>
@@ -7644,7 +7774,7 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="82"/>
@@ -7672,13 +7802,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7706,10 +7836,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -7721,10 +7851,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -7734,8 +7864,8 @@
       <c r="B23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="68">
         <v>204</v>
       </c>
@@ -7778,7 +7908,7 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="150" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="81"/>
@@ -7797,7 +7927,7 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="81"/>
@@ -7834,16 +7964,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="128"/>
-      <c r="C35" s="129"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="130"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="131"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="120"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -7892,7 +8022,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="80" t="s">
+      <c r="A42" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="81"/>
@@ -7931,11 +8061,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="80" t="s">
+      <c r="A46" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -7977,11 +8107,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -8005,11 +8135,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="90" t="s">
+      <c r="A54" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="92"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="33" t="s">
@@ -8033,11 +8163,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="98" t="s">
+      <c r="A57" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="99"/>
-      <c r="C57" s="100"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="98"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="27" t="s">
@@ -8081,11 +8211,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="93" t="s">
+      <c r="A62" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="94"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="59" t="s">
@@ -8152,11 +8282,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="93" t="s">
+      <c r="A69" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="137"/>
-      <c r="C69" s="95"/>
+      <c r="B69" s="138"/>
+      <c r="C69" s="90"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="43" t="s">
@@ -8216,7 +8346,7 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="87" t="s">
+      <c r="A77" s="80" t="s">
         <v>102</v>
       </c>
       <c r="B77" s="81"/>
@@ -8225,56 +8355,56 @@
       <c r="E77" s="82"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="88" t="s">
+      <c r="A78" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="92"/>
-      <c r="C78" s="88" t="s">
+      <c r="B78" s="87"/>
+      <c r="C78" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="92"/>
+      <c r="D78" s="87"/>
       <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="145" t="s">
+      <c r="A79" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="145"/>
-      <c r="C79" s="143" t="s">
+      <c r="B79" s="146"/>
+      <c r="C79" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="144"/>
+      <c r="D79" s="145"/>
       <c r="E79" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="146"/>
-      <c r="B80" s="146"/>
-      <c r="C80" s="147" t="s">
+      <c r="A80" s="147"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="148" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="148"/>
+      <c r="D80" s="149"/>
       <c r="E80" s="53">
         <v>850</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="102"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="86"/>
+      <c r="B81" s="100"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="134"/>
       <c r="E81" s="45">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="103" t="s">
+      <c r="C82" s="101" t="s">
         <v>42</v>
       </c>
       <c r="D82" s="81"/>
@@ -8285,7 +8415,7 @@
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="80" t="s">
         <v>103</v>
       </c>
       <c r="B84" s="81"/>
@@ -8294,11 +8424,11 @@
       <c r="E84" s="82"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="87" t="s">
+      <c r="A85" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B85" s="82"/>
-      <c r="C85" s="87" t="s">
+      <c r="C85" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D85" s="82"/>
@@ -8307,47 +8437,47 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
+      <c r="A86" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="120"/>
-      <c r="C86" s="106"/>
-      <c r="D86" s="142"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="143"/>
       <c r="E86" s="38">
         <f>E82</f>
         <v>109.86999999999989</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="111" t="s">
+      <c r="A87" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="112"/>
-      <c r="C87" s="106" t="s">
+      <c r="B87" s="130"/>
+      <c r="C87" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="141"/>
+      <c r="D87" s="142"/>
       <c r="E87" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="113"/>
-      <c r="B88" s="114"/>
-      <c r="C88" s="109" t="s">
+      <c r="A88" s="131"/>
+      <c r="B88" s="132"/>
+      <c r="C88" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="140"/>
+      <c r="D88" s="141"/>
       <c r="E88" s="53">
         <v>850</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="135" t="s">
+      <c r="A89" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="120"/>
-      <c r="C89" s="105"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="124"/>
       <c r="D89" s="82"/>
       <c r="E89" s="67">
         <f>C74</f>
@@ -8355,7 +8485,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="108" t="s">
+      <c r="C90" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D90" s="82"/>
@@ -8379,20 +8509,20 @@
       <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="122"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="122"/>
-      <c r="E93" s="100"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="98"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="87" t="s">
+      <c r="A94" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B94" s="82"/>
-      <c r="C94" s="87" t="s">
+      <c r="C94" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="82"/>
@@ -8401,11 +8531,11 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
+      <c r="A95" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="120"/>
-      <c r="C95" s="105"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="124"/>
       <c r="D95" s="82"/>
       <c r="E95" s="38">
         <f>E90</f>
@@ -8413,14 +8543,14 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="135" t="s">
+      <c r="A96" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="139"/>
-      <c r="C96" s="109" t="s">
+      <c r="B96" s="140"/>
+      <c r="C96" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="110"/>
+      <c r="D96" s="128"/>
       <c r="E96" s="53">
         <v>0</v>
       </c>
@@ -8428,20 +8558,20 @@
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
       <c r="A97" s="77"/>
       <c r="B97" s="78"/>
-      <c r="C97" s="109" t="s">
+      <c r="C97" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="140"/>
+      <c r="D97" s="141"/>
       <c r="E97" s="53">
         <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="135" t="s">
+      <c r="A98" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="120"/>
-      <c r="C98" s="105"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="124"/>
       <c r="D98" s="82"/>
       <c r="E98" s="67">
         <f>C74</f>
@@ -8449,7 +8579,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="108" t="s">
+      <c r="C99" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D99" s="82"/>
@@ -12166,52 +12296,52 @@
     <mergeCell ref="C78:D78"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="45" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="43" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="41" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="39" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="37" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12242,13 +12372,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12451,13 +12581,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="100"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12485,7 +12615,7 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="82"/>
@@ -12500,10 +12630,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="120"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12525,13 +12655,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="100"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12559,7 +12689,7 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="82"/>
@@ -12574,7 +12704,7 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="82"/>
@@ -12602,13 +12732,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12636,10 +12766,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -12651,10 +12781,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -12697,7 +12827,7 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="150" t="s">
         <v>113</v>
       </c>
       <c r="B28" s="81"/>
@@ -12716,7 +12846,7 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="81"/>
@@ -12753,16 +12883,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="127" t="s">
+      <c r="A34" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="118"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="130"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="131"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="120"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -12811,7 +12941,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="81"/>
@@ -12850,11 +12980,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="93"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -12896,11 +13026,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -12924,11 +13054,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -12952,11 +13082,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="100"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="98"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -13000,11 +13130,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="94"/>
-      <c r="C61" s="95"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -13071,11 +13201,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="93" t="s">
+      <c r="A68" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="137"/>
-      <c r="C68" s="95"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="90"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -13135,7 +13265,7 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="80" t="s">
         <v>108</v>
       </c>
       <c r="B76" s="81"/>
@@ -13144,45 +13274,45 @@
       <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="88" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="92"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="145" t="s">
+      <c r="A78" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="112"/>
-      <c r="C78" s="143" t="s">
+      <c r="B78" s="130"/>
+      <c r="C78" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="144"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="102"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="134"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="103" t="s">
+      <c r="C80" s="101" t="s">
         <v>42</v>
       </c>
       <c r="D80" s="81"/>
@@ -13193,7 +13323,7 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="87" t="s">
+      <c r="A82" s="80" t="s">
         <v>117</v>
       </c>
       <c r="B82" s="81"/>
@@ -13202,11 +13332,11 @@
       <c r="E82" s="82"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="82"/>
-      <c r="C83" s="87" t="s">
+      <c r="C83" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="82"/>
@@ -13215,36 +13345,36 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="135" t="s">
+      <c r="A84" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="120"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="142"/>
+      <c r="B84" s="107"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="143"/>
       <c r="E84" s="38">
         <f>E80</f>
         <v>530.06999999999971</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
+      <c r="A85" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="139"/>
-      <c r="C85" s="109" t="s">
+      <c r="B85" s="140"/>
+      <c r="C85" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="141"/>
+      <c r="D85" s="142"/>
       <c r="E85" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
+      <c r="A86" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="120"/>
-      <c r="C86" s="105"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="124"/>
       <c r="D86" s="82"/>
       <c r="E86" s="67">
         <f>C73</f>
@@ -13252,7 +13382,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="108" t="s">
+      <c r="C87" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D87" s="82"/>
@@ -13276,20 +13406,20 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="136" t="s">
+      <c r="A90" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="122"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-      <c r="E90" s="100"/>
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="98"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="82"/>
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="82"/>
@@ -13298,11 +13428,11 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="135" t="s">
+      <c r="A92" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="120"/>
-      <c r="C92" s="105"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="124"/>
       <c r="D92" s="82"/>
       <c r="E92" s="38">
         <f>E87</f>
@@ -13310,24 +13440,24 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
+      <c r="A93" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="139"/>
-      <c r="C93" s="109" t="s">
+      <c r="B93" s="140"/>
+      <c r="C93" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="110"/>
+      <c r="D93" s="128"/>
       <c r="E93" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
+      <c r="A94" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="105"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="82"/>
       <c r="E94" s="67">
         <f>C73</f>
@@ -13335,7 +13465,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="108" t="s">
+      <c r="C95" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="82"/>
@@ -17046,6 +17176,4887 @@
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="C95:D95"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="12" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="8" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
+  <dimension ref="A1:Y1008"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="25" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A1" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5">
+        <f>'October 2024 - December 2024'!E95</f>
+        <v>426.06999999999971</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5">
+        <f>'October 2024 - December 2024'!C5</f>
+        <v>30.2</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5">
+        <f>SUM(C3:C5)</f>
+        <v>456.2699999999997</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="58">
+        <f>('October 2024 - December 2024'!C7+E95)+SUM(E78,E85,E93)</f>
+        <v>-1975.12</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A10" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+    </row>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="82"/>
+      <c r="E11" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="107"/>
+      <c r="E12" s="18">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="49">
+        <f>E12</f>
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A15" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+    </row>
+    <row r="16" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="82"/>
+      <c r="E16" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A17" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="19">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13">
+        <f>SUM(E17)</f>
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A20" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+    </row>
+    <row r="21" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A21" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="113"/>
+      <c r="E22" s="68">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="49">
+        <f>E22</f>
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+    </row>
+    <row r="25" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="52"/>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
+    </row>
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A28" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A30" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A31" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="28">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="30">
+        <f>SUM(C31:C32)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="117"/>
+      <c r="C34" s="118"/>
+    </row>
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="119"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="120"/>
+    </row>
+    <row r="36" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="10">
+        <f>SUM(C36:C39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A41" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+    </row>
+    <row r="42" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="19">
+        <f>SUM(C42:C43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="92"/>
+      <c r="C45" s="93"/>
+    </row>
+    <row r="46" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A49" s="27"/>
+      <c r="B49" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="32">
+        <f>SUM(C46:C48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93"/>
+    </row>
+    <row r="51" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="27"/>
+      <c r="B52" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="32">
+        <f>SUM(C51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87"/>
+    </row>
+    <row r="54" spans="1:3" ht="33" customHeight="1">
+      <c r="A54" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="35">
+        <f>SUM(C54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A56" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="97"/>
+      <c r="C56" s="98"/>
+    </row>
+    <row r="57" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A57" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" customHeight="1">
+      <c r="A58" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A60" s="33"/>
+      <c r="B60" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="35">
+        <f>SUM(C57:C59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
+    </row>
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="61">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="32">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="29"/>
+      <c r="B66" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="40">
+        <f>SUM(C62:C65)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="29"/>
+      <c r="B67" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="40">
+        <f>C33+C40+C44+C49+C52+C55+C60+C66</f>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="138"/>
+      <c r="C68" s="90"/>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="50">
+        <f>'October 2024 - December 2024'!C69</f>
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30">
+      <c r="A71" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A72" s="29"/>
+      <c r="B72" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="50">
+        <f>SUM(C69:C71)</f>
+        <v>14939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="33"/>
+      <c r="B73" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="42">
+        <f>C67</f>
+        <v>1257</v>
+      </c>
+      <c r="H73" s="37"/>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A76" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="82"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A77" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="87"/>
+      <c r="C77" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="87"/>
+      <c r="E77" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="146" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="130"/>
+      <c r="C78" s="144" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="145"/>
+      <c r="E78" s="76">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="100"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="45">
+        <f>C73</f>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="C80" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="81"/>
+      <c r="E80" s="38">
+        <f>(C6+E13)-SUM(E78:E79)</f>
+        <v>404.26999999999953</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A82" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="81"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="82"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="82"/>
+      <c r="C83" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="82"/>
+      <c r="E83" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="107"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="143"/>
+      <c r="E84" s="38">
+        <f>E80</f>
+        <v>404.26999999999953</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="140"/>
+      <c r="C85" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" s="142"/>
+      <c r="E85" s="53">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="107"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="67">
+        <f>C73</f>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C87" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="82"/>
+      <c r="E87" s="38">
+        <f>(E18+E84)-SUM(E85:E86)</f>
+        <v>352.26999999999953</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+    </row>
+    <row r="89" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="98"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="82"/>
+      <c r="C91" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" s="82"/>
+      <c r="E91" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="136" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" s="107"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="38">
+        <f>E87</f>
+        <v>352.26999999999953</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="140"/>
+      <c r="C93" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="D93" s="128"/>
+      <c r="E93" s="53">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="107"/>
+      <c r="C94" s="124"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="67">
+        <f>C73</f>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C95" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="82"/>
+      <c r="E95" s="53">
+        <f>(E23+E92)-SUM(E93:E94)</f>
+        <v>300.26999999999953</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+    </row>
+    <row r="99" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+    </row>
+    <row r="100" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+    </row>
+    <row r="102" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+    </row>
+    <row r="103" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+    </row>
+    <row r="104" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+    </row>
+    <row r="106" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+    </row>
+    <row r="108" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+    </row>
+    <row r="109" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+    </row>
+    <row r="113" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+    </row>
+    <row r="114" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+    </row>
+    <row r="116" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+    </row>
+    <row r="119" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+    </row>
+    <row r="121" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+    </row>
+    <row r="122" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+    </row>
+    <row r="130" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+    </row>
+    <row r="132" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+    </row>
+    <row r="134" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+    </row>
+    <row r="135" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+    </row>
+    <row r="136" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+    </row>
+    <row r="137" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+    </row>
+    <row r="138" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+    </row>
+    <row r="140" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+    </row>
+    <row r="142" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+    </row>
+    <row r="143" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+    </row>
+    <row r="145" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+    </row>
+    <row r="147" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+    </row>
+    <row r="148" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+    </row>
+    <row r="149" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+    </row>
+    <row r="151" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+    </row>
+    <row r="152" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+    </row>
+    <row r="153" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+    </row>
+    <row r="154" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+    </row>
+    <row r="156" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+    </row>
+    <row r="157" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+    </row>
+    <row r="158" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+    </row>
+    <row r="159" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+    </row>
+    <row r="160" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+    </row>
+    <row r="161" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+    </row>
+    <row r="162" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+    </row>
+    <row r="165" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+    </row>
+    <row r="166" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+    </row>
+    <row r="167" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+    </row>
+    <row r="168" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+    </row>
+    <row r="169" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+    </row>
+    <row r="171" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+    </row>
+    <row r="172" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+    </row>
+    <row r="173" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+    </row>
+    <row r="174" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+    </row>
+    <row r="175" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+    </row>
+    <row r="177" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+    </row>
+    <row r="178" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+    </row>
+    <row r="179" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+    </row>
+    <row r="180" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+    </row>
+    <row r="181" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+    </row>
+    <row r="182" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+    </row>
+    <row r="183" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+    </row>
+    <row r="184" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+    </row>
+    <row r="185" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+    </row>
+    <row r="186" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+    </row>
+    <row r="187" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+    </row>
+    <row r="188" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+    </row>
+    <row r="189" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+    </row>
+    <row r="190" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+    </row>
+    <row r="191" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+    </row>
+    <row r="192" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+    </row>
+    <row r="193" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+    </row>
+    <row r="194" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+    </row>
+    <row r="195" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+    </row>
+    <row r="197" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+    </row>
+    <row r="199" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+    </row>
+    <row r="200" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+    </row>
+    <row r="201" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+    </row>
+    <row r="202" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+    </row>
+    <row r="203" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+    </row>
+    <row r="204" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+    </row>
+    <row r="205" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+    </row>
+    <row r="206" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+    </row>
+    <row r="207" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+    </row>
+    <row r="208" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+    </row>
+    <row r="209" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+    </row>
+    <row r="210" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+    </row>
+    <row r="211" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+    </row>
+    <row r="212" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+    </row>
+    <row r="213" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+    </row>
+    <row r="214" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+    </row>
+    <row r="215" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+    </row>
+    <row r="216" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A216" s="11"/>
+      <c r="B216" s="11"/>
+    </row>
+    <row r="217" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A217" s="11"/>
+      <c r="B217" s="11"/>
+    </row>
+    <row r="218" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A218" s="11"/>
+      <c r="B218" s="11"/>
+    </row>
+    <row r="219" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A219" s="11"/>
+      <c r="B219" s="11"/>
+    </row>
+    <row r="220" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A220" s="11"/>
+      <c r="B220" s="11"/>
+    </row>
+    <row r="221" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A221" s="11"/>
+      <c r="B221" s="11"/>
+    </row>
+    <row r="222" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A222" s="11"/>
+      <c r="B222" s="11"/>
+    </row>
+    <row r="223" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A223" s="11"/>
+      <c r="B223" s="11"/>
+    </row>
+    <row r="224" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A224" s="11"/>
+      <c r="B224" s="11"/>
+    </row>
+    <row r="225" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A225" s="11"/>
+      <c r="B225" s="11"/>
+    </row>
+    <row r="226" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A226" s="11"/>
+      <c r="B226" s="11"/>
+    </row>
+    <row r="227" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A227" s="11"/>
+      <c r="B227" s="11"/>
+    </row>
+    <row r="228" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A228" s="11"/>
+      <c r="B228" s="11"/>
+    </row>
+    <row r="229" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A229" s="11"/>
+      <c r="B229" s="11"/>
+    </row>
+    <row r="230" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A230" s="11"/>
+      <c r="B230" s="11"/>
+    </row>
+    <row r="231" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
+    </row>
+    <row r="232" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A232" s="11"/>
+      <c r="B232" s="11"/>
+    </row>
+    <row r="233" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+    </row>
+    <row r="234" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+    </row>
+    <row r="235" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+    </row>
+    <row r="236" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+    </row>
+    <row r="237" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+    </row>
+    <row r="238" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+    </row>
+    <row r="239" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+    </row>
+    <row r="240" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+    </row>
+    <row r="241" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
+    </row>
+    <row r="242" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A242" s="11"/>
+      <c r="B242" s="11"/>
+    </row>
+    <row r="243" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A243" s="11"/>
+      <c r="B243" s="11"/>
+    </row>
+    <row r="244" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A244" s="11"/>
+      <c r="B244" s="11"/>
+    </row>
+    <row r="245" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A245" s="11"/>
+      <c r="B245" s="11"/>
+    </row>
+    <row r="246" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A246" s="11"/>
+      <c r="B246" s="11"/>
+    </row>
+    <row r="247" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+    </row>
+    <row r="248" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A248" s="11"/>
+      <c r="B248" s="11"/>
+    </row>
+    <row r="249" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+    </row>
+    <row r="250" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+    </row>
+    <row r="251" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A251" s="11"/>
+      <c r="B251" s="11"/>
+    </row>
+    <row r="252" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A252" s="11"/>
+      <c r="B252" s="11"/>
+    </row>
+    <row r="253" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A253" s="11"/>
+      <c r="B253" s="11"/>
+    </row>
+    <row r="254" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A254" s="11"/>
+      <c r="B254" s="11"/>
+    </row>
+    <row r="255" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A255" s="11"/>
+      <c r="B255" s="11"/>
+    </row>
+    <row r="256" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A256" s="11"/>
+      <c r="B256" s="11"/>
+    </row>
+    <row r="257" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A257" s="11"/>
+      <c r="B257" s="11"/>
+    </row>
+    <row r="258" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A258" s="11"/>
+      <c r="B258" s="11"/>
+    </row>
+    <row r="259" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A259" s="11"/>
+      <c r="B259" s="11"/>
+    </row>
+    <row r="260" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A260" s="11"/>
+      <c r="B260" s="11"/>
+    </row>
+    <row r="261" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A261" s="11"/>
+      <c r="B261" s="11"/>
+    </row>
+    <row r="262" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A262" s="11"/>
+      <c r="B262" s="11"/>
+    </row>
+    <row r="263" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A263" s="11"/>
+      <c r="B263" s="11"/>
+    </row>
+    <row r="264" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A264" s="11"/>
+      <c r="B264" s="11"/>
+    </row>
+    <row r="265" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A265" s="11"/>
+      <c r="B265" s="11"/>
+    </row>
+    <row r="266" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A266" s="11"/>
+      <c r="B266" s="11"/>
+    </row>
+    <row r="267" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A267" s="11"/>
+      <c r="B267" s="11"/>
+    </row>
+    <row r="268" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A268" s="11"/>
+      <c r="B268" s="11"/>
+    </row>
+    <row r="269" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A269" s="11"/>
+      <c r="B269" s="11"/>
+    </row>
+    <row r="270" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A270" s="11"/>
+      <c r="B270" s="11"/>
+    </row>
+    <row r="271" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A271" s="11"/>
+      <c r="B271" s="11"/>
+    </row>
+    <row r="272" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A272" s="11"/>
+      <c r="B272" s="11"/>
+    </row>
+    <row r="273" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A273" s="11"/>
+      <c r="B273" s="11"/>
+    </row>
+    <row r="274" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A274" s="11"/>
+      <c r="B274" s="11"/>
+    </row>
+    <row r="275" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A275" s="11"/>
+      <c r="B275" s="11"/>
+    </row>
+    <row r="276" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A276" s="11"/>
+      <c r="B276" s="11"/>
+    </row>
+    <row r="277" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A277" s="11"/>
+      <c r="B277" s="11"/>
+    </row>
+    <row r="278" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A278" s="11"/>
+      <c r="B278" s="11"/>
+    </row>
+    <row r="279" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A279" s="11"/>
+      <c r="B279" s="11"/>
+    </row>
+    <row r="280" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A280" s="11"/>
+      <c r="B280" s="11"/>
+    </row>
+    <row r="281" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A281" s="11"/>
+      <c r="B281" s="11"/>
+    </row>
+    <row r="282" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A282" s="11"/>
+      <c r="B282" s="11"/>
+    </row>
+    <row r="283" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A283" s="11"/>
+      <c r="B283" s="11"/>
+    </row>
+    <row r="284" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A284" s="11"/>
+      <c r="B284" s="11"/>
+    </row>
+    <row r="285" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A285" s="11"/>
+      <c r="B285" s="11"/>
+    </row>
+    <row r="286" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A286" s="11"/>
+      <c r="B286" s="11"/>
+    </row>
+    <row r="287" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A287" s="11"/>
+      <c r="B287" s="11"/>
+    </row>
+    <row r="288" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A288" s="11"/>
+      <c r="B288" s="11"/>
+    </row>
+    <row r="289" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A289" s="11"/>
+      <c r="B289" s="11"/>
+    </row>
+    <row r="290" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A290" s="11"/>
+      <c r="B290" s="11"/>
+    </row>
+    <row r="291" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A291" s="11"/>
+      <c r="B291" s="11"/>
+    </row>
+    <row r="292" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A292" s="11"/>
+      <c r="B292" s="11"/>
+    </row>
+    <row r="293" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A293" s="11"/>
+      <c r="B293" s="11"/>
+    </row>
+    <row r="294" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A294" s="11"/>
+      <c r="B294" s="11"/>
+    </row>
+    <row r="295" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A295" s="11"/>
+      <c r="B295" s="11"/>
+    </row>
+    <row r="296" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A296" s="11"/>
+      <c r="B296" s="11"/>
+    </row>
+    <row r="297" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A297" s="11"/>
+      <c r="B297" s="11"/>
+    </row>
+    <row r="298" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A298" s="11"/>
+      <c r="B298" s="11"/>
+    </row>
+    <row r="299" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A299" s="11"/>
+      <c r="B299" s="11"/>
+    </row>
+    <row r="300" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A300" s="11"/>
+      <c r="B300" s="11"/>
+    </row>
+    <row r="301" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A301" s="11"/>
+      <c r="B301" s="11"/>
+    </row>
+    <row r="302" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A302" s="11"/>
+      <c r="B302" s="11"/>
+    </row>
+    <row r="303" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A303" s="11"/>
+      <c r="B303" s="11"/>
+    </row>
+    <row r="304" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A304" s="11"/>
+      <c r="B304" s="11"/>
+    </row>
+    <row r="305" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A305" s="11"/>
+      <c r="B305" s="11"/>
+    </row>
+    <row r="306" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A306" s="11"/>
+      <c r="B306" s="11"/>
+    </row>
+    <row r="307" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A307" s="11"/>
+      <c r="B307" s="11"/>
+    </row>
+    <row r="308" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A308" s="11"/>
+      <c r="B308" s="11"/>
+    </row>
+    <row r="309" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A309" s="11"/>
+      <c r="B309" s="11"/>
+    </row>
+    <row r="310" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A310" s="11"/>
+      <c r="B310" s="11"/>
+    </row>
+    <row r="311" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A311" s="11"/>
+      <c r="B311" s="11"/>
+    </row>
+    <row r="312" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A312" s="11"/>
+      <c r="B312" s="11"/>
+    </row>
+    <row r="313" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A313" s="11"/>
+      <c r="B313" s="11"/>
+    </row>
+    <row r="314" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A314" s="11"/>
+      <c r="B314" s="11"/>
+    </row>
+    <row r="315" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A315" s="11"/>
+      <c r="B315" s="11"/>
+    </row>
+    <row r="316" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A316" s="11"/>
+      <c r="B316" s="11"/>
+    </row>
+    <row r="317" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A317" s="11"/>
+      <c r="B317" s="11"/>
+    </row>
+    <row r="318" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A318" s="11"/>
+      <c r="B318" s="11"/>
+    </row>
+    <row r="319" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A319" s="11"/>
+      <c r="B319" s="11"/>
+    </row>
+    <row r="320" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A320" s="11"/>
+      <c r="B320" s="11"/>
+    </row>
+    <row r="321" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A321" s="11"/>
+      <c r="B321" s="11"/>
+    </row>
+    <row r="322" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A322" s="11"/>
+      <c r="B322" s="11"/>
+    </row>
+    <row r="323" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A323" s="11"/>
+      <c r="B323" s="11"/>
+    </row>
+    <row r="324" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A324" s="11"/>
+      <c r="B324" s="11"/>
+    </row>
+    <row r="325" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A325" s="11"/>
+      <c r="B325" s="11"/>
+    </row>
+    <row r="326" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A326" s="11"/>
+      <c r="B326" s="11"/>
+    </row>
+    <row r="327" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A327" s="11"/>
+      <c r="B327" s="11"/>
+    </row>
+    <row r="328" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A328" s="11"/>
+      <c r="B328" s="11"/>
+    </row>
+    <row r="329" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A329" s="11"/>
+      <c r="B329" s="11"/>
+    </row>
+    <row r="330" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A330" s="11"/>
+      <c r="B330" s="11"/>
+    </row>
+    <row r="331" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A331" s="11"/>
+      <c r="B331" s="11"/>
+    </row>
+    <row r="332" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A332" s="11"/>
+      <c r="B332" s="11"/>
+    </row>
+    <row r="333" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A333" s="11"/>
+      <c r="B333" s="11"/>
+    </row>
+    <row r="334" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A334" s="11"/>
+      <c r="B334" s="11"/>
+    </row>
+    <row r="335" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A335" s="11"/>
+      <c r="B335" s="11"/>
+    </row>
+    <row r="336" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A336" s="11"/>
+      <c r="B336" s="11"/>
+    </row>
+    <row r="337" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A337" s="11"/>
+      <c r="B337" s="11"/>
+    </row>
+    <row r="338" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A338" s="11"/>
+      <c r="B338" s="11"/>
+    </row>
+    <row r="339" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A339" s="11"/>
+      <c r="B339" s="11"/>
+    </row>
+    <row r="340" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A340" s="11"/>
+      <c r="B340" s="11"/>
+    </row>
+    <row r="341" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A341" s="11"/>
+      <c r="B341" s="11"/>
+    </row>
+    <row r="342" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A342" s="11"/>
+      <c r="B342" s="11"/>
+    </row>
+    <row r="343" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A343" s="11"/>
+      <c r="B343" s="11"/>
+    </row>
+    <row r="344" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A344" s="11"/>
+      <c r="B344" s="11"/>
+    </row>
+    <row r="345" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A345" s="11"/>
+      <c r="B345" s="11"/>
+    </row>
+    <row r="346" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A346" s="11"/>
+      <c r="B346" s="11"/>
+    </row>
+    <row r="347" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A347" s="11"/>
+      <c r="B347" s="11"/>
+    </row>
+    <row r="348" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A348" s="11"/>
+      <c r="B348" s="11"/>
+    </row>
+    <row r="349" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A349" s="11"/>
+      <c r="B349" s="11"/>
+    </row>
+    <row r="350" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A350" s="11"/>
+      <c r="B350" s="11"/>
+    </row>
+    <row r="351" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A351" s="11"/>
+      <c r="B351" s="11"/>
+    </row>
+    <row r="352" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A352" s="11"/>
+      <c r="B352" s="11"/>
+    </row>
+    <row r="353" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A353" s="11"/>
+      <c r="B353" s="11"/>
+    </row>
+    <row r="354" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A354" s="11"/>
+      <c r="B354" s="11"/>
+    </row>
+    <row r="355" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A355" s="11"/>
+      <c r="B355" s="11"/>
+    </row>
+    <row r="356" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A356" s="11"/>
+      <c r="B356" s="11"/>
+    </row>
+    <row r="357" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A357" s="11"/>
+      <c r="B357" s="11"/>
+    </row>
+    <row r="358" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A358" s="11"/>
+      <c r="B358" s="11"/>
+    </row>
+    <row r="359" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A359" s="11"/>
+      <c r="B359" s="11"/>
+    </row>
+    <row r="360" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A360" s="11"/>
+      <c r="B360" s="11"/>
+    </row>
+    <row r="361" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A361" s="11"/>
+      <c r="B361" s="11"/>
+    </row>
+    <row r="362" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A362" s="11"/>
+      <c r="B362" s="11"/>
+    </row>
+    <row r="363" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A363" s="11"/>
+      <c r="B363" s="11"/>
+    </row>
+    <row r="364" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A364" s="11"/>
+      <c r="B364" s="11"/>
+    </row>
+    <row r="365" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A365" s="11"/>
+      <c r="B365" s="11"/>
+    </row>
+    <row r="366" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A366" s="11"/>
+      <c r="B366" s="11"/>
+    </row>
+    <row r="367" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A367" s="11"/>
+      <c r="B367" s="11"/>
+    </row>
+    <row r="368" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A368" s="11"/>
+      <c r="B368" s="11"/>
+    </row>
+    <row r="369" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A369" s="11"/>
+      <c r="B369" s="11"/>
+    </row>
+    <row r="370" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A370" s="11"/>
+      <c r="B370" s="11"/>
+    </row>
+    <row r="371" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A371" s="11"/>
+      <c r="B371" s="11"/>
+    </row>
+    <row r="372" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A372" s="11"/>
+      <c r="B372" s="11"/>
+    </row>
+    <row r="373" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A373" s="11"/>
+      <c r="B373" s="11"/>
+    </row>
+    <row r="374" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A374" s="11"/>
+      <c r="B374" s="11"/>
+    </row>
+    <row r="375" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A375" s="11"/>
+      <c r="B375" s="11"/>
+    </row>
+    <row r="376" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A376" s="11"/>
+      <c r="B376" s="11"/>
+    </row>
+    <row r="377" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A377" s="11"/>
+      <c r="B377" s="11"/>
+    </row>
+    <row r="378" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A378" s="11"/>
+      <c r="B378" s="11"/>
+    </row>
+    <row r="379" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A379" s="11"/>
+      <c r="B379" s="11"/>
+    </row>
+    <row r="380" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A380" s="11"/>
+      <c r="B380" s="11"/>
+    </row>
+    <row r="381" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A381" s="11"/>
+      <c r="B381" s="11"/>
+    </row>
+    <row r="382" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A382" s="11"/>
+      <c r="B382" s="11"/>
+    </row>
+    <row r="383" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A383" s="11"/>
+      <c r="B383" s="11"/>
+    </row>
+    <row r="384" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A384" s="11"/>
+      <c r="B384" s="11"/>
+    </row>
+    <row r="385" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A385" s="11"/>
+      <c r="B385" s="11"/>
+    </row>
+    <row r="386" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A386" s="11"/>
+      <c r="B386" s="11"/>
+    </row>
+    <row r="387" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A387" s="11"/>
+      <c r="B387" s="11"/>
+    </row>
+    <row r="388" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A388" s="11"/>
+      <c r="B388" s="11"/>
+    </row>
+    <row r="389" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A389" s="11"/>
+      <c r="B389" s="11"/>
+    </row>
+    <row r="390" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A390" s="11"/>
+      <c r="B390" s="11"/>
+    </row>
+    <row r="391" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A391" s="11"/>
+      <c r="B391" s="11"/>
+    </row>
+    <row r="392" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A392" s="11"/>
+      <c r="B392" s="11"/>
+    </row>
+    <row r="393" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A393" s="11"/>
+      <c r="B393" s="11"/>
+    </row>
+    <row r="394" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A394" s="11"/>
+      <c r="B394" s="11"/>
+    </row>
+    <row r="395" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A395" s="11"/>
+      <c r="B395" s="11"/>
+    </row>
+    <row r="396" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A396" s="11"/>
+      <c r="B396" s="11"/>
+    </row>
+    <row r="397" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A397" s="11"/>
+      <c r="B397" s="11"/>
+    </row>
+    <row r="398" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A398" s="11"/>
+      <c r="B398" s="11"/>
+    </row>
+    <row r="399" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A399" s="11"/>
+      <c r="B399" s="11"/>
+    </row>
+    <row r="400" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A400" s="11"/>
+      <c r="B400" s="11"/>
+    </row>
+    <row r="401" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A401" s="11"/>
+      <c r="B401" s="11"/>
+    </row>
+    <row r="402" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A402" s="11"/>
+      <c r="B402" s="11"/>
+    </row>
+    <row r="403" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A403" s="11"/>
+      <c r="B403" s="11"/>
+    </row>
+    <row r="404" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A404" s="11"/>
+      <c r="B404" s="11"/>
+    </row>
+    <row r="405" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A405" s="11"/>
+      <c r="B405" s="11"/>
+    </row>
+    <row r="406" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A406" s="11"/>
+      <c r="B406" s="11"/>
+    </row>
+    <row r="407" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A407" s="11"/>
+      <c r="B407" s="11"/>
+    </row>
+    <row r="408" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A408" s="11"/>
+      <c r="B408" s="11"/>
+    </row>
+    <row r="409" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A409" s="11"/>
+      <c r="B409" s="11"/>
+    </row>
+    <row r="410" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A410" s="11"/>
+      <c r="B410" s="11"/>
+    </row>
+    <row r="411" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A411" s="11"/>
+      <c r="B411" s="11"/>
+    </row>
+    <row r="412" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A412" s="11"/>
+      <c r="B412" s="11"/>
+    </row>
+    <row r="413" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A413" s="11"/>
+      <c r="B413" s="11"/>
+    </row>
+    <row r="414" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A414" s="11"/>
+      <c r="B414" s="11"/>
+    </row>
+    <row r="415" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A415" s="11"/>
+      <c r="B415" s="11"/>
+    </row>
+    <row r="416" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A416" s="11"/>
+      <c r="B416" s="11"/>
+    </row>
+    <row r="417" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A417" s="11"/>
+      <c r="B417" s="11"/>
+    </row>
+    <row r="418" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A418" s="11"/>
+      <c r="B418" s="11"/>
+    </row>
+    <row r="419" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A419" s="11"/>
+      <c r="B419" s="11"/>
+    </row>
+    <row r="420" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A420" s="11"/>
+      <c r="B420" s="11"/>
+    </row>
+    <row r="421" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A421" s="11"/>
+      <c r="B421" s="11"/>
+    </row>
+    <row r="422" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A422" s="11"/>
+      <c r="B422" s="11"/>
+    </row>
+    <row r="423" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A423" s="11"/>
+      <c r="B423" s="11"/>
+    </row>
+    <row r="424" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A424" s="11"/>
+      <c r="B424" s="11"/>
+    </row>
+    <row r="425" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A425" s="11"/>
+      <c r="B425" s="11"/>
+    </row>
+    <row r="426" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A426" s="11"/>
+      <c r="B426" s="11"/>
+    </row>
+    <row r="427" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A427" s="11"/>
+      <c r="B427" s="11"/>
+    </row>
+    <row r="428" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A428" s="11"/>
+      <c r="B428" s="11"/>
+    </row>
+    <row r="429" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A429" s="11"/>
+      <c r="B429" s="11"/>
+    </row>
+    <row r="430" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A430" s="11"/>
+      <c r="B430" s="11"/>
+    </row>
+    <row r="431" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A431" s="11"/>
+      <c r="B431" s="11"/>
+    </row>
+    <row r="432" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A432" s="11"/>
+      <c r="B432" s="11"/>
+    </row>
+    <row r="433" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A433" s="11"/>
+      <c r="B433" s="11"/>
+    </row>
+    <row r="434" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A434" s="11"/>
+      <c r="B434" s="11"/>
+    </row>
+    <row r="435" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A435" s="11"/>
+      <c r="B435" s="11"/>
+    </row>
+    <row r="436" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A436" s="11"/>
+      <c r="B436" s="11"/>
+    </row>
+    <row r="437" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A437" s="11"/>
+      <c r="B437" s="11"/>
+    </row>
+    <row r="438" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A438" s="11"/>
+      <c r="B438" s="11"/>
+    </row>
+    <row r="439" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A439" s="11"/>
+      <c r="B439" s="11"/>
+    </row>
+    <row r="440" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A440" s="11"/>
+      <c r="B440" s="11"/>
+    </row>
+    <row r="441" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A441" s="11"/>
+      <c r="B441" s="11"/>
+    </row>
+    <row r="442" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A442" s="11"/>
+      <c r="B442" s="11"/>
+    </row>
+    <row r="443" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A443" s="11"/>
+      <c r="B443" s="11"/>
+    </row>
+    <row r="444" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A444" s="11"/>
+      <c r="B444" s="11"/>
+    </row>
+    <row r="445" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A445" s="11"/>
+      <c r="B445" s="11"/>
+    </row>
+    <row r="446" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A446" s="11"/>
+      <c r="B446" s="11"/>
+    </row>
+    <row r="447" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A447" s="11"/>
+      <c r="B447" s="11"/>
+    </row>
+    <row r="448" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A448" s="11"/>
+      <c r="B448" s="11"/>
+    </row>
+    <row r="449" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A449" s="11"/>
+      <c r="B449" s="11"/>
+    </row>
+    <row r="450" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A450" s="11"/>
+      <c r="B450" s="11"/>
+    </row>
+    <row r="451" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A451" s="11"/>
+      <c r="B451" s="11"/>
+    </row>
+    <row r="452" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A452" s="11"/>
+      <c r="B452" s="11"/>
+    </row>
+    <row r="453" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A453" s="11"/>
+      <c r="B453" s="11"/>
+    </row>
+    <row r="454" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A454" s="11"/>
+      <c r="B454" s="11"/>
+    </row>
+    <row r="455" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A455" s="11"/>
+      <c r="B455" s="11"/>
+    </row>
+    <row r="456" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A456" s="11"/>
+      <c r="B456" s="11"/>
+    </row>
+    <row r="457" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A457" s="11"/>
+      <c r="B457" s="11"/>
+    </row>
+    <row r="458" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A458" s="11"/>
+      <c r="B458" s="11"/>
+    </row>
+    <row r="459" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A459" s="11"/>
+      <c r="B459" s="11"/>
+    </row>
+    <row r="460" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A460" s="11"/>
+      <c r="B460" s="11"/>
+    </row>
+    <row r="461" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A461" s="11"/>
+      <c r="B461" s="11"/>
+    </row>
+    <row r="462" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A462" s="11"/>
+      <c r="B462" s="11"/>
+    </row>
+    <row r="463" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A463" s="11"/>
+      <c r="B463" s="11"/>
+    </row>
+    <row r="464" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A464" s="11"/>
+      <c r="B464" s="11"/>
+    </row>
+    <row r="465" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A465" s="11"/>
+      <c r="B465" s="11"/>
+    </row>
+    <row r="466" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A466" s="11"/>
+      <c r="B466" s="11"/>
+    </row>
+    <row r="467" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A467" s="11"/>
+      <c r="B467" s="11"/>
+    </row>
+    <row r="468" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A468" s="11"/>
+      <c r="B468" s="11"/>
+    </row>
+    <row r="469" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A469" s="11"/>
+      <c r="B469" s="11"/>
+    </row>
+    <row r="470" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A470" s="11"/>
+      <c r="B470" s="11"/>
+    </row>
+    <row r="471" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A471" s="11"/>
+      <c r="B471" s="11"/>
+    </row>
+    <row r="472" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A472" s="11"/>
+      <c r="B472" s="11"/>
+    </row>
+    <row r="473" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A473" s="11"/>
+      <c r="B473" s="11"/>
+    </row>
+    <row r="474" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A474" s="11"/>
+      <c r="B474" s="11"/>
+    </row>
+    <row r="475" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A475" s="11"/>
+      <c r="B475" s="11"/>
+    </row>
+    <row r="476" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A476" s="11"/>
+      <c r="B476" s="11"/>
+    </row>
+    <row r="477" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A477" s="11"/>
+      <c r="B477" s="11"/>
+    </row>
+    <row r="478" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A478" s="11"/>
+      <c r="B478" s="11"/>
+    </row>
+    <row r="479" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A479" s="11"/>
+      <c r="B479" s="11"/>
+    </row>
+    <row r="480" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A480" s="11"/>
+      <c r="B480" s="11"/>
+    </row>
+    <row r="481" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A481" s="11"/>
+      <c r="B481" s="11"/>
+    </row>
+    <row r="482" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A482" s="11"/>
+      <c r="B482" s="11"/>
+    </row>
+    <row r="483" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A483" s="11"/>
+      <c r="B483" s="11"/>
+    </row>
+    <row r="484" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A484" s="11"/>
+      <c r="B484" s="11"/>
+    </row>
+    <row r="485" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A485" s="11"/>
+      <c r="B485" s="11"/>
+    </row>
+    <row r="486" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A486" s="11"/>
+      <c r="B486" s="11"/>
+    </row>
+    <row r="487" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A487" s="11"/>
+      <c r="B487" s="11"/>
+    </row>
+    <row r="488" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A488" s="11"/>
+      <c r="B488" s="11"/>
+    </row>
+    <row r="489" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A489" s="11"/>
+      <c r="B489" s="11"/>
+    </row>
+    <row r="490" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A490" s="11"/>
+      <c r="B490" s="11"/>
+    </row>
+    <row r="491" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A491" s="11"/>
+      <c r="B491" s="11"/>
+    </row>
+    <row r="492" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A492" s="11"/>
+      <c r="B492" s="11"/>
+    </row>
+    <row r="493" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A493" s="11"/>
+      <c r="B493" s="11"/>
+    </row>
+    <row r="494" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A494" s="11"/>
+      <c r="B494" s="11"/>
+    </row>
+    <row r="495" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A495" s="11"/>
+      <c r="B495" s="11"/>
+    </row>
+    <row r="496" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A496" s="11"/>
+      <c r="B496" s="11"/>
+    </row>
+    <row r="497" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A497" s="11"/>
+      <c r="B497" s="11"/>
+    </row>
+    <row r="498" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A498" s="11"/>
+      <c r="B498" s="11"/>
+    </row>
+    <row r="499" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A499" s="11"/>
+      <c r="B499" s="11"/>
+    </row>
+    <row r="500" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A500" s="11"/>
+      <c r="B500" s="11"/>
+    </row>
+    <row r="501" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A501" s="11"/>
+      <c r="B501" s="11"/>
+    </row>
+    <row r="502" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A502" s="11"/>
+      <c r="B502" s="11"/>
+    </row>
+    <row r="503" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A503" s="11"/>
+      <c r="B503" s="11"/>
+    </row>
+    <row r="504" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A504" s="11"/>
+      <c r="B504" s="11"/>
+    </row>
+    <row r="505" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A505" s="11"/>
+      <c r="B505" s="11"/>
+    </row>
+    <row r="506" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A506" s="11"/>
+      <c r="B506" s="11"/>
+    </row>
+    <row r="507" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A507" s="11"/>
+      <c r="B507" s="11"/>
+    </row>
+    <row r="508" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A508" s="11"/>
+      <c r="B508" s="11"/>
+    </row>
+    <row r="509" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A509" s="11"/>
+      <c r="B509" s="11"/>
+    </row>
+    <row r="510" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A510" s="11"/>
+      <c r="B510" s="11"/>
+    </row>
+    <row r="511" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A511" s="11"/>
+      <c r="B511" s="11"/>
+    </row>
+    <row r="512" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A512" s="11"/>
+      <c r="B512" s="11"/>
+    </row>
+    <row r="513" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A513" s="11"/>
+      <c r="B513" s="11"/>
+    </row>
+    <row r="514" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A514" s="11"/>
+      <c r="B514" s="11"/>
+    </row>
+    <row r="515" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A515" s="11"/>
+      <c r="B515" s="11"/>
+    </row>
+    <row r="516" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A516" s="11"/>
+      <c r="B516" s="11"/>
+    </row>
+    <row r="517" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A517" s="11"/>
+      <c r="B517" s="11"/>
+    </row>
+    <row r="518" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A518" s="11"/>
+      <c r="B518" s="11"/>
+    </row>
+    <row r="519" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A519" s="11"/>
+      <c r="B519" s="11"/>
+    </row>
+    <row r="520" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A520" s="11"/>
+      <c r="B520" s="11"/>
+    </row>
+    <row r="521" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A521" s="11"/>
+      <c r="B521" s="11"/>
+    </row>
+    <row r="522" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A522" s="11"/>
+      <c r="B522" s="11"/>
+    </row>
+    <row r="523" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A523" s="11"/>
+      <c r="B523" s="11"/>
+    </row>
+    <row r="524" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A524" s="11"/>
+      <c r="B524" s="11"/>
+    </row>
+    <row r="525" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A525" s="11"/>
+      <c r="B525" s="11"/>
+    </row>
+    <row r="526" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A526" s="11"/>
+      <c r="B526" s="11"/>
+    </row>
+    <row r="527" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A527" s="11"/>
+      <c r="B527" s="11"/>
+    </row>
+    <row r="528" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A528" s="11"/>
+      <c r="B528" s="11"/>
+    </row>
+    <row r="529" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A529" s="11"/>
+      <c r="B529" s="11"/>
+    </row>
+    <row r="530" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A530" s="11"/>
+      <c r="B530" s="11"/>
+    </row>
+    <row r="531" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A531" s="11"/>
+      <c r="B531" s="11"/>
+    </row>
+    <row r="532" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A532" s="11"/>
+      <c r="B532" s="11"/>
+    </row>
+    <row r="533" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A533" s="11"/>
+      <c r="B533" s="11"/>
+    </row>
+    <row r="534" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A534" s="11"/>
+      <c r="B534" s="11"/>
+    </row>
+    <row r="535" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A535" s="11"/>
+      <c r="B535" s="11"/>
+    </row>
+    <row r="536" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A536" s="11"/>
+      <c r="B536" s="11"/>
+    </row>
+    <row r="537" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A537" s="11"/>
+      <c r="B537" s="11"/>
+    </row>
+    <row r="538" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A538" s="11"/>
+      <c r="B538" s="11"/>
+    </row>
+    <row r="539" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A539" s="11"/>
+      <c r="B539" s="11"/>
+    </row>
+    <row r="540" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A540" s="11"/>
+      <c r="B540" s="11"/>
+    </row>
+    <row r="541" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A541" s="11"/>
+      <c r="B541" s="11"/>
+    </row>
+    <row r="542" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A542" s="11"/>
+      <c r="B542" s="11"/>
+    </row>
+    <row r="543" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A543" s="11"/>
+      <c r="B543" s="11"/>
+    </row>
+    <row r="544" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A544" s="11"/>
+      <c r="B544" s="11"/>
+    </row>
+    <row r="545" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A545" s="11"/>
+      <c r="B545" s="11"/>
+    </row>
+    <row r="546" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A546" s="11"/>
+      <c r="B546" s="11"/>
+    </row>
+    <row r="547" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A547" s="11"/>
+      <c r="B547" s="11"/>
+    </row>
+    <row r="548" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A548" s="11"/>
+      <c r="B548" s="11"/>
+    </row>
+    <row r="549" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A549" s="11"/>
+      <c r="B549" s="11"/>
+    </row>
+    <row r="550" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A550" s="11"/>
+      <c r="B550" s="11"/>
+    </row>
+    <row r="551" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A551" s="11"/>
+      <c r="B551" s="11"/>
+    </row>
+    <row r="552" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A552" s="11"/>
+      <c r="B552" s="11"/>
+    </row>
+    <row r="553" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A553" s="11"/>
+      <c r="B553" s="11"/>
+    </row>
+    <row r="554" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A554" s="11"/>
+      <c r="B554" s="11"/>
+    </row>
+    <row r="555" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A555" s="11"/>
+      <c r="B555" s="11"/>
+    </row>
+    <row r="556" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A556" s="11"/>
+      <c r="B556" s="11"/>
+    </row>
+    <row r="557" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A557" s="11"/>
+      <c r="B557" s="11"/>
+    </row>
+    <row r="558" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A558" s="11"/>
+      <c r="B558" s="11"/>
+    </row>
+    <row r="559" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A559" s="11"/>
+      <c r="B559" s="11"/>
+    </row>
+    <row r="560" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A560" s="11"/>
+      <c r="B560" s="11"/>
+    </row>
+    <row r="561" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A561" s="11"/>
+      <c r="B561" s="11"/>
+    </row>
+    <row r="562" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A562" s="11"/>
+      <c r="B562" s="11"/>
+    </row>
+    <row r="563" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A563" s="11"/>
+      <c r="B563" s="11"/>
+    </row>
+    <row r="564" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A564" s="11"/>
+      <c r="B564" s="11"/>
+    </row>
+    <row r="565" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A565" s="11"/>
+      <c r="B565" s="11"/>
+    </row>
+    <row r="566" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A566" s="11"/>
+      <c r="B566" s="11"/>
+    </row>
+    <row r="567" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A567" s="11"/>
+      <c r="B567" s="11"/>
+    </row>
+    <row r="568" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A568" s="11"/>
+      <c r="B568" s="11"/>
+    </row>
+    <row r="569" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A569" s="11"/>
+      <c r="B569" s="11"/>
+    </row>
+    <row r="570" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A570" s="11"/>
+      <c r="B570" s="11"/>
+    </row>
+    <row r="571" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A571" s="11"/>
+      <c r="B571" s="11"/>
+    </row>
+    <row r="572" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A572" s="11"/>
+      <c r="B572" s="11"/>
+    </row>
+    <row r="573" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A573" s="11"/>
+      <c r="B573" s="11"/>
+    </row>
+    <row r="574" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A574" s="11"/>
+      <c r="B574" s="11"/>
+    </row>
+    <row r="575" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A575" s="11"/>
+      <c r="B575" s="11"/>
+    </row>
+    <row r="576" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A576" s="11"/>
+      <c r="B576" s="11"/>
+    </row>
+    <row r="577" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A577" s="11"/>
+      <c r="B577" s="11"/>
+    </row>
+    <row r="578" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A578" s="11"/>
+      <c r="B578" s="11"/>
+    </row>
+    <row r="579" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A579" s="11"/>
+      <c r="B579" s="11"/>
+    </row>
+    <row r="580" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A580" s="11"/>
+      <c r="B580" s="11"/>
+    </row>
+    <row r="581" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A581" s="11"/>
+      <c r="B581" s="11"/>
+    </row>
+    <row r="582" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A582" s="11"/>
+      <c r="B582" s="11"/>
+    </row>
+    <row r="583" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A583" s="11"/>
+      <c r="B583" s="11"/>
+    </row>
+    <row r="584" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A584" s="11"/>
+      <c r="B584" s="11"/>
+    </row>
+    <row r="585" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A585" s="11"/>
+      <c r="B585" s="11"/>
+    </row>
+    <row r="586" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A586" s="11"/>
+      <c r="B586" s="11"/>
+    </row>
+    <row r="587" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A587" s="11"/>
+      <c r="B587" s="11"/>
+    </row>
+    <row r="588" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A588" s="11"/>
+      <c r="B588" s="11"/>
+    </row>
+    <row r="589" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A589" s="11"/>
+      <c r="B589" s="11"/>
+    </row>
+    <row r="590" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A590" s="11"/>
+      <c r="B590" s="11"/>
+    </row>
+    <row r="591" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A591" s="11"/>
+      <c r="B591" s="11"/>
+    </row>
+    <row r="592" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A592" s="11"/>
+      <c r="B592" s="11"/>
+    </row>
+    <row r="593" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A593" s="11"/>
+      <c r="B593" s="11"/>
+    </row>
+    <row r="594" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A594" s="11"/>
+      <c r="B594" s="11"/>
+    </row>
+    <row r="595" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A595" s="11"/>
+      <c r="B595" s="11"/>
+    </row>
+    <row r="596" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A596" s="11"/>
+      <c r="B596" s="11"/>
+    </row>
+    <row r="597" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A597" s="11"/>
+      <c r="B597" s="11"/>
+    </row>
+    <row r="598" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A598" s="11"/>
+      <c r="B598" s="11"/>
+    </row>
+    <row r="599" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A599" s="11"/>
+      <c r="B599" s="11"/>
+    </row>
+    <row r="600" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A600" s="11"/>
+      <c r="B600" s="11"/>
+    </row>
+    <row r="601" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A601" s="11"/>
+      <c r="B601" s="11"/>
+    </row>
+    <row r="602" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A602" s="11"/>
+      <c r="B602" s="11"/>
+    </row>
+    <row r="603" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A603" s="11"/>
+      <c r="B603" s="11"/>
+    </row>
+    <row r="604" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A604" s="11"/>
+      <c r="B604" s="11"/>
+    </row>
+    <row r="605" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A605" s="11"/>
+      <c r="B605" s="11"/>
+    </row>
+    <row r="606" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A606" s="11"/>
+      <c r="B606" s="11"/>
+    </row>
+    <row r="607" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A607" s="11"/>
+      <c r="B607" s="11"/>
+    </row>
+    <row r="608" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A608" s="11"/>
+      <c r="B608" s="11"/>
+    </row>
+    <row r="609" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A609" s="11"/>
+      <c r="B609" s="11"/>
+    </row>
+    <row r="610" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A610" s="11"/>
+      <c r="B610" s="11"/>
+    </row>
+    <row r="611" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A611" s="11"/>
+      <c r="B611" s="11"/>
+    </row>
+    <row r="612" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A612" s="11"/>
+      <c r="B612" s="11"/>
+    </row>
+    <row r="613" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A613" s="11"/>
+      <c r="B613" s="11"/>
+    </row>
+    <row r="614" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A614" s="11"/>
+      <c r="B614" s="11"/>
+    </row>
+    <row r="615" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A615" s="11"/>
+      <c r="B615" s="11"/>
+    </row>
+    <row r="616" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A616" s="11"/>
+      <c r="B616" s="11"/>
+    </row>
+    <row r="617" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A617" s="11"/>
+      <c r="B617" s="11"/>
+    </row>
+    <row r="618" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A618" s="11"/>
+      <c r="B618" s="11"/>
+    </row>
+    <row r="619" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A619" s="11"/>
+      <c r="B619" s="11"/>
+    </row>
+    <row r="620" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A620" s="11"/>
+      <c r="B620" s="11"/>
+    </row>
+    <row r="621" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A621" s="11"/>
+      <c r="B621" s="11"/>
+    </row>
+    <row r="622" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A622" s="11"/>
+      <c r="B622" s="11"/>
+    </row>
+    <row r="623" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A623" s="11"/>
+      <c r="B623" s="11"/>
+    </row>
+    <row r="624" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A624" s="11"/>
+      <c r="B624" s="11"/>
+    </row>
+    <row r="625" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A625" s="11"/>
+      <c r="B625" s="11"/>
+    </row>
+    <row r="626" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A626" s="11"/>
+      <c r="B626" s="11"/>
+    </row>
+    <row r="627" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A627" s="11"/>
+      <c r="B627" s="11"/>
+    </row>
+    <row r="628" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A628" s="11"/>
+      <c r="B628" s="11"/>
+    </row>
+    <row r="629" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A629" s="11"/>
+      <c r="B629" s="11"/>
+    </row>
+    <row r="630" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A630" s="11"/>
+      <c r="B630" s="11"/>
+    </row>
+    <row r="631" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A631" s="11"/>
+      <c r="B631" s="11"/>
+    </row>
+    <row r="632" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A632" s="11"/>
+      <c r="B632" s="11"/>
+    </row>
+    <row r="633" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A633" s="11"/>
+      <c r="B633" s="11"/>
+    </row>
+    <row r="634" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A634" s="11"/>
+      <c r="B634" s="11"/>
+    </row>
+    <row r="635" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A635" s="11"/>
+      <c r="B635" s="11"/>
+    </row>
+    <row r="636" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A636" s="11"/>
+      <c r="B636" s="11"/>
+    </row>
+    <row r="637" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A637" s="11"/>
+      <c r="B637" s="11"/>
+    </row>
+    <row r="638" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A638" s="11"/>
+      <c r="B638" s="11"/>
+    </row>
+    <row r="639" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A639" s="11"/>
+      <c r="B639" s="11"/>
+    </row>
+    <row r="640" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A640" s="11"/>
+      <c r="B640" s="11"/>
+    </row>
+    <row r="641" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A641" s="11"/>
+      <c r="B641" s="11"/>
+    </row>
+    <row r="642" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A642" s="11"/>
+      <c r="B642" s="11"/>
+    </row>
+    <row r="643" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A643" s="11"/>
+      <c r="B643" s="11"/>
+    </row>
+    <row r="644" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A644" s="11"/>
+      <c r="B644" s="11"/>
+    </row>
+    <row r="645" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A645" s="11"/>
+      <c r="B645" s="11"/>
+    </row>
+    <row r="646" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A646" s="11"/>
+      <c r="B646" s="11"/>
+    </row>
+    <row r="647" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A647" s="11"/>
+      <c r="B647" s="11"/>
+    </row>
+    <row r="648" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A648" s="11"/>
+      <c r="B648" s="11"/>
+    </row>
+    <row r="649" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A649" s="11"/>
+      <c r="B649" s="11"/>
+    </row>
+    <row r="650" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A650" s="11"/>
+      <c r="B650" s="11"/>
+    </row>
+    <row r="651" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A651" s="11"/>
+      <c r="B651" s="11"/>
+    </row>
+    <row r="652" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A652" s="11"/>
+      <c r="B652" s="11"/>
+    </row>
+    <row r="653" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A653" s="11"/>
+      <c r="B653" s="11"/>
+    </row>
+    <row r="654" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A654" s="11"/>
+      <c r="B654" s="11"/>
+    </row>
+    <row r="655" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A655" s="11"/>
+      <c r="B655" s="11"/>
+    </row>
+    <row r="656" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A656" s="11"/>
+      <c r="B656" s="11"/>
+    </row>
+    <row r="657" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A657" s="11"/>
+      <c r="B657" s="11"/>
+    </row>
+    <row r="658" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A658" s="11"/>
+      <c r="B658" s="11"/>
+    </row>
+    <row r="659" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A659" s="11"/>
+      <c r="B659" s="11"/>
+    </row>
+    <row r="660" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A660" s="11"/>
+      <c r="B660" s="11"/>
+    </row>
+    <row r="661" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A661" s="11"/>
+      <c r="B661" s="11"/>
+    </row>
+    <row r="662" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A662" s="11"/>
+      <c r="B662" s="11"/>
+    </row>
+    <row r="663" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A663" s="11"/>
+      <c r="B663" s="11"/>
+    </row>
+    <row r="664" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A664" s="11"/>
+      <c r="B664" s="11"/>
+    </row>
+    <row r="665" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A665" s="11"/>
+      <c r="B665" s="11"/>
+    </row>
+    <row r="666" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A666" s="11"/>
+      <c r="B666" s="11"/>
+    </row>
+    <row r="667" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A667" s="11"/>
+      <c r="B667" s="11"/>
+    </row>
+    <row r="668" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A668" s="11"/>
+      <c r="B668" s="11"/>
+    </row>
+    <row r="669" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A669" s="11"/>
+      <c r="B669" s="11"/>
+    </row>
+    <row r="670" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A670" s="11"/>
+      <c r="B670" s="11"/>
+    </row>
+    <row r="671" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A671" s="11"/>
+      <c r="B671" s="11"/>
+    </row>
+    <row r="672" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A672" s="11"/>
+      <c r="B672" s="11"/>
+    </row>
+    <row r="673" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A673" s="11"/>
+      <c r="B673" s="11"/>
+    </row>
+    <row r="674" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A674" s="11"/>
+      <c r="B674" s="11"/>
+    </row>
+    <row r="675" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A675" s="11"/>
+      <c r="B675" s="11"/>
+    </row>
+    <row r="676" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A676" s="11"/>
+      <c r="B676" s="11"/>
+    </row>
+    <row r="677" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A677" s="11"/>
+      <c r="B677" s="11"/>
+    </row>
+    <row r="678" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A678" s="11"/>
+      <c r="B678" s="11"/>
+    </row>
+    <row r="679" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A679" s="11"/>
+      <c r="B679" s="11"/>
+    </row>
+    <row r="680" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A680" s="11"/>
+      <c r="B680" s="11"/>
+    </row>
+    <row r="681" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A681" s="11"/>
+      <c r="B681" s="11"/>
+    </row>
+    <row r="682" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A682" s="11"/>
+      <c r="B682" s="11"/>
+    </row>
+    <row r="683" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A683" s="11"/>
+      <c r="B683" s="11"/>
+    </row>
+    <row r="684" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A684" s="11"/>
+      <c r="B684" s="11"/>
+    </row>
+    <row r="685" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A685" s="11"/>
+      <c r="B685" s="11"/>
+    </row>
+    <row r="686" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A686" s="11"/>
+      <c r="B686" s="11"/>
+    </row>
+    <row r="687" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A687" s="11"/>
+      <c r="B687" s="11"/>
+    </row>
+    <row r="688" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A688" s="11"/>
+      <c r="B688" s="11"/>
+    </row>
+    <row r="689" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A689" s="11"/>
+      <c r="B689" s="11"/>
+    </row>
+    <row r="690" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A690" s="11"/>
+      <c r="B690" s="11"/>
+    </row>
+    <row r="691" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A691" s="11"/>
+      <c r="B691" s="11"/>
+    </row>
+    <row r="692" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A692" s="11"/>
+      <c r="B692" s="11"/>
+    </row>
+    <row r="693" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A693" s="11"/>
+      <c r="B693" s="11"/>
+    </row>
+    <row r="694" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A694" s="11"/>
+      <c r="B694" s="11"/>
+    </row>
+    <row r="695" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A695" s="11"/>
+      <c r="B695" s="11"/>
+    </row>
+    <row r="696" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A696" s="11"/>
+      <c r="B696" s="11"/>
+    </row>
+    <row r="697" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A697" s="11"/>
+      <c r="B697" s="11"/>
+    </row>
+    <row r="698" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A698" s="11"/>
+      <c r="B698" s="11"/>
+    </row>
+    <row r="699" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A699" s="11"/>
+      <c r="B699" s="11"/>
+    </row>
+    <row r="700" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A700" s="11"/>
+      <c r="B700" s="11"/>
+    </row>
+    <row r="701" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A701" s="11"/>
+      <c r="B701" s="11"/>
+    </row>
+    <row r="702" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A702" s="11"/>
+      <c r="B702" s="11"/>
+    </row>
+    <row r="703" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A703" s="11"/>
+      <c r="B703" s="11"/>
+    </row>
+    <row r="704" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A704" s="11"/>
+      <c r="B704" s="11"/>
+    </row>
+    <row r="705" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A705" s="11"/>
+      <c r="B705" s="11"/>
+    </row>
+    <row r="706" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A706" s="11"/>
+      <c r="B706" s="11"/>
+    </row>
+    <row r="707" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A707" s="11"/>
+      <c r="B707" s="11"/>
+    </row>
+    <row r="708" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A708" s="11"/>
+      <c r="B708" s="11"/>
+    </row>
+    <row r="709" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A709" s="11"/>
+      <c r="B709" s="11"/>
+    </row>
+    <row r="710" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A710" s="11"/>
+      <c r="B710" s="11"/>
+    </row>
+    <row r="711" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A711" s="11"/>
+      <c r="B711" s="11"/>
+    </row>
+    <row r="712" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A712" s="11"/>
+      <c r="B712" s="11"/>
+    </row>
+    <row r="713" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A713" s="11"/>
+      <c r="B713" s="11"/>
+    </row>
+    <row r="714" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A714" s="11"/>
+      <c r="B714" s="11"/>
+    </row>
+    <row r="715" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A715" s="11"/>
+      <c r="B715" s="11"/>
+    </row>
+    <row r="716" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A716" s="11"/>
+      <c r="B716" s="11"/>
+    </row>
+    <row r="717" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A717" s="11"/>
+      <c r="B717" s="11"/>
+    </row>
+    <row r="718" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A718" s="11"/>
+      <c r="B718" s="11"/>
+    </row>
+    <row r="719" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A719" s="11"/>
+      <c r="B719" s="11"/>
+    </row>
+    <row r="720" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A720" s="11"/>
+      <c r="B720" s="11"/>
+    </row>
+    <row r="721" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A721" s="11"/>
+      <c r="B721" s="11"/>
+    </row>
+    <row r="722" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A722" s="11"/>
+      <c r="B722" s="11"/>
+    </row>
+    <row r="723" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A723" s="11"/>
+      <c r="B723" s="11"/>
+    </row>
+    <row r="724" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A724" s="11"/>
+      <c r="B724" s="11"/>
+    </row>
+    <row r="725" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A725" s="11"/>
+      <c r="B725" s="11"/>
+    </row>
+    <row r="726" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A726" s="11"/>
+      <c r="B726" s="11"/>
+    </row>
+    <row r="727" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A727" s="11"/>
+      <c r="B727" s="11"/>
+    </row>
+    <row r="728" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A728" s="11"/>
+      <c r="B728" s="11"/>
+    </row>
+    <row r="729" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A729" s="11"/>
+      <c r="B729" s="11"/>
+    </row>
+    <row r="730" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A730" s="11"/>
+      <c r="B730" s="11"/>
+    </row>
+    <row r="731" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A731" s="11"/>
+      <c r="B731" s="11"/>
+    </row>
+    <row r="732" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A732" s="11"/>
+      <c r="B732" s="11"/>
+    </row>
+    <row r="733" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A733" s="11"/>
+      <c r="B733" s="11"/>
+    </row>
+    <row r="734" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A734" s="11"/>
+      <c r="B734" s="11"/>
+    </row>
+    <row r="735" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A735" s="11"/>
+      <c r="B735" s="11"/>
+    </row>
+    <row r="736" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A736" s="11"/>
+      <c r="B736" s="11"/>
+    </row>
+    <row r="737" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A737" s="11"/>
+      <c r="B737" s="11"/>
+    </row>
+    <row r="738" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A738" s="11"/>
+      <c r="B738" s="11"/>
+    </row>
+    <row r="739" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A739" s="11"/>
+      <c r="B739" s="11"/>
+    </row>
+    <row r="740" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A740" s="11"/>
+      <c r="B740" s="11"/>
+    </row>
+    <row r="741" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A741" s="11"/>
+      <c r="B741" s="11"/>
+    </row>
+    <row r="742" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A742" s="11"/>
+      <c r="B742" s="11"/>
+    </row>
+    <row r="743" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A743" s="11"/>
+      <c r="B743" s="11"/>
+    </row>
+    <row r="744" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A744" s="11"/>
+      <c r="B744" s="11"/>
+    </row>
+    <row r="745" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A745" s="11"/>
+      <c r="B745" s="11"/>
+    </row>
+    <row r="746" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A746" s="11"/>
+      <c r="B746" s="11"/>
+    </row>
+    <row r="747" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A747" s="11"/>
+      <c r="B747" s="11"/>
+    </row>
+    <row r="748" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A748" s="11"/>
+      <c r="B748" s="11"/>
+    </row>
+    <row r="749" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A749" s="11"/>
+      <c r="B749" s="11"/>
+    </row>
+    <row r="750" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A750" s="11"/>
+      <c r="B750" s="11"/>
+    </row>
+    <row r="751" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A751" s="11"/>
+      <c r="B751" s="11"/>
+    </row>
+    <row r="752" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A752" s="11"/>
+      <c r="B752" s="11"/>
+    </row>
+    <row r="753" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A753" s="11"/>
+      <c r="B753" s="11"/>
+    </row>
+    <row r="754" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A754" s="11"/>
+      <c r="B754" s="11"/>
+    </row>
+    <row r="755" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A755" s="11"/>
+      <c r="B755" s="11"/>
+    </row>
+    <row r="756" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A756" s="11"/>
+      <c r="B756" s="11"/>
+    </row>
+    <row r="757" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A757" s="11"/>
+      <c r="B757" s="11"/>
+    </row>
+    <row r="758" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A758" s="11"/>
+      <c r="B758" s="11"/>
+    </row>
+    <row r="759" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A759" s="11"/>
+      <c r="B759" s="11"/>
+    </row>
+    <row r="760" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A760" s="11"/>
+      <c r="B760" s="11"/>
+    </row>
+    <row r="761" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A761" s="11"/>
+      <c r="B761" s="11"/>
+    </row>
+    <row r="762" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A762" s="11"/>
+      <c r="B762" s="11"/>
+    </row>
+    <row r="763" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A763" s="11"/>
+      <c r="B763" s="11"/>
+    </row>
+    <row r="764" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A764" s="11"/>
+      <c r="B764" s="11"/>
+    </row>
+    <row r="765" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A765" s="11"/>
+      <c r="B765" s="11"/>
+    </row>
+    <row r="766" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A766" s="11"/>
+      <c r="B766" s="11"/>
+    </row>
+    <row r="767" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A767" s="11"/>
+      <c r="B767" s="11"/>
+    </row>
+    <row r="768" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A768" s="11"/>
+      <c r="B768" s="11"/>
+    </row>
+    <row r="769" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A769" s="11"/>
+      <c r="B769" s="11"/>
+    </row>
+    <row r="770" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A770" s="11"/>
+      <c r="B770" s="11"/>
+    </row>
+    <row r="771" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A771" s="11"/>
+      <c r="B771" s="11"/>
+    </row>
+    <row r="772" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A772" s="11"/>
+      <c r="B772" s="11"/>
+    </row>
+    <row r="773" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A773" s="11"/>
+      <c r="B773" s="11"/>
+    </row>
+    <row r="774" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A774" s="11"/>
+      <c r="B774" s="11"/>
+    </row>
+    <row r="775" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A775" s="11"/>
+      <c r="B775" s="11"/>
+    </row>
+    <row r="776" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A776" s="11"/>
+      <c r="B776" s="11"/>
+    </row>
+    <row r="777" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A777" s="11"/>
+      <c r="B777" s="11"/>
+    </row>
+    <row r="778" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A778" s="11"/>
+      <c r="B778" s="11"/>
+    </row>
+    <row r="779" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A779" s="11"/>
+      <c r="B779" s="11"/>
+    </row>
+    <row r="780" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A780" s="11"/>
+      <c r="B780" s="11"/>
+    </row>
+    <row r="781" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A781" s="11"/>
+      <c r="B781" s="11"/>
+    </row>
+    <row r="782" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A782" s="11"/>
+      <c r="B782" s="11"/>
+    </row>
+    <row r="783" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A783" s="11"/>
+      <c r="B783" s="11"/>
+    </row>
+    <row r="784" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A784" s="11"/>
+      <c r="B784" s="11"/>
+    </row>
+    <row r="785" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A785" s="11"/>
+      <c r="B785" s="11"/>
+    </row>
+    <row r="786" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A786" s="11"/>
+      <c r="B786" s="11"/>
+    </row>
+    <row r="787" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A787" s="11"/>
+      <c r="B787" s="11"/>
+    </row>
+    <row r="788" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A788" s="11"/>
+      <c r="B788" s="11"/>
+    </row>
+    <row r="789" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A789" s="11"/>
+      <c r="B789" s="11"/>
+    </row>
+    <row r="790" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A790" s="11"/>
+      <c r="B790" s="11"/>
+    </row>
+    <row r="791" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A791" s="11"/>
+      <c r="B791" s="11"/>
+    </row>
+    <row r="792" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A792" s="11"/>
+      <c r="B792" s="11"/>
+    </row>
+    <row r="793" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A793" s="11"/>
+      <c r="B793" s="11"/>
+    </row>
+    <row r="794" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A794" s="11"/>
+      <c r="B794" s="11"/>
+    </row>
+    <row r="795" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A795" s="11"/>
+      <c r="B795" s="11"/>
+    </row>
+    <row r="796" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A796" s="11"/>
+      <c r="B796" s="11"/>
+    </row>
+    <row r="797" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A797" s="11"/>
+      <c r="B797" s="11"/>
+    </row>
+    <row r="798" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A798" s="11"/>
+      <c r="B798" s="11"/>
+    </row>
+    <row r="799" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A799" s="11"/>
+      <c r="B799" s="11"/>
+    </row>
+    <row r="800" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A800" s="11"/>
+      <c r="B800" s="11"/>
+    </row>
+    <row r="801" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A801" s="11"/>
+      <c r="B801" s="11"/>
+    </row>
+    <row r="802" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A802" s="11"/>
+      <c r="B802" s="11"/>
+    </row>
+    <row r="803" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A803" s="11"/>
+      <c r="B803" s="11"/>
+    </row>
+    <row r="804" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A804" s="11"/>
+      <c r="B804" s="11"/>
+    </row>
+    <row r="805" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A805" s="11"/>
+      <c r="B805" s="11"/>
+    </row>
+    <row r="806" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A806" s="11"/>
+      <c r="B806" s="11"/>
+    </row>
+    <row r="807" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A807" s="11"/>
+      <c r="B807" s="11"/>
+    </row>
+    <row r="808" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A808" s="11"/>
+      <c r="B808" s="11"/>
+    </row>
+    <row r="809" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A809" s="11"/>
+      <c r="B809" s="11"/>
+    </row>
+    <row r="810" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A810" s="11"/>
+      <c r="B810" s="11"/>
+    </row>
+    <row r="811" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A811" s="11"/>
+      <c r="B811" s="11"/>
+    </row>
+    <row r="812" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A812" s="11"/>
+      <c r="B812" s="11"/>
+    </row>
+    <row r="813" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A813" s="11"/>
+      <c r="B813" s="11"/>
+    </row>
+    <row r="814" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A814" s="11"/>
+      <c r="B814" s="11"/>
+    </row>
+    <row r="815" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A815" s="11"/>
+      <c r="B815" s="11"/>
+    </row>
+    <row r="816" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A816" s="11"/>
+      <c r="B816" s="11"/>
+    </row>
+    <row r="817" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A817" s="11"/>
+      <c r="B817" s="11"/>
+    </row>
+    <row r="818" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A818" s="11"/>
+      <c r="B818" s="11"/>
+    </row>
+    <row r="819" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A819" s="11"/>
+      <c r="B819" s="11"/>
+    </row>
+    <row r="820" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A820" s="11"/>
+      <c r="B820" s="11"/>
+    </row>
+    <row r="821" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A821" s="11"/>
+      <c r="B821" s="11"/>
+    </row>
+    <row r="822" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A822" s="11"/>
+      <c r="B822" s="11"/>
+    </row>
+    <row r="823" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A823" s="11"/>
+      <c r="B823" s="11"/>
+    </row>
+    <row r="824" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A824" s="11"/>
+      <c r="B824" s="11"/>
+    </row>
+    <row r="825" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A825" s="11"/>
+      <c r="B825" s="11"/>
+    </row>
+    <row r="826" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A826" s="11"/>
+      <c r="B826" s="11"/>
+    </row>
+    <row r="827" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A827" s="11"/>
+      <c r="B827" s="11"/>
+    </row>
+    <row r="828" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A828" s="11"/>
+      <c r="B828" s="11"/>
+    </row>
+    <row r="829" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A829" s="11"/>
+      <c r="B829" s="11"/>
+    </row>
+    <row r="830" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A830" s="11"/>
+      <c r="B830" s="11"/>
+    </row>
+    <row r="831" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A831" s="11"/>
+      <c r="B831" s="11"/>
+    </row>
+    <row r="832" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A832" s="11"/>
+      <c r="B832" s="11"/>
+    </row>
+    <row r="833" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A833" s="11"/>
+      <c r="B833" s="11"/>
+    </row>
+    <row r="834" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A834" s="11"/>
+      <c r="B834" s="11"/>
+    </row>
+    <row r="835" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A835" s="11"/>
+      <c r="B835" s="11"/>
+    </row>
+    <row r="836" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A836" s="11"/>
+      <c r="B836" s="11"/>
+    </row>
+    <row r="837" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A837" s="11"/>
+      <c r="B837" s="11"/>
+    </row>
+    <row r="838" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A838" s="11"/>
+      <c r="B838" s="11"/>
+    </row>
+    <row r="839" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A839" s="11"/>
+      <c r="B839" s="11"/>
+    </row>
+    <row r="840" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A840" s="11"/>
+      <c r="B840" s="11"/>
+    </row>
+    <row r="841" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A841" s="11"/>
+      <c r="B841" s="11"/>
+    </row>
+    <row r="842" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A842" s="11"/>
+      <c r="B842" s="11"/>
+    </row>
+    <row r="843" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A843" s="11"/>
+      <c r="B843" s="11"/>
+    </row>
+    <row r="844" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A844" s="11"/>
+      <c r="B844" s="11"/>
+    </row>
+    <row r="845" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A845" s="11"/>
+      <c r="B845" s="11"/>
+    </row>
+    <row r="846" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A846" s="11"/>
+      <c r="B846" s="11"/>
+    </row>
+    <row r="847" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A847" s="11"/>
+      <c r="B847" s="11"/>
+    </row>
+    <row r="848" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A848" s="11"/>
+      <c r="B848" s="11"/>
+    </row>
+    <row r="849" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A849" s="11"/>
+      <c r="B849" s="11"/>
+    </row>
+    <row r="850" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A850" s="11"/>
+      <c r="B850" s="11"/>
+    </row>
+    <row r="851" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A851" s="11"/>
+      <c r="B851" s="11"/>
+    </row>
+    <row r="852" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A852" s="11"/>
+      <c r="B852" s="11"/>
+    </row>
+    <row r="853" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A853" s="11"/>
+      <c r="B853" s="11"/>
+    </row>
+    <row r="854" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A854" s="11"/>
+      <c r="B854" s="11"/>
+    </row>
+    <row r="855" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A855" s="11"/>
+      <c r="B855" s="11"/>
+    </row>
+    <row r="856" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A856" s="11"/>
+      <c r="B856" s="11"/>
+    </row>
+    <row r="857" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A857" s="11"/>
+      <c r="B857" s="11"/>
+    </row>
+    <row r="858" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A858" s="11"/>
+      <c r="B858" s="11"/>
+    </row>
+    <row r="859" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A859" s="11"/>
+      <c r="B859" s="11"/>
+    </row>
+    <row r="860" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A860" s="11"/>
+      <c r="B860" s="11"/>
+    </row>
+    <row r="861" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A861" s="11"/>
+      <c r="B861" s="11"/>
+    </row>
+    <row r="862" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A862" s="11"/>
+      <c r="B862" s="11"/>
+    </row>
+    <row r="863" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A863" s="11"/>
+      <c r="B863" s="11"/>
+    </row>
+    <row r="864" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A864" s="11"/>
+      <c r="B864" s="11"/>
+    </row>
+    <row r="865" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A865" s="11"/>
+      <c r="B865" s="11"/>
+    </row>
+    <row r="866" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A866" s="11"/>
+      <c r="B866" s="11"/>
+    </row>
+    <row r="867" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A867" s="11"/>
+      <c r="B867" s="11"/>
+    </row>
+    <row r="868" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A868" s="11"/>
+      <c r="B868" s="11"/>
+    </row>
+    <row r="869" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A869" s="11"/>
+      <c r="B869" s="11"/>
+    </row>
+    <row r="870" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A870" s="11"/>
+      <c r="B870" s="11"/>
+    </row>
+    <row r="871" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A871" s="11"/>
+      <c r="B871" s="11"/>
+    </row>
+    <row r="872" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A872" s="11"/>
+      <c r="B872" s="11"/>
+    </row>
+    <row r="873" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A873" s="11"/>
+      <c r="B873" s="11"/>
+    </row>
+    <row r="874" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A874" s="11"/>
+      <c r="B874" s="11"/>
+    </row>
+    <row r="875" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A875" s="11"/>
+      <c r="B875" s="11"/>
+    </row>
+    <row r="876" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A876" s="11"/>
+      <c r="B876" s="11"/>
+    </row>
+    <row r="877" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A877" s="11"/>
+      <c r="B877" s="11"/>
+    </row>
+    <row r="878" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A878" s="11"/>
+      <c r="B878" s="11"/>
+    </row>
+    <row r="879" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A879" s="11"/>
+      <c r="B879" s="11"/>
+    </row>
+    <row r="880" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A880" s="11"/>
+      <c r="B880" s="11"/>
+    </row>
+    <row r="881" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A881" s="11"/>
+      <c r="B881" s="11"/>
+    </row>
+    <row r="882" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A882" s="11"/>
+      <c r="B882" s="11"/>
+    </row>
+    <row r="883" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A883" s="11"/>
+      <c r="B883" s="11"/>
+    </row>
+    <row r="884" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A884" s="11"/>
+      <c r="B884" s="11"/>
+    </row>
+    <row r="885" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A885" s="11"/>
+      <c r="B885" s="11"/>
+    </row>
+    <row r="886" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A886" s="11"/>
+      <c r="B886" s="11"/>
+    </row>
+    <row r="887" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A887" s="11"/>
+      <c r="B887" s="11"/>
+    </row>
+    <row r="888" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A888" s="11"/>
+      <c r="B888" s="11"/>
+    </row>
+    <row r="889" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A889" s="11"/>
+      <c r="B889" s="11"/>
+    </row>
+    <row r="890" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A890" s="11"/>
+      <c r="B890" s="11"/>
+    </row>
+    <row r="891" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A891" s="11"/>
+      <c r="B891" s="11"/>
+    </row>
+    <row r="892" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A892" s="11"/>
+      <c r="B892" s="11"/>
+    </row>
+    <row r="893" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A893" s="11"/>
+      <c r="B893" s="11"/>
+    </row>
+    <row r="894" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A894" s="11"/>
+      <c r="B894" s="11"/>
+    </row>
+    <row r="895" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A895" s="11"/>
+      <c r="B895" s="11"/>
+    </row>
+    <row r="896" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A896" s="11"/>
+      <c r="B896" s="11"/>
+    </row>
+    <row r="897" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A897" s="11"/>
+      <c r="B897" s="11"/>
+    </row>
+    <row r="898" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A898" s="11"/>
+      <c r="B898" s="11"/>
+    </row>
+    <row r="899" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A899" s="11"/>
+      <c r="B899" s="11"/>
+    </row>
+    <row r="900" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A900" s="11"/>
+      <c r="B900" s="11"/>
+    </row>
+    <row r="901" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A901" s="11"/>
+      <c r="B901" s="11"/>
+    </row>
+    <row r="902" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A902" s="11"/>
+      <c r="B902" s="11"/>
+    </row>
+    <row r="903" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A903" s="11"/>
+      <c r="B903" s="11"/>
+    </row>
+    <row r="904" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A904" s="11"/>
+      <c r="B904" s="11"/>
+    </row>
+    <row r="905" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A905" s="11"/>
+      <c r="B905" s="11"/>
+    </row>
+    <row r="906" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A906" s="11"/>
+      <c r="B906" s="11"/>
+    </row>
+    <row r="907" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A907" s="11"/>
+      <c r="B907" s="11"/>
+    </row>
+    <row r="908" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A908" s="11"/>
+      <c r="B908" s="11"/>
+    </row>
+    <row r="909" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A909" s="11"/>
+      <c r="B909" s="11"/>
+    </row>
+    <row r="910" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A910" s="11"/>
+      <c r="B910" s="11"/>
+    </row>
+    <row r="911" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A911" s="11"/>
+      <c r="B911" s="11"/>
+    </row>
+    <row r="912" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A912" s="11"/>
+      <c r="B912" s="11"/>
+    </row>
+    <row r="913" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A913" s="11"/>
+      <c r="B913" s="11"/>
+    </row>
+    <row r="914" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A914" s="11"/>
+      <c r="B914" s="11"/>
+    </row>
+    <row r="915" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A915" s="11"/>
+      <c r="B915" s="11"/>
+    </row>
+    <row r="916" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A916" s="11"/>
+      <c r="B916" s="11"/>
+    </row>
+    <row r="917" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A917" s="11"/>
+      <c r="B917" s="11"/>
+    </row>
+    <row r="918" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A918" s="11"/>
+      <c r="B918" s="11"/>
+    </row>
+    <row r="919" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A919" s="11"/>
+      <c r="B919" s="11"/>
+    </row>
+    <row r="920" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A920" s="11"/>
+      <c r="B920" s="11"/>
+    </row>
+    <row r="921" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A921" s="11"/>
+      <c r="B921" s="11"/>
+    </row>
+    <row r="922" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A922" s="11"/>
+      <c r="B922" s="11"/>
+    </row>
+    <row r="923" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A923" s="11"/>
+      <c r="B923" s="11"/>
+    </row>
+    <row r="924" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A924" s="11"/>
+      <c r="B924" s="11"/>
+    </row>
+    <row r="925" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A925" s="11"/>
+      <c r="B925" s="11"/>
+    </row>
+    <row r="926" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A926" s="11"/>
+      <c r="B926" s="11"/>
+    </row>
+    <row r="927" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A927" s="11"/>
+      <c r="B927" s="11"/>
+    </row>
+    <row r="928" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A928" s="11"/>
+      <c r="B928" s="11"/>
+    </row>
+    <row r="929" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A929" s="11"/>
+      <c r="B929" s="11"/>
+    </row>
+    <row r="930" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A930" s="11"/>
+      <c r="B930" s="11"/>
+    </row>
+    <row r="931" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A931" s="11"/>
+      <c r="B931" s="11"/>
+    </row>
+    <row r="932" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A932" s="11"/>
+      <c r="B932" s="11"/>
+    </row>
+    <row r="933" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A933" s="11"/>
+      <c r="B933" s="11"/>
+    </row>
+    <row r="934" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A934" s="11"/>
+      <c r="B934" s="11"/>
+    </row>
+    <row r="935" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A935" s="11"/>
+      <c r="B935" s="11"/>
+    </row>
+    <row r="936" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A936" s="11"/>
+      <c r="B936" s="11"/>
+    </row>
+    <row r="937" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A937" s="11"/>
+      <c r="B937" s="11"/>
+    </row>
+    <row r="938" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A938" s="11"/>
+      <c r="B938" s="11"/>
+    </row>
+    <row r="939" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A939" s="11"/>
+      <c r="B939" s="11"/>
+    </row>
+    <row r="940" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A940" s="11"/>
+      <c r="B940" s="11"/>
+    </row>
+    <row r="941" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A941" s="11"/>
+      <c r="B941" s="11"/>
+    </row>
+    <row r="942" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A942" s="11"/>
+      <c r="B942" s="11"/>
+    </row>
+    <row r="943" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A943" s="11"/>
+      <c r="B943" s="11"/>
+    </row>
+    <row r="944" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A944" s="11"/>
+      <c r="B944" s="11"/>
+    </row>
+    <row r="945" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A945" s="11"/>
+      <c r="B945" s="11"/>
+    </row>
+    <row r="946" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A946" s="11"/>
+      <c r="B946" s="11"/>
+    </row>
+    <row r="947" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A947" s="11"/>
+      <c r="B947" s="11"/>
+    </row>
+    <row r="948" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A948" s="11"/>
+      <c r="B948" s="11"/>
+    </row>
+    <row r="949" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A949" s="11"/>
+      <c r="B949" s="11"/>
+    </row>
+    <row r="950" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A950" s="11"/>
+      <c r="B950" s="11"/>
+    </row>
+    <row r="951" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A951" s="11"/>
+      <c r="B951" s="11"/>
+    </row>
+    <row r="952" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A952" s="11"/>
+      <c r="B952" s="11"/>
+    </row>
+    <row r="953" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A953" s="11"/>
+      <c r="B953" s="11"/>
+    </row>
+    <row r="954" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A954" s="11"/>
+      <c r="B954" s="11"/>
+    </row>
+    <row r="955" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A955" s="11"/>
+      <c r="B955" s="11"/>
+    </row>
+    <row r="956" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A956" s="11"/>
+      <c r="B956" s="11"/>
+    </row>
+    <row r="957" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A957" s="11"/>
+      <c r="B957" s="11"/>
+    </row>
+    <row r="958" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A958" s="11"/>
+      <c r="B958" s="11"/>
+    </row>
+    <row r="959" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A959" s="11"/>
+      <c r="B959" s="11"/>
+    </row>
+    <row r="960" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A960" s="11"/>
+      <c r="B960" s="11"/>
+    </row>
+    <row r="961" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A961" s="11"/>
+      <c r="B961" s="11"/>
+    </row>
+    <row r="962" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A962" s="11"/>
+      <c r="B962" s="11"/>
+    </row>
+    <row r="963" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A963" s="11"/>
+      <c r="B963" s="11"/>
+    </row>
+    <row r="964" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A964" s="11"/>
+      <c r="B964" s="11"/>
+    </row>
+    <row r="965" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A965" s="11"/>
+      <c r="B965" s="11"/>
+    </row>
+    <row r="966" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A966" s="11"/>
+      <c r="B966" s="11"/>
+    </row>
+    <row r="967" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A967" s="11"/>
+      <c r="B967" s="11"/>
+    </row>
+    <row r="968" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A968" s="11"/>
+      <c r="B968" s="11"/>
+    </row>
+    <row r="969" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A969" s="11"/>
+      <c r="B969" s="11"/>
+    </row>
+    <row r="970" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A970" s="11"/>
+      <c r="B970" s="11"/>
+    </row>
+    <row r="971" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A971" s="11"/>
+      <c r="B971" s="11"/>
+    </row>
+    <row r="972" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A972" s="11"/>
+      <c r="B972" s="11"/>
+    </row>
+    <row r="973" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A973" s="11"/>
+      <c r="B973" s="11"/>
+    </row>
+    <row r="974" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A974" s="11"/>
+      <c r="B974" s="11"/>
+    </row>
+    <row r="975" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A975" s="11"/>
+      <c r="B975" s="11"/>
+    </row>
+    <row r="976" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A976" s="11"/>
+      <c r="B976" s="11"/>
+    </row>
+    <row r="977" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A977" s="11"/>
+      <c r="B977" s="11"/>
+    </row>
+    <row r="978" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A978" s="11"/>
+      <c r="B978" s="11"/>
+    </row>
+    <row r="979" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A979" s="11"/>
+      <c r="B979" s="11"/>
+    </row>
+    <row r="980" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A980" s="11"/>
+      <c r="B980" s="11"/>
+    </row>
+    <row r="981" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A981" s="11"/>
+      <c r="B981" s="11"/>
+    </row>
+    <row r="982" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A982" s="11"/>
+      <c r="B982" s="11"/>
+    </row>
+    <row r="983" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A983" s="11"/>
+      <c r="B983" s="11"/>
+    </row>
+    <row r="984" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A984" s="11"/>
+      <c r="B984" s="11"/>
+    </row>
+    <row r="985" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A985" s="11"/>
+      <c r="B985" s="11"/>
+    </row>
+    <row r="986" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A986" s="11"/>
+      <c r="B986" s="11"/>
+    </row>
+    <row r="987" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A987" s="11"/>
+      <c r="B987" s="11"/>
+    </row>
+    <row r="988" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A988" s="11"/>
+      <c r="B988" s="11"/>
+    </row>
+    <row r="989" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A989" s="11"/>
+      <c r="B989" s="11"/>
+    </row>
+    <row r="990" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A990" s="11"/>
+      <c r="B990" s="11"/>
+    </row>
+    <row r="991" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A991" s="11"/>
+      <c r="B991" s="11"/>
+    </row>
+    <row r="992" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A992" s="11"/>
+      <c r="B992" s="11"/>
+    </row>
+    <row r="993" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A993" s="11"/>
+      <c r="B993" s="11"/>
+    </row>
+    <row r="994" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A994" s="11"/>
+      <c r="B994" s="11"/>
+    </row>
+    <row r="995" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A995" s="11"/>
+      <c r="B995" s="11"/>
+    </row>
+    <row r="996" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A996" s="11"/>
+      <c r="B996" s="11"/>
+    </row>
+    <row r="997" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A997" s="11"/>
+      <c r="B997" s="11"/>
+    </row>
+    <row r="998" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A998" s="11"/>
+      <c r="B998" s="11"/>
+    </row>
+    <row r="999" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A999" s="11"/>
+      <c r="B999" s="11"/>
+    </row>
+    <row r="1000" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1000" s="11"/>
+      <c r="B1000" s="11"/>
+    </row>
+    <row r="1001" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1001" s="11"/>
+      <c r="B1001" s="11"/>
+    </row>
+    <row r="1002" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1002" s="11"/>
+      <c r="B1002" s="11"/>
+    </row>
+    <row r="1003" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1003" s="11"/>
+      <c r="B1003" s="11"/>
+    </row>
+    <row r="1004" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1004" s="11"/>
+      <c r="B1004" s="11"/>
+    </row>
+    <row r="1005" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1005" s="11"/>
+      <c r="B1005" s="11"/>
+    </row>
+    <row r="1006" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1006" s="11"/>
+      <c r="B1006" s="11"/>
+    </row>
+    <row r="1007" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1007" s="11"/>
+      <c r="B1007" s="11"/>
+    </row>
+    <row r="1008" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1008" s="11"/>
+      <c r="B1008" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -17101,12 +22112,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17123,13 +22134,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
+      <c r="A1" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17150,8 +22161,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'October 2024 - December 2024'!E95</f>
-        <v>426.06999999999971</v>
+        <f>'January 2025 - March 2025'!E95</f>
+        <v>300.26999999999953</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17213,7 +22224,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="5">
-        <f>'October 2024 - December 2024'!C5</f>
+        <f>'January 2025 - March 2025'!C5</f>
         <v>30.2</v>
       </c>
       <c r="D5" s="6"/>
@@ -17246,7 +22257,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>456.2699999999997</v>
+        <v>330.46999999999952</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17277,8 +22288,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('October 2024 - December 2024'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>-1975.12</v>
+        <f>('January 2025 - March 2025'!C7+E95)+SUM(E78,E85,E93)</f>
+        <v>1799.3499999999995</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -17332,13 +22343,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="100"/>
+      <c r="A10" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17366,7 +22377,7 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="82"/>
@@ -17376,15 +22387,15 @@
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="120"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17406,13 +22417,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="100"/>
+      <c r="A15" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17440,7 +22451,7 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="82"/>
@@ -17450,12 +22461,12 @@
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="82"/>
@@ -17483,13 +22494,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="100"/>
+      <c r="A20" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17517,25 +22528,25 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -17578,8 +22589,8 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="149" t="s">
-        <v>129</v>
+      <c r="A28" s="150" t="s">
+        <v>141</v>
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="82"/>
@@ -17597,7 +22608,7 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="81"/>
@@ -17634,16 +22645,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="127" t="s">
+      <c r="A34" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="118"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="130"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="131"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="120"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -17692,7 +22703,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="81"/>
@@ -17731,11 +22742,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="93"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -17777,11 +22788,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -17805,11 +22816,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -17833,11 +22844,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="100"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="98"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -17881,11 +22892,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="94"/>
-      <c r="C61" s="95"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -17952,11 +22963,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="93" t="s">
+      <c r="A68" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="137"/>
-      <c r="C68" s="95"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="90"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -17964,7 +22975,7 @@
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="50">
-        <f>'October 2024 - December 2024'!C69</f>
+        <f>'January 2025 - March 2025'!C69</f>
         <v>9939</v>
       </c>
     </row>
@@ -18016,8 +23027,8 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="87" t="s">
-        <v>130</v>
+      <c r="A76" s="80" t="s">
+        <v>137</v>
       </c>
       <c r="B76" s="81"/>
       <c r="C76" s="81"/>
@@ -18025,57 +23036,57 @@
       <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="88" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="92"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="145" t="s">
+      <c r="A78" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="112"/>
-      <c r="C78" s="143" t="s">
+      <c r="B78" s="130"/>
+      <c r="C78" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="144"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="102"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="134"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="103" t="s">
+      <c r="C80" s="101" t="s">
         <v>42</v>
       </c>
       <c r="D80" s="81"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>404.26999999999953</v>
+        <v>278.46999999999935</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="87" t="s">
-        <v>134</v>
+      <c r="A82" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="B82" s="81"/>
       <c r="C82" s="81"/>
@@ -18083,11 +23094,11 @@
       <c r="E82" s="82"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="82"/>
-      <c r="C83" s="87" t="s">
+      <c r="C83" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="82"/>
@@ -18096,36 +23107,36 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="135" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="120"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="142"/>
+      <c r="A84" s="136" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="107"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="143"/>
       <c r="E84" s="38">
         <f>E80</f>
-        <v>404.26999999999953</v>
+        <v>278.46999999999935</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
+      <c r="A85" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="139"/>
-      <c r="C85" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="141"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" s="142"/>
       <c r="E85" s="53">
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
+      <c r="A86" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="120"/>
-      <c r="C86" s="105"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="124"/>
       <c r="D86" s="82"/>
       <c r="E86" s="67">
         <f>C73</f>
@@ -18133,13 +23144,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="108" t="s">
+      <c r="C87" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D87" s="82"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>352.26999999999953</v>
+        <v>126.46999999999935</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
@@ -18157,20 +23168,20 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="136" t="s">
-        <v>131</v>
-      </c>
-      <c r="B90" s="122"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-      <c r="E90" s="100"/>
+      <c r="A90" s="137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="98"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="82"/>
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="82"/>
@@ -18179,36 +23190,36 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="135" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="120"/>
-      <c r="C92" s="105"/>
+      <c r="A92" s="136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="107"/>
+      <c r="C92" s="124"/>
       <c r="D92" s="82"/>
       <c r="E92" s="38">
         <f>E87</f>
-        <v>352.26999999999953</v>
+        <v>126.46999999999935</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
+      <c r="A93" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="139"/>
-      <c r="C93" s="109" t="s">
-        <v>150</v>
-      </c>
-      <c r="D93" s="110"/>
+      <c r="B93" s="140"/>
+      <c r="C93" s="114" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" s="128"/>
       <c r="E93" s="53">
-        <v>1200</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
+      <c r="A94" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="105"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="82"/>
       <c r="E94" s="67">
         <f>C73</f>
@@ -18216,13 +23227,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="108" t="s">
+      <c r="C95" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="82"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>300.26999999999953</v>
+        <v>-164.53000000000065</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -21982,12 +26993,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22004,13 +27015,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="118"/>
+      <c r="A1" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22031,8 +27042,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'January 2025 - March 2025'!E95</f>
-        <v>300.26999999999953</v>
+        <f>'April 2025 - June 2025'!E95</f>
+        <v>-164.53000000000065</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22094,7 +27105,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="5">
-        <f>'January 2025 - March 2025'!C5</f>
+        <f>'April 2025 - June 2025'!C5</f>
         <v>30.2</v>
       </c>
       <c r="D5" s="6"/>
@@ -22127,7 +27138,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>330.46999999999952</v>
+        <v>-134.33000000000067</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22158,8 +27169,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('January 2025 - March 2025'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>1799.3499999999995</v>
+        <f>('April 2025 - June 2025'!C7+E95)</f>
+        <v>5109.0199999999986</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -22213,13 +27224,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="100"/>
+      <c r="A10" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22247,7 +27258,7 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="123" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="82"/>
@@ -22257,15 +27268,15 @@
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="119" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="120"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22287,13 +27298,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="100"/>
+      <c r="A15" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22321,7 +27332,7 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="82"/>
@@ -22331,12 +27342,12 @@
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="82"/>
@@ -22364,13 +27375,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="100"/>
+      <c r="A20" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22398,25 +27409,25 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -22459,8 +27470,8 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="149" t="s">
-        <v>141</v>
+      <c r="A28" s="150" t="s">
+        <v>161</v>
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="82"/>
@@ -22478,7 +27489,7 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="91" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="81"/>
@@ -22515,16 +27526,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="127" t="s">
+      <c r="A34" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="118"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="130"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="131"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="120"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -22573,7 +27584,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="91" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="81"/>
@@ -22612,11 +27623,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="93"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -22658,11 +27669,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="80" t="s">
+      <c r="A50" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="93"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -22686,11 +27697,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -22714,11 +27725,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="99"/>
-      <c r="C56" s="100"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="98"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -22762,11 +27773,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="93" t="s">
+      <c r="A61" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="94"/>
-      <c r="C61" s="95"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -22833,11 +27844,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="93" t="s">
+      <c r="A68" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="137"/>
-      <c r="C68" s="95"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="90"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -22845,8 +27856,7 @@
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="50">
-        <f>'January 2025 - March 2025'!C69</f>
-        <v>9939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -22855,7 +27865,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="30">
@@ -22874,7 +27884,7 @@
       </c>
       <c r="C72" s="50">
         <f>SUM(C69:C71)</f>
-        <v>14939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
@@ -22897,8 +27907,8 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="87" t="s">
-        <v>137</v>
+      <c r="A76" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="B76" s="81"/>
       <c r="C76" s="81"/>
@@ -22906,57 +27916,55 @@
       <c r="E76" s="82"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="92"/>
-      <c r="C77" s="88" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="92"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="145" t="s">
+      <c r="A78" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="112"/>
-      <c r="C78" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="144"/>
+      <c r="B78" s="130"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="145"/>
       <c r="E78" s="76">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="102"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="86"/>
+      <c r="B79" s="100"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="134"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="103" t="s">
+      <c r="C80" s="101" t="s">
         <v>42</v>
       </c>
       <c r="D80" s="81"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>278.46999999999935</v>
+        <v>1013.6699999999992</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="87" t="s">
-        <v>145</v>
+      <c r="A82" s="80" t="s">
+        <v>165</v>
       </c>
       <c r="B82" s="81"/>
       <c r="C82" s="81"/>
@@ -22964,11 +27972,11 @@
       <c r="E82" s="82"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B83" s="82"/>
-      <c r="C83" s="87" t="s">
+      <c r="C83" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="82"/>
@@ -22977,36 +27985,34 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="135" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="120"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="142"/>
+      <c r="A84" s="136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="107"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="143"/>
       <c r="E84" s="38">
         <f>E80</f>
-        <v>278.46999999999935</v>
+        <v>1013.6699999999992</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
+      <c r="A85" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="139"/>
-      <c r="C85" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="141"/>
+      <c r="B85" s="140"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="142"/>
       <c r="E85" s="53">
-        <v>1300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
+      <c r="A86" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="120"/>
-      <c r="C86" s="105"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="124"/>
       <c r="D86" s="82"/>
       <c r="E86" s="67">
         <f>C73</f>
@@ -23014,13 +28020,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="108" t="s">
+      <c r="C87" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D87" s="82"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>126.46999999999935</v>
+        <v>2161.6699999999992</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
@@ -23038,20 +28044,20 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="136" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90" s="122"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-      <c r="E90" s="100"/>
+      <c r="A90" s="137" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="109"/>
+      <c r="C90" s="109"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="98"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="80" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="82"/>
-      <c r="C91" s="87" t="s">
+      <c r="C91" s="80" t="s">
         <v>38</v>
       </c>
       <c r="D91" s="82"/>
@@ -23060,36 +28066,34 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="135" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="120"/>
-      <c r="C92" s="105"/>
+      <c r="A92" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="107"/>
+      <c r="C92" s="124"/>
       <c r="D92" s="82"/>
       <c r="E92" s="38">
         <f>E87</f>
-        <v>126.46999999999935</v>
+        <v>2161.6699999999992</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
+      <c r="A93" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="139"/>
-      <c r="C93" s="109" t="s">
-        <v>152</v>
-      </c>
-      <c r="D93" s="110"/>
+      <c r="B93" s="140"/>
+      <c r="C93" s="114"/>
+      <c r="D93" s="128"/>
       <c r="E93" s="53">
-        <v>1439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
+      <c r="A94" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="120"/>
-      <c r="C94" s="105"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="124"/>
       <c r="D94" s="82"/>
       <c r="E94" s="67">
         <f>C73</f>
@@ -23097,13 +28101,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="108" t="s">
+      <c r="C95" s="127" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="82"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>-164.53000000000065</v>
+        <v>3309.6699999999992</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
@@ -26760,29 +31764,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A34:C35"/>
@@ -26796,18 +31789,29 @@
     <mergeCell ref="A76:E76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091FB94E-A29B-441B-960F-3DEFBE46966B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29CA65-57CF-46E4-9125-C974F38E413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="166">
   <si>
     <t>Assets</t>
   </si>
@@ -573,9 +573,6 @@
     </r>
   </si>
   <si>
-    <t>All amount in terms of Hundred Million</t>
-  </si>
-  <si>
     <t>July 2025 Revenue / Defered Debts Or Expenses</t>
   </si>
   <si>
@@ -627,7 +624,7 @@
     <numFmt numFmtId="167" formatCode="[$$-3C09]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$$-380A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,16 +819,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,12 +872,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1267,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1508,13 +1491,148 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,26 +1647,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1558,12 +1658,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,128 +1671,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1718,8 +1692,14 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2467,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1012"/>
+  <dimension ref="A1:Y1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2486,44 +2466,97 @@
     <col min="10" max="25" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1">
-      <c r="A1" s="135" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-    </row>
-    <row r="3" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A3" s="103" t="s">
+    <row r="1" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A1" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="35.25" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5">
-        <v>0.47</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -2550,8 +2583,8 @@
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>87</v>
+      <c r="B6" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -2581,11 +2614,11 @@
     </row>
     <row r="7" spans="1:25" ht="35.25" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>88</v>
+      <c r="B7" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="5">
-        <v>11</v>
+        <v>30.2</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2612,11 +2645,12 @@
     </row>
     <row r="8" spans="1:25" ht="35.25" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="36" t="s">
-        <v>40</v>
+      <c r="B8" s="65" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <f>SUM(C3:C7)</f>
+        <v>41.67</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2641,13 +2675,14 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="5">
-        <v>30.2</v>
+    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="58">
+        <f>E97-(C73-SUM(E86,E95))</f>
+        <v>-12953.33</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2672,17 +2707,12 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="35.25" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="5">
-        <f>SUM(C5:C9)</f>
-        <v>41.67</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+    <row r="10" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2704,965 +2734,914 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="58">
-        <f>E99-(C75-SUM(E88,E97))</f>
-        <v>-12953.33</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
+    <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" ht="13.5" customHeight="1"/>
+      <c r="A12" s="123" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+    </row>
+    <row r="13" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="81"/>
+      <c r="E13" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A14" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="98"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
+      <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="83"/>
+      <c r="E14" s="18">
+        <v>2405</v>
+      </c>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="49">
+        <f>SUM(E14:E14)</f>
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A17" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+    </row>
+    <row r="18" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B18" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C18" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="17" t="s">
+      <c r="D18" s="125"/>
+      <c r="E18" s="75" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="19" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C19" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="18">
+      <c r="D19" s="127"/>
+      <c r="E19" s="68">
         <v>2405</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="12" t="s">
+    <row r="20" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="49">
-        <f>SUM(E16:E16)</f>
+      <c r="E20" s="49">
+        <f>E19</f>
         <v>2405</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A19" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="98"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-    </row>
-    <row r="20" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A20" s="73" t="s">
+    <row r="21" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A22" s="123" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+    </row>
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C23" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="75" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="33" t="s">
+    <row r="24" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C24" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="113"/>
-      <c r="E21" s="68">
+      <c r="D24" s="81"/>
+      <c r="E24" s="19">
         <v>2405</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48" t="s">
+    <row r="25" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="113"/>
+      <c r="E25" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="49">
-        <f>E21</f>
+      <c r="E26" s="49">
+        <f>SUM(E24:E25)</f>
         <v>2405</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-    </row>
-    <row r="24" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A24" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="98"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-    </row>
-    <row r="25" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="110" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="19">
-        <v>2405</v>
-      </c>
-    </row>
     <row r="27" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="122" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="68">
-        <v>0</v>
-      </c>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="49">
-        <f>SUM(E26:E27)</f>
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="13.15" customHeight="1">
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="52"/>
+      <c r="A30" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="110"/>
+      <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-    </row>
-    <row r="33" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A33" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A34" s="91" t="s">
+      <c r="A32" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-    </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A35" s="26" t="s">
+      <c r="B32" s="110"/>
+      <c r="C32" s="81"/>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="19">
+      <c r="B33" s="2"/>
+      <c r="C33" s="19">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A36" s="27" t="s">
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C34" s="28">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="26" t="s">
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="30">
-        <f>SUM(C35:C36)</f>
+      <c r="C35" s="30">
+        <f>SUM(C33:C34)</f>
         <v>401</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A38" s="116" t="s">
+    <row r="36" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A36" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
-    </row>
-    <row r="39" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A39" s="119"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="120"/>
-    </row>
-    <row r="40" spans="1:4" ht="13.5" customHeight="1">
+      <c r="B36" s="104"/>
+      <c r="C36" s="105"/>
+    </row>
+    <row r="37" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A37" s="106"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
+    </row>
+    <row r="38" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="18">
+      <c r="C40" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13.5" customHeight="1">
+    <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C42" s="10">
+        <f>SUM(C38:C41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="10">
+    <row r="43" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A43" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="110"/>
+      <c r="C43" s="81"/>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="10">
-        <f>SUM(C40:C43)</f>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A45" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-    </row>
-    <row r="46" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>20</v>
+    <row r="46" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C46" s="19">
+        <f>SUM(C44:C45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="19">
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="116"/>
+      <c r="C47" s="117"/>
+    </row>
+    <row r="48" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A48" s="2"/>
-      <c r="B48" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="19">
-        <f>SUM(C46:C47)</f>
+    <row r="49" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A49" s="27"/>
+      <c r="B49" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="93"/>
-    </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="18">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="31" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C51" s="32">
+        <f>SUM(C48:C50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="32">
+      <c r="A52" s="111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="116"/>
+      <c r="C52" s="117"/>
+    </row>
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="32">
-        <f>SUM(C50:C52)</f>
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="27"/>
+      <c r="B54" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="32">
+        <f>SUM(C53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
-    </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="18">
+      <c r="A55" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="131"/>
+      <c r="C55" s="125"/>
+    </row>
+    <row r="56" spans="1:3" ht="33" customHeight="1">
+      <c r="A56" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="27"/>
-      <c r="B56" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="32">
-        <f>SUM(C55)</f>
+    <row r="57" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="35">
+        <f>SUM(C56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="87"/>
-    </row>
-    <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="A58" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="35">
+    <row r="58" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A58" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="107"/>
+      <c r="C58" s="86"/>
+    </row>
+    <row r="59" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A59" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="35">
-        <f>SUM(C58)</f>
+    <row r="60" spans="1:3" ht="15" customHeight="1">
+      <c r="A60" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="97"/>
-      <c r="C60" s="98"/>
-    </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="27"/>
+      <c r="A61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="C61" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1">
-      <c r="A62" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="18">
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="35">
+        <f>SUM(C59:C61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="18">
+      <c r="A63" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="132"/>
+      <c r="C63" s="89"/>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="61">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="35">
-        <f>SUM(C61:C63)</f>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="32">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="29"/>
+      <c r="B67" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="40">
+        <f>SUM(C64:C66)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="29"/>
+      <c r="B68" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="40">
+        <f>C35+C42+C46+C51+C54+C57+C62+C67</f>
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="88"/>
+      <c r="C69" s="89"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="39"/>
+      <c r="C70" s="50">
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="61">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="62">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="29"/>
+      <c r="B73" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="50">
+        <f>SUM(C70:C72)</f>
+        <v>14939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A74" s="33"/>
+      <c r="B74" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="42">
+        <f>C68</f>
+        <v>1461</v>
+      </c>
+      <c r="H74" s="37"/>
+    </row>
+    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A77" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="133"/>
+      <c r="C77" s="133"/>
+      <c r="D77" s="133"/>
+      <c r="E77" s="134"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="129"/>
+      <c r="C78" s="128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="129"/>
+      <c r="E78" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="137"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="119"/>
+      <c r="E79" s="45">
+        <f>C74</f>
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="C80" s="138" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="139"/>
+      <c r="E80" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="32">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="40">
-        <f>SUM(C66:C68)</f>
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="40">
-        <f>C37+C44+C48+C53+C56+C59+C64+C69</f>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A82" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="81"/>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="81"/>
+      <c r="C83" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="81"/>
+      <c r="E83" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="93"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="38">
+        <f>E80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="95"/>
+      <c r="C85" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="99"/>
+      <c r="E85" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="96"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86" s="100"/>
+      <c r="E86" s="53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="83"/>
+      <c r="C87" s="114" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="115"/>
+      <c r="E87" s="67">
+        <f>C74</f>
         <v>1461</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B71" s="138"/>
-      <c r="C71" s="90"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="50">
-        <v>9939</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="50">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="50">
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C88" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="81"/>
+      <c r="E88" s="38">
+        <f>SUM(C3:C7)</f>
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="86"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="81"/>
+      <c r="C92" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="81"/>
+      <c r="E92" s="23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="82" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="83"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="38">
+        <f>E88</f>
+        <v>41.67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" s="95"/>
+      <c r="C94" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" s="99"/>
+      <c r="E94" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="50">
-        <f>SUM(C72:C74)</f>
-        <v>14939</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="33"/>
-      <c r="B76" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="42">
-        <f>C70</f>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="96"/>
+      <c r="B95" s="97"/>
+      <c r="C95" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="100"/>
+      <c r="E95" s="53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="83"/>
+      <c r="C96" s="90"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="24">
+        <f>C74</f>
         <v>1461</v>
       </c>
-      <c r="H76" s="37"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="95"/>
-    </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="100"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="134"/>
-      <c r="E81" s="45">
-        <f>C76</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="102"/>
-      <c r="E82" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="B84" s="81"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="82"/>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="82"/>
-      <c r="C85" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D85" s="82"/>
-      <c r="E85" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="140"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="139"/>
-      <c r="E86" s="38">
-        <f>E82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" s="130"/>
-      <c r="C87" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="128"/>
-      <c r="E87" s="53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="131"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="115"/>
-      <c r="E88" s="53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="107"/>
-      <c r="C89" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="126"/>
-      <c r="E89" s="67">
-        <f>C76</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" s="82"/>
-      <c r="E90" s="38">
-        <f>SUM(C5:C9)</f>
-        <v>41.67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-    </row>
-    <row r="92" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-    </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="137" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="98"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B94" s="82"/>
-      <c r="C94" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" s="82"/>
-      <c r="E94" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="38">
-        <f>E90</f>
-        <v>41.67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="129" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" s="130"/>
-      <c r="C96" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="D96" s="128"/>
-      <c r="E96" s="53">
-        <v>0</v>
-      </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="131"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="115"/>
+      <c r="C97" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="81"/>
       <c r="E97" s="53">
-        <v>1000</v>
+        <f>(E26+E93)-SUM(E94:E96)</f>
+        <v>-14.329999999999927</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="136" t="s">
-        <v>41</v>
-      </c>
-      <c r="B98" s="107"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="24">
-        <f>C76</f>
-        <v>1461</v>
-      </c>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="82"/>
-      <c r="E99" s="53">
-        <f>(E28+E95)-SUM(E96:E98)</f>
-        <v>-14.329999999999927</v>
-      </c>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
       <c r="A100" s="11"/>
@@ -7308,74 +7287,65 @@
       <c r="A1010" s="11"/>
       <c r="B1010" s="11"/>
     </row>
-    <row r="1011" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1011" s="11"/>
-      <c r="B1011" s="11"/>
-    </row>
-    <row r="1012" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1012" s="11"/>
-      <c r="B1012" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A85:B86"/>
     <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A96:B97"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A96:B96"/>
     <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A94:B95"/>
     <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A92:B92"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
-  <conditionalFormatting sqref="C11">
+  <conditionalFormatting sqref="C9">
     <cfRule type="cellIs" dxfId="70" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="69" priority="26" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7383,7 +7353,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="67" priority="22" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7391,7 +7361,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="65" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7399,7 +7369,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="63" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7407,7 +7377,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="61" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7442,13 +7412,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7469,7 +7439,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'April 2024 - June 2024'!E99</f>
+        <f>'April 2024 - June 2024'!E97</f>
         <v>-14.329999999999927</v>
       </c>
       <c r="D3" s="6"/>
@@ -7532,7 +7502,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="5">
-        <f>'April 2024 - June 2024'!C9</f>
+        <f>'April 2024 - June 2024'!C7</f>
         <v>30.2</v>
       </c>
       <c r="D5" s="6"/>
@@ -7596,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('April 2024 - June 2024'!C11+E99)+SUM(E80,E88,E97)</f>
+        <f>('April 2024 - June 2024'!C9+E99)+SUM(E80,E88,E97)</f>
         <v>-9901.4599999999991</v>
       </c>
       <c r="D7" s="6"/>
@@ -7651,13 +7621,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7685,10 +7655,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -7700,10 +7670,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7725,13 +7695,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7759,10 +7729,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -7774,10 +7744,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7802,13 +7772,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7836,10 +7806,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -7851,10 +7821,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -7864,8 +7834,8 @@
       <c r="B23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
       <c r="E23" s="68">
         <v>204</v>
       </c>
@@ -7908,11 +7878,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="150" t="s">
+      <c r="A29" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="81"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -7927,11 +7897,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="81"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="26" t="s">
@@ -7964,16 +7934,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="116" t="s">
+      <c r="A35" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="108"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -8022,11 +7992,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="81"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -8061,11 +8031,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="117"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -8107,11 +8077,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="117"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -8135,11 +8105,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="125"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="33" t="s">
@@ -8163,11 +8133,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="96" t="s">
+      <c r="A57" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="98"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="86"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="27" t="s">
@@ -8211,11 +8181,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="89"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="59" t="s">
@@ -8282,11 +8252,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="88" t="s">
+      <c r="A69" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="138"/>
-      <c r="C69" s="90"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="89"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="43" t="s">
@@ -8294,7 +8264,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
-        <f>'April 2024 - June 2024'!C72</f>
+        <f>'April 2024 - June 2024'!C70</f>
         <v>9939</v>
       </c>
     </row>
@@ -8346,68 +8316,68 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="80" t="s">
+      <c r="A77" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="82"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="110"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="81"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="83" t="s">
+      <c r="A78" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="83" t="s">
+      <c r="B78" s="125"/>
+      <c r="C78" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="87"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="146"/>
-      <c r="C79" s="144" t="s">
+      <c r="B79" s="143"/>
+      <c r="C79" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="145"/>
+      <c r="D79" s="142"/>
       <c r="E79" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="147"/>
-      <c r="B80" s="147"/>
-      <c r="C80" s="148" t="s">
+      <c r="A80" s="144"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="149"/>
+      <c r="D80" s="146"/>
       <c r="E80" s="53">
         <v>850</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="99" t="s">
+      <c r="A81" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="100"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="134"/>
+      <c r="B81" s="137"/>
+      <c r="C81" s="118"/>
+      <c r="D81" s="119"/>
       <c r="E81" s="45">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="101" t="s">
+      <c r="C82" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="81"/>
+      <c r="D82" s="110"/>
       <c r="E82" s="38">
         <f>(C6+E13)-SUM(E79:E81)</f>
         <v>109.86999999999989</v>
@@ -8415,80 +8385,80 @@
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="80" t="s">
+      <c r="A84" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="81"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="82"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="110"/>
+      <c r="E84" s="81"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="80" t="s">
+      <c r="A85" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="82"/>
-      <c r="C85" s="80" t="s">
+      <c r="B85" s="81"/>
+      <c r="C85" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="82"/>
+      <c r="D85" s="81"/>
       <c r="E85" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="143"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="149"/>
       <c r="E86" s="38">
         <f>E82</f>
         <v>109.86999999999989</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="129" t="s">
+      <c r="A87" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="130"/>
-      <c r="C87" s="125" t="s">
+      <c r="B87" s="95"/>
+      <c r="C87" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="142"/>
+      <c r="D87" s="148"/>
       <c r="E87" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="131"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="114" t="s">
+      <c r="A88" s="96"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="141"/>
+      <c r="D88" s="147"/>
       <c r="E88" s="53">
         <v>850</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="136" t="s">
+      <c r="A89" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="107"/>
-      <c r="C89" s="124"/>
-      <c r="D89" s="82"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="81"/>
       <c r="E89" s="67">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="127" t="s">
+      <c r="C90" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="82"/>
+      <c r="D90" s="81"/>
       <c r="E90" s="38">
         <f>(E18+E86)-SUM(E87:E89)</f>
         <v>203.86999999999989</v>
@@ -8509,48 +8479,48 @@
       <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="137" t="s">
+      <c r="A93" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="98"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="86"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="80" t="s">
+      <c r="A94" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="82"/>
-      <c r="C94" s="80" t="s">
+      <c r="B94" s="81"/>
+      <c r="C94" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="82"/>
+      <c r="D94" s="81"/>
       <c r="E94" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="136" t="s">
+      <c r="A95" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="82"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="81"/>
       <c r="E95" s="38">
         <f>E90</f>
         <v>203.86999999999989</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="136" t="s">
+      <c r="A96" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="140"/>
-      <c r="C96" s="114" t="s">
+      <c r="B96" s="93"/>
+      <c r="C96" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="128"/>
+      <c r="D96" s="99"/>
       <c r="E96" s="53">
         <v>0</v>
       </c>
@@ -8558,31 +8528,31 @@
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
       <c r="A97" s="77"/>
       <c r="B97" s="78"/>
-      <c r="C97" s="114" t="s">
+      <c r="C97" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="141"/>
+      <c r="D97" s="147"/>
       <c r="E97" s="53">
         <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="136" t="s">
+      <c r="A98" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="107"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="82"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="81"/>
       <c r="E98" s="67">
         <f>C74</f>
         <v>1461</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="127" t="s">
+      <c r="C99" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="82"/>
+      <c r="D99" s="81"/>
       <c r="E99" s="53">
         <f>(E24+E95)-SUM(E96:E98)</f>
         <v>551.86999999999989</v>
@@ -12242,6 +12212,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A62:C62"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:E1"/>
@@ -12258,42 +12264,6 @@
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="C78:D78"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12372,13 +12342,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12581,13 +12551,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="123" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12615,10 +12585,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -12630,10 +12600,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12655,13 +12625,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12689,10 +12659,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -12704,10 +12674,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12732,13 +12702,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12766,10 +12736,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -12781,10 +12751,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -12827,11 +12797,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="81"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -12846,11 +12816,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -12883,16 +12853,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -12941,11 +12911,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="81"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -12980,11 +12950,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -13026,11 +12996,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="93"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -13054,11 +13024,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -13082,11 +13052,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="86"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -13130,11 +13100,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -13201,11 +13171,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="88" t="s">
+      <c r="A68" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="90"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -13265,57 +13235,57 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="82"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="81"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="83" t="s">
+      <c r="B77" s="125"/>
+      <c r="C77" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="87"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="130"/>
-      <c r="C78" s="144" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="145"/>
+      <c r="D78" s="142"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="99" t="s">
+      <c r="A79" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="100"/>
-      <c r="C79" s="133"/>
-      <c r="D79" s="134"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="119"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="101" t="s">
+      <c r="C80" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="81"/>
+      <c r="D80" s="110"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
         <v>530.06999999999971</v>
@@ -13323,69 +13293,69 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="80" t="s">
+      <c r="A82" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="82"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="80" t="s">
+      <c r="A83" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="82"/>
-      <c r="C83" s="80" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="82"/>
+      <c r="D83" s="81"/>
       <c r="E83" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="143"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="149"/>
       <c r="E84" s="38">
         <f>E80</f>
         <v>530.06999999999971</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="140"/>
-      <c r="C85" s="114" t="s">
+      <c r="B85" s="93"/>
+      <c r="C85" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="142"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="81"/>
       <c r="E86" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="127" t="s">
+      <c r="C87" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="82"/>
+      <c r="D87" s="81"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
         <v>478.06999999999971</v>
@@ -13406,69 +13376,69 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="137" t="s">
+      <c r="A90" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="98"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="80" t="s">
+      <c r="A91" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="82"/>
-      <c r="C91" s="80" t="s">
+      <c r="B91" s="81"/>
+      <c r="C91" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="82"/>
+      <c r="D91" s="81"/>
       <c r="E91" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="136" t="s">
+      <c r="A92" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="107"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="82"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="81"/>
       <c r="E92" s="38">
         <f>E87</f>
         <v>478.06999999999971</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="140"/>
-      <c r="C93" s="114" t="s">
+      <c r="B93" s="93"/>
+      <c r="C93" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="128"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="136" t="s">
+      <c r="A94" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="107"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="82"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="81"/>
       <c r="E94" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="127" t="s">
+      <c r="C95" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="82"/>
+      <c r="D95" s="81"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
         <v>426.06999999999971</v>
@@ -17128,36 +17098,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C87:D87"/>
@@ -17171,11 +17116,36 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17253,13 +17223,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17462,13 +17432,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17496,10 +17466,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -17511,10 +17481,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17536,13 +17506,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17570,10 +17540,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -17585,10 +17555,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17613,13 +17583,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17647,10 +17617,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -17662,10 +17632,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -17708,11 +17678,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="140" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="81"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -17727,11 +17697,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -17764,16 +17734,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -17822,11 +17792,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="81"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -17861,11 +17831,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -17907,11 +17877,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="93"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -17935,11 +17905,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -17963,11 +17933,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="86"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -18011,11 +17981,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -18082,11 +18052,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="88" t="s">
+      <c r="A68" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="90"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -18146,57 +18116,57 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="82"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="81"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="83" t="s">
+      <c r="B77" s="125"/>
+      <c r="C77" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="87"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="130"/>
-      <c r="C78" s="144" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="145"/>
+      <c r="D78" s="142"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="99" t="s">
+      <c r="A79" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="100"/>
-      <c r="C79" s="133"/>
-      <c r="D79" s="134"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="119"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="101" t="s">
+      <c r="C80" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="81"/>
+      <c r="D80" s="110"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
         <v>404.26999999999953</v>
@@ -18204,69 +18174,69 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="80" t="s">
+      <c r="A82" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="82"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="80" t="s">
+      <c r="A83" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="82"/>
-      <c r="C83" s="80" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="82"/>
+      <c r="D83" s="81"/>
       <c r="E83" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="143"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="149"/>
       <c r="E84" s="38">
         <f>E80</f>
         <v>404.26999999999953</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="140"/>
-      <c r="C85" s="114" t="s">
+      <c r="B85" s="93"/>
+      <c r="C85" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="142"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="81"/>
       <c r="E86" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="127" t="s">
+      <c r="C87" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="82"/>
+      <c r="D87" s="81"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
         <v>352.26999999999953</v>
@@ -18287,69 +18257,69 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="137" t="s">
+      <c r="A90" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="98"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="80" t="s">
+      <c r="A91" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="82"/>
-      <c r="C91" s="80" t="s">
+      <c r="B91" s="81"/>
+      <c r="C91" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="82"/>
+      <c r="D91" s="81"/>
       <c r="E91" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="136" t="s">
+      <c r="A92" s="82" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="107"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="82"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="81"/>
       <c r="E92" s="38">
         <f>E87</f>
         <v>352.26999999999953</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="140"/>
-      <c r="C93" s="114" t="s">
+      <c r="B93" s="93"/>
+      <c r="C93" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="128"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="53">
         <v>1200</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="136" t="s">
+      <c r="A94" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="107"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="82"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="81"/>
       <c r="E94" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="127" t="s">
+      <c r="C95" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="82"/>
+      <c r="D95" s="81"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
         <v>300.26999999999953</v>
@@ -22009,29 +21979,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A34:C35"/>
@@ -22045,18 +22004,29 @@
     <mergeCell ref="A76:E76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22134,13 +22104,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22343,13 +22313,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22377,10 +22347,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -22392,10 +22362,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22417,13 +22387,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22451,10 +22421,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -22466,10 +22436,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22494,13 +22464,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22528,10 +22498,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -22543,10 +22513,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -22589,11 +22559,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="150" t="s">
+      <c r="A28" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="81"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22608,11 +22578,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -22645,16 +22615,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -22703,11 +22673,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="81"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -22742,11 +22712,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -22788,11 +22758,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="93"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -22816,11 +22786,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -22844,11 +22814,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="86"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -22892,11 +22862,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -22963,11 +22933,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="88" t="s">
+      <c r="A68" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="90"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -23027,57 +22997,57 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="80" t="s">
+      <c r="A76" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="82"/>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="81"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="83" t="s">
+      <c r="B77" s="125"/>
+      <c r="C77" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="87"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="130"/>
-      <c r="C78" s="144" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="141" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="145"/>
+      <c r="D78" s="142"/>
       <c r="E78" s="76">
         <v>1200</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="99" t="s">
+      <c r="A79" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="100"/>
-      <c r="C79" s="133"/>
-      <c r="D79" s="134"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="119"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="101" t="s">
+      <c r="C80" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="81"/>
+      <c r="D80" s="110"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
         <v>278.46999999999935</v>
@@ -23085,69 +23055,69 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="80" t="s">
+      <c r="A82" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="82"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="80" t="s">
+      <c r="A83" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="82"/>
-      <c r="C83" s="80" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="82"/>
+      <c r="D83" s="81"/>
       <c r="E83" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="143"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="149"/>
       <c r="E84" s="38">
         <f>E80</f>
         <v>278.46999999999935</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="140"/>
-      <c r="C85" s="114" t="s">
+      <c r="B85" s="93"/>
+      <c r="C85" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="D85" s="142"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="53">
         <v>1300</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="81"/>
       <c r="E86" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="127" t="s">
+      <c r="C87" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="82"/>
+      <c r="D87" s="81"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
         <v>126.46999999999935</v>
@@ -23168,69 +23138,69 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="137" t="s">
+      <c r="A90" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="98"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="80" t="s">
+      <c r="A91" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="82"/>
-      <c r="C91" s="80" t="s">
+      <c r="B91" s="81"/>
+      <c r="C91" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="82"/>
+      <c r="D91" s="81"/>
       <c r="E91" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="136" t="s">
+      <c r="A92" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="107"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="82"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="81"/>
       <c r="E92" s="38">
         <f>E87</f>
         <v>126.46999999999935</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="140"/>
-      <c r="C93" s="114" t="s">
+      <c r="B93" s="93"/>
+      <c r="C93" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D93" s="128"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="53">
         <v>1439</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="136" t="s">
+      <c r="A94" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="107"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="82"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="81"/>
       <c r="E94" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="127" t="s">
+      <c r="C95" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="82"/>
+      <c r="D95" s="81"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
         <v>-164.53000000000065</v>
@@ -26890,29 +26860,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A34:C35"/>
@@ -26926,18 +26885,29 @@
     <mergeCell ref="A76:E76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27015,13 +26985,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="122"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27224,13 +27194,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27258,25 +27228,25 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -27298,13 +27268,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27332,25 +27302,25 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
+      <c r="D16" s="81"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -27375,13 +27345,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27409,25 +27379,25 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
+      <c r="D22" s="127"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -27470,11 +27440,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="150" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="140" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="110"/>
+      <c r="C28" s="81"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -27489,11 +27459,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="81"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -27526,16 +27496,16 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="105"/>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
       <c r="A36" s="2" t="s">
@@ -27584,11 +27554,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="82"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="81"/>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
@@ -27623,11 +27593,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="117"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -27669,11 +27639,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="93"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="117"/>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="2" t="s">
@@ -27697,11 +27667,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="86"/>
-      <c r="C53" s="87"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="125"/>
     </row>
     <row r="54" spans="1:3" ht="33" customHeight="1">
       <c r="A54" s="33" t="s">
@@ -27725,11 +27695,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="96" t="s">
+      <c r="A56" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="97"/>
-      <c r="C56" s="98"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="86"/>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
       <c r="A57" s="27" t="s">
@@ -27773,11 +27743,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="89"/>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
       <c r="A62" s="59" t="s">
@@ -27844,11 +27814,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="88" t="s">
+      <c r="A68" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="90"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="43" t="s">
@@ -27907,55 +27877,55 @@
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="81"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
-      <c r="E76" s="82"/>
+      <c r="A76" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="110"/>
+      <c r="C76" s="110"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="81"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="83" t="s">
+      <c r="B77" s="125"/>
+      <c r="C77" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="87"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="44" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="146" t="s">
+      <c r="A78" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="130"/>
-      <c r="C78" s="144"/>
-      <c r="D78" s="145"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="141"/>
+      <c r="D78" s="142"/>
       <c r="E78" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="99" t="s">
+      <c r="A79" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="100"/>
-      <c r="C79" s="133"/>
-      <c r="D79" s="134"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="119"/>
       <c r="E79" s="45">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="101" t="s">
+      <c r="C80" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="81"/>
+      <c r="D80" s="110"/>
       <c r="E80" s="38">
         <f>(C6+E13)-SUM(E78:E79)</f>
         <v>1013.6699999999992</v>
@@ -27963,67 +27933,67 @@
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="82"/>
+      <c r="A82" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="110"/>
+      <c r="C82" s="110"/>
+      <c r="D82" s="110"/>
+      <c r="E82" s="81"/>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="80" t="s">
+      <c r="A83" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="82"/>
-      <c r="C83" s="80" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="82"/>
+      <c r="D83" s="81"/>
       <c r="E83" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="136" t="s">
-        <v>157</v>
-      </c>
-      <c r="B84" s="107"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="143"/>
+      <c r="A84" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" s="83"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="149"/>
       <c r="E84" s="38">
         <f>E80</f>
         <v>1013.6699999999992</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="140"/>
-      <c r="C85" s="114"/>
-      <c r="D85" s="142"/>
+      <c r="B85" s="93"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="148"/>
       <c r="E85" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="81"/>
       <c r="E86" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="127" t="s">
+      <c r="C87" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="82"/>
+      <c r="D87" s="81"/>
       <c r="E87" s="38">
         <f>(E18+E84)-SUM(E85:E86)</f>
         <v>2161.6699999999992</v>
@@ -28044,67 +28014,67 @@
       <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="137" t="s">
-        <v>162</v>
-      </c>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
-      <c r="D90" s="109"/>
-      <c r="E90" s="98"/>
+      <c r="A90" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="86"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="80" t="s">
+      <c r="A91" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="82"/>
-      <c r="C91" s="80" t="s">
+      <c r="B91" s="81"/>
+      <c r="C91" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="82"/>
+      <c r="D91" s="81"/>
       <c r="E91" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="B92" s="107"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="82"/>
+      <c r="A92" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" s="83"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="81"/>
       <c r="E92" s="38">
         <f>E87</f>
         <v>2161.6699999999992</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="140"/>
-      <c r="C93" s="114"/>
-      <c r="D93" s="128"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="136" t="s">
+      <c r="A94" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="107"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="82"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="81"/>
       <c r="E94" s="67">
         <f>C73</f>
         <v>1257</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="127" t="s">
+      <c r="C95" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="82"/>
+      <c r="D95" s="81"/>
       <c r="E95" s="53">
         <f>(E23+E92)-SUM(E93:E94)</f>
         <v>3309.6699999999992</v>
@@ -31764,18 +31734,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
     <mergeCell ref="A34:C35"/>
@@ -31789,29 +31770,18 @@
     <mergeCell ref="A76:E76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Forecast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D29CA65-57CF-46E4-9125-C974F38E413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8D862E-A1BB-47C2-AC2F-C058A3DC355C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="170">
   <si>
     <t>Assets</t>
   </si>
@@ -555,24 +555,6 @@
     <t>1. Payback $1200 to Mom</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Payback $1300 to Mom </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Payback $1439 to Mom - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>LAST PAYMENT</t>
-    </r>
-  </si>
-  <si>
     <t>July 2025 Revenue / Defered Debts Or Expenses</t>
   </si>
   <si>
@@ -610,6 +592,36 @@
   </si>
   <si>
     <t>Balance Brought Forward From August 2025</t>
+  </si>
+  <si>
+    <t>Sosim</t>
+  </si>
+  <si>
+    <t>7th June 2024</t>
+  </si>
+  <si>
+    <t>Sosim Prepaid</t>
+  </si>
+  <si>
+    <t>1. Payback $1100 to Mom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Payback $1100 to Mom </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Payback $739 to Mom - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Last Payment</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -876,7 +888,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1246,11 +1258,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1491,148 +1527,13 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,8 +1548,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1658,6 +1577,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1671,8 +1596,125 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1692,14 +1734,35 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2447,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1010"/>
+  <dimension ref="A1:Y1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2467,13 +2530,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2494,7 +2557,7 @@
         <v>89</v>
       </c>
       <c r="C3" s="5">
-        <v>0.47</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2618,7 +2681,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="5">
-        <v>30.2</v>
+        <v>26.2</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2650,7 +2713,7 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(C3:C7)</f>
-        <v>41.67</v>
+        <v>47.17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2681,8 +2744,8 @@
         <v>1</v>
       </c>
       <c r="C9" s="58">
-        <f>E97-(C73-SUM(E86,E95))</f>
-        <v>-12953.33</v>
+        <f>E99-(C75-SUM(E88,E97))</f>
+        <v>-12939.83</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2736,13 +2799,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="98"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2770,10 +2833,10 @@
       <c r="B13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="17" t="s">
         <v>5</v>
       </c>
@@ -2785,10 +2848,10 @@
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="83"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2810,13 +2873,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="98"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2844,10 +2907,10 @@
       <c r="B18" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="125"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="75" t="s">
         <v>5</v>
       </c>
@@ -2859,10 +2922,10 @@
       <c r="B19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="C19" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="127"/>
+      <c r="D19" s="113"/>
       <c r="E19" s="68">
         <v>2405</v>
       </c>
@@ -2887,13 +2950,13 @@
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="98"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -2921,64 +2984,72 @@
       <c r="B23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="19">
+      <c r="D24" s="82"/>
+      <c r="E24" s="28">
         <v>2405</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.15" customHeight="1">
       <c r="A25" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="150" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="150"/>
+      <c r="E25" s="68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A26" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C26" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="68">
+      <c r="D26" s="123"/>
+      <c r="E26" s="68">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="49">
-        <f>SUM(E24:E25)</f>
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="13.15" customHeight="1">
+    <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-    </row>
-    <row r="28" spans="1:25" ht="13.5" customHeight="1">
+      <c r="D27" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="49">
+        <f>SUM(E24:E26)</f>
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="13.15" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
@@ -2988,105 +3059,103 @@
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="109" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A31" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="81"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="20" t="s">
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
+    </row>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="111" t="s">
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="81"/>
-    </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="26" t="s">
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
+    </row>
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="19">
+      <c r="B34" s="2"/>
+      <c r="C34" s="19">
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="27" t="s">
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B36" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C36" s="28">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="26" t="s">
+    <row r="37" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="30">
-        <f>SUM(C33:C34)</f>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="103" t="s">
+      <c r="C37" s="30">
+        <f>SUM(C34:C36)</f>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A38" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="105"/>
-    </row>
-    <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="106"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
-    </row>
-    <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="18">
-        <v>0</v>
-      </c>
+      <c r="B38" s="117"/>
+      <c r="C38" s="118"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="10">
-        <v>0</v>
-      </c>
+      <c r="A39" s="119"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="120"/>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="10">
+      <c r="C40" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10">
@@ -3094,554 +3163,564 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="10">
-        <f>SUM(C38:C41)</f>
+      <c r="C44" s="10">
+        <f>SUM(C40:C43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="111" t="s">
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="110"/>
-      <c r="C43" s="81"/>
-    </row>
-    <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+    </row>
+    <row r="46" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C46" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C47" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="26" t="s">
+    <row r="48" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="19">
-        <f>SUM(C44:C45)</f>
+      <c r="C48" s="19">
+        <f>SUM(C46:C47)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="111" t="s">
+    <row r="49" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A49" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="116"/>
-      <c r="C47" s="117"/>
-    </row>
-    <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B49" s="92"/>
+      <c r="C49" s="93"/>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="32">
+      <c r="C50" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="27"/>
       <c r="B51" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="27"/>
+      <c r="B53" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="32">
-        <f>SUM(C48:C50)</f>
+      <c r="C53" s="32">
+        <f>SUM(C50:C52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="111" t="s">
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="116"/>
-      <c r="C52" s="117"/>
-    </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="B54" s="92"/>
+      <c r="C54" s="93"/>
+    </row>
+    <row r="55" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C55" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="27"/>
-      <c r="B54" s="31" t="s">
+    <row r="56" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A56" s="27"/>
+      <c r="B56" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="32">
-        <f>SUM(C53)</f>
+      <c r="C56" s="32">
+        <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="130" t="s">
+    <row r="57" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A57" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="131"/>
-      <c r="C55" s="125"/>
-    </row>
-    <row r="56" spans="1:3" ht="33" customHeight="1">
-      <c r="A56" s="33" t="s">
+      <c r="B57" s="86"/>
+      <c r="C57" s="87"/>
+    </row>
+    <row r="58" spans="1:3" ht="33" customHeight="1">
+      <c r="A58" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B58" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C58" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34" t="s">
+    <row r="59" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="35">
-        <f>SUM(C56)</f>
+      <c r="C59" s="35">
+        <f>SUM(C58)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="135" t="s">
+    <row r="60" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A60" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="86"/>
-    </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="27" t="s">
+      <c r="B60" s="97"/>
+      <c r="C60" s="98"/>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
-      <c r="A60" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="B61" s="27"/>
       <c r="C61" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34" t="s">
+    <row r="62" spans="1:3" ht="15" customHeight="1">
+      <c r="A62" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="35">
-        <f>SUM(C59:C61)</f>
+      <c r="C64" s="35">
+        <f>SUM(C61:C63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="87" t="s">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="132"/>
-      <c r="C63" s="89"/>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="59" t="s">
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B66" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="61">
+      <c r="C66" s="61">
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="60" t="s">
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B67" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="62">
+      <c r="C67" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="31" t="s">
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B68" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C68" s="32">
         <v>760</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="39" t="s">
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="29"/>
+      <c r="B69" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="40">
-        <f>SUM(C64:C66)</f>
+      <c r="C69" s="40">
+        <f>SUM(C66:C68)</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="55" t="s">
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="29"/>
+      <c r="B70" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="40">
-        <f>C35+C42+C46+C51+C54+C57+C62+C67</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="87" t="s">
+      <c r="C70" s="40">
+        <f>C37+C44+C48+C53+C56+C59+C64+C69</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="89"/>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="43" t="s">
+      <c r="B71" s="137"/>
+      <c r="C71" s="90"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A72" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="50">
+      <c r="B72" s="39"/>
+      <c r="C72" s="50">
         <v>9939</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="72" t="s">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="50">
+      <c r="B73" s="39"/>
+      <c r="C73" s="50">
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="66" t="s">
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="50">
+      <c r="B74" s="56"/>
+      <c r="C74" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="57" t="s">
+    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A75" s="29"/>
+      <c r="B75" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="50">
-        <f>SUM(C70:C72)</f>
+      <c r="C75" s="50">
+        <f>SUM(C72:C74)</f>
         <v>14939</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="41" t="s">
+    <row r="76" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A76" s="33"/>
+      <c r="B76" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="42">
-        <f>C68</f>
-        <v>1461</v>
-      </c>
-      <c r="H74" s="37"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="C76" s="42">
+        <f>C70</f>
+        <v>1503</v>
+      </c>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="133"/>
-      <c r="C77" s="133"/>
-      <c r="D77" s="133"/>
-      <c r="E77" s="134"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="128" t="s">
+      <c r="B79" s="94"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="94"/>
+      <c r="E79" s="95"/>
+    </row>
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="129"/>
-      <c r="C78" s="128" t="s">
+      <c r="B80" s="84"/>
+      <c r="C80" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="129"/>
-      <c r="E78" s="44" t="s">
+      <c r="D80" s="84"/>
+      <c r="E80" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="136" t="s">
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="119"/>
-      <c r="E79" s="45">
-        <f>C74</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="138" t="s">
+      <c r="B81" s="100"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="45">
+        <f>C76</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C82" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="139"/>
-      <c r="E80" s="38">
+      <c r="D82" s="102"/>
+      <c r="E82" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
+    <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="81"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="B84" s="81"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="82"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B85" s="82"/>
+      <c r="C85" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="23" t="s">
+      <c r="D85" s="82"/>
+      <c r="E85" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="B84" s="93"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="38">
-        <f>E80</f>
+      <c r="B86" s="139"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="138"/>
+      <c r="E86" s="38">
+        <f>E82</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="94" t="s">
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="95"/>
-      <c r="C85" s="98" t="s">
+      <c r="B87" s="130"/>
+      <c r="C87" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="99"/>
-      <c r="E85" s="53">
+      <c r="D87" s="128"/>
+      <c r="E87" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="96"/>
-      <c r="B86" s="97"/>
-      <c r="C86" s="98" t="s">
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="131"/>
+      <c r="B88" s="132"/>
+      <c r="C88" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="D86" s="100"/>
-      <c r="E86" s="53">
+      <c r="D88" s="115"/>
+      <c r="E88" s="53">
         <v>1000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="82" t="s">
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="83"/>
-      <c r="C87" s="114" t="s">
+      <c r="B89" s="107"/>
+      <c r="C89" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="D87" s="115"/>
-      <c r="E87" s="67">
-        <f>C74</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="80" t="s">
+      <c r="D89" s="126"/>
+      <c r="E89" s="67">
+        <f>C76</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C90" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="81"/>
-      <c r="E88" s="38">
+      <c r="D90" s="82"/>
+      <c r="E90" s="38">
         <f>SUM(C3:C7)</f>
-        <v>41.67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+        <v>47.17</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="84" t="s">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="86"/>
-    </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="92" t="s">
+      <c r="B93" s="109"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="98"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B92" s="81"/>
-      <c r="C92" s="92" t="s">
+      <c r="B94" s="82"/>
+      <c r="C94" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="81"/>
-      <c r="E92" s="23" t="s">
+      <c r="D94" s="82"/>
+      <c r="E94" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="90"/>
-      <c r="D93" s="81"/>
-      <c r="E93" s="38">
-        <f>E88</f>
-        <v>41.67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="94" t="s">
+      <c r="B95" s="107"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="38">
+        <f>E90</f>
+        <v>47.17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B94" s="95"/>
-      <c r="C94" s="98" t="s">
+      <c r="B96" s="130"/>
+      <c r="C96" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="99"/>
-      <c r="E94" s="53">
+      <c r="D96" s="128"/>
+      <c r="E96" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="96"/>
-      <c r="B95" s="97"/>
-      <c r="C95" s="98" t="s">
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A97" s="131"/>
+      <c r="B97" s="132"/>
+      <c r="C97" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="100"/>
-      <c r="E95" s="53">
+      <c r="D97" s="115"/>
+      <c r="E97" s="53">
         <v>1000</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="82" t="s">
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="83"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="81"/>
-      <c r="E96" s="24">
-        <f>C74</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="80" t="s">
+      <c r="B98" s="107"/>
+      <c r="C98" s="124"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="24">
+        <f>C76</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C99" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="81"/>
-      <c r="E97" s="53">
-        <f>(E26+E93)-SUM(E94:E96)</f>
-        <v>-14.329999999999927</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-    </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="53">
+        <f>(E27+E95)-SUM(E96:E98)</f>
+        <v>-0.82999999999992724</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
       <c r="A100" s="11"/>
@@ -7287,18 +7366,48 @@
       <c r="A1010" s="11"/>
       <c r="B1010" s="11"/>
     </row>
+    <row r="1011" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1011" s="11"/>
+      <c r="B1011" s="11"/>
+    </row>
+    <row r="1012" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1012" s="11"/>
+      <c r="B1012" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C80:D80"/>
+  <mergeCells count="50">
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A96:B97"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A12:E12"/>
@@ -7307,37 +7416,16 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A85:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C82:D82"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -7345,7 +7433,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" dxfId="69" priority="26" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7353,7 +7441,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="67" priority="22" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7361,7 +7449,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="65" priority="24" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7369,7 +7457,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="E95">
     <cfRule type="cellIs" dxfId="63" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7377,7 +7465,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E99">
     <cfRule type="cellIs" dxfId="61" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7392,10 +7480,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1012"/>
+  <dimension ref="A1:Y1013"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7412,13 +7500,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7439,8 +7527,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'April 2024 - June 2024'!E97</f>
-        <v>-14.329999999999927</v>
+        <f>'April 2024 - June 2024'!E99</f>
+        <v>-0.82999999999992724</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7503,7 +7591,7 @@
       </c>
       <c r="C5" s="5">
         <f>'April 2024 - June 2024'!C7</f>
-        <v>30.2</v>
+        <v>26.2</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -7535,7 +7623,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>15.870000000000072</v>
+        <v>25.370000000000072</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7566,8 +7654,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('April 2024 - June 2024'!C9+E99)+SUM(E80,E88,E97)</f>
-        <v>-9901.4599999999991</v>
+        <f>('April 2024 - June 2024'!C9+E100)+SUM(E81,E89,E98)</f>
+        <v>-10004.459999999999</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7621,13 +7709,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7655,10 +7743,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -7670,10 +7758,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7695,13 +7783,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7729,10 +7817,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -7744,10 +7832,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7772,13 +7860,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7806,10 +7894,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -7821,10 +7909,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -7834,8 +7922,8 @@
       <c r="B23" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="68">
         <v>204</v>
       </c>
@@ -7878,11 +7966,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="140" t="s">
+      <c r="A29" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -7897,11 +7985,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="26" t="s">
@@ -7913,59 +8001,59 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B34" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C34" s="28">
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="26" t="s">
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="29"/>
+      <c r="B35" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="30">
-        <f>SUM(C32:C33)</f>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="103" t="s">
+      <c r="C35" s="30">
+        <f>SUM(C32:C34)</f>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A36" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-    </row>
-    <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="106"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="108"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="118"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="18">
-        <v>0</v>
-      </c>
+      <c r="A37" s="119"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="120"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="10">
+      <c r="C38" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -7974,7 +8062,7 @@
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10">
@@ -7982,85 +8070,85 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="10">
-        <f>SUM(C37:C40)</f>
+      <c r="C42" s="10">
+        <f>SUM(C38:C41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="111" t="s">
+    <row r="43" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A43" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="110"/>
-      <c r="C42" s="81"/>
-    </row>
-    <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="19">
-        <v>0</v>
-      </c>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="26" t="s">
+      <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="19">
-        <f>SUM(C43:C44)</f>
+      <c r="C46" s="19">
+        <f>SUM(C44:C45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="111" t="s">
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="116"/>
-      <c r="C46" s="117"/>
-    </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="92"/>
+      <c r="C47" s="93"/>
+    </row>
+    <row r="48" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="32">
+      <c r="C48" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="27"/>
-      <c r="B49" s="27" t="s">
-        <v>90</v>
+      <c r="B49" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C49" s="32">
         <v>0</v>
@@ -8068,499 +8156,504 @@
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="27"/>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A51" s="27"/>
+      <c r="B51" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="32">
-        <f>SUM(C47:C49)</f>
+      <c r="C51" s="32">
+        <f>SUM(C48:C50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="111" t="s">
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="116"/>
-      <c r="C51" s="117"/>
-    </row>
-    <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="92"/>
+      <c r="C52" s="93"/>
+    </row>
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C53" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="31" t="s">
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="27"/>
+      <c r="B54" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="32">
-        <f>SUM(C52)</f>
+      <c r="C54" s="32">
+        <f>SUM(C53)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="130" t="s">
+    <row r="55" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A55" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="131"/>
-      <c r="C54" s="125"/>
-    </row>
-    <row r="55" spans="1:3" ht="33" customHeight="1">
-      <c r="A55" s="33" t="s">
+      <c r="B55" s="86"/>
+      <c r="C55" s="87"/>
+    </row>
+    <row r="56" spans="1:3" ht="33" customHeight="1">
+      <c r="A56" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B56" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C56" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34" t="s">
+    <row r="57" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="35">
-        <f>SUM(C55)</f>
+      <c r="C57" s="35">
+        <f>SUM(C56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="135" t="s">
+    <row r="58" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A58" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="86"/>
-    </row>
-    <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="27" t="s">
+      <c r="B58" s="97"/>
+      <c r="C58" s="98"/>
+    </row>
+    <row r="59" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A59" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="B59" s="27"/>
       <c r="C59" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>27</v>
+    <row r="60" spans="1:3" ht="15" customHeight="1">
+      <c r="A60" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C60" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
+      <c r="A61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C61" s="35">
-        <f>SUM(C58:C60)</f>
+      <c r="C62" s="35">
+        <f>SUM(C59:C61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="87" t="s">
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="132"/>
-      <c r="C62" s="89"/>
-    </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="59" t="s">
+      <c r="B63" s="89"/>
+      <c r="C63" s="90"/>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B64" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="61">
+      <c r="C64" s="61">
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="69" t="s">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="79" t="s">
+      <c r="B65" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="71">
+      <c r="C65" s="71">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="60" t="s">
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B66" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="62">
+      <c r="C66" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="31" t="s">
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B67" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C67" s="32">
         <v>760</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="40">
-        <f>SUM(C63:C66)</f>
-        <v>1060</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
       <c r="A68" s="29"/>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="40">
+        <f>SUM(C64:C67)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="29"/>
+      <c r="B69" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="40">
-        <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="87" t="s">
+      <c r="C69" s="40">
+        <f>C35+C42+C46+C51+C54+C57+C62+C68</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="89"/>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="43" t="s">
+      <c r="B70" s="137"/>
+      <c r="C70" s="90"/>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="43" t="s">
         <v>48</v>
-      </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="50">
-        <f>'April 2024 - June 2024'!C70</f>
-        <v>9939</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="72" t="s">
-        <v>91</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="50">
+        <f>'April 2024 - June 2024'!C72</f>
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A72" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="39"/>
+      <c r="C72" s="50">
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="66" t="s">
+    <row r="73" spans="1:8" ht="30">
+      <c r="A73" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="50">
+      <c r="B73" s="56"/>
+      <c r="C73" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="57" t="s">
+    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A74" s="29"/>
+      <c r="B74" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="50">
-        <f>SUM(C70:C72)</f>
+      <c r="C74" s="50">
+        <f>SUM(C71:C73)</f>
         <v>14939</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="41" t="s">
+    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A75" s="33"/>
+      <c r="B75" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="42">
-        <f>C68</f>
-        <v>1461</v>
-      </c>
-      <c r="H74" s="37"/>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="C75" s="42">
+        <f>C69</f>
+        <v>1503</v>
+      </c>
+      <c r="H75" s="37"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="110"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="81"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="128" t="s">
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="82"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="125"/>
-      <c r="C78" s="128" t="s">
+      <c r="B79" s="87"/>
+      <c r="C79" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="125"/>
-      <c r="E78" s="44" t="s">
+      <c r="D79" s="87"/>
+      <c r="E79" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="143" t="s">
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="143"/>
-      <c r="C79" s="141" t="s">
+      <c r="B80" s="145"/>
+      <c r="C80" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="142"/>
-      <c r="E79" s="76">
+      <c r="D80" s="144"/>
+      <c r="E80" s="76">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="144"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="145" t="s">
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="146"/>
+      <c r="B81" s="146"/>
+      <c r="C81" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="D80" s="146"/>
-      <c r="E80" s="53">
+      <c r="D81" s="148"/>
+      <c r="E81" s="53">
         <v>850</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="136" t="s">
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A82" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="137"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="119"/>
-      <c r="E81" s="45">
-        <f>C74</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="138" t="s">
+      <c r="B82" s="100"/>
+      <c r="C82" s="133"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="45">
+        <f>C75</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C83" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="110"/>
-      <c r="E82" s="38">
-        <f>(C6+E13)-SUM(E79:E81)</f>
-        <v>109.86999999999989</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="92" t="s">
+      <c r="D83" s="81"/>
+      <c r="E83" s="38">
+        <f>(C6+E13)-SUM(E80:E82)</f>
+        <v>77.369999999999891</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="110"/>
-      <c r="C84" s="110"/>
-      <c r="D84" s="110"/>
-      <c r="E84" s="81"/>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="92" t="s">
+      <c r="B85" s="81"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="82"/>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="92" t="s">
+      <c r="B86" s="82"/>
+      <c r="C86" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="81"/>
-      <c r="E85" s="23" t="s">
+      <c r="D86" s="82"/>
+      <c r="E86" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="149"/>
-      <c r="E86" s="38">
-        <f>E82</f>
-        <v>109.86999999999989</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="94" t="s">
+      <c r="B87" s="107"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="38">
+        <f>E83</f>
+        <v>77.369999999999891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="95"/>
-      <c r="C87" s="114" t="s">
+      <c r="B88" s="130"/>
+      <c r="C88" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="148"/>
-      <c r="E87" s="53">
+      <c r="D88" s="141"/>
+      <c r="E88" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="96"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="98" t="s">
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="131"/>
+      <c r="B89" s="132"/>
+      <c r="C89" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="147"/>
-      <c r="E88" s="53">
+      <c r="D89" s="140"/>
+      <c r="E89" s="53">
         <v>850</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="82" t="s">
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B89" s="83"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="81"/>
-      <c r="E89" s="67">
-        <f>C74</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="80" t="s">
+      <c r="B90" s="107"/>
+      <c r="C90" s="124"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="67">
+        <f>C75</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C91" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="81"/>
-      <c r="E90" s="38">
-        <f>(E18+E86)-SUM(E87:E89)</f>
-        <v>203.86999999999989</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-    </row>
-    <row r="92" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D91" s="82"/>
+      <c r="E91" s="38">
+        <f>(E18+E87)-SUM(E88:E90)</f>
+        <v>129.36999999999989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
       <c r="E92" s="25"/>
     </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="84" t="s">
+    <row r="93" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="86"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="92" t="s">
+      <c r="B94" s="109"/>
+      <c r="C94" s="109"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="98"/>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="81"/>
-      <c r="C94" s="92" t="s">
+      <c r="B95" s="82"/>
+      <c r="C95" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="81"/>
-      <c r="E94" s="23" t="s">
+      <c r="D95" s="82"/>
+      <c r="E95" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="82" t="s">
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="83"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="81"/>
-      <c r="E95" s="38">
-        <f>E90</f>
-        <v>203.86999999999989</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="82" t="s">
+      <c r="B96" s="107"/>
+      <c r="C96" s="124"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="38">
+        <f>E91</f>
+        <v>129.36999999999989</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A97" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="93"/>
-      <c r="C96" s="98" t="s">
+      <c r="B97" s="139"/>
+      <c r="C97" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="99"/>
-      <c r="E96" s="53">
+      <c r="D97" s="128"/>
+      <c r="E97" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="77"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="98" t="s">
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="77"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="147"/>
-      <c r="E97" s="53">
+      <c r="D98" s="140"/>
+      <c r="E98" s="53">
         <v>800</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="82" t="s">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="67">
-        <f>C74</f>
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="80" t="s">
+      <c r="B99" s="107"/>
+      <c r="C99" s="124"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="67">
+        <f>C75</f>
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C100" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="81"/>
-      <c r="E99" s="53">
-        <f>(E24+E95)-SUM(E96:E98)</f>
-        <v>551.86999999999989</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="53">
+        <f>(E24+E96)-SUM(E97:E99)</f>
+        <v>435.36999999999989</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
       <c r="A101" s="11"/>
@@ -12210,45 +12303,13 @@
       <c r="A1012" s="11"/>
       <c r="B1012" s="11"/>
     </row>
+    <row r="1013" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1013" s="11"/>
+      <c r="B1013" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
@@ -12261,9 +12322,45 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A88:B89"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="C79:D79"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12275,7 +12372,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12283,7 +12380,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12291,7 +12388,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12299,7 +12396,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12307,7 +12404,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
+  <conditionalFormatting sqref="E100">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12322,10 +12419,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
-  <dimension ref="A1:Y1008"/>
+  <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12342,13 +12439,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12369,8 +12466,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E99</f>
-        <v>551.86999999999989</v>
+        <f>'July 2024 - September 2024'!E100</f>
+        <v>435.36999999999989</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12433,7 +12530,7 @@
       </c>
       <c r="C5" s="5">
         <f>'July 2024 - September 2024'!C5</f>
-        <v>30.2</v>
+        <v>26.2</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -12465,7 +12562,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>582.06999999999994</v>
+        <v>461.56999999999988</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -12496,8 +12593,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('July 2024 - September 2024'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>-5875.3899999999994</v>
+        <f>('July 2024 - September 2024'!C7+E96)+SUM(E79,E86,E94)</f>
+        <v>-6224.8899999999994</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -12551,13 +12648,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12585,10 +12682,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -12600,10 +12697,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12625,13 +12722,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12659,10 +12756,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -12674,10 +12771,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12702,13 +12799,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12736,10 +12833,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -12751,10 +12848,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -12797,11 +12894,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -12816,11 +12913,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -12832,59 +12929,59 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B33" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C33" s="28">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26" t="s">
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="30">
-        <f>SUM(C31:C32)</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="103" t="s">
+      <c r="C34" s="30">
+        <f>SUM(C31:C33)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-    </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="18">
-        <v>0</v>
-      </c>
+      <c r="A36" s="119"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="120"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="10">
+      <c r="C37" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -12893,7 +12990,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -12901,85 +12998,85 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="10">
-        <f>SUM(C36:C39)</f>
+      <c r="C41" s="10">
+        <f>SUM(C37:C40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="111" t="s">
+    <row r="42" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A42" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="81"/>
-    </row>
-    <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="19">
-        <f>SUM(C42:C43)</f>
+      <c r="C45" s="19">
+        <f>SUM(C43:C44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="111" t="s">
+    <row r="46" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A46" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="116"/>
-      <c r="C45" s="117"/>
-    </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="32">
+      <c r="C47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="27"/>
-      <c r="B48" s="27" t="s">
-        <v>90</v>
+      <c r="B48" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C48" s="32">
         <v>0</v>
@@ -12987,466 +13084,471 @@
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="27"/>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="27"/>
+      <c r="B50" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="32">
-        <f>SUM(C46:C48)</f>
+      <c r="C50" s="32">
+        <f>SUM(C47:C49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="111" t="s">
+    <row r="51" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A51" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="116"/>
-      <c r="C50" s="117"/>
-    </row>
-    <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="31" t="s">
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="27"/>
+      <c r="B53" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="32">
-        <f>SUM(C51)</f>
+      <c r="C53" s="32">
+        <f>SUM(C52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="130" t="s">
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="125"/>
-    </row>
-    <row r="54" spans="1:3" ht="33" customHeight="1">
-      <c r="A54" s="33" t="s">
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
+    </row>
+    <row r="55" spans="1:3" ht="33" customHeight="1">
+      <c r="A55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C55" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34" t="s">
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="35">
-        <f>SUM(C54)</f>
+      <c r="C56" s="35">
+        <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="135" t="s">
+    <row r="57" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A57" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="86"/>
-    </row>
-    <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="27" t="s">
+      <c r="B57" s="97"/>
+      <c r="C57" s="98"/>
+    </row>
+    <row r="58" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A58" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
-      <c r="A58" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="B58" s="27"/>
       <c r="C58" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>27</v>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="A59" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="35">
-        <f>SUM(C57:C59)</f>
+      <c r="C61" s="35">
+        <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="87" t="s">
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="89"/>
-    </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="59" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B63" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C63" s="61">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="69" t="s">
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B64" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="71">
+      <c r="C64" s="71">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="60" t="s">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B65" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C65" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="31" t="s">
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B66" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C66" s="32">
         <v>760</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="40">
-        <f>SUM(C62:C65)</f>
-        <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="29"/>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="40">
+        <f>SUM(C63:C66)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="29"/>
+      <c r="B68" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="40">
-        <f>C33+C40+C44+C49+C52+C55+C60+C66</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="C68" s="40">
+        <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="43" t="s">
+      <c r="B69" s="137"/>
+      <c r="C69" s="90"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="43" t="s">
         <v>48</v>
-      </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="50">
-        <f>'July 2024 - September 2024'!C70</f>
-        <v>9939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="72" t="s">
-        <v>91</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
+        <f>'July 2024 - September 2024'!C71</f>
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="50">
         <v>5000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="66" t="s">
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="50">
+      <c r="B72" s="56"/>
+      <c r="C72" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="57" t="s">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="29"/>
+      <c r="B73" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="50">
-        <f>SUM(C69:C71)</f>
+      <c r="C73" s="50">
+        <f>SUM(C70:C72)</f>
         <v>14939</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="33"/>
-      <c r="B73" s="41" t="s">
+    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A74" s="33"/>
+      <c r="B74" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="42">
-        <f>C67</f>
-        <v>1257</v>
-      </c>
-      <c r="H73" s="37"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="C74" s="42">
+        <f>C68</f>
+        <v>1299</v>
+      </c>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A77" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="110"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="81"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="128" t="s">
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="82"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="125"/>
-      <c r="C77" s="128" t="s">
+      <c r="B78" s="87"/>
+      <c r="C78" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="125"/>
-      <c r="E77" s="44" t="s">
+      <c r="D78" s="87"/>
+      <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="143" t="s">
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="141" t="s">
+      <c r="B79" s="130"/>
+      <c r="C79" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="142"/>
-      <c r="E78" s="76">
+      <c r="D79" s="144"/>
+      <c r="E79" s="76">
         <v>1200</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="136" t="s">
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="119"/>
-      <c r="E79" s="45">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="138" t="s">
+      <c r="B80" s="100"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="45">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C81" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="110"/>
-      <c r="E80" s="38">
-        <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>530.06999999999971</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
+      <c r="D81" s="81"/>
+      <c r="E81" s="38">
+        <f>(C6+E13)-SUM(E79:E80)</f>
+        <v>367.56999999999971</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="81"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="82"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B84" s="82"/>
+      <c r="C84" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="23" t="s">
+      <c r="D84" s="82"/>
+      <c r="E84" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="38">
-        <f>E80</f>
-        <v>530.06999999999971</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="82" t="s">
+      <c r="B85" s="107"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="38">
+        <f>E81</f>
+        <v>367.56999999999971</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="98" t="s">
+      <c r="B86" s="139"/>
+      <c r="C86" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="D85" s="148"/>
-      <c r="E85" s="53">
+      <c r="D86" s="141"/>
+      <c r="E86" s="53">
         <v>1200</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="67">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="80" t="s">
+      <c r="B87" s="107"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="67">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C88" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="38">
-        <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>478.06999999999971</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-    </row>
-    <row r="89" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D88" s="82"/>
+      <c r="E88" s="38">
+        <f>(E18+E85)-SUM(E86:E87)</f>
+        <v>273.56999999999971</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="84" t="s">
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="86"/>
-    </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="98"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="92" t="s">
+      <c r="B92" s="82"/>
+      <c r="C92" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="23" t="s">
+      <c r="D92" s="82"/>
+      <c r="E92" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="82" t="s">
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="38">
-        <f>E87</f>
-        <v>478.06999999999971</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+      <c r="B93" s="107"/>
+      <c r="C93" s="124"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="38">
+        <f>E88</f>
+        <v>273.56999999999971</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="98" t="s">
+      <c r="B94" s="139"/>
+      <c r="C94" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="D93" s="99"/>
-      <c r="E93" s="53">
+      <c r="D94" s="128"/>
+      <c r="E94" s="53">
         <v>1200</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="82" t="s">
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="67">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="80" t="s">
+      <c r="B95" s="107"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="67">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C96" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="81"/>
-      <c r="E95" s="53">
-        <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>426.06999999999971</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="53">
+        <f>(E23+E93)-SUM(E94:E95)</f>
+        <v>179.56999999999971</v>
+      </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
       <c r="A97" s="11"/>
@@ -17096,56 +17198,60 @@
       <c r="A1008" s="11"/>
       <c r="B1008" s="11"/>
     </row>
+    <row r="1009" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1009" s="11"/>
+      <c r="B1009" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A57:C57"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17157,7 +17263,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E81">
     <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17165,7 +17271,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17173,7 +17279,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17181,7 +17287,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17189,7 +17295,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17203,10 +17309,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
-  <dimension ref="A1:Y1008"/>
+  <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17223,13 +17329,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17250,8 +17356,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'October 2024 - December 2024'!E95</f>
-        <v>426.06999999999971</v>
+        <f>'October 2024 - December 2024'!E96</f>
+        <v>179.56999999999971</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17314,7 +17420,7 @@
       </c>
       <c r="C5" s="5">
         <f>'October 2024 - December 2024'!C5</f>
-        <v>30.2</v>
+        <v>26.2</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -17346,7 +17452,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>456.2699999999997</v>
+        <v>205.7699999999997</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17377,8 +17483,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('October 2024 - December 2024'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>-1975.12</v>
+        <f>('October 2024 - December 2024'!C7+E96)+SUM(E79,E86,E94)</f>
+        <v>-2701.12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -17432,13 +17538,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17466,10 +17572,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -17481,10 +17587,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17506,13 +17612,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17540,10 +17646,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -17555,10 +17661,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17583,13 +17689,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17617,10 +17723,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -17632,10 +17738,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -17678,11 +17784,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -17697,11 +17803,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -17713,59 +17819,59 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B33" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C33" s="28">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26" t="s">
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="30">
-        <f>SUM(C31:C32)</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="103" t="s">
+      <c r="C34" s="30">
+        <f>SUM(C31:C33)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-    </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="18">
-        <v>0</v>
-      </c>
+      <c r="A36" s="119"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="120"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="10">
+      <c r="C37" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -17774,7 +17880,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -17782,85 +17888,85 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="10">
-        <f>SUM(C36:C39)</f>
+      <c r="C41" s="10">
+        <f>SUM(C37:C40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="111" t="s">
+    <row r="42" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A42" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="81"/>
-    </row>
-    <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="19">
-        <f>SUM(C42:C43)</f>
+      <c r="C45" s="19">
+        <f>SUM(C43:C44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="111" t="s">
+    <row r="46" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A46" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="116"/>
-      <c r="C45" s="117"/>
-    </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="32">
+      <c r="C47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="27"/>
-      <c r="B48" s="27" t="s">
-        <v>90</v>
+      <c r="B48" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C48" s="32">
         <v>0</v>
@@ -17868,466 +17974,471 @@
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="27"/>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="27"/>
+      <c r="B50" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="32">
-        <f>SUM(C46:C48)</f>
+      <c r="C50" s="32">
+        <f>SUM(C47:C49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="111" t="s">
+    <row r="51" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A51" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="116"/>
-      <c r="C50" s="117"/>
-    </row>
-    <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="31" t="s">
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="27"/>
+      <c r="B53" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="32">
-        <f>SUM(C51)</f>
+      <c r="C53" s="32">
+        <f>SUM(C52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="130" t="s">
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="125"/>
-    </row>
-    <row r="54" spans="1:3" ht="33" customHeight="1">
-      <c r="A54" s="33" t="s">
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
+    </row>
+    <row r="55" spans="1:3" ht="33" customHeight="1">
+      <c r="A55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C55" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34" t="s">
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="35">
-        <f>SUM(C54)</f>
+      <c r="C56" s="35">
+        <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="135" t="s">
+    <row r="57" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A57" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="86"/>
-    </row>
-    <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="27" t="s">
+      <c r="B57" s="97"/>
+      <c r="C57" s="98"/>
+    </row>
+    <row r="58" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A58" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
-      <c r="A58" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="B58" s="27"/>
       <c r="C58" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>27</v>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="A59" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="35">
-        <f>SUM(C57:C59)</f>
+      <c r="C61" s="35">
+        <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="87" t="s">
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="89"/>
-    </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="59" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B63" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C63" s="61">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="69" t="s">
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B64" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="71">
+      <c r="C64" s="71">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="60" t="s">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B65" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C65" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="31" t="s">
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B66" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C66" s="32">
         <v>760</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="40">
-        <f>SUM(C62:C65)</f>
-        <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="29"/>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="40">
+        <f>SUM(C63:C66)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="29"/>
+      <c r="B68" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="40">
-        <f>C33+C40+C44+C49+C52+C55+C60+C66</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="C68" s="40">
+        <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="43" t="s">
+      <c r="B69" s="137"/>
+      <c r="C69" s="90"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="43" t="s">
         <v>48</v>
-      </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="50">
-        <f>'October 2024 - December 2024'!C69</f>
-        <v>9939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="72" t="s">
-        <v>91</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
+        <f>'October 2024 - December 2024'!C70</f>
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="50">
         <v>5000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="66" t="s">
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="50">
+      <c r="B72" s="56"/>
+      <c r="C72" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="57" t="s">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="29"/>
+      <c r="B73" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="50">
-        <f>SUM(C69:C71)</f>
+      <c r="C73" s="50">
+        <f>SUM(C70:C72)</f>
         <v>14939</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="33"/>
-      <c r="B73" s="41" t="s">
+    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A74" s="33"/>
+      <c r="B74" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="42">
-        <f>C67</f>
-        <v>1257</v>
-      </c>
-      <c r="H73" s="37"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="C74" s="42">
+        <f>C68</f>
+        <v>1299</v>
+      </c>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A77" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B76" s="110"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="81"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="128" t="s">
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="82"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="125"/>
-      <c r="C77" s="128" t="s">
+      <c r="B78" s="87"/>
+      <c r="C78" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="125"/>
-      <c r="E77" s="44" t="s">
+      <c r="D78" s="87"/>
+      <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="143" t="s">
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="141" t="s">
+      <c r="B79" s="130"/>
+      <c r="C79" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="142"/>
-      <c r="E78" s="76">
+      <c r="D79" s="144"/>
+      <c r="E79" s="76">
         <v>1200</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="136" t="s">
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="119"/>
-      <c r="E79" s="45">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="138" t="s">
+      <c r="B80" s="100"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="45">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C81" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="110"/>
-      <c r="E80" s="38">
-        <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>404.26999999999953</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
+      <c r="D81" s="81"/>
+      <c r="E81" s="38">
+        <f>(C6+E13)-SUM(E79:E80)</f>
+        <v>111.76999999999953</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="81"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="82"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B84" s="82"/>
+      <c r="C84" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="23" t="s">
+      <c r="D84" s="82"/>
+      <c r="E84" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="38">
-        <f>E80</f>
-        <v>404.26999999999953</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="82" t="s">
+      <c r="B85" s="107"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="38">
+        <f>E81</f>
+        <v>111.76999999999953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="D85" s="148"/>
-      <c r="E85" s="53">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+      <c r="B86" s="139"/>
+      <c r="C86" s="114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="141"/>
+      <c r="E86" s="53">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="67">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="80" t="s">
+      <c r="B87" s="107"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="67">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C88" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="38">
-        <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>352.26999999999953</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-    </row>
-    <row r="89" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D88" s="82"/>
+      <c r="E88" s="38">
+        <f>(E18+E85)-SUM(E86:E87)</f>
+        <v>117.76999999999953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="84" t="s">
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="136" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="86"/>
-    </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="98"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="92" t="s">
+      <c r="B92" s="82"/>
+      <c r="C92" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="23" t="s">
+      <c r="D92" s="82"/>
+      <c r="E92" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="82" t="s">
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="38">
-        <f>E87</f>
-        <v>352.26999999999953</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+      <c r="B93" s="107"/>
+      <c r="C93" s="124"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="38">
+        <f>E88</f>
+        <v>117.76999999999953</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="D93" s="99"/>
-      <c r="E93" s="53">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="82" t="s">
+      <c r="B94" s="139"/>
+      <c r="C94" s="114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="128"/>
+      <c r="E94" s="53">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="67">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="80" t="s">
+      <c r="B95" s="107"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="67">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C96" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="81"/>
-      <c r="E95" s="53">
-        <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>300.26999999999953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="53">
+        <f>(E23+E93)-SUM(E94:E95)</f>
+        <v>123.76999999999953</v>
+      </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
       <c r="A97" s="11"/>
@@ -21977,8 +22088,48 @@
       <c r="A1008" s="11"/>
       <c r="B1008" s="11"/>
     </row>
+    <row r="1009" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1009" s="11"/>
+      <c r="B1009" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
@@ -21991,42 +22142,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22038,7 +22153,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E81">
     <cfRule type="cellIs" dxfId="33" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -22046,7 +22161,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="31" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -22054,7 +22169,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="29" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -22062,7 +22177,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="27" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -22070,7 +22185,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -22084,10 +22199,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
-  <dimension ref="A1:Y1008"/>
+  <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22104,13 +22219,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22131,8 +22246,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'January 2025 - March 2025'!E95</f>
-        <v>300.26999999999953</v>
+        <f>'January 2025 - March 2025'!E96</f>
+        <v>123.76999999999953</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22195,7 +22310,7 @@
       </c>
       <c r="C5" s="5">
         <f>'January 2025 - March 2025'!C5</f>
-        <v>30.2</v>
+        <v>26.2</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -22227,7 +22342,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>330.46999999999952</v>
+        <v>149.96999999999952</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22258,8 +22373,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('January 2025 - March 2025'!C7+E95)+SUM(E78,E85,E93)</f>
-        <v>1799.3499999999995</v>
+        <f>('January 2025 - March 2025'!C7+E96)+SUM(E79,E86,E94)</f>
+        <v>766.84999999999945</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -22313,13 +22428,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22347,10 +22462,10 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
@@ -22362,10 +22477,10 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22387,13 +22502,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22421,10 +22536,10 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
@@ -22436,10 +22551,10 @@
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22464,13 +22579,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22498,10 +22613,10 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
@@ -22513,10 +22628,10 @@
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -22559,11 +22674,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22578,11 +22693,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -22594,59 +22709,59 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B33" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C33" s="28">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26" t="s">
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="30">
-        <f>SUM(C31:C32)</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="103" t="s">
+      <c r="C34" s="30">
+        <f>SUM(C31:C33)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-    </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="18">
-        <v>0</v>
-      </c>
+      <c r="A36" s="119"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="120"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="10">
+      <c r="C37" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -22655,7 +22770,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -22663,85 +22778,85 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="10">
-        <f>SUM(C36:C39)</f>
+      <c r="C41" s="10">
+        <f>SUM(C37:C40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="111" t="s">
+    <row r="42" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A42" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="81"/>
-    </row>
-    <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="19">
-        <f>SUM(C42:C43)</f>
+      <c r="C45" s="19">
+        <f>SUM(C43:C44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="111" t="s">
+    <row r="46" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A46" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="116"/>
-      <c r="C45" s="117"/>
-    </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="32">
+      <c r="C47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="27"/>
-      <c r="B48" s="27" t="s">
-        <v>90</v>
+      <c r="B48" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C48" s="32">
         <v>0</v>
@@ -22749,466 +22864,471 @@
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="27"/>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="27"/>
+      <c r="B50" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="32">
-        <f>SUM(C46:C48)</f>
+      <c r="C50" s="32">
+        <f>SUM(C47:C49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="111" t="s">
+    <row r="51" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A51" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="116"/>
-      <c r="C50" s="117"/>
-    </row>
-    <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="31" t="s">
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="27"/>
+      <c r="B53" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="32">
-        <f>SUM(C51)</f>
+      <c r="C53" s="32">
+        <f>SUM(C52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="130" t="s">
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="125"/>
-    </row>
-    <row r="54" spans="1:3" ht="33" customHeight="1">
-      <c r="A54" s="33" t="s">
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
+    </row>
+    <row r="55" spans="1:3" ht="33" customHeight="1">
+      <c r="A55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C55" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34" t="s">
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="35">
-        <f>SUM(C54)</f>
+      <c r="C56" s="35">
+        <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="135" t="s">
+    <row r="57" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A57" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="86"/>
-    </row>
-    <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="27" t="s">
+      <c r="B57" s="97"/>
+      <c r="C57" s="98"/>
+    </row>
+    <row r="58" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A58" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
-      <c r="A58" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="B58" s="27"/>
       <c r="C58" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>27</v>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="A59" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="35">
-        <f>SUM(C57:C59)</f>
+      <c r="C61" s="35">
+        <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="87" t="s">
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="89"/>
-    </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="59" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B63" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C63" s="61">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="69" t="s">
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B64" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="71">
+      <c r="C64" s="71">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="60" t="s">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B65" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C65" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="31" t="s">
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B66" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C66" s="32">
         <v>760</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="40">
-        <f>SUM(C62:C65)</f>
-        <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="29"/>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="40">
+        <f>SUM(C63:C66)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="29"/>
+      <c r="B68" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="40">
-        <f>C33+C40+C44+C49+C52+C55+C60+C66</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="C68" s="40">
+        <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="43" t="s">
+      <c r="B69" s="137"/>
+      <c r="C69" s="90"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="43" t="s">
         <v>48</v>
-      </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="50">
-        <f>'January 2025 - March 2025'!C69</f>
-        <v>9939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="72" t="s">
-        <v>91</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
+        <f>'January 2025 - March 2025'!C70</f>
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="39"/>
+      <c r="C71" s="50">
         <v>5000</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="66" t="s">
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="50">
+      <c r="B72" s="56"/>
+      <c r="C72" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="57" t="s">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="29"/>
+      <c r="B73" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="50">
-        <f>SUM(C69:C71)</f>
+      <c r="C73" s="50">
+        <f>SUM(C70:C72)</f>
         <v>14939</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="33"/>
-      <c r="B73" s="41" t="s">
+    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A74" s="33"/>
+      <c r="B74" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="42">
-        <f>C67</f>
-        <v>1257</v>
-      </c>
-      <c r="H73" s="37"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="C74" s="42">
+        <f>C68</f>
+        <v>1299</v>
+      </c>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="92" t="s">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A77" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="110"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="81"/>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="128" t="s">
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="82"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="125"/>
-      <c r="C77" s="128" t="s">
+      <c r="B78" s="87"/>
+      <c r="C78" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="125"/>
-      <c r="E77" s="44" t="s">
+      <c r="D78" s="87"/>
+      <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="143" t="s">
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="141" t="s">
-        <v>150</v>
-      </c>
-      <c r="D78" s="142"/>
-      <c r="E78" s="76">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="136" t="s">
+      <c r="B79" s="130"/>
+      <c r="C79" s="143" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="144"/>
+      <c r="E79" s="76">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="119"/>
-      <c r="E79" s="45">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="138" t="s">
+      <c r="B80" s="100"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="134"/>
+      <c r="E80" s="45">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C81" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="110"/>
-      <c r="E80" s="38">
-        <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>278.46999999999935</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
+      <c r="D81" s="81"/>
+      <c r="E81" s="38">
+        <f>(C6+E13)-SUM(E79:E80)</f>
+        <v>155.96999999999935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="81"/>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="82"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B84" s="82"/>
+      <c r="C84" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="23" t="s">
+      <c r="D84" s="82"/>
+      <c r="E84" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="38">
-        <f>E80</f>
-        <v>278.46999999999935</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="82" t="s">
+      <c r="B85" s="107"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="38">
+        <f>E81</f>
+        <v>155.96999999999935</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85" s="148"/>
-      <c r="E85" s="53">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+      <c r="B86" s="139"/>
+      <c r="C86" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="141"/>
+      <c r="E86" s="53">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="67">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="80" t="s">
+      <c r="B87" s="107"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="67">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C88" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="38">
-        <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>126.46999999999935</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-    </row>
-    <row r="89" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D88" s="82"/>
+      <c r="E88" s="38">
+        <f>(E18+E85)-SUM(E86:E87)</f>
+        <v>161.96999999999935</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="84" t="s">
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="86"/>
-    </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="98"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="92" t="s">
+      <c r="B92" s="82"/>
+      <c r="C92" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="23" t="s">
+      <c r="D92" s="82"/>
+      <c r="E92" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="82" t="s">
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="38">
-        <f>E87</f>
-        <v>126.46999999999935</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+      <c r="B93" s="107"/>
+      <c r="C93" s="124"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="38">
+        <f>E88</f>
+        <v>161.96999999999935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="D93" s="99"/>
-      <c r="E93" s="53">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="82" t="s">
+      <c r="B94" s="139"/>
+      <c r="C94" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" s="128"/>
+      <c r="E94" s="53">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="67">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="80" t="s">
+      <c r="B95" s="107"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="67">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C96" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="81"/>
-      <c r="E95" s="53">
-        <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>-164.53000000000065</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="53">
+        <f>(E23+E93)-SUM(E94:E95)</f>
+        <v>528.96999999999935</v>
+      </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
       <c r="A97" s="11"/>
@@ -26858,8 +26978,48 @@
       <c r="A1008" s="11"/>
       <c r="B1008" s="11"/>
     </row>
+    <row r="1009" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1009" s="11"/>
+      <c r="B1009" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
@@ -26872,42 +27032,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -26919,7 +27043,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E81">
     <cfRule type="cellIs" dxfId="21" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -26927,7 +27051,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="19" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -26935,7 +27059,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -26943,7 +27067,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="15" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -26951,7 +27075,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -26965,10 +27089,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
-  <dimension ref="A1:Y1008"/>
+  <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -26985,13 +27109,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="120" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
+      <c r="A1" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27012,8 +27136,8 @@
         <v>51</v>
       </c>
       <c r="C3" s="5">
-        <f>'April 2025 - June 2025'!E95</f>
-        <v>-164.53000000000065</v>
+        <f>'April 2025 - June 2025'!E96</f>
+        <v>528.96999999999935</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27076,7 +27200,7 @@
       </c>
       <c r="C5" s="5">
         <f>'April 2025 - June 2025'!C5</f>
-        <v>30.2</v>
+        <v>26.2</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -27108,7 +27232,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>-134.33000000000067</v>
+        <v>555.16999999999939</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -27139,8 +27263,8 @@
         <v>1</v>
       </c>
       <c r="C7" s="58">
-        <f>('April 2025 - June 2025'!C7+E95)</f>
-        <v>5109.0199999999986</v>
+        <f>('April 2025 - June 2025'!C7+E96)</f>
+        <v>4640.0199999999986</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -27194,13 +27318,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
+      <c r="A10" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="98"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27228,25 +27352,25 @@
       <c r="B11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="101" t="s">
+      <c r="C11" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="83"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -27268,13 +27392,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86"/>
+      <c r="A15" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="98"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27302,25 +27426,25 @@
       <c r="B16" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -27345,13 +27469,13 @@
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
+      <c r="A20" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="98"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27379,25 +27503,25 @@
       <c r="B21" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="125"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="127"/>
+      <c r="D22" s="113"/>
       <c r="E22" s="68">
         <v>2405</v>
       </c>
@@ -27440,11 +27564,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="140" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="81"/>
+      <c r="A28" s="149" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -27459,11 +27583,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="110"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="26" t="s">
@@ -27475,59 +27599,59 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B33" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C33" s="28">
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="26" t="s">
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="29"/>
+      <c r="B34" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="30">
-        <f>SUM(C31:C32)</f>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="103" t="s">
+      <c r="C34" s="30">
+        <f>SUM(C31:C33)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="105"/>
-    </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="106"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="118"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="18">
-        <v>0</v>
-      </c>
+      <c r="A36" s="119"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="120"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="10">
+      <c r="C37" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -27536,7 +27660,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -27544,85 +27668,85 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="10">
-        <f>SUM(C36:C39)</f>
+      <c r="C41" s="10">
+        <f>SUM(C37:C40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A41" s="111" t="s">
+    <row r="42" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A42" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="81"/>
-    </row>
-    <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="19">
-        <f>SUM(C42:C43)</f>
+      <c r="C45" s="19">
+        <f>SUM(C43:C44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="111" t="s">
+    <row r="46" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A46" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="116"/>
-      <c r="C45" s="117"/>
-    </row>
-    <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="32">
+      <c r="C47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="27"/>
-      <c r="B48" s="27" t="s">
-        <v>90</v>
+      <c r="B48" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="C48" s="32">
         <v>0</v>
@@ -27630,459 +27754,466 @@
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="27"/>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A50" s="27"/>
+      <c r="B50" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="32">
-        <f>SUM(C46:C48)</f>
+      <c r="C50" s="32">
+        <f>SUM(C47:C49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="111" t="s">
+    <row r="51" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A51" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="116"/>
-      <c r="C50" s="117"/>
-    </row>
-    <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="31" t="s">
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="27"/>
+      <c r="B53" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="32">
-        <f>SUM(C51)</f>
+      <c r="C53" s="32">
+        <f>SUM(C52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="130" t="s">
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="131"/>
-      <c r="C53" s="125"/>
-    </row>
-    <row r="54" spans="1:3" ht="33" customHeight="1">
-      <c r="A54" s="33" t="s">
+      <c r="B54" s="86"/>
+      <c r="C54" s="87"/>
+    </row>
+    <row r="55" spans="1:3" ht="33" customHeight="1">
+      <c r="A55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C55" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34" t="s">
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="35">
-        <f>SUM(C54)</f>
+      <c r="C56" s="35">
+        <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="135" t="s">
+    <row r="57" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A57" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="107"/>
-      <c r="C56" s="86"/>
-    </row>
-    <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="27" t="s">
+      <c r="B57" s="97"/>
+      <c r="C57" s="98"/>
+    </row>
+    <row r="58" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A58" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
-      <c r="A58" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>72</v>
-      </c>
+      <c r="B58" s="27"/>
       <c r="C58" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>27</v>
+    <row r="59" spans="1:3" ht="15" customHeight="1">
+      <c r="A59" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="33"/>
-      <c r="B60" s="34" t="s">
+      <c r="A60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="35">
-        <f>SUM(C57:C59)</f>
+      <c r="C61" s="35">
+        <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="87" t="s">
+    <row r="62" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A62" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="132"/>
-      <c r="C61" s="89"/>
-    </row>
-    <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="59" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B63" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="61">
+      <c r="C63" s="61">
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="69" t="s">
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B64" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="71">
+      <c r="C64" s="71">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="60" t="s">
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B65" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="62">
+      <c r="C65" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="31" t="s">
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B66" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C66" s="32">
         <v>760</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="29"/>
-      <c r="B66" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="40">
-        <f>SUM(C62:C65)</f>
-        <v>1060</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
       <c r="A67" s="29"/>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="40">
+        <f>SUM(C63:C66)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="29"/>
+      <c r="B68" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="40">
-        <f>C33+C40+C44+C49+C52+C55+C60+C66</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="C68" s="40">
+        <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="43" t="s">
+      <c r="B69" s="137"/>
+      <c r="C69" s="90"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="43" t="s">
         <v>48</v>
-      </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="72" t="s">
-        <v>91</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30">
-      <c r="A71" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="56"/>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="39"/>
       <c r="C71" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="29"/>
-      <c r="B72" s="57" t="s">
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="56"/>
+      <c r="C72" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="29"/>
+      <c r="B73" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="50">
-        <f>SUM(C69:C71)</f>
+      <c r="C73" s="50">
+        <f>SUM(C70:C72)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="33"/>
-      <c r="B73" s="41" t="s">
+    <row r="74" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A74" s="33"/>
+      <c r="B74" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="42">
-        <f>C67</f>
-        <v>1257</v>
-      </c>
-      <c r="H73" s="37"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="C74" s="42">
+        <f>C68</f>
+        <v>1299</v>
+      </c>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="110"/>
-      <c r="C76" s="110"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="81"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="128" t="s">
+      <c r="A77" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="82"/>
+    </row>
+    <row r="78" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A78" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="125"/>
-      <c r="C77" s="128" t="s">
+      <c r="B78" s="87"/>
+      <c r="C78" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D77" s="125"/>
-      <c r="E77" s="44" t="s">
+      <c r="D78" s="87"/>
+      <c r="E78" s="44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="143" t="s">
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="141"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="76">
+      <c r="B79" s="154"/>
+      <c r="C79" s="155"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="136" t="s">
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B79" s="137"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="119"/>
-      <c r="E79" s="45">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="C80" s="138" t="s">
+      <c r="B80" s="154"/>
+      <c r="C80" s="157"/>
+      <c r="D80" s="157"/>
+      <c r="E80" s="158">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="151"/>
+      <c r="B81" s="151"/>
+      <c r="C81" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="110"/>
-      <c r="E80" s="38">
-        <f>(C6+E13)-SUM(E78:E79)</f>
-        <v>1013.6699999999992</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="110"/>
-      <c r="D82" s="110"/>
-      <c r="E82" s="81"/>
-    </row>
+      <c r="D81" s="97"/>
+      <c r="E81" s="153">
+        <f>(C6+E13)-SUM(E79:E80)</f>
+        <v>1661.1699999999992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="92" t="s">
+      <c r="A83" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="81"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="82"/>
+    </row>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="92" t="s">
+      <c r="B84" s="82"/>
+      <c r="C84" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="23" t="s">
+      <c r="D84" s="82"/>
+      <c r="E84" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="114"/>
-      <c r="D84" s="149"/>
-      <c r="E84" s="38">
-        <f>E80</f>
-        <v>1013.6699999999992</v>
-      </c>
-    </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="82" t="s">
+      <c r="A85" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="107"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="38">
+        <f>E81</f>
+        <v>1661.1699999999992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="98"/>
-      <c r="D85" s="148"/>
-      <c r="E85" s="53">
+      <c r="B86" s="139"/>
+      <c r="C86" s="114"/>
+      <c r="D86" s="141"/>
+      <c r="E86" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="82" t="s">
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="83"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="67">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C87" s="80" t="s">
+      <c r="B87" s="107"/>
+      <c r="C87" s="124"/>
+      <c r="D87" s="82"/>
+      <c r="E87" s="67">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C88" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D87" s="81"/>
-      <c r="E87" s="38">
-        <f>(E18+E84)-SUM(E85:E86)</f>
-        <v>2161.6699999999992</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-    </row>
-    <row r="89" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D88" s="82"/>
+      <c r="E88" s="38">
+        <f>(E18+E85)-SUM(E86:E87)</f>
+        <v>2767.1699999999992</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
       <c r="E89" s="25"/>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="86"/>
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="92" t="s">
+      <c r="A91" s="136" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91" s="109"/>
+      <c r="C91" s="109"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="98"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="81"/>
-      <c r="C91" s="92" t="s">
+      <c r="B92" s="82"/>
+      <c r="C92" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="81"/>
-      <c r="E91" s="23" t="s">
+      <c r="D92" s="82"/>
+      <c r="E92" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="83"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="81"/>
-      <c r="E92" s="38">
-        <f>E87</f>
-        <v>2161.6699999999992</v>
-      </c>
-    </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="82" t="s">
+      <c r="A93" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="B93" s="107"/>
+      <c r="C93" s="124"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="38">
+        <f>E88</f>
+        <v>2767.1699999999992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="98"/>
-      <c r="D93" s="99"/>
-      <c r="E93" s="53">
+      <c r="B94" s="139"/>
+      <c r="C94" s="114"/>
+      <c r="D94" s="128"/>
+      <c r="E94" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="82" t="s">
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B94" s="83"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="81"/>
-      <c r="E94" s="67">
-        <f>C73</f>
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C95" s="80" t="s">
+      <c r="B95" s="107"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="67">
+        <f>C74</f>
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C96" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="D95" s="81"/>
-      <c r="E95" s="53">
-        <f>(E23+E92)-SUM(E93:E94)</f>
-        <v>3309.6699999999992</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="53">
+        <f>(E23+E93)-SUM(E94:E95)</f>
+        <v>3873.1699999999992</v>
+      </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
       <c r="A97" s="11"/>
@@ -31732,44 +31863,12 @@
       <c r="A1008" s="11"/>
       <c r="B1008" s="11"/>
     </row>
+    <row r="1009" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1009" s="11"/>
+      <c r="B1009" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
@@ -31782,6 +31881,42 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
@@ -31793,7 +31928,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E81">
     <cfRule type="cellIs" dxfId="9" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -31801,7 +31936,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -31809,7 +31944,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -31817,7 +31952,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -31825,7 +31960,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8D862E-A1BB-47C2-AC2F-C058A3DC355C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27159B14-4B4F-4E60-9165-2B7063F14116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="173">
   <si>
     <t>Assets</t>
-  </si>
-  <si>
-    <t>Net Assets:</t>
   </si>
   <si>
     <t>Date</t>
@@ -384,9 +381,6 @@
     <t>Already Deducted</t>
   </si>
   <si>
-    <t>30th May 2024</t>
-  </si>
-  <si>
     <t>Additional half month</t>
   </si>
   <si>
@@ -466,9 +460,6 @@
   </si>
   <si>
     <t>2. Payback $850 to Ng Wing Lam</t>
-  </si>
-  <si>
-    <t>2. Payback $800 to Ng Wing Lam</t>
   </si>
   <si>
     <t>HGC BroadBand End Of Service</t>
@@ -623,6 +614,36 @@
       <t>Last Payment</t>
     </r>
   </si>
+  <si>
+    <t>04th June 2024</t>
+  </si>
+  <si>
+    <t>Net Debts:</t>
+  </si>
+  <si>
+    <t>2. Payback $1500 to Ng Wing Lam</t>
+  </si>
+  <si>
+    <t>3. Additional Payment $10 for cigarette</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Payback $800 to Ng Wing Lam - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Last Payment</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Terminate the Fixed Line Phone 23290612 pay $187 remaining fees</t>
+  </si>
 </sst>
 </file>
 
@@ -636,7 +657,7 @@
     <numFmt numFmtId="167" formatCode="[$$-3C09]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$$-380A]\ #,##0.00"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,14 +843,6 @@
       <color rgb="FF4A86E8"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1286,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1358,9 +1371,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1524,16 +1534,163 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,26 +1705,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,12 +1716,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1596,125 +1729,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1734,20 +1750,14 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1761,8 +1771,20 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2510,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1012"/>
+  <dimension ref="A1:Y1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2530,13 +2552,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="123" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2554,10 +2576,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="5">
-        <v>9.9700000000000006</v>
+        <v>944.97</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2585,7 +2607,7 @@
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -2616,7 +2638,7 @@
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
@@ -2646,8 +2668,8 @@
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="36" t="s">
-        <v>40</v>
+      <c r="B6" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -2677,8 +2699,8 @@
     </row>
     <row r="7" spans="1:25" ht="35.25" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="36" t="s">
-        <v>49</v>
+      <c r="B7" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="5">
         <v>26.2</v>
@@ -2708,12 +2730,12 @@
     </row>
     <row r="8" spans="1:25" ht="35.25" customHeight="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="65" t="s">
-        <v>59</v>
+      <c r="B8" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="C8" s="5">
         <f>SUM(C3:C7)</f>
-        <v>47.17</v>
+        <v>982.17000000000007</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2741,11 +2763,11 @@
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="58">
-        <f>E99-(C75-SUM(E88,E97))</f>
-        <v>-12939.83</v>
+        <v>168</v>
+      </c>
+      <c r="C9" s="57">
+        <f>(-C75+SUM(E88,E97))</f>
+        <v>-12439</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2799,13 +2821,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="108" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="98"/>
+      <c r="A12" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2828,30 +2850,30 @@
     </row>
     <row r="13" spans="1:25" ht="13.5" customHeight="1">
       <c r="A13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="C13" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="110" t="s">
+      <c r="D13" s="84"/>
+      <c r="E13" s="17" t="s">
         <v>4</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="17" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="13.5" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="107"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2861,9 +2883,9 @@
       <c r="B15" s="11"/>
       <c r="C15" s="1"/>
       <c r="D15" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="49">
+        <v>7</v>
+      </c>
+      <c r="E15" s="48">
         <f>SUM(E14:E14)</f>
         <v>2405</v>
       </c>
@@ -2873,13 +2895,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="98"/>
+      <c r="A17" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2901,43 +2923,43 @@
       <c r="Y17" s="14"/>
     </row>
     <row r="18" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="C18" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="D18" s="128"/>
+      <c r="E18" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="75" t="s">
+    </row>
+    <row r="19" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A19" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A19" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="33" t="s">
+      <c r="C19" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="67">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="68">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="49">
+      <c r="E20" s="48">
         <f>E19</f>
         <v>2405</v>
       </c>
@@ -2946,17 +2968,17 @@
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A22" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="98"/>
+      <c r="A22" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -2979,123 +3001,123 @@
     </row>
     <row r="23" spans="1:25" ht="13.15" customHeight="1">
       <c r="A23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="D23" s="84"/>
+      <c r="E23" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="17" t="s">
+    </row>
+    <row r="24" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A24" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="27" t="s">
+      <c r="C24" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="28">
+      <c r="D24" s="84"/>
+      <c r="E24" s="27">
         <v>2405</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="150" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="68">
+      <c r="A25" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="82"/>
+      <c r="E25" s="67">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="122" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="68">
-        <v>0</v>
+      <c r="A26" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="116"/>
+      <c r="E26" s="67">
+        <v>1035</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="49">
+      <c r="D27" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="48">
         <f>SUM(E24:E26)</f>
-        <v>2455</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="13.15" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="121" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="112" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="113"/>
+      <c r="C31" s="84"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="82"/>
+      <c r="A33" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="113"/>
+      <c r="C33" s="84"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="26" t="s">
-        <v>31</v>
+      <c r="A34" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="19">
@@ -3103,50 +3125,50 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28">
+      <c r="A35" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="28">
+      <c r="C36" s="27">
         <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="30">
+      <c r="A37" s="28"/>
+      <c r="B37" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="29">
         <f>SUM(C34:C36)</f>
         <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
+      <c r="A38" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="119"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="120"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="111"/>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="18">
@@ -3155,7 +3177,7 @@
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10">
@@ -3164,7 +3186,7 @@
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="10">
@@ -3173,7 +3195,7 @@
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="10">
@@ -3183,7 +3205,7 @@
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="10">
         <f>SUM(C40:C43)</f>
@@ -3191,18 +3213,18 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
+      <c r="A45" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="113"/>
+      <c r="C45" s="84"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C46" s="19">
         <v>0</v>
@@ -3210,10 +3232,10 @@
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C47" s="19">
         <v>0</v>
@@ -3221,8 +3243,8 @@
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="26" t="s">
-        <v>34</v>
+      <c r="B48" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C48" s="19">
         <f>SUM(C46:C47)</f>
@@ -3230,129 +3252,129 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="93"/>
+      <c r="A49" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="119"/>
+      <c r="C49" s="120"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="27"/>
-      <c r="B51" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="32">
+      <c r="A51" s="26"/>
+      <c r="B51" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="32">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="32">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="31">
         <f>SUM(C50:C52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
+      <c r="A54" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="119"/>
+      <c r="C54" s="120"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C55" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="27"/>
-      <c r="B56" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="32">
+      <c r="A56" s="26"/>
+      <c r="B56" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="31">
         <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="134"/>
+      <c r="C57" s="128"/>
+    </row>
+    <row r="58" spans="1:3" ht="33" customHeight="1">
+      <c r="A58" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="87"/>
-    </row>
-    <row r="58" spans="1:3" ht="33" customHeight="1">
-      <c r="A58" s="33" t="s">
+      <c r="B58" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="C58" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="33"/>
-      <c r="B59" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="35">
+      <c r="C59" s="34">
         <f>SUM(C58)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="97"/>
-      <c r="C60" s="98"/>
+      <c r="A60" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="110"/>
+      <c r="C60" s="89"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="27"/>
+      <c r="A61" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="26"/>
       <c r="C61" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1">
-      <c r="A62" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="29" t="s">
+      <c r="A62" s="28" t="s">
         <v>72</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C62" s="18">
         <v>0</v>
@@ -3360,139 +3382,139 @@
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C63" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" s="35">
+      <c r="A64" s="32"/>
+      <c r="B64" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="34">
         <f>SUM(C61:C63)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
+      <c r="A65" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="135"/>
+      <c r="C65" s="92"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="59" t="s">
+      <c r="A66" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A69" s="28"/>
+      <c r="B69" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C66" s="61">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="C68" s="32">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="40">
+      <c r="C69" s="39">
         <f>SUM(C66:C68)</f>
         <v>1060</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="29"/>
-      <c r="B70" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="40">
+      <c r="A70" s="28"/>
+      <c r="B70" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="39">
         <f>C37+C44+C48+C53+C56+C59+C64+C69</f>
         <v>1503</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="88" t="s">
+      <c r="A71" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="91"/>
+      <c r="C71" s="92"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A72" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="49">
+        <v>9939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" s="55"/>
+      <c r="C74" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A75" s="28"/>
+      <c r="B75" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="137"/>
-      <c r="C71" s="90"/>
-    </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="50">
-        <v>9939</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="50">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30">
-      <c r="A74" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A75" s="29"/>
-      <c r="B75" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="50">
+      <c r="C75" s="49">
         <f>SUM(C72:C74)</f>
         <v>14939</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="33"/>
-      <c r="B76" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="42">
+      <c r="A76" s="32"/>
+      <c r="B76" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="41">
         <f>C70</f>
         <v>1503</v>
       </c>
-      <c r="H76" s="37"/>
+      <c r="H76" s="36"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
       <c r="A77" s="11"/>
@@ -3503,228 +3525,234 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="95"/>
+      <c r="A79" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="136"/>
+      <c r="C79" s="136"/>
+      <c r="D79" s="136"/>
+      <c r="E79" s="137"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" s="84"/>
-      <c r="C80" s="83" t="s">
+      <c r="A80" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="44" t="s">
-        <v>5</v>
+      <c r="B80" s="132"/>
+      <c r="C80" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" s="132"/>
+      <c r="E80" s="43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="100"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="134"/>
-      <c r="E81" s="45">
+      <c r="A81" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="140"/>
+      <c r="C81" s="121"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="44">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="102"/>
-      <c r="E82" s="38">
+      <c r="C82" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="142"/>
+      <c r="E82" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="B84" s="81"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="81"/>
-      <c r="E84" s="82"/>
+      <c r="A84" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="113"/>
+      <c r="C84" s="113"/>
+      <c r="D84" s="113"/>
+      <c r="E84" s="84"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B85" s="82"/>
-      <c r="C85" s="80" t="s">
+      <c r="A85" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D85" s="82"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="84"/>
       <c r="E85" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="139"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="38">
+      <c r="A86" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="96"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="37">
         <f>E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="129" t="s">
+      <c r="A87" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="98"/>
+      <c r="C87" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="130"/>
-      <c r="C87" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="128"/>
-      <c r="E87" s="53">
+      <c r="D87" s="102"/>
+      <c r="E87" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="131"/>
-      <c r="B88" s="132"/>
-      <c r="C88" s="114" t="s">
+      <c r="A88" s="99"/>
+      <c r="B88" s="100"/>
+      <c r="C88" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="103"/>
+      <c r="E88" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="86"/>
+      <c r="C89" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="D88" s="115"/>
-      <c r="E88" s="53">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="107"/>
-      <c r="C89" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="D89" s="126"/>
-      <c r="E89" s="67">
+      <c r="D89" s="118"/>
+      <c r="E89" s="66">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" s="82"/>
-      <c r="E90" s="38">
+      <c r="C90" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="84"/>
+      <c r="E90" s="37">
         <f>SUM(C3:C7)</f>
-        <v>47.17</v>
+        <v>982.17000000000007</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
     </row>
     <row r="92" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="98"/>
+      <c r="A93" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="88"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="89"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B94" s="82"/>
-      <c r="C94" s="80" t="s">
+      <c r="A94" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D94" s="82"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D94" s="84"/>
       <c r="E94" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="38">
-        <f>E90</f>
-        <v>47.17</v>
+      <c r="A95" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="86"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="37">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="129" t="s">
+      <c r="A96" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="98"/>
+      <c r="C96" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="130"/>
-      <c r="C96" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="D96" s="128"/>
-      <c r="E96" s="53">
+      <c r="D96" s="102"/>
+      <c r="E96" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="131"/>
-      <c r="B97" s="132"/>
-      <c r="C97" s="114" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="115"/>
-      <c r="E97" s="53">
-        <v>1000</v>
+      <c r="A97" s="158"/>
+      <c r="B97" s="159"/>
+      <c r="C97" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D97" s="103"/>
+      <c r="E97" s="52">
+        <v>1500</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B98" s="107"/>
-      <c r="C98" s="124"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="24">
+      <c r="A98" s="99"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="160" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="161"/>
+      <c r="E98" s="52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="96"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="118"/>
+      <c r="E99" s="52">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C99" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="82"/>
-      <c r="E99" s="53">
-        <f>(E27+E95)-SUM(E96:E98)</f>
-        <v>-0.82999999999992724</v>
-      </c>
-    </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
+      <c r="C100" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="84"/>
+      <c r="E100" s="52">
+        <f>(E27+E95)-SUM(E96:E99)</f>
+        <v>477</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
       <c r="A101" s="11"/>
@@ -7374,24 +7402,32 @@
       <c r="A1012" s="11"/>
       <c r="B1012" s="11"/>
     </row>
+    <row r="1013" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1013" s="11"/>
+      <c r="B1013" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A98:B98"/>
+  <mergeCells count="51">
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A96:B97"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A96:B98"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
@@ -7408,24 +7444,21 @@
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A94:B94"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -7465,7 +7498,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
+  <conditionalFormatting sqref="E100">
     <cfRule type="cellIs" dxfId="61" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7480,10 +7513,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1013"/>
+  <dimension ref="A1:Y1014"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7500,13 +7533,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7524,11 +7557,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
-        <f>'April 2024 - June 2024'!E99</f>
-        <v>-0.82999999999992724</v>
+        <f>'April 2024 - June 2024'!E100</f>
+        <v>477</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7555,8 +7588,8 @@
     </row>
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="36" t="s">
-        <v>40</v>
+      <c r="B4" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -7586,8 +7619,8 @@
     </row>
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="36" t="s">
-        <v>49</v>
+      <c r="B5" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="5">
         <f>'April 2024 - June 2024'!C7</f>
@@ -7618,12 +7651,12 @@
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="65" t="s">
-        <v>59</v>
+      <c r="B6" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>25.370000000000072</v>
+        <v>503.2</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7651,11 +7684,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="58">
-        <f>('April 2024 - June 2024'!C9+E100)+SUM(E81,E89,E98)</f>
-        <v>-10004.459999999999</v>
+        <v>168</v>
+      </c>
+      <c r="C7" s="57">
+        <f>('April 2024 - June 2024'!C9)+SUM(E81,E89,E99)</f>
+        <v>-9939</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7709,13 +7742,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7738,30 +7771,30 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="17" t="s">
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7771,9 +7804,9 @@
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
       <c r="D13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="49">
+        <v>7</v>
+      </c>
+      <c r="E13" s="48">
         <f>E12</f>
         <v>2405</v>
       </c>
@@ -7783,13 +7816,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7812,30 +7845,30 @@
     </row>
     <row r="16" spans="1:25" ht="13.15" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7845,7 +7878,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="1"/>
       <c r="D18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="13">
         <f>SUM(E17)</f>
@@ -7856,17 +7889,17 @@
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7888,54 +7921,54 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="C21" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75" t="s">
+    </row>
+    <row r="22" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="67">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="67">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="68">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="68">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="49">
+      <c r="E24" s="48">
         <f>SUM(E22:E23)</f>
         <v>2609</v>
       </c>
@@ -7944,56 +7977,56 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.15" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="149" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
+      <c r="A29" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="113"/>
+      <c r="C29" s="84"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="82"/>
+      <c r="A31" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="113"/>
+      <c r="C31" s="84"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="26" t="s">
-        <v>31</v>
+      <c r="A32" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="19">
@@ -8001,50 +8034,50 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28">
+      <c r="A33" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="28">
+      <c r="C34" s="27">
         <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="30">
+      <c r="A35" s="28"/>
+      <c r="B35" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="29">
         <f>SUM(C32:C34)</f>
         <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
+      <c r="A36" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="107"/>
+      <c r="C36" s="108"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="119"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="111"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="18">
@@ -8053,7 +8086,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -8062,7 +8095,7 @@
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10">
@@ -8071,7 +8104,7 @@
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10">
@@ -8081,7 +8114,7 @@
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="10">
         <f>SUM(C38:C41)</f>
@@ -8089,18 +8122,18 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
+      <c r="A43" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="113"/>
+      <c r="C43" s="84"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C44" s="19">
         <v>0</v>
@@ -8108,10 +8141,10 @@
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C45" s="19">
         <v>0</v>
@@ -8119,8 +8152,8 @@
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="26" t="s">
-        <v>34</v>
+      <c r="B46" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C46" s="19">
         <f>SUM(C44:C45)</f>
@@ -8128,129 +8161,129 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="92"/>
-      <c r="C47" s="93"/>
+      <c r="A47" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="119"/>
+      <c r="C47" s="120"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="A49" s="26"/>
+      <c r="B49" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="32">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="27"/>
-      <c r="B51" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="32">
+      <c r="A51" s="26"/>
+      <c r="B51" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="31">
         <f>SUM(C48:C50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
+      <c r="A52" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="119"/>
+      <c r="C52" s="120"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C53" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="27"/>
-      <c r="B54" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="32">
+      <c r="A54" s="26"/>
+      <c r="B54" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="31">
         <f>SUM(C53)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="134"/>
+      <c r="C55" s="128"/>
+    </row>
+    <row r="56" spans="1:3" ht="33" customHeight="1">
+      <c r="A56" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="87"/>
-    </row>
-    <row r="56" spans="1:3" ht="33" customHeight="1">
-      <c r="A56" s="33" t="s">
+      <c r="B56" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="C56" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="33"/>
-      <c r="B57" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="35">
+      <c r="C57" s="34">
         <f>SUM(C56)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="98"/>
+      <c r="A58" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="110"/>
+      <c r="C58" s="89"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="27"/>
+      <c r="A59" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="26"/>
       <c r="C59" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1">
-      <c r="A60" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="29" t="s">
+      <c r="A60" s="28" t="s">
         <v>72</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C60" s="18">
         <v>0</v>
@@ -8258,151 +8291,151 @@
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C61" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="35">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="34">
         <f>SUM(C59:C61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="89"/>
-      <c r="C63" s="90"/>
+      <c r="A63" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="135"/>
+      <c r="C63" s="92"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="28"/>
+      <c r="B68" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B64" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="61">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C66" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="32">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="40">
+      <c r="C68" s="39">
         <f>SUM(C64:C67)</f>
         <v>1060</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="29"/>
-      <c r="B69" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="40">
+      <c r="A69" s="28"/>
+      <c r="B69" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="39">
         <f>C35+C42+C46+C51+C54+C57+C62+C68</f>
         <v>1503</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="137"/>
-      <c r="C70" s="90"/>
+      <c r="A70" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" s="91"/>
+      <c r="C70" s="92"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="50">
+      <c r="A71" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="49">
         <f>'April 2024 - June 2024'!C72</f>
         <v>9939</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="50">
+      <c r="A72" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="50">
+      <c r="A73" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="55"/>
+      <c r="C73" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="29"/>
-      <c r="B74" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C74" s="50">
+      <c r="A74" s="28"/>
+      <c r="B74" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="49">
         <f>SUM(C71:C73)</f>
         <v>14939</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A75" s="33"/>
-      <c r="B75" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="42">
+      <c r="A75" s="32"/>
+      <c r="B75" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="41">
         <f>C69</f>
         <v>1503</v>
       </c>
-      <c r="H75" s="37"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1">
       <c r="A76" s="11"/>
@@ -8413,251 +8446,258 @@
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78" s="81"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
-      <c r="E78" s="82"/>
+      <c r="A78" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" s="113"/>
+      <c r="C78" s="113"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="84"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B79" s="87"/>
-      <c r="C79" s="83" t="s">
+      <c r="A79" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="87"/>
-      <c r="E79" s="44" t="s">
-        <v>5</v>
+      <c r="B79" s="128"/>
+      <c r="C79" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="128"/>
+      <c r="E79" s="43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="145" t="s">
+      <c r="A80" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="146"/>
+      <c r="C80" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="145"/>
-      <c r="C80" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="144"/>
-      <c r="E80" s="76">
+      <c r="D80" s="145"/>
+      <c r="E80" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="146"/>
-      <c r="B81" s="146"/>
-      <c r="C81" s="147" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" s="148"/>
-      <c r="E81" s="53">
+      <c r="A81" s="147"/>
+      <c r="B81" s="147"/>
+      <c r="C81" s="148" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="149"/>
+      <c r="E81" s="52">
         <v>850</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="100"/>
-      <c r="C82" s="133"/>
-      <c r="D82" s="134"/>
-      <c r="E82" s="45">
+      <c r="A82" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="B82" s="140"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="44">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" s="81"/>
-      <c r="E83" s="38">
+      <c r="C83" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="113"/>
+      <c r="E83" s="37">
         <f>(C6+E13)-SUM(E80:E82)</f>
-        <v>77.369999999999891</v>
+        <v>555.19999999999982</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="80" t="s">
-        <v>103</v>
-      </c>
-      <c r="B85" s="81"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
-      <c r="E85" s="82"/>
+      <c r="A85" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="113"/>
+      <c r="C85" s="113"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="84"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B86" s="82"/>
-      <c r="C86" s="80" t="s">
+      <c r="A86" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="82"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="84"/>
       <c r="E86" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="86"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="152"/>
+      <c r="E87" s="37">
+        <f>E83</f>
+        <v>555.19999999999982</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="107"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="142"/>
-      <c r="E87" s="38">
-        <f>E83</f>
-        <v>77.369999999999891</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="129" t="s">
+      <c r="B88" s="98"/>
+      <c r="C88" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="B88" s="130"/>
-      <c r="C88" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" s="141"/>
-      <c r="E88" s="53">
+      <c r="D88" s="151"/>
+      <c r="E88" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="131"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="114" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" s="140"/>
-      <c r="E89" s="53">
+      <c r="A89" s="158"/>
+      <c r="B89" s="159"/>
+      <c r="C89" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="150"/>
+      <c r="E89" s="52">
         <v>850</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B90" s="107"/>
-      <c r="C90" s="124"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="67">
+      <c r="A90" s="99"/>
+      <c r="B90" s="100"/>
+      <c r="C90" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="150"/>
+      <c r="E90" s="52">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="86"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="66">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C91" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D91" s="82"/>
-      <c r="E91" s="38">
-        <f>(E18+E87)-SUM(E88:E90)</f>
-        <v>129.36999999999989</v>
-      </c>
-    </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-    </row>
-    <row r="93" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" s="109"/>
-      <c r="C94" s="109"/>
-      <c r="D94" s="109"/>
-      <c r="E94" s="98"/>
+      <c r="C92" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="84"/>
+      <c r="E92" s="37">
+        <f>(E18+E87)-SUM(E88:E91)</f>
+        <v>420.19999999999982</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B95" s="82"/>
-      <c r="C95" s="80" t="s">
+      <c r="A95" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="88"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="88"/>
+      <c r="E95" s="89"/>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="82"/>
-      <c r="E95" s="23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="135" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" s="107"/>
-      <c r="C96" s="124"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="38">
-        <f>E91</f>
-        <v>129.36999999999989</v>
+      <c r="B96" s="84"/>
+      <c r="C96" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="84"/>
+      <c r="E96" s="23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="135" t="s">
+      <c r="A97" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="86"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="37">
+        <f>E92</f>
+        <v>420.19999999999982</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="96"/>
+      <c r="C98" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="B97" s="139"/>
-      <c r="C97" s="114" t="s">
-        <v>84</v>
-      </c>
-      <c r="D97" s="128"/>
-      <c r="E97" s="53">
+      <c r="D98" s="102"/>
+      <c r="E98" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="77"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" s="140"/>
-      <c r="E98" s="53">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="76"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D99" s="150"/>
+      <c r="E99" s="52">
         <v>800</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B99" s="107"/>
-      <c r="C99" s="124"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="67">
+    <row r="100" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A100" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="86"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="66">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C100" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="82"/>
-      <c r="E100" s="53">
-        <f>(E24+E96)-SUM(E97:E99)</f>
-        <v>435.36999999999989</v>
-      </c>
-    </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
+      <c r="C101" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="84"/>
+      <c r="E101" s="52">
+        <f>(E24+E97)-SUM(E98:E100)</f>
+        <v>726.19999999999982</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
       <c r="A102" s="11"/>
@@ -12307,8 +12347,49 @@
       <c r="A1013" s="11"/>
       <c r="B1013" s="11"/>
     </row>
+    <row r="1014" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1014" s="11"/>
+      <c r="B1014" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="53">
+    <mergeCell ref="A88:B90"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:E1"/>
@@ -12325,42 +12406,6 @@
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A78:E78"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A88:B89"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="C79:D79"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12388,7 +12433,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12396,7 +12441,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12404,7 +12449,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
+  <conditionalFormatting sqref="E101">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12421,8 +12466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12439,13 +12484,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="123" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12463,11 +12508,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E100</f>
-        <v>435.36999999999989</v>
+        <f>'July 2024 - September 2024'!E101</f>
+        <v>726.19999999999982</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12494,8 +12539,8 @@
     </row>
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="36" t="s">
-        <v>40</v>
+      <c r="B4" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -12525,8 +12570,8 @@
     </row>
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="36" t="s">
-        <v>49</v>
+      <c r="B5" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="5">
         <f>'July 2024 - September 2024'!C5</f>
@@ -12557,12 +12602,12 @@
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="65" t="s">
-        <v>59</v>
+      <c r="B6" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>461.56999999999988</v>
+        <v>752.39999999999986</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -12590,11 +12635,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="58">
-        <f>('July 2024 - September 2024'!C7+E96)+SUM(E79,E86,E94)</f>
-        <v>-6224.8899999999994</v>
+        <v>168</v>
+      </c>
+      <c r="C7" s="57">
+        <f>('July 2024 - September 2024'!C7)+SUM(E79,E86,E94)</f>
+        <v>-6339</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -12648,13 +12693,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="126" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12677,30 +12722,30 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="17" t="s">
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12710,9 +12755,9 @@
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
       <c r="D13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="49">
+        <v>7</v>
+      </c>
+      <c r="E13" s="48">
         <f>E12</f>
         <v>2405</v>
       </c>
@@ -12722,13 +12767,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12751,30 +12796,30 @@
     </row>
     <row r="16" spans="1:25" ht="13.15" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12784,7 +12829,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="1"/>
       <c r="D18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="13">
         <f>SUM(E17)</f>
@@ -12795,17 +12840,17 @@
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12827,43 +12872,43 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="C21" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75" t="s">
+    </row>
+    <row r="22" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="67">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="68">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <f>E22</f>
         <v>2405</v>
       </c>
@@ -12872,56 +12917,56 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="13.15" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="149" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="113"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="113"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="26" t="s">
-        <v>31</v>
+      <c r="A31" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19">
@@ -12929,50 +12974,50 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28">
+      <c r="A32" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="30">
+      <c r="A34" s="28"/>
+      <c r="B34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="29">
         <f>SUM(C31:C33)</f>
         <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="A35" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="111"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="18">
@@ -12981,7 +13026,7 @@
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -12990,7 +13035,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -12999,7 +13044,7 @@
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10">
@@ -13009,7 +13054,7 @@
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="10">
         <f>SUM(C37:C40)</f>
@@ -13017,18 +13062,18 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="113"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -13036,10 +13081,10 @@
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C44" s="19">
         <v>0</v>
@@ -13047,8 +13092,8 @@
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="26" t="s">
-        <v>34</v>
+      <c r="B45" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C45" s="19">
         <f>SUM(C43:C44)</f>
@@ -13056,129 +13101,129 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
+      <c r="A46" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="32">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="32">
+      <c r="A50" s="26"/>
+      <c r="B50" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="31">
         <f>SUM(C47:C49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="119"/>
+      <c r="C51" s="120"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="32">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="31">
         <f>SUM(C52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="134"/>
+      <c r="C54" s="128"/>
+    </row>
+    <row r="55" spans="1:3" ht="33" customHeight="1">
+      <c r="A55" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
-    </row>
-    <row r="55" spans="1:3" ht="33" customHeight="1">
-      <c r="A55" s="33" t="s">
+      <c r="B55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="C55" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="35">
+      <c r="C56" s="34">
         <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="98"/>
+      <c r="A57" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="110"/>
+      <c r="C57" s="89"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="27"/>
+      <c r="A58" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>72</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
@@ -13186,151 +13231,151 @@
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C60" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="35">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="34">
         <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
+      <c r="A62" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="135"/>
+      <c r="C62" s="92"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="28"/>
+      <c r="B67" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="61">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="32">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="40">
+      <c r="C67" s="39">
         <f>SUM(C63:C66)</f>
         <v>1060</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="40">
+      <c r="A68" s="28"/>
+      <c r="B68" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="39">
         <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
         <v>1299</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="137"/>
-      <c r="C69" s="90"/>
+      <c r="A69" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="91"/>
+      <c r="C69" s="92"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="50">
+      <c r="A70" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="49">
         <f>'July 2024 - September 2024'!C71</f>
         <v>9939</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="50">
+      <c r="A71" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="50">
+      <c r="A72" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="50">
+      <c r="A73" s="28"/>
+      <c r="B73" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="49">
         <f>SUM(C70:C72)</f>
         <v>14939</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="42">
+      <c r="A74" s="32"/>
+      <c r="B74" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="41">
         <f>C68</f>
         <v>1299</v>
       </c>
-      <c r="H74" s="37"/>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="11"/>
@@ -13341,213 +13386,213 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="82"/>
+      <c r="A77" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="83" t="s">
+      <c r="A78" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="87"/>
-      <c r="E78" s="44" t="s">
-        <v>5</v>
+      <c r="B78" s="128"/>
+      <c r="C78" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="128"/>
+      <c r="E78" s="43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="145" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="130"/>
-      <c r="C79" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="144"/>
-      <c r="E79" s="76">
+      <c r="A79" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="98"/>
+      <c r="C79" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="145"/>
+      <c r="E79" s="75">
         <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="100"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="134"/>
-      <c r="E80" s="45">
+      <c r="A80" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="140"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="81"/>
-      <c r="E81" s="38">
+      <c r="C81" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="113"/>
+      <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>367.56999999999971</v>
+        <v>658.39999999999964</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="82"/>
+      <c r="A83" s="95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="113"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="80" t="s">
+      <c r="A84" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="82"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="84"/>
       <c r="E84" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" s="107"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="38">
+      <c r="A85" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="86"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="37">
         <f>E81</f>
-        <v>367.56999999999971</v>
+        <v>658.39999999999964</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="139"/>
-      <c r="C86" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="141"/>
-      <c r="E86" s="53">
+      <c r="A86" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="96"/>
+      <c r="C86" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="151"/>
+      <c r="E86" s="52">
         <v>1200</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="107"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="67">
+      <c r="A87" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="86"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="82"/>
-      <c r="E88" s="38">
+      <c r="C88" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="84"/>
+      <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>273.56999999999971</v>
+        <v>564.39999999999964</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="136" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="98"/>
+      <c r="A91" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="88"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="89"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="82"/>
-      <c r="C92" s="80" t="s">
+      <c r="A92" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="82"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="84"/>
       <c r="E92" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
-        <v>118</v>
-      </c>
-      <c r="B93" s="107"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="38">
+      <c r="A93" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="86"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="37">
         <f>E88</f>
-        <v>273.56999999999971</v>
+        <v>564.39999999999964</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="139"/>
-      <c r="C94" s="114" t="s">
-        <v>150</v>
-      </c>
-      <c r="D94" s="128"/>
-      <c r="E94" s="53">
+      <c r="A94" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="96"/>
+      <c r="C94" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" s="102"/>
+      <c r="E94" s="52">
         <v>1200</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="67">
+      <c r="A95" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="86"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="82"/>
-      <c r="E96" s="53">
+      <c r="C96" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="84"/>
+      <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>179.56999999999971</v>
+        <v>470.39999999999964</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -17204,36 +17249,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C88:D88"/>
@@ -17247,11 +17267,36 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17311,8 +17356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17329,13 +17374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17353,11 +17398,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E96</f>
-        <v>179.56999999999971</v>
+        <v>470.39999999999964</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17384,8 +17429,8 @@
     </row>
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="36" t="s">
-        <v>40</v>
+      <c r="B4" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -17415,8 +17460,8 @@
     </row>
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="36" t="s">
-        <v>49</v>
+      <c r="B5" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="5">
         <f>'October 2024 - December 2024'!C5</f>
@@ -17447,12 +17492,12 @@
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="65" t="s">
-        <v>59</v>
+      <c r="B6" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>205.7699999999997</v>
+        <v>496.59999999999962</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17480,11 +17525,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="58">
-        <f>('October 2024 - December 2024'!C7+E96)+SUM(E79,E86,E94)</f>
-        <v>-2701.12</v>
+        <v>168</v>
+      </c>
+      <c r="C7" s="57">
+        <f>('October 2024 - December 2024'!C7)+SUM(E79,E86,E94)</f>
+        <v>-2939</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -17538,13 +17583,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17567,30 +17612,30 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="17" t="s">
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17600,9 +17645,9 @@
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
       <c r="D13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="49">
+        <v>7</v>
+      </c>
+      <c r="E13" s="48">
         <f>E12</f>
         <v>2405</v>
       </c>
@@ -17612,13 +17657,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17641,30 +17686,30 @@
     </row>
     <row r="16" spans="1:25" ht="13.15" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17674,7 +17719,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="1"/>
       <c r="D18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="13">
         <f>SUM(E17)</f>
@@ -17685,17 +17730,17 @@
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17717,43 +17762,43 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="C21" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75" t="s">
+    </row>
+    <row r="22" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="67">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="68">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <f>E22</f>
         <v>2405</v>
       </c>
@@ -17762,56 +17807,56 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="13.15" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="149" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="143" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="113"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="113"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="26" t="s">
-        <v>31</v>
+      <c r="A31" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19">
@@ -17819,50 +17864,50 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28">
+      <c r="A32" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="30">
+      <c r="A34" s="28"/>
+      <c r="B34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="29">
         <f>SUM(C31:C33)</f>
         <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="A35" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="111"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="18">
@@ -17871,7 +17916,7 @@
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -17880,7 +17925,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -17889,7 +17934,7 @@
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10">
@@ -17899,7 +17944,7 @@
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="10">
         <f>SUM(C37:C40)</f>
@@ -17907,18 +17952,18 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="113"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -17926,10 +17971,10 @@
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C44" s="19">
         <v>0</v>
@@ -17937,8 +17982,8 @@
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="26" t="s">
-        <v>34</v>
+      <c r="B45" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C45" s="19">
         <f>SUM(C43:C44)</f>
@@ -17946,129 +17991,129 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
+      <c r="A46" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="32">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="32">
+      <c r="A50" s="26"/>
+      <c r="B50" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="31">
         <f>SUM(C47:C49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="119"/>
+      <c r="C51" s="120"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="32">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="31">
         <f>SUM(C52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="134"/>
+      <c r="C54" s="128"/>
+    </row>
+    <row r="55" spans="1:3" ht="33" customHeight="1">
+      <c r="A55" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
-    </row>
-    <row r="55" spans="1:3" ht="33" customHeight="1">
-      <c r="A55" s="33" t="s">
+      <c r="B55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="C55" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="35">
+      <c r="C56" s="34">
         <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="98"/>
+      <c r="A57" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="110"/>
+      <c r="C57" s="89"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="27"/>
+      <c r="A58" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>72</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
@@ -18076,151 +18121,151 @@
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C60" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="35">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="34">
         <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
+      <c r="A62" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="135"/>
+      <c r="C62" s="92"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="28"/>
+      <c r="B67" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="61">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="32">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="40">
+      <c r="C67" s="39">
         <f>SUM(C63:C66)</f>
         <v>1060</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="40">
+      <c r="A68" s="28"/>
+      <c r="B68" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="39">
         <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
         <v>1299</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="137"/>
-      <c r="C69" s="90"/>
+      <c r="A69" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="91"/>
+      <c r="C69" s="92"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="50">
+      <c r="A70" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="49">
         <f>'October 2024 - December 2024'!C70</f>
         <v>9939</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="50">
+      <c r="A71" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="50">
+      <c r="A72" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="50">
+      <c r="A73" s="28"/>
+      <c r="B73" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="49">
         <f>SUM(C70:C72)</f>
         <v>14939</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="42">
+      <c r="A74" s="32"/>
+      <c r="B74" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="41">
         <f>C68</f>
         <v>1299</v>
       </c>
-      <c r="H74" s="37"/>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="11"/>
@@ -18231,213 +18276,213 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="82"/>
+      <c r="A77" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="83" t="s">
+      <c r="A78" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="87"/>
-      <c r="E78" s="44" t="s">
-        <v>5</v>
+      <c r="B78" s="128"/>
+      <c r="C78" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="128"/>
+      <c r="E78" s="43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="145" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="130"/>
-      <c r="C79" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="144"/>
-      <c r="E79" s="76">
+      <c r="A79" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="98"/>
+      <c r="C79" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" s="145"/>
+      <c r="E79" s="75">
         <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="100"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="134"/>
-      <c r="E80" s="45">
+      <c r="A80" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="140"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="81"/>
-      <c r="E81" s="38">
+      <c r="C81" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="113"/>
+      <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>111.76999999999953</v>
+        <v>402.59999999999945</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="82"/>
+      <c r="A83" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="113"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="80" t="s">
+      <c r="A84" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="82"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="84"/>
       <c r="E84" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="107"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="38">
+      <c r="A85" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="86"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="37">
         <f>E81</f>
-        <v>111.76999999999953</v>
+        <v>402.59999999999945</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="139"/>
-      <c r="C86" s="114" t="s">
-        <v>167</v>
-      </c>
-      <c r="D86" s="141"/>
-      <c r="E86" s="53">
+      <c r="A86" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="96"/>
+      <c r="C86" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="151"/>
+      <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="107"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="67">
+      <c r="A87" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="86"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="82"/>
-      <c r="E88" s="38">
+      <c r="C88" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="84"/>
+      <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>117.76999999999953</v>
+        <v>408.59999999999945</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="136" t="s">
-        <v>131</v>
-      </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="98"/>
+      <c r="A91" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="88"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="89"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="82"/>
-      <c r="C92" s="80" t="s">
+      <c r="A92" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="82"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="84"/>
       <c r="E92" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
-        <v>149</v>
-      </c>
-      <c r="B93" s="107"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="38">
+      <c r="A93" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B93" s="86"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="37">
         <f>E88</f>
-        <v>117.76999999999953</v>
+        <v>408.59999999999945</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="139"/>
-      <c r="C94" s="114" t="s">
-        <v>167</v>
-      </c>
-      <c r="D94" s="128"/>
-      <c r="E94" s="53">
+      <c r="A94" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="96"/>
+      <c r="C94" s="101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" s="102"/>
+      <c r="E94" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="67">
+      <c r="A95" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="86"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="82"/>
-      <c r="E96" s="53">
+      <c r="C96" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="84"/>
+      <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>123.76999999999953</v>
+        <v>414.59999999999945</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22094,29 +22139,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -22130,18 +22164,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22201,8 +22246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88:D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22219,13 +22264,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="123" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22243,11 +22288,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>123.76999999999953</v>
+        <v>414.59999999999945</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22274,8 +22319,8 @@
     </row>
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="36" t="s">
-        <v>40</v>
+      <c r="B4" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -22305,8 +22350,8 @@
     </row>
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="36" t="s">
-        <v>49</v>
+      <c r="B5" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="5">
         <f>'January 2025 - March 2025'!C5</f>
@@ -22337,12 +22382,12 @@
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="65" t="s">
-        <v>59</v>
+      <c r="B6" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>149.96999999999952</v>
+        <v>440.79999999999944</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22370,11 +22415,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="58">
-        <f>('January 2025 - March 2025'!C7+E96)+SUM(E79,E86,E94)</f>
-        <v>766.84999999999945</v>
+        <v>168</v>
+      </c>
+      <c r="C7" s="57">
+        <f>('January 2025 - March 2025'!C7)+SUM(E79,E86,E94)</f>
+        <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -22428,13 +22473,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22457,30 +22502,30 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="17" t="s">
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22490,9 +22535,9 @@
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
       <c r="D13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="49">
+        <v>7</v>
+      </c>
+      <c r="E13" s="48">
         <f>E12</f>
         <v>2405</v>
       </c>
@@ -22502,13 +22547,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="126" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22531,30 +22576,30 @@
     </row>
     <row r="16" spans="1:25" ht="13.15" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22564,7 +22609,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="1"/>
       <c r="D18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="13">
         <f>SUM(E17)</f>
@@ -22575,17 +22620,17 @@
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22607,43 +22652,43 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="C21" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75" t="s">
+    </row>
+    <row r="22" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="67">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="68">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <f>E22</f>
         <v>2405</v>
       </c>
@@ -22652,56 +22697,56 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="13.15" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="149" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="143" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="113"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="113"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="26" t="s">
-        <v>31</v>
+      <c r="A31" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19">
@@ -22709,50 +22754,50 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28">
+      <c r="A32" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="30">
+      <c r="A34" s="28"/>
+      <c r="B34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="29">
         <f>SUM(C31:C33)</f>
         <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="A35" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="111"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="18">
@@ -22761,7 +22806,7 @@
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -22770,7 +22815,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -22779,7 +22824,7 @@
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10">
@@ -22789,7 +22834,7 @@
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="10">
         <f>SUM(C37:C40)</f>
@@ -22797,18 +22842,18 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="113"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -22816,10 +22861,10 @@
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C44" s="19">
         <v>0</v>
@@ -22827,8 +22872,8 @@
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="26" t="s">
-        <v>34</v>
+      <c r="B45" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C45" s="19">
         <f>SUM(C43:C44)</f>
@@ -22836,129 +22881,129 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
+      <c r="A46" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="32">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="32">
+      <c r="A50" s="26"/>
+      <c r="B50" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="31">
         <f>SUM(C47:C49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="119"/>
+      <c r="C51" s="120"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="32">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="31">
         <f>SUM(C52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="134"/>
+      <c r="C54" s="128"/>
+    </row>
+    <row r="55" spans="1:3" ht="33" customHeight="1">
+      <c r="A55" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
-    </row>
-    <row r="55" spans="1:3" ht="33" customHeight="1">
-      <c r="A55" s="33" t="s">
+      <c r="B55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="C55" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="35">
+      <c r="C56" s="34">
         <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="98"/>
+      <c r="A57" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="110"/>
+      <c r="C57" s="89"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="27"/>
+      <c r="A58" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>72</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
@@ -22966,151 +23011,151 @@
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C60" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="35">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="34">
         <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
+      <c r="A62" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="135"/>
+      <c r="C62" s="92"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="28"/>
+      <c r="B67" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="61">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="32">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="40">
+      <c r="C67" s="39">
         <f>SUM(C63:C66)</f>
         <v>1060</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="40">
+      <c r="A68" s="28"/>
+      <c r="B68" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="39">
         <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
         <v>1299</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B69" s="137"/>
-      <c r="C69" s="90"/>
+      <c r="A69" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="91"/>
+      <c r="C69" s="92"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="50">
+      <c r="A70" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="49">
         <f>'January 2025 - March 2025'!C70</f>
         <v>9939</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="50">
+      <c r="A71" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="50">
+      <c r="A72" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="50">
+      <c r="A73" s="28"/>
+      <c r="B73" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="49">
         <f>SUM(C70:C72)</f>
         <v>14939</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="42">
+      <c r="A74" s="32"/>
+      <c r="B74" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="41">
         <f>C68</f>
         <v>1299</v>
       </c>
-      <c r="H74" s="37"/>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="11"/>
@@ -23121,213 +23166,213 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="82"/>
+      <c r="A77" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="83" t="s">
+      <c r="A78" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="87"/>
-      <c r="E78" s="44" t="s">
-        <v>5</v>
+      <c r="B78" s="128"/>
+      <c r="C78" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="128"/>
+      <c r="E78" s="43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="145" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="130"/>
-      <c r="C79" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" s="144"/>
-      <c r="E79" s="76">
+      <c r="A79" s="146" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="98"/>
+      <c r="C79" s="144" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="145"/>
+      <c r="E79" s="75">
         <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="100"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="134"/>
-      <c r="E80" s="45">
+      <c r="A80" s="139" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="140"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="81"/>
-      <c r="E81" s="38">
+      <c r="C81" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="113"/>
+      <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>155.96999999999935</v>
+        <v>446.79999999999927</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="82"/>
+      <c r="A83" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="113"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="80" t="s">
+      <c r="A84" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="82"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="84"/>
       <c r="E84" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="107"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="38">
+      <c r="A85" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="86"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="37">
         <f>E81</f>
-        <v>155.96999999999935</v>
+        <v>446.79999999999927</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="139"/>
-      <c r="C86" s="114" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" s="141"/>
-      <c r="E86" s="53">
+      <c r="A86" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="96"/>
+      <c r="C86" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="151"/>
+      <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="107"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="67">
+      <c r="A87" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="86"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="82"/>
-      <c r="E88" s="38">
+      <c r="C88" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="84"/>
+      <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>161.96999999999935</v>
+        <v>452.79999999999927</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="136" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="98"/>
+      <c r="A91" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="88"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="89"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="82"/>
-      <c r="C92" s="80" t="s">
+      <c r="A92" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="82"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="84"/>
       <c r="E92" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" s="107"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="38">
+      <c r="A93" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="86"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="37">
         <f>E88</f>
-        <v>161.96999999999935</v>
+        <v>452.79999999999927</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="139"/>
-      <c r="C94" s="114" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" s="128"/>
-      <c r="E94" s="53">
+      <c r="A94" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="96"/>
+      <c r="C94" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="102"/>
+      <c r="E94" s="52">
         <v>739</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="67">
+      <c r="A95" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="86"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="82"/>
-      <c r="E96" s="53">
+      <c r="C96" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="84"/>
+      <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>528.96999999999935</v>
+        <v>819.79999999999927</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -26984,29 +27029,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -27020,18 +27054,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27091,8 +27136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -27109,13 +27154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="105"/>
+      <c r="A1" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27133,11 +27178,11 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>528.96999999999935</v>
+        <v>819.79999999999927</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27164,8 +27209,8 @@
     </row>
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="36" t="s">
-        <v>40</v>
+      <c r="B4" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -27195,8 +27240,8 @@
     </row>
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="36" t="s">
-        <v>49</v>
+      <c r="B5" s="35" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="5">
         <f>'April 2025 - June 2025'!C5</f>
@@ -27227,12 +27272,12 @@
     </row>
     <row r="6" spans="1:25" ht="35.25" customHeight="1">
       <c r="A6" s="4"/>
-      <c r="B6" s="65" t="s">
-        <v>59</v>
+      <c r="B6" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>555.16999999999939</v>
+        <v>845.99999999999932</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -27260,11 +27305,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="58">
-        <f>('April 2025 - June 2025'!C7+E96)</f>
-        <v>4640.0199999999986</v>
+        <v>168</v>
+      </c>
+      <c r="C7" s="57">
+        <f>('April 2025 - June 2025'!C7)</f>
+        <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -27318,13 +27363,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="126" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27347,30 +27392,30 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="17" t="s">
+    </row>
+    <row r="12" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="107"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -27380,9 +27425,9 @@
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
       <c r="D13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="49">
+        <v>7</v>
+      </c>
+      <c r="E13" s="48">
         <f>E12</f>
         <v>2405</v>
       </c>
@@ -27392,13 +27437,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="108" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27421,30 +27466,30 @@
     </row>
     <row r="16" spans="1:25" ht="13.15" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="17" t="s">
+    </row>
+    <row r="17" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A17" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A17" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -27454,7 +27499,7 @@
       <c r="B18" s="11"/>
       <c r="C18" s="1"/>
       <c r="D18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="13">
         <f>SUM(E17)</f>
@@ -27465,17 +27510,17 @@
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="108" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="126" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27497,43 +27542,43 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="C21" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="D21" s="128"/>
+      <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="87"/>
-      <c r="E21" s="75" t="s">
+    </row>
+    <row r="22" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="112" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="67">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="68">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="49">
+      <c r="E23" s="48">
         <f>E22</f>
         <v>2405</v>
       </c>
@@ -27542,56 +27587,56 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:25" ht="13.15" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="149" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
+      <c r="A28" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" s="113"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>5</v>
-      </c>
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
+      <c r="A30" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="113"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="26" t="s">
-        <v>31</v>
+      <c r="A31" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19">
@@ -27599,50 +27644,50 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28">
+      <c r="A32" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="30">
+      <c r="A34" s="28"/>
+      <c r="B34" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="29">
         <f>SUM(C31:C33)</f>
         <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
+      <c r="A35" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="119"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="111"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="18">
@@ -27651,7 +27696,7 @@
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="10">
@@ -27660,7 +27705,7 @@
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="10">
@@ -27669,7 +27714,7 @@
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10">
@@ -27679,7 +27724,7 @@
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="10">
         <f>SUM(C37:C40)</f>
@@ -27687,18 +27732,18 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
+      <c r="A42" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="113"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C43" s="19">
         <v>0</v>
@@ -27706,10 +27751,10 @@
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="C44" s="19">
         <v>0</v>
@@ -27717,8 +27762,8 @@
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="26" t="s">
-        <v>34</v>
+      <c r="B45" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="C45" s="19">
         <f>SUM(C43:C44)</f>
@@ -27726,129 +27771,129 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
+      <c r="A46" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="119"/>
+      <c r="C46" s="120"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="27"/>
-      <c r="B48" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="32">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="32">
+      <c r="A50" s="26"/>
+      <c r="B50" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="31">
         <f>SUM(C47:C49)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="119"/>
+      <c r="C51" s="120"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C52" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="27"/>
-      <c r="B53" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="32">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="31">
         <f>SUM(C52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="134"/>
+      <c r="C54" s="128"/>
+    </row>
+    <row r="55" spans="1:3" ht="33" customHeight="1">
+      <c r="A55" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="86"/>
-      <c r="C54" s="87"/>
-    </row>
-    <row r="55" spans="1:3" ht="33" customHeight="1">
-      <c r="A55" s="33" t="s">
+      <c r="B55" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="C55" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="33"/>
-      <c r="B56" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="35">
+      <c r="C56" s="34">
         <f>SUM(C55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="98"/>
+      <c r="A57" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="110"/>
+      <c r="C57" s="89"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="27"/>
+      <c r="A58" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="26"/>
       <c r="C58" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="29" t="s">
+      <c r="A59" s="28" t="s">
         <v>72</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C59" s="18">
         <v>0</v>
@@ -27856,150 +27901,150 @@
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C60" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="35">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="34">
         <f>SUM(C58:C60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
+      <c r="A62" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="135"/>
+      <c r="C62" s="92"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="31">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="28"/>
+      <c r="B67" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="61">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="32">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="29"/>
-      <c r="B67" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="40">
+      <c r="C67" s="39">
         <f>SUM(C63:C66)</f>
         <v>1060</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="40">
+      <c r="A68" s="28"/>
+      <c r="B68" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="39">
         <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
         <v>1299</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="88" t="s">
+      <c r="A69" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="91"/>
+      <c r="C69" s="92"/>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="38"/>
+      <c r="C71" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30">
+      <c r="A72" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="55"/>
+      <c r="C72" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="28"/>
+      <c r="B73" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B69" s="137"/>
-      <c r="C69" s="90"/>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="29"/>
-      <c r="B73" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73" s="50">
+      <c r="C73" s="49">
         <f>SUM(C70:C72)</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="33"/>
-      <c r="B74" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="42">
+      <c r="A74" s="32"/>
+      <c r="B74" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="41">
         <f>C68</f>
         <v>1299</v>
       </c>
-      <c r="H74" s="37"/>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1">
       <c r="A75" s="11"/>
@@ -28010,209 +28055,209 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="81"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
-      <c r="E77" s="82"/>
+      <c r="A77" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="83" t="s">
+      <c r="A78" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="87"/>
-      <c r="E78" s="44" t="s">
-        <v>5</v>
+      <c r="B78" s="128"/>
+      <c r="C78" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="128"/>
+      <c r="E78" s="43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="154"/>
-      <c r="C79" s="155"/>
-      <c r="D79" s="156"/>
-      <c r="E79" s="53">
+      <c r="A79" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="153"/>
+      <c r="C79" s="154"/>
+      <c r="D79" s="155"/>
+      <c r="E79" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="154"/>
-      <c r="C80" s="157"/>
-      <c r="D80" s="157"/>
-      <c r="E80" s="158">
+      <c r="A80" s="153" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="153"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="80">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="151"/>
-      <c r="B81" s="151"/>
-      <c r="C81" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="97"/>
-      <c r="E81" s="153">
+      <c r="A81" s="78"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="157" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="110"/>
+      <c r="E81" s="79">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>1661.1699999999992</v>
+        <v>1951.9999999999991</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
-      <c r="E83" s="82"/>
+      <c r="A83" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="113"/>
+      <c r="C83" s="113"/>
+      <c r="D83" s="113"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="80" t="s">
+      <c r="A84" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="82"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="84"/>
       <c r="E84" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="135" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" s="107"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="38">
+      <c r="A85" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="86"/>
+      <c r="C85" s="117"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="37">
         <f>E81</f>
-        <v>1661.1699999999992</v>
+        <v>1951.9999999999991</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="139"/>
-      <c r="C86" s="114"/>
-      <c r="D86" s="141"/>
-      <c r="E86" s="53">
+      <c r="A86" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="96"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="151"/>
+      <c r="E86" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B87" s="107"/>
-      <c r="C87" s="124"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="67">
+      <c r="A87" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="86"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="82"/>
-      <c r="E88" s="38">
+      <c r="C88" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="84"/>
+      <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>2767.1699999999992</v>
+        <v>3057.9999999999991</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
     </row>
     <row r="90" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="A90" s="24"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="136" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="98"/>
+      <c r="A91" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="88"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="88"/>
+      <c r="E91" s="89"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="82"/>
-      <c r="C92" s="80" t="s">
+      <c r="A92" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="82"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="84"/>
       <c r="E92" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="135" t="s">
-        <v>163</v>
-      </c>
-      <c r="B93" s="107"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="38">
+      <c r="A93" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="86"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="37">
         <f>E88</f>
-        <v>2767.1699999999992</v>
+        <v>3057.9999999999991</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" s="139"/>
-      <c r="C94" s="114"/>
-      <c r="D94" s="128"/>
-      <c r="E94" s="53">
+      <c r="A94" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="96"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="107"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="67">
+      <c r="A95" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="86"/>
+      <c r="C95" s="93"/>
+      <c r="D95" s="84"/>
+      <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D96" s="82"/>
-      <c r="E96" s="53">
+      <c r="C96" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="84"/>
+      <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>3873.1699999999992</v>
+        <v>4163.9999999999991</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -31869,18 +31914,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -31894,29 +31950,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27159B14-4B4F-4E60-9165-2B7063F14116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B727C8-FF4E-4F50-A43C-2083928310A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -1546,55 +1546,22 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1603,94 +1570,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,8 +1591,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1716,6 +1620,12 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1729,8 +1639,116 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1750,23 +1768,11 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1774,16 +1780,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2534,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1013"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2552,13 +2552,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2579,7 +2579,7 @@
         <v>88</v>
       </c>
       <c r="C3" s="5">
-        <v>944.97</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2610,7 +2610,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="C8" s="5">
         <f>SUM(C3:C7)</f>
-        <v>982.17000000000007</v>
+        <v>57.370000000000005</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2821,13 +2821,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="108"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2855,10 +2855,10 @@
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="17" t="s">
         <v>4</v>
       </c>
@@ -2870,10 +2870,10 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2895,13 +2895,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="108"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2929,10 +2929,10 @@
       <c r="B18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="127" t="s">
+      <c r="C18" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="128"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="74" t="s">
         <v>4</v>
       </c>
@@ -2944,10 +2944,10 @@
       <c r="B19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="130"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="67">
         <v>2405</v>
       </c>
@@ -2972,13 +2972,13 @@
       <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="108"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -3006,10 +3006,10 @@
       <c r="B23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="84"/>
+      <c r="D23" s="92"/>
       <c r="E23" s="17" t="s">
         <v>4</v>
       </c>
@@ -3021,10 +3021,10 @@
       <c r="B24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="84"/>
+      <c r="D24" s="92"/>
       <c r="E24" s="27">
         <v>2405</v>
       </c>
@@ -3036,10 +3036,10 @@
       <c r="B25" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="67">
         <v>50</v>
       </c>
@@ -3051,10 +3051,10 @@
       <c r="B26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="115" t="s">
+      <c r="C26" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="116"/>
+      <c r="D26" s="133"/>
       <c r="E26" s="67">
         <v>1035</v>
       </c>
@@ -3090,11 +3090,11 @@
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="20" t="s">
@@ -3109,11 +3109,11 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="114" t="s">
+      <c r="A33" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="92"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
@@ -3155,16 +3155,16 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="128"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="109"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="111"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="130"/>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3213,11 +3213,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="114" t="s">
+      <c r="A45" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="113"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="92"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -3252,11 +3252,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="119"/>
-      <c r="C49" s="120"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="103"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3298,11 +3298,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="114" t="s">
+      <c r="A54" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="103"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3326,11 +3326,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="133" t="s">
+      <c r="A57" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="134"/>
-      <c r="C57" s="128"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="97"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -3354,11 +3354,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="138" t="s">
+      <c r="A60" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="110"/>
-      <c r="C60" s="89"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -3402,11 +3402,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="90" t="s">
+      <c r="A65" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="135"/>
-      <c r="C65" s="92"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="100"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="58" t="s">
@@ -3462,11 +3462,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="90" t="s">
+      <c r="A71" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="91"/>
-      <c r="C71" s="92"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="100"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -3525,129 +3525,129 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="95" t="s">
+      <c r="A79" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="136"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="137"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="105"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="131" t="s">
+      <c r="A80" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="132"/>
-      <c r="C80" s="131" t="s">
+      <c r="B80" s="94"/>
+      <c r="C80" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="132"/>
+      <c r="D80" s="94"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="139" t="s">
+      <c r="A81" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="140"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="122"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="139"/>
+      <c r="D81" s="140"/>
       <c r="E81" s="44">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="141" t="s">
+      <c r="C82" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="142"/>
+      <c r="D82" s="112"/>
       <c r="E82" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="113"/>
-      <c r="C84" s="113"/>
-      <c r="D84" s="113"/>
-      <c r="E84" s="84"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="92"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="84"/>
-      <c r="C85" s="95" t="s">
+      <c r="B85" s="92"/>
+      <c r="C85" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="84"/>
+      <c r="D85" s="92"/>
       <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="96"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="94"/>
+      <c r="B86" s="146"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="145"/>
       <c r="E86" s="37">
         <f>E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="97" t="s">
+      <c r="A87" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="98"/>
-      <c r="C87" s="101" t="s">
+      <c r="B87" s="85"/>
+      <c r="C87" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="102"/>
+      <c r="D87" s="138"/>
       <c r="E87" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="99"/>
-      <c r="B88" s="100"/>
-      <c r="C88" s="101" t="s">
+      <c r="A88" s="88"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="103"/>
+      <c r="D88" s="125"/>
       <c r="E88" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="86"/>
-      <c r="C89" s="117" t="s">
+      <c r="B89" s="117"/>
+      <c r="C89" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="118"/>
+      <c r="D89" s="136"/>
       <c r="E89" s="66">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="83" t="s">
+      <c r="C90" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="84"/>
+      <c r="D90" s="92"/>
       <c r="E90" s="37">
         <f>SUM(C3:C7)</f>
-        <v>982.17000000000007</v>
+        <v>57.370000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
@@ -3665,90 +3665,90 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="87" t="s">
+      <c r="A93" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="88"/>
-      <c r="C93" s="88"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="89"/>
+      <c r="B93" s="119"/>
+      <c r="C93" s="119"/>
+      <c r="D93" s="119"/>
+      <c r="E93" s="108"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="95" t="s">
+      <c r="A94" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="95" t="s">
+      <c r="B94" s="92"/>
+      <c r="C94" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="84"/>
+      <c r="D94" s="92"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="86"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="92"/>
       <c r="E95" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="97" t="s">
+      <c r="A96" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="98"/>
-      <c r="C96" s="101" t="s">
+      <c r="B96" s="85"/>
+      <c r="C96" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="102"/>
+      <c r="D96" s="138"/>
       <c r="E96" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="158"/>
-      <c r="B97" s="159"/>
-      <c r="C97" s="101" t="s">
+      <c r="A97" s="86"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="103"/>
+      <c r="D97" s="125"/>
       <c r="E97" s="52">
         <v>1500</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="99"/>
-      <c r="B98" s="100"/>
-      <c r="C98" s="160" t="s">
+      <c r="A98" s="88"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="D98" s="161"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="85" t="s">
+      <c r="A99" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="96"/>
-      <c r="C99" s="117"/>
-      <c r="D99" s="118"/>
+      <c r="B99" s="146"/>
+      <c r="C99" s="135"/>
+      <c r="D99" s="136"/>
       <c r="E99" s="52">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C100" s="83" t="s">
+      <c r="C100" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="84"/>
+      <c r="D100" s="92"/>
       <c r="E100" s="52">
         <f>(E27+E95)-SUM(E96:E99)</f>
         <v>477</v>
@@ -7408,39 +7408,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A96:B98"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C88:D88"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="C81:D81"/>
@@ -7457,6 +7424,39 @@
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A96:B98"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C88:D88"/>
     <mergeCell ref="C94:D94"/>
     <mergeCell ref="A94:B94"/>
   </mergeCells>
@@ -7515,7 +7515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
   <dimension ref="A1:Y1014"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -7533,13 +7533,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7742,13 +7742,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="108"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7776,10 +7776,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -7791,10 +7791,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7816,13 +7816,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="108"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7850,10 +7850,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -7865,10 +7865,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7893,13 +7893,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="108"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7927,10 +7927,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -7942,10 +7942,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -7955,8 +7955,8 @@
       <c r="B23" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
       <c r="E23" s="67">
         <v>204</v>
       </c>
@@ -7999,11 +7999,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="113"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="92"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -8018,11 +8018,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="114" t="s">
+      <c r="A31" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -8064,16 +8064,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="107"/>
-      <c r="C36" s="108"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="128"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="109"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="111"/>
+      <c r="A37" s="129"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="130"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -8122,11 +8122,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="114" t="s">
+      <c r="A43" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="113"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="92"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -8161,11 +8161,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="114" t="s">
+      <c r="A47" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="119"/>
-      <c r="C47" s="120"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="103"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -8207,11 +8207,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="114" t="s">
+      <c r="A52" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="119"/>
-      <c r="C52" s="120"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="103"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -8235,11 +8235,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="134"/>
-      <c r="C55" s="128"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="97"/>
     </row>
     <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" s="32" t="s">
@@ -8263,11 +8263,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="138" t="s">
+      <c r="A58" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="110"/>
-      <c r="C58" s="89"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="108"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="26" t="s">
@@ -8311,11 +8311,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="90" t="s">
+      <c r="A63" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="135"/>
-      <c r="C63" s="92"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="100"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
@@ -8382,11 +8382,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="91"/>
-      <c r="C70" s="92"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="100"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
       <c r="A71" s="42" t="s">
@@ -8446,68 +8446,68 @@
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="95" t="s">
+      <c r="A78" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="113"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="84"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="91"/>
+      <c r="E78" s="92"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="131" t="s">
+      <c r="A79" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="128"/>
-      <c r="C79" s="131" t="s">
+      <c r="B79" s="97"/>
+      <c r="C79" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="128"/>
+      <c r="D79" s="97"/>
       <c r="E79" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="146" t="s">
+      <c r="A80" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="146"/>
-      <c r="C80" s="144" t="s">
+      <c r="B80" s="152"/>
+      <c r="C80" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="145"/>
+      <c r="D80" s="151"/>
       <c r="E80" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="147"/>
-      <c r="B81" s="147"/>
-      <c r="C81" s="148" t="s">
+      <c r="A81" s="153"/>
+      <c r="B81" s="153"/>
+      <c r="C81" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="149"/>
+      <c r="D81" s="155"/>
       <c r="E81" s="52">
         <v>850</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="139" t="s">
+      <c r="A82" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="140"/>
-      <c r="C82" s="121"/>
-      <c r="D82" s="122"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="139"/>
+      <c r="D82" s="140"/>
       <c r="E82" s="44">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="141" t="s">
+      <c r="C83" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="113"/>
+      <c r="D83" s="91"/>
       <c r="E83" s="37">
         <f>(C6+E13)-SUM(E80:E82)</f>
         <v>555.19999999999982</v>
@@ -8515,91 +8515,91 @@
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="113"/>
-      <c r="C85" s="113"/>
-      <c r="D85" s="113"/>
-      <c r="E85" s="84"/>
+      <c r="B85" s="91"/>
+      <c r="C85" s="91"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="92"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="95" t="s">
+      <c r="A86" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="95" t="s">
+      <c r="B86" s="92"/>
+      <c r="C86" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="84"/>
+      <c r="D86" s="92"/>
       <c r="E86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="152"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="149"/>
       <c r="E87" s="37">
         <f>E83</f>
         <v>555.19999999999982</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="97" t="s">
+      <c r="A88" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="98"/>
-      <c r="C88" s="117" t="s">
+      <c r="B88" s="85"/>
+      <c r="C88" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="151"/>
+      <c r="D88" s="148"/>
       <c r="E88" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="158"/>
-      <c r="B89" s="159"/>
-      <c r="C89" s="101" t="s">
+      <c r="A89" s="86"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="150"/>
+      <c r="D89" s="147"/>
       <c r="E89" s="52">
         <v>850</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="99"/>
-      <c r="B90" s="100"/>
-      <c r="C90" s="101" t="s">
+      <c r="A90" s="88"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="D90" s="150"/>
+      <c r="D90" s="147"/>
       <c r="E90" s="52">
         <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="85" t="s">
+      <c r="A91" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="86"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="84"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="92"/>
       <c r="E91" s="66">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C92" s="83" t="s">
+      <c r="C92" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="92"/>
       <c r="E92" s="37">
         <f>(E18+E87)-SUM(E88:E91)</f>
         <v>420.19999999999982</v>
@@ -8620,48 +8620,48 @@
       <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="87" t="s">
+      <c r="A95" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="88"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="89"/>
+      <c r="B95" s="119"/>
+      <c r="C95" s="119"/>
+      <c r="D95" s="119"/>
+      <c r="E95" s="108"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="95" t="s">
+      <c r="A96" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="95" t="s">
+      <c r="B96" s="92"/>
+      <c r="C96" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="92"/>
       <c r="E96" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="85" t="s">
+      <c r="A97" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="86"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="84"/>
+      <c r="B97" s="117"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="92"/>
       <c r="E97" s="37">
         <f>E92</f>
         <v>420.19999999999982</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="85" t="s">
+      <c r="A98" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="96"/>
-      <c r="C98" s="101" t="s">
+      <c r="B98" s="146"/>
+      <c r="C98" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="102"/>
+      <c r="D98" s="138"/>
       <c r="E98" s="52">
         <v>0</v>
       </c>
@@ -8669,31 +8669,31 @@
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
       <c r="A99" s="76"/>
       <c r="B99" s="77"/>
-      <c r="C99" s="101" t="s">
+      <c r="C99" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="D99" s="150"/>
+      <c r="D99" s="147"/>
       <c r="E99" s="52">
         <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="85" t="s">
+      <c r="A100" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="86"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="84"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="92"/>
       <c r="E100" s="66">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C101" s="83" t="s">
+      <c r="C101" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="84"/>
+      <c r="D101" s="92"/>
       <c r="E101" s="52">
         <f>(E24+E97)-SUM(E98:E100)</f>
         <v>726.19999999999982</v>
@@ -12353,6 +12353,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="A88:B90"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C23:D23"/>
@@ -12369,43 +12406,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12484,13 +12484,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12693,13 +12693,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="108"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12727,10 +12727,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -12742,10 +12742,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12767,13 +12767,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="108"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12801,10 +12801,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -12816,10 +12816,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12844,13 +12844,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="118" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="108"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12878,10 +12878,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -12893,10 +12893,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -12939,11 +12939,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -12958,11 +12958,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -13004,16 +13004,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="128"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="109"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="130"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -13062,11 +13062,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="114" t="s">
+      <c r="A42" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="92"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -13101,11 +13101,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -13147,11 +13147,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="120"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="103"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -13175,11 +13175,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="128"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -13203,11 +13203,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="110"/>
-      <c r="C57" s="89"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="108"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -13251,11 +13251,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="135"/>
-      <c r="C62" s="92"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -13322,11 +13322,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="92"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -13386,57 +13386,57 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="84"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="92"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="131" t="s">
+      <c r="A78" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="128"/>
-      <c r="C78" s="131" t="s">
+      <c r="B78" s="97"/>
+      <c r="C78" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="128"/>
+      <c r="D78" s="97"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="98"/>
-      <c r="C79" s="144" t="s">
+      <c r="B79" s="85"/>
+      <c r="C79" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="145"/>
+      <c r="D79" s="151"/>
       <c r="E79" s="75">
         <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="139" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="140"/>
-      <c r="C80" s="121"/>
-      <c r="D80" s="122"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="139"/>
+      <c r="D80" s="140"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="141" t="s">
+      <c r="C81" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="113"/>
+      <c r="D81" s="91"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
         <v>658.39999999999964</v>
@@ -13444,69 +13444,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="92"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="95" t="s">
+      <c r="B84" s="92"/>
+      <c r="C84" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="84"/>
+      <c r="D84" s="92"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="152"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="149"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>658.39999999999964</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="96"/>
-      <c r="C86" s="101" t="s">
+      <c r="B86" s="146"/>
+      <c r="C86" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="D86" s="151"/>
+      <c r="D86" s="148"/>
       <c r="E86" s="52">
         <v>1200</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="84"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="83" t="s">
+      <c r="C88" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="84"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
         <v>564.39999999999964</v>
@@ -13527,69 +13527,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="143" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="108"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="95" t="s">
+      <c r="A92" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="95" t="s">
+      <c r="B92" s="92"/>
+      <c r="C92" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="92"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="B93" s="86"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="84"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="92"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>564.39999999999964</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="101" t="s">
+      <c r="B94" s="146"/>
+      <c r="C94" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="D94" s="102"/>
+      <c r="D94" s="138"/>
       <c r="E94" s="52">
         <v>1200</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="86"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="92"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="92"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
         <v>470.39999999999964</v>
@@ -17249,11 +17249,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C88:D88"/>
@@ -17267,36 +17292,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17374,13 +17374,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17583,13 +17583,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="108"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17617,10 +17617,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -17632,10 +17632,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17657,13 +17657,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="108"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17691,10 +17691,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -17706,10 +17706,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17734,13 +17734,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="118" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="108"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17768,10 +17768,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -17783,10 +17783,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -17829,11 +17829,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -17848,11 +17848,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -17894,16 +17894,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="128"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="109"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="130"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -17952,11 +17952,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="114" t="s">
+      <c r="A42" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="92"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -17991,11 +17991,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -18037,11 +18037,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="120"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="103"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -18065,11 +18065,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="128"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -18093,11 +18093,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="110"/>
-      <c r="C57" s="89"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="108"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -18141,11 +18141,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="135"/>
-      <c r="C62" s="92"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -18212,11 +18212,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="92"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -18276,57 +18276,57 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="84"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="92"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="131" t="s">
+      <c r="A78" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="128"/>
-      <c r="C78" s="131" t="s">
+      <c r="B78" s="97"/>
+      <c r="C78" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="128"/>
+      <c r="D78" s="97"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="98"/>
-      <c r="C79" s="144" t="s">
+      <c r="B79" s="85"/>
+      <c r="C79" s="150" t="s">
         <v>147</v>
       </c>
-      <c r="D79" s="145"/>
+      <c r="D79" s="151"/>
       <c r="E79" s="75">
         <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="139" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="140"/>
-      <c r="C80" s="121"/>
-      <c r="D80" s="122"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="139"/>
+      <c r="D80" s="140"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="141" t="s">
+      <c r="C81" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="113"/>
+      <c r="D81" s="91"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
         <v>402.59999999999945</v>
@@ -18334,69 +18334,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="92"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="95" t="s">
+      <c r="B84" s="92"/>
+      <c r="C84" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="84"/>
+      <c r="D84" s="92"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="152"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="149"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>402.59999999999945</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="96"/>
-      <c r="C86" s="101" t="s">
+      <c r="B86" s="146"/>
+      <c r="C86" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="151"/>
+      <c r="D86" s="148"/>
       <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="84"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="83" t="s">
+      <c r="C88" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="84"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
         <v>408.59999999999945</v>
@@ -18417,69 +18417,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="108"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="95" t="s">
+      <c r="A92" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="95" t="s">
+      <c r="B92" s="92"/>
+      <c r="C92" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="92"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="B93" s="86"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="84"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="92"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>408.59999999999945</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="101" t="s">
+      <c r="B94" s="146"/>
+      <c r="C94" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="102"/>
+      <c r="D94" s="138"/>
       <c r="E94" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="86"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="92"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="92"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
         <v>414.59999999999945</v>
@@ -22139,18 +22139,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -22164,29 +22175,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22246,8 +22246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22264,13 +22264,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22473,13 +22473,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="108"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22507,10 +22507,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -22522,10 +22522,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22547,13 +22547,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="108"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22581,10 +22581,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -22596,10 +22596,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22624,13 +22624,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="108"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22658,10 +22658,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -22673,10 +22673,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -22719,11 +22719,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22738,11 +22738,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -22784,16 +22784,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="128"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="109"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="130"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -22842,11 +22842,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="114" t="s">
+      <c r="A42" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="92"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -22881,11 +22881,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -22927,11 +22927,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="120"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="103"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -22955,11 +22955,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="128"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -22983,11 +22983,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="110"/>
-      <c r="C57" s="89"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="108"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -23031,11 +23031,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="135"/>
-      <c r="C62" s="92"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -23102,11 +23102,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="92"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -23166,57 +23166,57 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="90" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="84"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="92"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="131" t="s">
+      <c r="A78" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="128"/>
-      <c r="C78" s="131" t="s">
+      <c r="B78" s="97"/>
+      <c r="C78" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="128"/>
+      <c r="D78" s="97"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="152" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="98"/>
-      <c r="C79" s="144" t="s">
+      <c r="B79" s="85"/>
+      <c r="C79" s="150" t="s">
         <v>164</v>
       </c>
-      <c r="D79" s="145"/>
+      <c r="D79" s="151"/>
       <c r="E79" s="75">
         <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="139" t="s">
+      <c r="A80" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="140"/>
-      <c r="C80" s="121"/>
-      <c r="D80" s="122"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="139"/>
+      <c r="D80" s="140"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="141" t="s">
+      <c r="C81" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="113"/>
+      <c r="D81" s="91"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
         <v>446.79999999999927</v>
@@ -23224,69 +23224,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="92"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="95" t="s">
+      <c r="B84" s="92"/>
+      <c r="C84" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="84"/>
+      <c r="D84" s="92"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="152"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="149"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>446.79999999999927</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="96"/>
-      <c r="C86" s="101" t="s">
+      <c r="B86" s="146"/>
+      <c r="C86" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="D86" s="151"/>
+      <c r="D86" s="148"/>
       <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="84"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="83" t="s">
+      <c r="C88" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="84"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
         <v>452.79999999999927</v>
@@ -23307,69 +23307,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="108"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="95" t="s">
+      <c r="A92" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="95" t="s">
+      <c r="B92" s="92"/>
+      <c r="C92" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="92"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="86"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="84"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="92"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>452.79999999999927</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="101" t="s">
+      <c r="B94" s="146"/>
+      <c r="C94" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="D94" s="102"/>
+      <c r="D94" s="138"/>
       <c r="E94" s="52">
         <v>739</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="86"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="92"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="92"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
         <v>819.79999999999927</v>
@@ -27029,18 +27029,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -27054,29 +27065,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27154,13 +27154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27363,13 +27363,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="89"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="108"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27397,10 +27397,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -27412,10 +27412,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="86"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -27437,13 +27437,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="108"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27471,10 +27471,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -27486,10 +27486,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -27514,13 +27514,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="108"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27548,10 +27548,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -27563,10 +27563,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="129" t="s">
+      <c r="C22" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="130"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -27609,11 +27609,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="156" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="113"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -27628,11 +27628,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="113"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -27674,16 +27674,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="128"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="109"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="130"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -27732,11 +27732,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="114" t="s">
+      <c r="A42" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="113"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="92"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -27771,11 +27771,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="114" t="s">
+      <c r="A46" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="120"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -27817,11 +27817,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="114" t="s">
+      <c r="A51" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="120"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="103"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -27845,11 +27845,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="134"/>
-      <c r="C54" s="128"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -27873,11 +27873,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="138" t="s">
+      <c r="A57" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="110"/>
-      <c r="C57" s="89"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="108"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -27921,11 +27921,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="90" t="s">
+      <c r="A62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="135"/>
-      <c r="C62" s="92"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -27992,11 +27992,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="92"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -28055,45 +28055,45 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="95" t="s">
+      <c r="A77" s="90" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="113"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="84"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
+      <c r="E77" s="92"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="131" t="s">
+      <c r="A78" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="128"/>
-      <c r="C78" s="131" t="s">
+      <c r="B78" s="97"/>
+      <c r="C78" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="128"/>
+      <c r="D78" s="97"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="153" t="s">
+      <c r="A79" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="153"/>
-      <c r="C79" s="154"/>
-      <c r="D79" s="155"/>
+      <c r="B79" s="157"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="161"/>
       <c r="E79" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="153" t="s">
+      <c r="A80" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="153"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
+      <c r="B80" s="157"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="158"/>
       <c r="E80" s="80">
         <f>C74</f>
         <v>1299</v>
@@ -28102,10 +28102,10 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="78"/>
       <c r="B81" s="78"/>
-      <c r="C81" s="157" t="s">
+      <c r="C81" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="110"/>
+      <c r="D81" s="107"/>
       <c r="E81" s="79">
         <f>(C6+E13)-SUM(E79:E80)</f>
         <v>1951.9999999999991</v>
@@ -28113,67 +28113,67 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="113"/>
-      <c r="C83" s="113"/>
-      <c r="D83" s="113"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="91"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="92"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="95" t="s">
+      <c r="A84" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="95" t="s">
+      <c r="B84" s="92"/>
+      <c r="C84" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="84"/>
+      <c r="D84" s="92"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="152"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="149"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>1951.9999999999991</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="96"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="151"/>
+      <c r="B86" s="146"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="148"/>
       <c r="E86" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="84"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="92"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="83" t="s">
+      <c r="C88" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="84"/>
+      <c r="D88" s="92"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
         <v>3057.9999999999991</v>
@@ -28194,67 +28194,67 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="87" t="s">
+      <c r="A91" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="89"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="119"/>
+      <c r="D91" s="119"/>
+      <c r="E91" s="108"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="95" t="s">
+      <c r="A92" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="95" t="s">
+      <c r="B92" s="92"/>
+      <c r="C92" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="92"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="B93" s="86"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="84"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="92"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>3057.9999999999991</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="96"/>
-      <c r="C94" s="101"/>
-      <c r="D94" s="102"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="124"/>
+      <c r="D94" s="138"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="86"/>
-      <c r="C95" s="93"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="92"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="92"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
         <v>4163.9999999999991</v>
@@ -31914,29 +31914,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -31950,18 +31939,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B727C8-FF4E-4F50-A43C-2083928310A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71361480-B48A-4C40-A4AB-07D4A57FDD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="171">
   <si>
     <t>Assets</t>
   </si>
@@ -459,9 +459,6 @@
     <t>30 Packets</t>
   </si>
   <si>
-    <t>2. Payback $850 to Ng Wing Lam</t>
-  </si>
-  <si>
     <t>HGC BroadBand End Of Service</t>
   </si>
   <si>
@@ -621,14 +618,14 @@
     <t>Net Debts:</t>
   </si>
   <si>
-    <t>2. Payback $1500 to Ng Wing Lam</t>
-  </si>
-  <si>
     <t>3. Additional Payment $10 for cigarette</t>
   </si>
   <si>
+    <t>3. Terminate the Fixed Line Phone 23290612 pay $187 remaining fees</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">2. Payback $800 to Ng Wing Lam - </t>
+      <t xml:space="preserve">2. Payback $1000 to Ng Wing Lam - </t>
     </r>
     <r>
       <rPr>
@@ -640,9 +637,6 @@
       </rPr>
       <t>Last Payment</t>
     </r>
-  </si>
-  <si>
-    <t>3. Terminate the Fixed Line Phone 23290612 pay $187 remaining fees</t>
   </si>
 </sst>
 </file>
@@ -1546,6 +1540,159 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1570,68 +1717,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1639,115 +1732,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1768,23 +1759,26 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2535,7 +2529,7 @@
   <dimension ref="A1:Y1013"/>
   <sheetViews>
     <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2552,13 +2546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2763,11 +2757,11 @@
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="57">
         <f>(-C75+SUM(E88,E97))</f>
-        <v>-12439</v>
+        <v>-12939</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2821,13 +2815,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="108"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="95"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2855,10 +2849,10 @@
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="120" t="s">
+      <c r="C13" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="92"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="17" t="s">
         <v>4</v>
       </c>
@@ -2870,10 +2864,10 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="117"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2895,13 +2889,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="108"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2929,10 +2923,10 @@
       <c r="B18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="97"/>
+      <c r="D18" s="123"/>
       <c r="E18" s="74" t="s">
         <v>4</v>
       </c>
@@ -2944,10 +2938,10 @@
       <c r="B19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="123"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="67">
         <v>2405</v>
       </c>
@@ -2972,13 +2966,13 @@
       <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="121" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="108"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -3006,10 +3000,10 @@
       <c r="B23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="92"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="17" t="s">
         <v>4</v>
       </c>
@@ -3021,40 +3015,40 @@
       <c r="B24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="92"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="27">
         <v>2405</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="13.15" customHeight="1">
       <c r="A25" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="141" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="141"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="67">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.15" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="133"/>
+      <c r="D26" s="117"/>
       <c r="E26" s="67">
         <v>1035</v>
       </c>
@@ -3090,11 +3084,11 @@
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="131" t="s">
+      <c r="A31" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="20" t="s">
@@ -3109,11 +3103,11 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="92"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
@@ -3126,7 +3120,7 @@
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27">
@@ -3155,16 +3149,16 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="127"/>
-      <c r="C38" s="128"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="111"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="129"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="130"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="113"/>
+      <c r="C39" s="114"/>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3213,11 +3207,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="92"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="84"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -3252,11 +3246,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="86"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3298,11 +3292,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="102"/>
-      <c r="C54" s="103"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="86"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3326,11 +3320,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="95" t="s">
+      <c r="A57" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="123"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -3354,11 +3348,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="106" t="s">
+      <c r="A60" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="95"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -3402,11 +3396,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="99"/>
-      <c r="C65" s="100"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="98"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="58" t="s">
@@ -3462,11 +3456,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="144"/>
-      <c r="C71" s="100"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="98"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -3525,126 +3519,126 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="90" t="s">
+      <c r="A79" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="104"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="104"/>
-      <c r="E79" s="105"/>
+      <c r="B79" s="128"/>
+      <c r="C79" s="128"/>
+      <c r="D79" s="128"/>
+      <c r="E79" s="129"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="93" t="s">
+      <c r="A80" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="94"/>
-      <c r="C80" s="93" t="s">
+      <c r="B80" s="127"/>
+      <c r="C80" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="94"/>
+      <c r="D80" s="127"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="109" t="s">
+      <c r="A81" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="110"/>
-      <c r="C81" s="139"/>
-      <c r="D81" s="140"/>
+      <c r="B81" s="132"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="88"/>
       <c r="E81" s="44">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="111" t="s">
+      <c r="C82" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="112"/>
+      <c r="D82" s="145"/>
       <c r="E82" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="91"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="92"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="84"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="90" t="s">
+      <c r="A85" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="92"/>
-      <c r="C85" s="90" t="s">
+      <c r="B85" s="84"/>
+      <c r="C85" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="92"/>
+      <c r="D85" s="84"/>
       <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="142" t="s">
+      <c r="A86" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="146"/>
-      <c r="C86" s="134"/>
-      <c r="D86" s="145"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="100"/>
       <c r="E86" s="37">
         <f>E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="84" t="s">
+      <c r="A87" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="124" t="s">
+      <c r="B87" s="136"/>
+      <c r="C87" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="138"/>
+      <c r="D87" s="106"/>
       <c r="E87" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="88"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="124" t="s">
+      <c r="A88" s="139"/>
+      <c r="B88" s="140"/>
+      <c r="C88" s="105" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="125"/>
+      <c r="D88" s="146"/>
       <c r="E88" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="142" t="s">
+      <c r="A89" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="117"/>
-      <c r="C89" s="135" t="s">
+      <c r="B89" s="92"/>
+      <c r="C89" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="136"/>
+      <c r="D89" s="103"/>
       <c r="E89" s="66">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="137" t="s">
+      <c r="C90" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="92"/>
+      <c r="D90" s="84"/>
       <c r="E90" s="37">
         <f>SUM(C3:C7)</f>
         <v>57.370000000000005</v>
@@ -3665,93 +3659,93 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="143" t="s">
+      <c r="A93" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="119"/>
-      <c r="C93" s="119"/>
-      <c r="D93" s="119"/>
-      <c r="E93" s="108"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="95"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="90" t="s">
+      <c r="A94" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="92"/>
-      <c r="C94" s="90" t="s">
+      <c r="B94" s="84"/>
+      <c r="C94" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="92"/>
+      <c r="D94" s="84"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="142" t="s">
+      <c r="A95" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="117"/>
-      <c r="C95" s="134"/>
-      <c r="D95" s="92"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="84"/>
       <c r="E95" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="84" t="s">
+      <c r="A96" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="85"/>
-      <c r="C96" s="124" t="s">
+      <c r="B96" s="136"/>
+      <c r="C96" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="138"/>
+      <c r="D96" s="106"/>
       <c r="E96" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="86"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="124" t="s">
-        <v>169</v>
-      </c>
-      <c r="D97" s="125"/>
+      <c r="A97" s="137"/>
+      <c r="B97" s="138"/>
+      <c r="C97" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D97" s="146"/>
       <c r="E97" s="52">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="88"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="82" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" s="83"/>
+      <c r="A98" s="139"/>
+      <c r="B98" s="140"/>
+      <c r="C98" s="133" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" s="134"/>
       <c r="E98" s="52">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="142" t="s">
+      <c r="A99" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="146"/>
-      <c r="C99" s="135"/>
-      <c r="D99" s="136"/>
+      <c r="B99" s="101"/>
+      <c r="C99" s="102"/>
+      <c r="D99" s="103"/>
       <c r="E99" s="52">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C100" s="137" t="s">
+      <c r="C100" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="92"/>
+      <c r="D100" s="84"/>
       <c r="E100" s="52">
         <f>(E27+E95)-SUM(E96:E99)</f>
-        <v>477</v>
+        <v>977</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
@@ -7408,6 +7402,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A96:B98"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="C81:D81"/>
@@ -7424,41 +7453,6 @@
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A96:B98"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A94:B94"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -7515,8 +7509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
   <dimension ref="A1:Y1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7533,13 +7527,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7561,7 +7555,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E100</f>
-        <v>477</v>
+        <v>977</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7656,7 +7650,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>503.2</v>
+        <v>1003.2</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7684,7 +7678,7 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="57">
         <f>('April 2024 - June 2024'!C9)+SUM(E81,E89,E99)</f>
@@ -7742,13 +7736,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="121" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="108"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7776,10 +7770,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -7791,10 +7785,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7816,13 +7810,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="108"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7850,10 +7844,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -7865,10 +7859,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7893,13 +7887,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="121" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7927,10 +7921,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="97"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -7942,10 +7936,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -7953,10 +7947,10 @@
     <row r="23" spans="1:25" ht="13.15" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
+        <v>119</v>
+      </c>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
       <c r="E23" s="67">
         <v>204</v>
       </c>
@@ -7999,11 +7993,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="91"/>
-      <c r="C29" s="92"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -8018,11 +8012,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -8035,7 +8029,7 @@
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="27">
@@ -8064,16 +8058,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="128"/>
+      <c r="B36" s="110"/>
+      <c r="C36" s="111"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="129"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="130"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -8122,11 +8116,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="92"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="84"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -8161,11 +8155,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="102"/>
-      <c r="C47" s="103"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="86"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -8207,11 +8201,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="103"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="86"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -8235,11 +8229,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="95" t="s">
+      <c r="A55" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="123"/>
     </row>
     <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" s="32" t="s">
@@ -8263,11 +8257,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="107"/>
-      <c r="C58" s="108"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="95"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="26" t="s">
@@ -8311,11 +8305,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="98" t="s">
+      <c r="A63" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="99"/>
-      <c r="C63" s="100"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="98"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
       <c r="A64" s="58" t="s">
@@ -8382,11 +8376,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="98" t="s">
+      <c r="A70" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="144"/>
-      <c r="C70" s="100"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="98"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
       <c r="A71" s="42" t="s">
@@ -8446,163 +8440,163 @@
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="90" t="s">
+      <c r="A78" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="91"/>
-      <c r="C78" s="91"/>
-      <c r="D78" s="91"/>
-      <c r="E78" s="92"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="84"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="93" t="s">
+      <c r="A79" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="97"/>
-      <c r="C79" s="93" t="s">
+      <c r="B79" s="123"/>
+      <c r="C79" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="97"/>
+      <c r="D79" s="123"/>
       <c r="E79" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="152" t="s">
+      <c r="A80" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="152"/>
-      <c r="C80" s="150" t="s">
+      <c r="B80" s="151"/>
+      <c r="C80" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="151"/>
+      <c r="D80" s="150"/>
       <c r="E80" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="153"/>
-      <c r="B81" s="153"/>
-      <c r="C81" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="155"/>
+      <c r="A81" s="152"/>
+      <c r="B81" s="152"/>
+      <c r="C81" s="153" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="154"/>
       <c r="E81" s="52">
-        <v>850</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="110"/>
-      <c r="C82" s="139"/>
-      <c r="D82" s="140"/>
+      <c r="B82" s="132"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="88"/>
       <c r="E82" s="44">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="111" t="s">
+      <c r="C83" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="91"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="37">
         <f>(C6+E13)-SUM(E80:E82)</f>
-        <v>555.19999999999982</v>
+        <v>905.19999999999982</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="90" t="s">
+      <c r="A85" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="91"/>
-      <c r="C85" s="91"/>
-      <c r="D85" s="91"/>
-      <c r="E85" s="92"/>
+      <c r="B85" s="83"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
+      <c r="E85" s="84"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="90" t="s">
+      <c r="A86" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="92"/>
-      <c r="C86" s="90" t="s">
+      <c r="B86" s="84"/>
+      <c r="C86" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="92"/>
+      <c r="D86" s="84"/>
       <c r="E86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="142" t="s">
+      <c r="A87" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="117"/>
-      <c r="C87" s="135"/>
-      <c r="D87" s="149"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="156"/>
       <c r="E87" s="37">
         <f>E83</f>
-        <v>555.19999999999982</v>
+        <v>905.19999999999982</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="84" t="s">
+      <c r="A88" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="85"/>
-      <c r="C88" s="135" t="s">
+      <c r="B88" s="136"/>
+      <c r="C88" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="148"/>
+      <c r="D88" s="155"/>
       <c r="E88" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="86"/>
-      <c r="B89" s="87"/>
-      <c r="C89" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="147"/>
+      <c r="A89" s="137"/>
+      <c r="B89" s="138"/>
+      <c r="C89" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="148"/>
       <c r="E89" s="52">
-        <v>850</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="88"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="124" t="s">
-        <v>172</v>
-      </c>
-      <c r="D90" s="147"/>
+      <c r="A90" s="139"/>
+      <c r="B90" s="140"/>
+      <c r="C90" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D90" s="148"/>
       <c r="E90" s="52">
         <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="142" t="s">
+      <c r="A91" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="117"/>
-      <c r="C91" s="134"/>
-      <c r="D91" s="92"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="84"/>
       <c r="E91" s="66">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C92" s="137" t="s">
+      <c r="C92" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="92"/>
+      <c r="D92" s="84"/>
       <c r="E92" s="37">
         <f>(E18+E87)-SUM(E88:E91)</f>
-        <v>420.19999999999982</v>
+        <v>620.19999999999982</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
@@ -8620,48 +8614,48 @@
       <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="143" t="s">
+      <c r="A95" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="119"/>
-      <c r="C95" s="119"/>
-      <c r="D95" s="119"/>
-      <c r="E95" s="108"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="94"/>
+      <c r="E95" s="95"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="92"/>
-      <c r="C96" s="90" t="s">
+      <c r="B96" s="84"/>
+      <c r="C96" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="92"/>
+      <c r="D96" s="84"/>
       <c r="E96" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="142" t="s">
+      <c r="A97" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="117"/>
-      <c r="C97" s="134"/>
-      <c r="D97" s="92"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="84"/>
       <c r="E97" s="37">
         <f>E92</f>
-        <v>420.19999999999982</v>
+        <v>620.19999999999982</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="142" t="s">
+      <c r="A98" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="146"/>
-      <c r="C98" s="124" t="s">
+      <c r="B98" s="101"/>
+      <c r="C98" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="138"/>
+      <c r="D98" s="106"/>
       <c r="E98" s="52">
         <v>0</v>
       </c>
@@ -8669,31 +8663,31 @@
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
       <c r="A99" s="76"/>
       <c r="B99" s="77"/>
-      <c r="C99" s="124" t="s">
-        <v>171</v>
-      </c>
-      <c r="D99" s="147"/>
+      <c r="C99" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" s="148"/>
       <c r="E99" s="52">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="142" t="s">
+      <c r="A100" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="117"/>
-      <c r="C100" s="134"/>
-      <c r="D100" s="92"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="84"/>
       <c r="E100" s="66">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C101" s="137" t="s">
+      <c r="C101" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="92"/>
+      <c r="D101" s="84"/>
       <c r="E101" s="52">
         <f>(E24+E97)-SUM(E98:E100)</f>
         <v>726.19999999999982</v>
@@ -12353,6 +12347,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A88:B90"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A36:C37"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A63:C63"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:E1"/>
@@ -12369,43 +12400,6 @@
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="A78:E78"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A88:B90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12466,7 +12460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -12484,13 +12478,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12635,7 +12629,7 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="57">
         <f>('July 2024 - September 2024'!C7)+SUM(E79,E86,E94)</f>
@@ -12693,13 +12687,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="108"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12727,10 +12721,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -12742,10 +12736,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12767,13 +12761,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="108"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12801,10 +12795,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -12816,10 +12810,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12844,13 +12838,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12878,10 +12872,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="97"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -12893,10 +12887,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -12939,11 +12933,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -12958,11 +12952,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -12975,7 +12969,7 @@
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27">
@@ -13004,16 +12998,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="128"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="111"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="129"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="130"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -13062,11 +13056,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="92"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -13101,11 +13095,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -13147,11 +13141,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -13175,11 +13169,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="123"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -13203,11 +13197,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="108"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="95"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -13251,11 +13245,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="98"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -13322,11 +13316,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="144"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -13386,57 +13380,57 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="104" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="92"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="93" t="s">
+      <c r="B78" s="123"/>
+      <c r="C78" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="97"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="152" t="s">
+      <c r="A79" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="150" t="s">
-        <v>147</v>
-      </c>
-      <c r="D79" s="151"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="150"/>
       <c r="E79" s="75">
         <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="139"/>
-      <c r="D80" s="140"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="88"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="111" t="s">
+      <c r="C81" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="91"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
         <v>658.39999999999964</v>
@@ -13444,69 +13438,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="92"/>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="90" t="s">
+      <c r="B84" s="84"/>
+      <c r="C84" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="92"/>
+      <c r="D84" s="84"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="142" t="s">
+      <c r="A85" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="117"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="149"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="156"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>658.39999999999964</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="142" t="s">
+      <c r="A86" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="146"/>
-      <c r="C86" s="124" t="s">
-        <v>147</v>
-      </c>
-      <c r="D86" s="148"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="155"/>
       <c r="E86" s="52">
         <v>1200</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="142" t="s">
+      <c r="A87" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="117"/>
-      <c r="C87" s="134"/>
-      <c r="D87" s="92"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="84"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="137" t="s">
+      <c r="C88" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="92"/>
+      <c r="D88" s="84"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
         <v>564.39999999999964</v>
@@ -13527,69 +13521,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="143" t="s">
+      <c r="A91" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="119"/>
-      <c r="C91" s="119"/>
-      <c r="D91" s="119"/>
-      <c r="E91" s="108"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="95"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="90" t="s">
+      <c r="A92" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="90" t="s">
+      <c r="B92" s="84"/>
+      <c r="C92" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="92"/>
+      <c r="D92" s="84"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="142" t="s">
+      <c r="A93" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="B93" s="117"/>
-      <c r="C93" s="134"/>
-      <c r="D93" s="92"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>564.39999999999964</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="142" t="s">
+      <c r="A94" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="146"/>
-      <c r="C94" s="124" t="s">
-        <v>147</v>
-      </c>
-      <c r="D94" s="138"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" s="106"/>
       <c r="E94" s="52">
         <v>1200</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="142" t="s">
+      <c r="A95" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="117"/>
-      <c r="C95" s="134"/>
-      <c r="D95" s="92"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="84"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="137" t="s">
+      <c r="C96" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="92"/>
+      <c r="D96" s="84"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
         <v>470.39999999999964</v>
@@ -17249,36 +17243,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C88:D88"/>
@@ -17292,11 +17261,36 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17374,13 +17368,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="A1" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17525,7 +17519,7 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="57">
         <f>('October 2024 - December 2024'!C7)+SUM(E79,E86,E94)</f>
@@ -17583,13 +17577,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="108"/>
+      <c r="A10" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17617,25 +17611,25 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17657,13 +17651,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="118" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="108"/>
+      <c r="A15" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17691,25 +17685,25 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17734,13 +17728,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="118" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="108"/>
+      <c r="A20" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17768,25 +17762,25 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="97"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -17829,11 +17823,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="156" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="A28" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -17848,11 +17842,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -17865,7 +17859,7 @@
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27">
@@ -17894,16 +17888,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="128"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="111"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="129"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="130"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -17952,11 +17946,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="92"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -17991,11 +17985,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -18037,11 +18031,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -18065,11 +18059,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="123"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -18093,11 +18087,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="108"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="95"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -18141,11 +18135,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="98"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -18212,11 +18206,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="144"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -18276,57 +18270,57 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="92"/>
+      <c r="A77" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="93" t="s">
+      <c r="B78" s="123"/>
+      <c r="C78" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="97"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="152" t="s">
+      <c r="A79" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="150" t="s">
-        <v>147</v>
-      </c>
-      <c r="D79" s="151"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="D79" s="150"/>
       <c r="E79" s="75">
         <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="139"/>
-      <c r="D80" s="140"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="88"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="111" t="s">
+      <c r="C81" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="91"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
         <v>402.59999999999945</v>
@@ -18334,69 +18328,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="92"/>
+      <c r="A83" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="90" t="s">
+      <c r="B84" s="84"/>
+      <c r="C84" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="92"/>
+      <c r="D84" s="84"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="142" t="s">
-        <v>145</v>
-      </c>
-      <c r="B85" s="117"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="149"/>
+      <c r="A85" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="92"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="156"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>402.59999999999945</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="142" t="s">
+      <c r="A86" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="146"/>
-      <c r="C86" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86" s="148"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="155"/>
       <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="142" t="s">
+      <c r="A87" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="117"/>
-      <c r="C87" s="134"/>
-      <c r="D87" s="92"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="84"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="137" t="s">
+      <c r="C88" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="92"/>
+      <c r="D88" s="84"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
         <v>408.59999999999945</v>
@@ -18417,69 +18411,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="143" t="s">
-        <v>128</v>
-      </c>
-      <c r="B91" s="119"/>
-      <c r="C91" s="119"/>
-      <c r="D91" s="119"/>
-      <c r="E91" s="108"/>
+      <c r="A91" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="95"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="90" t="s">
+      <c r="A92" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="90" t="s">
+      <c r="B92" s="84"/>
+      <c r="C92" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="92"/>
+      <c r="D92" s="84"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="142" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" s="117"/>
-      <c r="C93" s="134"/>
-      <c r="D93" s="92"/>
+      <c r="A93" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="B93" s="92"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>408.59999999999945</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="142" t="s">
+      <c r="A94" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="146"/>
-      <c r="C94" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="138"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="106"/>
       <c r="E94" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="142" t="s">
+      <c r="A95" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="117"/>
-      <c r="C95" s="134"/>
-      <c r="D95" s="92"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="84"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="137" t="s">
+      <c r="C96" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="92"/>
+      <c r="D96" s="84"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
         <v>414.59999999999945</v>
@@ -22139,29 +22133,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -22175,18 +22158,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22264,13 +22258,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="A1" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22415,7 +22409,7 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="57">
         <f>('January 2025 - March 2025'!C7)+SUM(E79,E86,E94)</f>
@@ -22473,13 +22467,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="118" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="108"/>
+      <c r="A10" s="121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22507,25 +22501,25 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22547,13 +22541,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="118" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="108"/>
+      <c r="A15" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22581,25 +22575,25 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22624,13 +22618,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="118" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="108"/>
+      <c r="A20" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22658,25 +22652,25 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="97"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -22719,11 +22713,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="156" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="A28" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22738,11 +22732,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -22755,7 +22749,7 @@
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27">
@@ -22784,16 +22778,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="128"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="111"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="129"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="130"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -22842,11 +22836,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="92"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -22881,11 +22875,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -22927,11 +22921,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -22955,11 +22949,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="123"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -22983,11 +22977,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="108"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="95"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -23031,11 +23025,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="98"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -23102,11 +23096,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="144"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -23166,57 +23160,57 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="92"/>
+      <c r="A77" s="104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="93" t="s">
+      <c r="B78" s="123"/>
+      <c r="C78" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="97"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="152" t="s">
+      <c r="A79" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="150" t="s">
-        <v>164</v>
-      </c>
-      <c r="D79" s="151"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="149" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="150"/>
       <c r="E79" s="75">
         <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="109" t="s">
+      <c r="A80" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="110"/>
-      <c r="C80" s="139"/>
-      <c r="D80" s="140"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="88"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="111" t="s">
+      <c r="C81" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="91"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
         <v>446.79999999999927</v>
@@ -23224,69 +23218,69 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="92"/>
+      <c r="A83" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="90" t="s">
+      <c r="B84" s="84"/>
+      <c r="C84" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="92"/>
+      <c r="D84" s="84"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="117"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="149"/>
+      <c r="A85" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="92"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="156"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>446.79999999999927</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="142" t="s">
+      <c r="A86" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="146"/>
-      <c r="C86" s="124" t="s">
-        <v>165</v>
-      </c>
-      <c r="D86" s="148"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" s="155"/>
       <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="142" t="s">
+      <c r="A87" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="117"/>
-      <c r="C87" s="134"/>
-      <c r="D87" s="92"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="84"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="137" t="s">
+      <c r="C88" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="92"/>
+      <c r="D88" s="84"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
         <v>452.79999999999927</v>
@@ -23307,69 +23301,69 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="143" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="119"/>
-      <c r="C91" s="119"/>
-      <c r="D91" s="119"/>
-      <c r="E91" s="108"/>
+      <c r="A91" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="95"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="90" t="s">
+      <c r="A92" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="90" t="s">
+      <c r="B92" s="84"/>
+      <c r="C92" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="92"/>
+      <c r="D92" s="84"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="142" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="117"/>
-      <c r="C93" s="134"/>
-      <c r="D93" s="92"/>
+      <c r="A93" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="92"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>452.79999999999927</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="142" t="s">
+      <c r="A94" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="146"/>
-      <c r="C94" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="D94" s="138"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="106"/>
       <c r="E94" s="52">
         <v>739</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="142" t="s">
+      <c r="A95" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="117"/>
-      <c r="C95" s="134"/>
-      <c r="D95" s="92"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="84"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="137" t="s">
+      <c r="C96" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="92"/>
+      <c r="D96" s="84"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
         <v>819.79999999999927</v>
@@ -27029,29 +27023,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -27065,18 +27048,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27154,13 +27148,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="113" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="115"/>
+      <c r="A1" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="120"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27305,7 +27299,7 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="57">
         <f>('April 2025 - June 2025'!C7)</f>
@@ -27363,13 +27357,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="118" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="119"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="108"/>
+      <c r="A10" s="121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27397,25 +27391,25 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="117"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -27437,13 +27431,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="108"/>
+      <c r="A15" s="121" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27471,25 +27465,25 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="120" t="s">
+      <c r="C16" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -27514,13 +27508,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="108"/>
+      <c r="A20" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27548,25 +27542,25 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="97"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C22" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="123"/>
+      <c r="D22" s="125"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -27609,11 +27603,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
+      <c r="A28" s="147" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="84"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -27628,11 +27622,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -27645,7 +27639,7 @@
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27">
@@ -27674,16 +27668,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="128"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="111"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="129"/>
-      <c r="B36" s="107"/>
-      <c r="C36" s="130"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="114"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -27732,11 +27726,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="92"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -27771,11 +27765,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -27817,11 +27811,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="102"/>
-      <c r="C51" s="103"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -27845,11 +27839,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="123"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -27873,11 +27867,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="106" t="s">
+      <c r="A57" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="107"/>
-      <c r="C57" s="108"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="95"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -27921,11 +27915,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="98"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -27992,11 +27986,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="144"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="97"/>
+      <c r="C69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -28055,23 +28049,23 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="B77" s="91"/>
-      <c r="C77" s="91"/>
-      <c r="D77" s="91"/>
-      <c r="E77" s="92"/>
+      <c r="A77" s="104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="93" t="s">
+      <c r="A78" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="97"/>
-      <c r="C78" s="93" t="s">
+      <c r="B78" s="123"/>
+      <c r="C78" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="97"/>
+      <c r="D78" s="123"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
@@ -28081,8 +28075,8 @@
         <v>82</v>
       </c>
       <c r="B79" s="157"/>
-      <c r="C79" s="160"/>
-      <c r="D79" s="161"/>
+      <c r="C79" s="158"/>
+      <c r="D79" s="159"/>
       <c r="E79" s="52">
         <v>0</v>
       </c>
@@ -28092,8 +28086,8 @@
         <v>40</v>
       </c>
       <c r="B80" s="157"/>
-      <c r="C80" s="158"/>
-      <c r="D80" s="158"/>
+      <c r="C80" s="160"/>
+      <c r="D80" s="160"/>
       <c r="E80" s="80">
         <f>C74</f>
         <v>1299</v>
@@ -28102,10 +28096,10 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="78"/>
       <c r="B81" s="78"/>
-      <c r="C81" s="159" t="s">
+      <c r="C81" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="107"/>
+      <c r="D81" s="113"/>
       <c r="E81" s="79">
         <f>(C6+E13)-SUM(E79:E80)</f>
         <v>1951.9999999999991</v>
@@ -28113,67 +28107,67 @@
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="91"/>
-      <c r="E83" s="92"/>
+      <c r="A83" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="83"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="84"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="92"/>
-      <c r="C84" s="90" t="s">
+      <c r="B84" s="84"/>
+      <c r="C84" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="92"/>
+      <c r="D84" s="84"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" s="117"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="149"/>
+      <c r="A85" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="92"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="156"/>
       <c r="E85" s="37">
         <f>E81</f>
         <v>1951.9999999999991</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="142" t="s">
+      <c r="A86" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="146"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="148"/>
+      <c r="B86" s="101"/>
+      <c r="C86" s="105"/>
+      <c r="D86" s="155"/>
       <c r="E86" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="142" t="s">
+      <c r="A87" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="117"/>
-      <c r="C87" s="134"/>
-      <c r="D87" s="92"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="84"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="137" t="s">
+      <c r="C88" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="92"/>
+      <c r="D88" s="84"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
         <v>3057.9999999999991</v>
@@ -28194,67 +28188,67 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="143" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" s="119"/>
-      <c r="C91" s="119"/>
-      <c r="D91" s="119"/>
-      <c r="E91" s="108"/>
+      <c r="A91" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="95"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="90" t="s">
+      <c r="A92" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="90" t="s">
+      <c r="B92" s="84"/>
+      <c r="C92" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="92"/>
+      <c r="D92" s="84"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="117"/>
-      <c r="C93" s="134"/>
-      <c r="D93" s="92"/>
+      <c r="A93" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" s="92"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="37">
         <f>E88</f>
         <v>3057.9999999999991</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="142" t="s">
+      <c r="A94" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="146"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="138"/>
+      <c r="B94" s="101"/>
+      <c r="C94" s="105"/>
+      <c r="D94" s="106"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="142" t="s">
+      <c r="A95" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="117"/>
-      <c r="C95" s="134"/>
-      <c r="D95" s="92"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="84"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="137" t="s">
+      <c r="C96" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="92"/>
+      <c r="D96" s="84"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
         <v>4163.9999999999991</v>
@@ -31914,18 +31908,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -31939,29 +31944,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71361480-B48A-4C40-A4AB-07D4A57FDD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E33FB2-0CFE-4FAE-A5AC-9347B88492C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="172">
   <si>
     <t>Assets</t>
   </si>
@@ -597,8 +597,35 @@
     <t xml:space="preserve">1. Payback $1100 to Mom </t>
   </si>
   <si>
+    <t>04th June 2024</t>
+  </si>
+  <si>
+    <t>Net Debts:</t>
+  </si>
+  <si>
+    <t>3. Terminate the Fixed Line Phone 23290612 pay $187 remaining fees</t>
+  </si>
+  <si>
+    <t>2. Payback $800 to Ng Wing Lam</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1. Payback $739 to Mom - </t>
+      <t>2. Payback $800 to Ng Wing Lam -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Last Payment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Payback $839 to Mom - </t>
     </r>
     <r>
       <rPr>
@@ -612,31 +639,7 @@
     </r>
   </si>
   <si>
-    <t>04th June 2024</t>
-  </si>
-  <si>
-    <t>Net Debts:</t>
-  </si>
-  <si>
-    <t>3. Additional Payment $10 for cigarette</t>
-  </si>
-  <si>
-    <t>3. Terminate the Fixed Line Phone 23290612 pay $187 remaining fees</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Payback $1000 to Ng Wing Lam - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Last Payment</t>
-    </r>
+    <t>3. Payback $9.97 to the Banruptcy Office Department</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1540,165 +1543,6 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1717,13 +1561,37 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1732,13 +1600,145 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1759,26 +1759,23 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2528,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1013"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2757,11 +2754,11 @@
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="57">
         <f>(-C75+SUM(E88,E97))</f>
-        <v>-12939</v>
+        <v>-13139</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2815,13 +2812,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="95"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="115"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2849,10 +2846,10 @@
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="90"/>
       <c r="E13" s="17" t="s">
         <v>4</v>
       </c>
@@ -2864,10 +2861,10 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="122"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2889,13 +2886,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="95"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="115"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2923,10 +2920,10 @@
       <c r="B18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="122" t="s">
+      <c r="C18" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="123"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="74" t="s">
         <v>4</v>
       </c>
@@ -2938,119 +2935,119 @@
       <c r="B19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="125"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="67">
         <v>2405</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47" t="s">
+      <c r="A20" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="135" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="136"/>
+      <c r="E20" s="67">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="48">
-        <f>E19</f>
+      <c r="E21" s="48">
+        <f>SUM(E19:E20)</f>
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A23" s="123" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="115"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+    </row>
+    <row r="24" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="90"/>
+      <c r="E24" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A25" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="90"/>
+      <c r="E25" s="27">
         <v>2405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-    </row>
-    <row r="22" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A22" s="121" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-    </row>
-    <row r="23" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="107" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A24" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="27">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A25" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="89" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="67">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.15" customHeight="1">
       <c r="A26" s="32" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="116" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="117"/>
+        <v>160</v>
+      </c>
+      <c r="C26" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="139"/>
       <c r="E26" s="67">
-        <v>1035</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="13.5" customHeight="1">
@@ -3061,8 +3058,8 @@
         <v>7</v>
       </c>
       <c r="E27" s="48">
-        <f>SUM(E24:E26)</f>
-        <v>3490</v>
+        <f>SUM(E25:E26)</f>
+        <v>2455</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="13.15" customHeight="1">
@@ -3084,11 +3081,11 @@
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="20" t="s">
@@ -3103,11 +3100,11 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="82" t="s">
+      <c r="A33" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
@@ -3149,16 +3146,16 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="109" t="s">
+      <c r="A38" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="111"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="131"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="112"/>
-      <c r="B39" s="113"/>
-      <c r="C39" s="114"/>
+      <c r="A39" s="132"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="133"/>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3207,11 +3204,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="82" t="s">
+      <c r="A45" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="84"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -3246,11 +3243,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="82" t="s">
+      <c r="A49" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="86"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="110"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3292,11 +3289,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="82" t="s">
+      <c r="A54" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="85"/>
-      <c r="C54" s="86"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="110"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3320,11 +3317,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="141" t="s">
+      <c r="A57" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="142"/>
-      <c r="C57" s="123"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="95"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -3348,11 +3345,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="130" t="s">
+      <c r="A60" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="113"/>
-      <c r="C60" s="95"/>
+      <c r="B60" s="114"/>
+      <c r="C60" s="115"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -3399,7 +3396,7 @@
       <c r="A65" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="143"/>
+      <c r="B65" s="97"/>
       <c r="C65" s="98"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
@@ -3459,7 +3456,7 @@
       <c r="A71" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="97"/>
+      <c r="B71" s="142"/>
       <c r="C71" s="98"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
@@ -3519,126 +3516,126 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="104" t="s">
+      <c r="A79" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="128"/>
-      <c r="C79" s="128"/>
-      <c r="D79" s="128"/>
-      <c r="E79" s="129"/>
+      <c r="B79" s="111"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="112"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="126" t="s">
+      <c r="A80" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="127"/>
-      <c r="C80" s="126" t="s">
+      <c r="B80" s="92"/>
+      <c r="C80" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="127"/>
+      <c r="D80" s="92"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="131" t="s">
+      <c r="A81" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="132"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="88"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="138"/>
       <c r="E81" s="44">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="144" t="s">
+      <c r="C82" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="145"/>
+      <c r="D82" s="100"/>
       <c r="E82" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="104" t="s">
+      <c r="A84" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="84"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="90"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="104" t="s">
+      <c r="A85" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="84"/>
-      <c r="C85" s="104" t="s">
+      <c r="B85" s="90"/>
+      <c r="C85" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="84"/>
+      <c r="D85" s="90"/>
       <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="91" t="s">
+      <c r="A86" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="101"/>
-      <c r="C86" s="99"/>
-      <c r="D86" s="100"/>
+      <c r="B86" s="144"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="143"/>
       <c r="E86" s="37">
         <f>E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="135" t="s">
+      <c r="A87" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="136"/>
-      <c r="C87" s="105" t="s">
+      <c r="B87" s="83"/>
+      <c r="C87" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="106"/>
+      <c r="D87" s="107"/>
       <c r="E87" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="139"/>
-      <c r="B88" s="140"/>
-      <c r="C88" s="105" t="s">
+      <c r="A88" s="86"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="146"/>
+      <c r="D88" s="102"/>
       <c r="E88" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="91" t="s">
+      <c r="A89" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="92"/>
-      <c r="C89" s="102" t="s">
+      <c r="B89" s="122"/>
+      <c r="C89" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="D89" s="103"/>
+      <c r="D89" s="105"/>
       <c r="E89" s="66">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="90" t="s">
+      <c r="C90" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="84"/>
+      <c r="D90" s="90"/>
       <c r="E90" s="37">
         <f>SUM(C3:C7)</f>
         <v>57.370000000000005</v>
@@ -3659,93 +3656,94 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="93" t="s">
+      <c r="A93" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="94"/>
-      <c r="C93" s="94"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="95"/>
+      <c r="B93" s="124"/>
+      <c r="C93" s="124"/>
+      <c r="D93" s="124"/>
+      <c r="E93" s="115"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="104" t="s">
+      <c r="A94" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="84"/>
-      <c r="C94" s="104" t="s">
+      <c r="B94" s="90"/>
+      <c r="C94" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="84"/>
+      <c r="D94" s="90"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="91" t="s">
+      <c r="A95" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="92"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="37">
-        <v>0</v>
+        <f>E90</f>
+        <v>57.370000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="135" t="s">
+      <c r="A96" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="136"/>
-      <c r="C96" s="105" t="s">
+      <c r="B96" s="83"/>
+      <c r="C96" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="106"/>
+      <c r="D96" s="107"/>
       <c r="E96" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="137"/>
-      <c r="B97" s="138"/>
-      <c r="C97" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="D97" s="146"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D97" s="145"/>
       <c r="E97" s="52">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="139"/>
-      <c r="B98" s="140"/>
-      <c r="C98" s="133" t="s">
-        <v>168</v>
-      </c>
-      <c r="D98" s="134"/>
+      <c r="A98" s="86"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="102"/>
       <c r="E98" s="52">
-        <v>10</v>
+        <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="91" t="s">
+      <c r="A99" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="101"/>
-      <c r="C99" s="102"/>
-      <c r="D99" s="103"/>
+      <c r="B99" s="144"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="105"/>
       <c r="E99" s="52">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C100" s="90" t="s">
+      <c r="C100" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="84"/>
+      <c r="D100" s="90"/>
       <c r="E100" s="52">
         <f>(E27+E95)-SUM(E96:E99)</f>
-        <v>977</v>
+        <v>199.39999999999964</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
@@ -7402,45 +7400,11 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A96:B98"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C82:D82"/>
     <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A93:E93"/>
@@ -7453,6 +7417,40 @@
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A96:B98"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A94:B94"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -7509,8 +7507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
   <dimension ref="A1:Y1014"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7555,7 +7553,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2024 - June 2024'!E100</f>
-        <v>977</v>
+        <v>199.39999999999964</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7650,7 +7648,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>1003.2</v>
+        <v>225.59999999999962</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7678,11 +7676,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="57">
         <f>('April 2024 - June 2024'!C9)+SUM(E81,E89,E99)</f>
-        <v>-9939</v>
+        <v>-10739</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7736,13 +7734,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="115"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7770,10 +7768,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -7785,10 +7783,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7810,13 +7808,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="115"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7844,10 +7842,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -7859,10 +7857,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7887,13 +7885,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="115"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7921,10 +7919,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -7936,10 +7934,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="125"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -7949,8 +7947,8 @@
       <c r="B23" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
       <c r="E23" s="67">
         <v>204</v>
       </c>
@@ -7993,11 +7991,11 @@
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="154" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
       <c r="A30" s="20" t="s">
@@ -8012,11 +8010,11 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="25" t="s">
@@ -8058,16 +8056,16 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="111"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="131"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="112"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="114"/>
+      <c r="A37" s="132"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="133"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
       <c r="A38" s="2" t="s">
@@ -8116,11 +8114,11 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="84"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="90"/>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
       <c r="A44" s="2" t="s">
@@ -8155,11 +8153,11 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="86"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="110"/>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
       <c r="A48" s="2" t="s">
@@ -8201,11 +8199,11 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="82" t="s">
+      <c r="A52" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="86"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
       <c r="A53" s="2" t="s">
@@ -8229,11 +8227,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="141" t="s">
+      <c r="A55" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="142"/>
-      <c r="C55" s="123"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="95"/>
     </row>
     <row r="56" spans="1:3" ht="33" customHeight="1">
       <c r="A56" s="32" t="s">
@@ -8257,11 +8255,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="130" t="s">
+      <c r="A58" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="113"/>
-      <c r="C58" s="95"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="115"/>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
       <c r="A59" s="26" t="s">
@@ -8308,7 +8306,7 @@
       <c r="A63" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="143"/>
+      <c r="B63" s="97"/>
       <c r="C63" s="98"/>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
@@ -8379,7 +8377,7 @@
       <c r="A70" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="97"/>
+      <c r="B70" s="142"/>
       <c r="C70" s="98"/>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
@@ -8440,163 +8438,163 @@
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="104" t="s">
+      <c r="A78" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="84"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="90"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="126" t="s">
+      <c r="A79" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="123"/>
-      <c r="C79" s="126" t="s">
+      <c r="B79" s="95"/>
+      <c r="C79" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="123"/>
+      <c r="D79" s="95"/>
       <c r="E79" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="151" t="s">
+      <c r="A80" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="151"/>
-      <c r="C80" s="149" t="s">
+      <c r="B80" s="150"/>
+      <c r="C80" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="150"/>
+      <c r="D80" s="149"/>
       <c r="E80" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="152"/>
-      <c r="B81" s="152"/>
-      <c r="C81" s="153" t="s">
-        <v>91</v>
-      </c>
-      <c r="D81" s="154"/>
+      <c r="A81" s="151"/>
+      <c r="B81" s="151"/>
+      <c r="C81" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="153"/>
       <c r="E81" s="52">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="131" t="s">
+      <c r="A82" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="132"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="88"/>
+      <c r="B82" s="117"/>
+      <c r="C82" s="137"/>
+      <c r="D82" s="138"/>
       <c r="E82" s="44">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="144" t="s">
+      <c r="C83" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="83"/>
+      <c r="D83" s="89"/>
       <c r="E83" s="37">
         <f>(C6+E13)-SUM(E80:E82)</f>
-        <v>905.19999999999982</v>
+        <v>327.59999999999945</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="104" t="s">
+      <c r="A85" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="83"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="83"/>
-      <c r="E85" s="84"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="90"/>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="104" t="s">
+      <c r="A86" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="84"/>
-      <c r="C86" s="104" t="s">
+      <c r="B86" s="90"/>
+      <c r="C86" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="84"/>
+      <c r="D86" s="90"/>
       <c r="E86" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="91" t="s">
+      <c r="A87" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="102"/>
-      <c r="D87" s="156"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="147"/>
       <c r="E87" s="37">
         <f>E83</f>
-        <v>905.19999999999982</v>
+        <v>327.59999999999945</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="135" t="s">
+      <c r="A88" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="136"/>
-      <c r="C88" s="102" t="s">
+      <c r="B88" s="83"/>
+      <c r="C88" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="155"/>
+      <c r="D88" s="146"/>
       <c r="E88" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="137"/>
-      <c r="B89" s="138"/>
-      <c r="C89" s="105" t="s">
-        <v>91</v>
-      </c>
-      <c r="D89" s="148"/>
+      <c r="A89" s="84"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" s="145"/>
       <c r="E89" s="52">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="139"/>
-      <c r="B90" s="140"/>
-      <c r="C90" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="D90" s="148"/>
+      <c r="A90" s="86"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="145"/>
       <c r="E90" s="52">
         <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="91" t="s">
+      <c r="A91" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="92"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="84"/>
+      <c r="B91" s="122"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="90"/>
       <c r="E91" s="66">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C92" s="90" t="s">
+      <c r="C92" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="90"/>
       <c r="E92" s="37">
         <f>(E18+E87)-SUM(E88:E91)</f>
-        <v>620.19999999999982</v>
+        <v>242.59999999999945</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
@@ -8614,48 +8612,48 @@
       <c r="E94" s="24"/>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="94"/>
-      <c r="C95" s="94"/>
-      <c r="D95" s="94"/>
-      <c r="E95" s="95"/>
+      <c r="B95" s="124"/>
+      <c r="C95" s="124"/>
+      <c r="D95" s="124"/>
+      <c r="E95" s="115"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="104" t="s">
+      <c r="A96" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="84"/>
-      <c r="C96" s="104" t="s">
+      <c r="B96" s="90"/>
+      <c r="C96" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="90"/>
       <c r="E96" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="91" t="s">
+      <c r="A97" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="92"/>
-      <c r="C97" s="99"/>
-      <c r="D97" s="84"/>
+      <c r="B97" s="122"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="90"/>
       <c r="E97" s="37">
         <f>E92</f>
-        <v>620.19999999999982</v>
+        <v>242.59999999999945</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="91" t="s">
+      <c r="A98" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="101"/>
-      <c r="C98" s="105" t="s">
+      <c r="B98" s="144"/>
+      <c r="C98" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="106"/>
+      <c r="D98" s="107"/>
       <c r="E98" s="52">
         <v>0</v>
       </c>
@@ -8663,34 +8661,34 @@
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
       <c r="A99" s="76"/>
       <c r="B99" s="77"/>
-      <c r="C99" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D99" s="148"/>
+      <c r="C99" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="D99" s="145"/>
       <c r="E99" s="52">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="91" t="s">
+      <c r="A100" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="92"/>
-      <c r="C100" s="99"/>
-      <c r="D100" s="84"/>
+      <c r="B100" s="122"/>
+      <c r="C100" s="103"/>
+      <c r="D100" s="90"/>
       <c r="E100" s="66">
         <f>C75</f>
         <v>1503</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C101" s="90" t="s">
+      <c r="C101" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="84"/>
+      <c r="D101" s="90"/>
       <c r="E101" s="52">
         <f>(E24+E97)-SUM(E98:E100)</f>
-        <v>726.19999999999982</v>
+        <v>548.59999999999945</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
@@ -12347,6 +12345,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C81:D81"/>
     <mergeCell ref="A88:B90"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C23:D23"/>
@@ -12363,43 +12398,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12458,10 +12456,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
-  <dimension ref="A1:Y1009"/>
+  <dimension ref="A1:Y1010"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12506,7 +12504,7 @@
       </c>
       <c r="C3" s="5">
         <f>'July 2024 - September 2024'!E101</f>
-        <v>726.19999999999982</v>
+        <v>548.59999999999945</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12601,7 +12599,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>752.39999999999986</v>
+        <v>574.7999999999995</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -12629,11 +12627,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="57">
-        <f>('July 2024 - September 2024'!C7)+SUM(E79,E86,E94)</f>
-        <v>-6339</v>
+        <f>('July 2024 - September 2024'!C7)+SUM(E80,E87,E95)</f>
+        <v>-7539</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -12687,13 +12685,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="115"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12721,10 +12719,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -12736,10 +12734,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12761,13 +12759,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="115"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12795,10 +12793,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -12810,10 +12808,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12838,13 +12836,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="115"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12872,10 +12870,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -12887,10 +12885,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="125"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -12933,11 +12931,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="154" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -12952,11 +12950,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -12998,16 +12996,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="112"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
+      <c r="A36" s="132"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="133"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -13056,11 +13054,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -13095,11 +13093,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -13141,11 +13139,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -13169,11 +13167,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="142"/>
-      <c r="C54" s="123"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -13197,11 +13195,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="130" t="s">
+      <c r="A57" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="95"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -13248,7 +13246,7 @@
       <c r="A62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="143"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="98"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
@@ -13319,7 +13317,7 @@
       <c r="A69" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="97"/>
+      <c r="B69" s="142"/>
       <c r="C69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -13380,276 +13378,283 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="84"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="126" t="s">
+      <c r="A78" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="123"/>
-      <c r="C78" s="126" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="123"/>
+      <c r="D78" s="95"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="151" t="s">
+      <c r="A79" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="136"/>
-      <c r="C79" s="149" t="s">
+      <c r="B79" s="150"/>
+      <c r="C79" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="150"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="75">
-        <v>1200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="131" t="s">
+      <c r="A80" s="151"/>
+      <c r="B80" s="151"/>
+      <c r="C80" s="152" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="153"/>
+      <c r="E80" s="52">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="132"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="44">
+      <c r="B81" s="117"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="144" t="s">
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C82" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="83"/>
-      <c r="E81" s="37">
-        <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>658.39999999999964</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="104" t="s">
+      <c r="D82" s="89"/>
+      <c r="E82" s="37">
+        <f>(C6+E13)-SUM(E79:E81)</f>
+        <v>880.79999999999927</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A84" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="84"/>
-    </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="104" t="s">
+      <c r="B84" s="89"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="90"/>
+    </row>
+    <row r="85" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A85" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="104" t="s">
+      <c r="B85" s="90"/>
+      <c r="C85" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="84"/>
-      <c r="E84" s="23" t="s">
+      <c r="D85" s="90"/>
+      <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="91" t="s">
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="B85" s="92"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="156"/>
-      <c r="E85" s="37">
-        <f>E81</f>
-        <v>658.39999999999964</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="91" t="s">
+      <c r="B86" s="122"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="37">
+        <f>E82</f>
+        <v>880.79999999999927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="101"/>
-      <c r="C86" s="105" t="s">
+      <c r="B87" s="144"/>
+      <c r="C87" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D86" s="155"/>
-      <c r="E86" s="52">
+      <c r="D87" s="146"/>
+      <c r="E87" s="52">
         <v>1200</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="91" t="s">
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="84"/>
-      <c r="E87" s="66">
+      <c r="B88" s="122"/>
+      <c r="C88" s="103"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="90" t="s">
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C89" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="84"/>
-      <c r="E88" s="37">
-        <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>564.39999999999964</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="24"/>
-    </row>
-    <row r="90" spans="1:5" ht="17.25" customHeight="1">
+      <c r="D89" s="90"/>
+      <c r="E89" s="37">
+        <f>(E18+E86)-SUM(E87:E88)</f>
+        <v>786.79999999999927</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="93" t="s">
+    <row r="91" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+    </row>
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="94"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="95"/>
-    </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="104" t="s">
+      <c r="B92" s="124"/>
+      <c r="C92" s="124"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="115"/>
+    </row>
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A93" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="104" t="s">
+      <c r="B93" s="90"/>
+      <c r="C93" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="84"/>
-      <c r="E92" s="23" t="s">
+      <c r="D93" s="90"/>
+      <c r="E93" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="91" t="s">
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A94" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="B93" s="92"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="84"/>
-      <c r="E93" s="37">
-        <f>E88</f>
-        <v>564.39999999999964</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="91" t="s">
+      <c r="B94" s="122"/>
+      <c r="C94" s="103"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="37">
+        <f>E89</f>
+        <v>786.79999999999927</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A95" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="101"/>
-      <c r="C94" s="105" t="s">
+      <c r="B95" s="144"/>
+      <c r="C95" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D94" s="106"/>
-      <c r="E94" s="52">
+      <c r="D95" s="107"/>
+      <c r="E95" s="52">
         <v>1200</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="91" t="s">
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="92"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="66">
+      <c r="B96" s="122"/>
+      <c r="C96" s="103"/>
+      <c r="D96" s="90"/>
+      <c r="E96" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="90" t="s">
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C97" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
-      <c r="E96" s="52">
-        <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>470.39999999999964</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-    </row>
-    <row r="98" spans="1:2" ht="13.5" customHeight="1">
+      <c r="D97" s="90"/>
+      <c r="E97" s="52">
+        <f>(E23+E94)-SUM(E95:E96)</f>
+        <v>692.79999999999927</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:2" ht="13.5" customHeight="1">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:2" ht="13.5" customHeight="1">
+    <row r="100" spans="1:5" ht="13.5" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:2" ht="13.5" customHeight="1">
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:2" ht="13.5" customHeight="1">
+    <row r="102" spans="1:5" ht="13.5" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:2" ht="13.5" customHeight="1">
+    <row r="103" spans="1:5" ht="13.5" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:2" ht="13.5" customHeight="1">
+    <row r="104" spans="1:5" ht="13.5" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:2" ht="13.5" customHeight="1">
+    <row r="105" spans="1:5" ht="13.5" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:2" ht="13.5" customHeight="1">
+    <row r="106" spans="1:5" ht="13.5" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:2" ht="13.5" customHeight="1">
+    <row r="107" spans="1:5" ht="13.5" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:2" ht="13.5" customHeight="1">
+    <row r="108" spans="1:5" ht="13.5" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:2" ht="13.5" customHeight="1">
+    <row r="109" spans="1:5" ht="13.5" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:2" ht="13.5" customHeight="1">
+    <row r="110" spans="1:5" ht="13.5" customHeight="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:2" ht="13.5" customHeight="1">
+    <row r="111" spans="1:5" ht="13.5" customHeight="1">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:2" ht="13.5" customHeight="1">
+    <row r="112" spans="1:5" ht="13.5" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
     </row>
@@ -17241,38 +17246,18 @@
       <c r="A1009" s="11"/>
       <c r="B1009" s="11"/>
     </row>
+    <row r="1010" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1010" s="11"/>
+      <c r="B1010" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
+  <mergeCells count="49">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A20:E20"/>
@@ -17285,12 +17270,37 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17302,7 +17312,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17310,7 +17320,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17318,7 +17328,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17326,7 +17336,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17334,7 +17344,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17350,8 +17360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17395,8 +17405,8 @@
         <v>50</v>
       </c>
       <c r="C3" s="5">
-        <f>'October 2024 - December 2024'!E96</f>
-        <v>470.39999999999964</v>
+        <f>'October 2024 - December 2024'!E97</f>
+        <v>692.79999999999927</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17491,7 +17501,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>496.59999999999962</v>
+        <v>718.99999999999932</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17519,11 +17529,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="57">
         <f>('October 2024 - December 2024'!C7)+SUM(E79,E86,E94)</f>
-        <v>-2939</v>
+        <v>-4139</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -17577,13 +17587,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="115"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17611,10 +17621,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -17626,10 +17636,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17651,13 +17661,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="115"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17685,10 +17695,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -17700,10 +17710,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17728,13 +17738,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="115"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17762,10 +17772,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -17777,10 +17787,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="125"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -17823,11 +17833,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="154" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -17842,11 +17852,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -17888,16 +17898,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="112"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
+      <c r="A36" s="132"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="133"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -17946,11 +17956,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -17985,11 +17995,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -18031,11 +18041,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -18059,11 +18069,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="142"/>
-      <c r="C54" s="123"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -18087,11 +18097,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="130" t="s">
+      <c r="A57" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="95"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -18138,7 +18148,7 @@
       <c r="A62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="143"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="98"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
@@ -18209,7 +18219,7 @@
       <c r="A69" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="97"/>
+      <c r="B69" s="142"/>
       <c r="C69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -18270,130 +18280,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="84"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="126" t="s">
+      <c r="A78" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="123"/>
-      <c r="C78" s="126" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="123"/>
+      <c r="D78" s="95"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="151" t="s">
+      <c r="A79" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="136"/>
-      <c r="C79" s="149" t="s">
+      <c r="B79" s="83"/>
+      <c r="C79" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="150"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="75">
         <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="131" t="s">
+      <c r="A80" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="132"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="88"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="138"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="144" t="s">
+      <c r="C81" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="83"/>
+      <c r="D81" s="89"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>402.59999999999945</v>
+        <v>624.99999999999909</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="104" t="s">
+      <c r="A83" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="90"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="104" t="s">
+      <c r="A84" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="104" t="s">
+      <c r="B84" s="90"/>
+      <c r="C84" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="84"/>
+      <c r="D84" s="90"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="91" t="s">
+      <c r="A85" s="140" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="92"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="156"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="147"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>402.59999999999945</v>
+        <v>624.99999999999909</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="91" t="s">
+      <c r="A86" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="101"/>
-      <c r="C86" s="105" t="s">
+      <c r="B86" s="144"/>
+      <c r="C86" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="D86" s="155"/>
+      <c r="D86" s="146"/>
       <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="91" t="s">
+      <c r="A87" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="84"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="90" t="s">
+      <c r="C88" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="84"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>408.59999999999945</v>
+        <v>630.99999999999909</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18411,72 +18421,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="94"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="95"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="115"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="104" t="s">
+      <c r="A92" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="104" t="s">
+      <c r="B92" s="90"/>
+      <c r="C92" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="90"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="91" t="s">
+      <c r="A93" s="140" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="92"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="84"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>408.59999999999945</v>
+        <v>630.99999999999909</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="91" t="s">
+      <c r="A94" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="101"/>
-      <c r="C94" s="105" t="s">
+      <c r="B94" s="144"/>
+      <c r="C94" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="D94" s="106"/>
+      <c r="D94" s="107"/>
       <c r="E94" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="91" t="s">
+      <c r="A95" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="92"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="90" t="s">
+      <c r="C96" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="90"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>414.59999999999945</v>
+        <v>636.99999999999909</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22133,18 +22143,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -22158,29 +22179,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22240,8 +22250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22286,7 +22296,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>414.59999999999945</v>
+        <v>636.99999999999909</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22381,7 +22391,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>440.79999999999944</v>
+        <v>663.19999999999914</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22409,11 +22419,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="57">
         <f>('January 2025 - March 2025'!C7)+SUM(E79,E86,E94)</f>
-        <v>0</v>
+        <v>-839</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -22467,13 +22477,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="115"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22501,10 +22511,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -22516,10 +22526,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22541,13 +22551,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="115"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22575,10 +22585,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -22590,10 +22600,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22618,13 +22628,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="123" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="115"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22652,10 +22662,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -22667,10 +22677,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="125"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -22713,11 +22723,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="154" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22732,11 +22742,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -22778,16 +22788,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="112"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
+      <c r="A36" s="132"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="133"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -22836,11 +22846,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -22875,11 +22885,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -22921,11 +22931,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -22949,11 +22959,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="142"/>
-      <c r="C54" s="123"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -22977,11 +22987,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="130" t="s">
+      <c r="A57" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="95"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -23028,7 +23038,7 @@
       <c r="A62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="143"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="98"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
@@ -23099,7 +23109,7 @@
       <c r="A69" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="97"/>
+      <c r="B69" s="142"/>
       <c r="C69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -23160,130 +23170,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="84"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="126" t="s">
+      <c r="A78" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="123"/>
-      <c r="C78" s="126" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="123"/>
+      <c r="D78" s="95"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="151" t="s">
+      <c r="A79" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="136"/>
-      <c r="C79" s="149" t="s">
+      <c r="B79" s="83"/>
+      <c r="C79" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="150"/>
+      <c r="D79" s="149"/>
       <c r="E79" s="75">
         <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="131" t="s">
+      <c r="A80" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="132"/>
-      <c r="C80" s="87"/>
-      <c r="D80" s="88"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="138"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="144" t="s">
+      <c r="C81" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="83"/>
+      <c r="D81" s="89"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>446.79999999999927</v>
+        <v>669.19999999999891</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="104" t="s">
+      <c r="A83" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="90"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="104" t="s">
+      <c r="A84" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="104" t="s">
+      <c r="B84" s="90"/>
+      <c r="C84" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="84"/>
+      <c r="D84" s="90"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="91" t="s">
+      <c r="A85" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="B85" s="92"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="156"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="147"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>446.79999999999927</v>
+        <v>669.19999999999891</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="91" t="s">
+      <c r="A86" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="101"/>
-      <c r="C86" s="105" t="s">
+      <c r="B86" s="144"/>
+      <c r="C86" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="155"/>
+      <c r="D86" s="146"/>
       <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="91" t="s">
+      <c r="A87" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="84"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="90" t="s">
+      <c r="C88" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="84"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>452.79999999999927</v>
+        <v>675.19999999999891</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23301,72 +23311,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="141" t="s">
         <v>138</v>
       </c>
-      <c r="B91" s="94"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="95"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="115"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="104" t="s">
+      <c r="A92" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="104" t="s">
+      <c r="B92" s="90"/>
+      <c r="C92" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="90"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="91" t="s">
+      <c r="A93" s="140" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="92"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="84"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>452.79999999999927</v>
+        <v>675.19999999999891</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="91" t="s">
+      <c r="A94" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="101"/>
-      <c r="C94" s="105" t="s">
-        <v>165</v>
-      </c>
-      <c r="D94" s="106"/>
+      <c r="B94" s="144"/>
+      <c r="C94" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="107"/>
       <c r="E94" s="52">
-        <v>739</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="91" t="s">
+      <c r="A95" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="92"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="90" t="s">
+      <c r="C96" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="90"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>819.79999999999927</v>
+        <v>681.19999999999891</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27023,18 +27033,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -27048,29 +27069,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27130,8 +27140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -27176,7 +27186,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>819.79999999999927</v>
+        <v>681.19999999999891</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27271,7 +27281,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>845.99999999999932</v>
+        <v>707.39999999999895</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -27299,10 +27309,10 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="57">
-        <f>('April 2025 - June 2025'!C7)</f>
+        <f>('April 2025 - June 2025'!C7)+E79</f>
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
@@ -27357,13 +27367,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="115"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27391,10 +27401,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -27406,10 +27416,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="92"/>
+      <c r="D12" s="122"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -27431,13 +27441,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="95"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="115"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27465,10 +27475,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -27480,10 +27490,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -27508,13 +27518,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="115"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27542,10 +27552,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -27557,10 +27567,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="125"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -27603,11 +27613,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -27622,11 +27632,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -27668,16 +27678,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="131"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="112"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="114"/>
+      <c r="A36" s="132"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="133"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -27726,11 +27736,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -27765,11 +27775,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="82" t="s">
+      <c r="A46" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="110"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -27811,11 +27821,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="110"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -27839,11 +27849,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="142"/>
-      <c r="C54" s="123"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -27867,11 +27877,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="130" t="s">
+      <c r="A57" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="113"/>
-      <c r="C57" s="95"/>
+      <c r="B57" s="114"/>
+      <c r="C57" s="115"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -27918,7 +27928,7 @@
       <c r="A62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="143"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="98"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
@@ -27989,7 +27999,7 @@
       <c r="A69" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="97"/>
+      <c r="B69" s="142"/>
       <c r="C69" s="98"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -28049,45 +28059,47 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="104" t="s">
+      <c r="A77" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="84"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="90"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="126" t="s">
+      <c r="A78" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="123"/>
-      <c r="C78" s="126" t="s">
+      <c r="B78" s="95"/>
+      <c r="C78" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="123"/>
+      <c r="D78" s="95"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="157" t="s">
+      <c r="A79" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="157"/>
-      <c r="C79" s="158"/>
+      <c r="B79" s="155"/>
+      <c r="C79" s="158" t="s">
+        <v>170</v>
+      </c>
       <c r="D79" s="159"/>
       <c r="E79" s="52">
-        <v>0</v>
+        <v>839</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="157" t="s">
+      <c r="A80" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="157"/>
-      <c r="C80" s="160"/>
-      <c r="D80" s="160"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="156"/>
       <c r="E80" s="80">
         <f>C74</f>
         <v>1299</v>
@@ -28096,81 +28108,81 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="78"/>
       <c r="B81" s="78"/>
-      <c r="C81" s="161" t="s">
+      <c r="C81" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="113"/>
+      <c r="D81" s="114"/>
       <c r="E81" s="79">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>1951.9999999999991</v>
+        <v>974.39999999999873</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="104" t="s">
+      <c r="A83" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="83"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="84"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="90"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="104" t="s">
+      <c r="A84" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="84"/>
-      <c r="C84" s="104" t="s">
+      <c r="B84" s="90"/>
+      <c r="C84" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="84"/>
+      <c r="D84" s="90"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="91" t="s">
+      <c r="A85" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="92"/>
-      <c r="C85" s="102"/>
-      <c r="D85" s="156"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="147"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>1951.9999999999991</v>
+        <v>974.39999999999873</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="91" t="s">
+      <c r="A86" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="101"/>
-      <c r="C86" s="105"/>
-      <c r="D86" s="155"/>
+      <c r="B86" s="144"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="146"/>
       <c r="E86" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="91" t="s">
+      <c r="A87" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="92"/>
-      <c r="C87" s="99"/>
-      <c r="D87" s="84"/>
+      <c r="B87" s="122"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="90"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="90" t="s">
+      <c r="C88" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="84"/>
+      <c r="D88" s="90"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>3057.9999999999991</v>
+        <v>2080.3999999999987</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28188,70 +28200,70 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="93" t="s">
+      <c r="A91" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="94"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="94"/>
-      <c r="E91" s="95"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="124"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="115"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="104" t="s">
+      <c r="A92" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="84"/>
-      <c r="C92" s="104" t="s">
+      <c r="B92" s="90"/>
+      <c r="C92" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="84"/>
+      <c r="D92" s="90"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="91" t="s">
+      <c r="A93" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="92"/>
-      <c r="C93" s="99"/>
-      <c r="D93" s="84"/>
+      <c r="B93" s="122"/>
+      <c r="C93" s="103"/>
+      <c r="D93" s="90"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>3057.9999999999991</v>
+        <v>2080.3999999999987</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="91" t="s">
+      <c r="A94" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="101"/>
-      <c r="C94" s="105"/>
-      <c r="D94" s="106"/>
+      <c r="B94" s="144"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="107"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="91" t="s">
+      <c r="A95" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="92"/>
-      <c r="C95" s="99"/>
-      <c r="D95" s="84"/>
+      <c r="B95" s="122"/>
+      <c r="C95" s="103"/>
+      <c r="D95" s="90"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="90" t="s">
+      <c r="C96" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="84"/>
+      <c r="D96" s="90"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>4163.9999999999991</v>
+        <v>3186.3999999999987</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -31908,29 +31920,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -31944,18 +31945,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E33FB2-0CFE-4FAE-A5AC-9347B88492C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4C647-D375-44A8-9EAA-2E849AF55417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="174">
   <si>
     <t>Assets</t>
   </si>
@@ -609,23 +609,14 @@
     <t>2. Payback $800 to Ng Wing Lam</t>
   </si>
   <si>
-    <r>
-      <t>2. Payback $800 to Ng Wing Lam -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Last Payment</t>
-    </r>
+    <t>3. Payback $9.97 to the Banruptcy Office Department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deduct 10 packet of cigarette </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. Payback $839 to Mom - </t>
+      <t xml:space="preserve">2. Payback $1600 to Ng Wing Lam - </t>
     </r>
     <r>
       <rPr>
@@ -639,7 +630,22 @@
     </r>
   </si>
   <si>
-    <t>3. Payback $9.97 to the Banruptcy Office Department</t>
+    <t>1. Payback $800 to Mom</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Payback $1139 to Mom -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Last Payment</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1296,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1543,6 +1549,162 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,37 +1723,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1600,146 +1738,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1759,11 +1762,20 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1771,11 +1783,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2525,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
@@ -2543,13 +2555,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2812,13 +2824,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="115"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="97"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2846,10 +2858,10 @@
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="125" t="s">
+      <c r="C13" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="90"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="17" t="s">
         <v>4</v>
       </c>
@@ -2861,10 +2873,10 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="122"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2886,13 +2898,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="115"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2920,10 +2932,10 @@
       <c r="B18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="74" t="s">
         <v>4</v>
       </c>
@@ -2935,10 +2947,10 @@
       <c r="B19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="128"/>
+      <c r="D19" s="126"/>
       <c r="E19" s="67">
         <v>2405</v>
       </c>
@@ -2950,10 +2962,10 @@
       <c r="B20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="136"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="67">
         <v>1035</v>
       </c>
@@ -2978,13 +2990,13 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="115"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -3012,10 +3024,10 @@
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="90"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="17" t="s">
         <v>4</v>
       </c>
@@ -3027,10 +3039,10 @@
       <c r="B25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="90"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="27">
         <v>2405</v>
       </c>
@@ -3042,10 +3054,10 @@
       <c r="B26" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="139" t="s">
+      <c r="C26" s="91" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="139"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="67">
         <v>50</v>
       </c>
@@ -3081,11 +3093,11 @@
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="20" t="s">
@@ -3100,11 +3112,11 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
@@ -3146,16 +3158,16 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="129" t="s">
+      <c r="A38" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="130"/>
-      <c r="C38" s="131"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="112"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="132"/>
+      <c r="A39" s="113"/>
       <c r="B39" s="114"/>
-      <c r="C39" s="133"/>
+      <c r="C39" s="115"/>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3204,11 +3216,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="108" t="s">
+      <c r="A45" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="86"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -3243,11 +3255,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="109"/>
-      <c r="C49" s="110"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3289,11 +3301,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="110"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="88"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3317,11 +3329,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="94"/>
-      <c r="C57" s="95"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="124"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -3345,11 +3357,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="113" t="s">
+      <c r="A60" s="131" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="114"/>
-      <c r="C60" s="115"/>
+      <c r="C60" s="97"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -3393,11 +3405,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="97"/>
-      <c r="C65" s="98"/>
+      <c r="B65" s="142"/>
+      <c r="C65" s="100"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="58" t="s">
@@ -3453,11 +3465,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="96" t="s">
+      <c r="A71" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="142"/>
-      <c r="C71" s="98"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="100"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -3516,89 +3528,89 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="88" t="s">
+      <c r="A79" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="111"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="112"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="129"/>
+      <c r="E79" s="130"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="91" t="s">
+      <c r="A80" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="92"/>
-      <c r="C80" s="91" t="s">
+      <c r="B80" s="128"/>
+      <c r="C80" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="92"/>
+      <c r="D80" s="128"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="116" t="s">
+      <c r="A81" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="138"/>
+      <c r="B81" s="133"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="90"/>
       <c r="E81" s="44">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="99" t="s">
+      <c r="C82" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="100"/>
+      <c r="D82" s="144"/>
       <c r="E82" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="88" t="s">
+      <c r="A84" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="90"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="86"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="88" t="s">
+      <c r="A85" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="90"/>
-      <c r="C85" s="88" t="s">
+      <c r="B85" s="86"/>
+      <c r="C85" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="90"/>
+      <c r="D85" s="86"/>
       <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="144"/>
-      <c r="C86" s="103"/>
-      <c r="D86" s="143"/>
+      <c r="B86" s="103"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="102"/>
       <c r="E86" s="37">
         <f>E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="82" t="s">
+      <c r="A87" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="83"/>
-      <c r="C87" s="101" t="s">
+      <c r="B87" s="135"/>
+      <c r="C87" s="82" t="s">
         <v>83</v>
       </c>
       <c r="D87" s="107"/>
@@ -3607,21 +3619,21 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="86"/>
-      <c r="B88" s="87"/>
-      <c r="C88" s="101" t="s">
+      <c r="A88" s="138"/>
+      <c r="B88" s="139"/>
+      <c r="C88" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="D88" s="102"/>
+      <c r="D88" s="145"/>
       <c r="E88" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="140" t="s">
+      <c r="A89" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="122"/>
+      <c r="B89" s="94"/>
       <c r="C89" s="104" t="s">
         <v>92</v>
       </c>
@@ -3632,10 +3644,10 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C90" s="106" t="s">
+      <c r="C90" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="90"/>
+      <c r="D90" s="86"/>
       <c r="E90" s="37">
         <f>SUM(C3:C7)</f>
         <v>57.370000000000005</v>
@@ -3656,45 +3668,45 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="141" t="s">
+      <c r="A93" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124"/>
-      <c r="E93" s="115"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="96"/>
+      <c r="D93" s="96"/>
+      <c r="E93" s="97"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="88" t="s">
+      <c r="A94" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="90"/>
-      <c r="C94" s="88" t="s">
+      <c r="B94" s="86"/>
+      <c r="C94" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="90"/>
+      <c r="D94" s="86"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="140" t="s">
+      <c r="A95" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="122"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="90"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="86"/>
       <c r="E95" s="37">
         <f>E90</f>
         <v>57.370000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="82" t="s">
+      <c r="A96" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="83"/>
-      <c r="C96" s="101" t="s">
+      <c r="B96" s="135"/>
+      <c r="C96" s="82" t="s">
         <v>83</v>
       </c>
       <c r="D96" s="107"/>
@@ -3703,32 +3715,32 @@
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="84"/>
-      <c r="B97" s="85"/>
-      <c r="C97" s="101" t="s">
+      <c r="A97" s="136"/>
+      <c r="B97" s="137"/>
+      <c r="C97" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="D97" s="145"/>
+      <c r="D97" s="83"/>
       <c r="E97" s="52">
         <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="86"/>
-      <c r="B98" s="87"/>
-      <c r="C98" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="D98" s="102"/>
+      <c r="A98" s="138"/>
+      <c r="B98" s="139"/>
+      <c r="C98" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" s="145"/>
       <c r="E98" s="52">
         <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="140" t="s">
+      <c r="A99" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="144"/>
+      <c r="B99" s="103"/>
       <c r="C99" s="104"/>
       <c r="D99" s="105"/>
       <c r="E99" s="52">
@@ -3737,10 +3749,10 @@
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C100" s="106" t="s">
+      <c r="C100" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="90"/>
+      <c r="D100" s="86"/>
       <c r="E100" s="52">
         <f>(E27+E95)-SUM(E96:E99)</f>
         <v>199.39999999999964</v>
@@ -7400,11 +7412,28 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A93:E93"/>
@@ -7417,39 +7446,22 @@
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A96:B98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:D87"/>
     <mergeCell ref="A87:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C94:D94"/>
     <mergeCell ref="A94:B94"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -7505,10 +7517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1014"/>
+  <dimension ref="A1:Y1015"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7525,13 +7537,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7679,8 +7691,8 @@
         <v>166</v>
       </c>
       <c r="C7" s="57">
-        <f>('April 2024 - June 2024'!C9)+SUM(E81,E89,E99)</f>
-        <v>-10739</v>
+        <f>('April 2024 - June 2024'!C9)+SUM(E82,E90,E100)</f>
+        <v>-9939</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7734,13 +7746,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="122" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7768,10 +7780,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="90"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -7783,10 +7795,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="122"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7808,13 +7820,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7842,10 +7854,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -7857,10 +7869,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7885,13 +7897,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7919,10 +7931,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -7934,10 +7946,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="128"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -7947,39 +7959,43 @@
       <c r="B23" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="67">
         <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="67">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="13.15" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="48">
-        <f>SUM(E22:E23)</f>
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-    </row>
-    <row r="26" spans="1:25" ht="13.15" customHeight="1">
+      <c r="E25" s="48">
+        <f>SUM(E22:E24)</f>
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="13.5" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1"/>
       <c r="D26" s="50"/>
       <c r="E26" s="51"/>
     </row>
-    <row r="27" spans="1:25" ht="13.5" customHeight="1">
+    <row r="27" spans="1:25" ht="13.15" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1"/>
@@ -7989,105 +8005,103 @@
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A29" s="154" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A30" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-    </row>
-    <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="20" t="s">
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+    </row>
+    <row r="31" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A31" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="108" t="s">
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A32" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-    </row>
-    <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="25" t="s">
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+    </row>
+    <row r="33" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A33" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="19">
+      <c r="B33" s="2"/>
+      <c r="C33" s="19">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="30" t="s">
+    <row r="34" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A34" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A34" s="26" t="s">
+    <row r="35" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A35" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B35" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C35" s="27">
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="25" t="s">
+    <row r="36" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="29">
-        <f>SUM(C32:C34)</f>
+      <c r="C36" s="29">
+        <f>SUM(C33:C35)</f>
         <v>443</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="129" t="s">
+    <row r="37" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A37" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="131"/>
-    </row>
-    <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="132"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="133"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="18">
-        <v>0</v>
-      </c>
+      <c r="A38" s="113"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="10">
+      <c r="C39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="10">
@@ -8096,7 +8110,7 @@
     </row>
     <row r="41" spans="1:3" ht="13.5" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="10">
@@ -8104,85 +8118,85 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="10">
-        <f>SUM(C38:C41)</f>
+      <c r="C43" s="10">
+        <f>SUM(C39:C42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A43" s="108" t="s">
+    <row r="44" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A44" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="90"/>
-    </row>
-    <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="19">
-        <v>0</v>
-      </c>
+      <c r="B44" s="85"/>
+      <c r="C44" s="86"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="25" t="s">
+      <c r="A46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="19">
-        <f>SUM(C44:C45)</f>
+      <c r="C47" s="19">
+        <f>SUM(C45:C46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A47" s="108" t="s">
+    <row r="48" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A48" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="110"/>
-    </row>
-    <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
+    </row>
+    <row r="49" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="31">
+      <c r="C49" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="26"/>
-      <c r="B50" s="26" t="s">
-        <v>89</v>
+      <c r="B50" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="C50" s="31">
         <v>0</v>
@@ -8190,510 +8204,515 @@
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="26"/>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A52" s="26"/>
+      <c r="B52" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="31">
-        <f>SUM(C48:C50)</f>
+      <c r="C52" s="31">
+        <f>SUM(C49:C51)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A52" s="108" t="s">
+    <row r="53" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A53" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="110"/>
-    </row>
-    <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="87"/>
+      <c r="C53" s="88"/>
+    </row>
+    <row r="54" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C54" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="26"/>
-      <c r="B54" s="30" t="s">
+    <row r="55" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A55" s="26"/>
+      <c r="B55" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="31">
-        <f>SUM(C53)</f>
+      <c r="C55" s="31">
+        <f>SUM(C54)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A55" s="93" t="s">
+    <row r="56" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A56" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
-    </row>
-    <row r="56" spans="1:3" ht="33" customHeight="1">
-      <c r="A56" s="32" t="s">
+      <c r="B56" s="141"/>
+      <c r="C56" s="124"/>
+    </row>
+    <row r="57" spans="1:3" ht="33" customHeight="1">
+      <c r="A57" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B57" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C57" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="32"/>
-      <c r="B57" s="33" t="s">
+    <row r="58" spans="1:3" ht="19.899999999999999" customHeight="1">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="34">
-        <f>SUM(C56)</f>
+      <c r="C58" s="34">
+        <f>SUM(C57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A58" s="113" t="s">
+    <row r="59" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A59" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="115"/>
-    </row>
-    <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="26" t="s">
+      <c r="B59" s="114"/>
+      <c r="C59" s="97"/>
+    </row>
+    <row r="60" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A60" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
-      <c r="A60" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>71</v>
-      </c>
+      <c r="B60" s="26"/>
       <c r="C60" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>26</v>
+    <row r="61" spans="1:3" ht="15" customHeight="1">
+      <c r="A61" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="C61" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="32"/>
-      <c r="B62" s="33" t="s">
+      <c r="A62" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="34">
-        <f>SUM(C59:C61)</f>
+      <c r="C63" s="34">
+        <f>SUM(C60:C62)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A63" s="96" t="s">
+    <row r="64" spans="1:3" ht="13.5" customHeight="1">
+      <c r="A64" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="97"/>
-      <c r="C63" s="98"/>
-    </row>
-    <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="58" t="s">
+      <c r="B64" s="142"/>
+      <c r="C64" s="100"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B65" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="60">
+      <c r="C65" s="60">
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="68" t="s">
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="81" t="s">
+      <c r="B66" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="70">
+      <c r="C66" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A66" s="59" t="s">
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B67" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="61">
+      <c r="C67" s="61">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A67" s="30" t="s">
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B68" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="31">
+      <c r="C68" s="31">
         <v>760</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A68" s="28"/>
-      <c r="B68" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="39">
-        <f>SUM(C64:C67)</f>
-        <v>1060</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
       <c r="A69" s="28"/>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="39">
+        <f>SUM(C65:C68)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A70" s="28"/>
+      <c r="B70" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="39">
-        <f>C35+C42+C46+C51+C54+C57+C62+C68</f>
+      <c r="C70" s="39">
+        <f>C36+C43+C47+C52+C55+C58+C63+C69</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A70" s="96" t="s">
+    <row r="71" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A71" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="142"/>
-      <c r="C70" s="98"/>
-    </row>
-    <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="42" t="s">
+      <c r="B71" s="99"/>
+      <c r="C71" s="100"/>
+    </row>
+    <row r="72" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A72" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="49">
+      <c r="B72" s="38"/>
+      <c r="C72" s="49">
         <f>'April 2024 - June 2024'!C72</f>
         <v>9939</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A72" s="71" t="s">
+    <row r="73" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A73" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="49">
+      <c r="B73" s="38"/>
+      <c r="C73" s="49">
         <v>5000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
-      <c r="A73" s="65" t="s">
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="49">
+      <c r="B74" s="55"/>
+      <c r="C74" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A74" s="28"/>
-      <c r="B74" s="56" t="s">
+    <row r="75" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A75" s="28"/>
+      <c r="B75" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="49">
-        <f>SUM(C71:C73)</f>
+      <c r="C75" s="49">
+        <f>SUM(C72:C74)</f>
         <v>14939</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A75" s="32"/>
-      <c r="B75" s="40" t="s">
+    <row r="76" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A76" s="32"/>
+      <c r="B76" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="41">
-        <f>C69</f>
+      <c r="C76" s="41">
+        <f>C70</f>
         <v>1503</v>
       </c>
-      <c r="H75" s="36"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="H76" s="36"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="88" t="s">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A79" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="89"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="90"/>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="91" t="s">
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="86"/>
+    </row>
+    <row r="80" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A80" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="95"/>
-      <c r="C79" s="91" t="s">
+      <c r="B80" s="124"/>
+      <c r="C80" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D79" s="95"/>
-      <c r="E79" s="43" t="s">
+      <c r="D80" s="124"/>
+      <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="150" t="s">
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A81" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="150"/>
-      <c r="C80" s="148" t="s">
+      <c r="B81" s="149"/>
+      <c r="C81" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="149"/>
-      <c r="E80" s="75">
+      <c r="D81" s="148"/>
+      <c r="E81" s="75">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="151"/>
-      <c r="B81" s="151"/>
-      <c r="C81" s="152" t="s">
+    <row r="82" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A82" s="150"/>
+      <c r="B82" s="150"/>
+      <c r="C82" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="D81" s="153"/>
-      <c r="E81" s="52">
+      <c r="D82" s="152"/>
+      <c r="E82" s="52">
         <v>800</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="116" t="s">
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="117"/>
-      <c r="C82" s="137"/>
-      <c r="D82" s="138"/>
-      <c r="E82" s="44">
-        <f>C75</f>
+      <c r="B83" s="133"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="44">
+        <f>C76</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C83" s="99" t="s">
+    <row r="84" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C84" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="89"/>
-      <c r="E83" s="37">
-        <f>(C6+E13)-SUM(E80:E82)</f>
+      <c r="D84" s="85"/>
+      <c r="E84" s="37">
+        <f>(C6+E13)-SUM(E81:E83)</f>
         <v>327.59999999999945</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13.5" customHeight="1"/>
-    <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="88" t="s">
+    <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="86" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A86" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="89"/>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="90"/>
-    </row>
-    <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="88" t="s">
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="86"/>
+    </row>
+    <row r="87" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A87" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="90"/>
-      <c r="C86" s="88" t="s">
+      <c r="B87" s="86"/>
+      <c r="C87" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D86" s="90"/>
-      <c r="E86" s="23" t="s">
+      <c r="D87" s="86"/>
+      <c r="E87" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="140" t="s">
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A88" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B87" s="122"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="147"/>
-      <c r="E87" s="37">
-        <f>E83</f>
+      <c r="B88" s="94"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="154"/>
+      <c r="E88" s="37">
+        <f>E84</f>
         <v>327.59999999999945</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="82" t="s">
+    <row r="89" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="83"/>
-      <c r="C88" s="104" t="s">
+      <c r="B89" s="135"/>
+      <c r="C89" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="D88" s="146"/>
-      <c r="E88" s="52">
+      <c r="D89" s="153"/>
+      <c r="E89" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="84"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="101" t="s">
+    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A90" s="136"/>
+      <c r="B90" s="137"/>
+      <c r="C90" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="145"/>
-      <c r="E89" s="52">
+      <c r="D90" s="83"/>
+      <c r="E90" s="52">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="86"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="101" t="s">
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="138"/>
+      <c r="B91" s="139"/>
+      <c r="C91" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="D90" s="145"/>
-      <c r="E90" s="52">
+      <c r="D91" s="83"/>
+      <c r="E91" s="52">
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="140" t="s">
+    <row r="92" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A92" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="122"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="90"/>
-      <c r="E91" s="66">
-        <f>C75</f>
+      <c r="B92" s="94"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="86"/>
+      <c r="E92" s="66">
+        <f>C76</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C92" s="106" t="s">
+    <row r="93" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C93" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="90"/>
-      <c r="E92" s="37">
-        <f>(E18+E87)-SUM(E88:E91)</f>
+      <c r="D93" s="86"/>
+      <c r="E93" s="37">
+        <f>(E18+E88)-SUM(E89:E92)</f>
         <v>242.59999999999945</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-    </row>
-    <row r="94" spans="1:5" ht="17.25" customHeight="1">
+    <row r="94" spans="1:5" ht="13.5" customHeight="1">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="24"/>
     </row>
-    <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="141" t="s">
+    <row r="95" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+    </row>
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A96" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="124"/>
-      <c r="C95" s="124"/>
-      <c r="D95" s="124"/>
-      <c r="E95" s="115"/>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="88" t="s">
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="97"/>
+    </row>
+    <row r="97" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A97" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="90"/>
-      <c r="C96" s="88" t="s">
+      <c r="B97" s="86"/>
+      <c r="C97" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D96" s="90"/>
-      <c r="E96" s="23" t="s">
+      <c r="D97" s="86"/>
+      <c r="E97" s="23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="140" t="s">
+    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A98" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B97" s="122"/>
-      <c r="C97" s="103"/>
-      <c r="D97" s="90"/>
-      <c r="E97" s="37">
-        <f>E92</f>
+      <c r="B98" s="94"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="37">
+        <f>E93</f>
         <v>242.59999999999945</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="140" t="s">
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="144"/>
-      <c r="C98" s="101" t="s">
+      <c r="B99" s="103"/>
+      <c r="C99" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D98" s="107"/>
-      <c r="E98" s="52">
+      <c r="D99" s="107"/>
+      <c r="E99" s="52">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="76"/>
-      <c r="B99" s="77"/>
-      <c r="C99" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="D99" s="145"/>
-      <c r="E99" s="52">
-        <v>800</v>
-      </c>
-    </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="140" t="s">
+      <c r="A100" s="76"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D100" s="83"/>
+      <c r="E100" s="52">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A101" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="122"/>
-      <c r="C100" s="103"/>
-      <c r="D100" s="90"/>
-      <c r="E100" s="66">
-        <f>C75</f>
+      <c r="B101" s="94"/>
+      <c r="C101" s="101"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="66">
+        <f>C76</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C101" s="106" t="s">
+    <row r="102" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C102" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="90"/>
-      <c r="E101" s="52">
-        <f>(E24+E97)-SUM(E98:E100)</f>
-        <v>548.59999999999945</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
+      <c r="D102" s="86"/>
+      <c r="E102" s="52">
+        <f>(E25+E98)-SUM(E99:E101)</f>
+        <v>48.599999999999454</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="13.5" customHeight="1">
       <c r="A103" s="11"/>
@@ -12343,10 +12362,52 @@
       <c r="A1014" s="11"/>
       <c r="B1014" s="11"/>
     </row>
+    <row r="1015" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1015" s="11"/>
+      <c r="B1015" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A31:C31"/>
+  <mergeCells count="54">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A89:B91"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A81:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="C11:D11"/>
@@ -12357,47 +12418,10 @@
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A88:B90"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A36:C37"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A80:B80"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12409,7 +12433,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12417,7 +12441,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="55" priority="8" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12425,7 +12449,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="53" priority="10" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12433,7 +12457,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="51" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12441,7 +12465,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
+  <conditionalFormatting sqref="E102">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12456,10 +12480,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
-  <dimension ref="A1:Y1010"/>
+  <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12476,13 +12500,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12503,8 +12527,8 @@
         <v>50</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E101</f>
-        <v>548.59999999999945</v>
+        <f>'July 2024 - September 2024'!E102</f>
+        <v>48.599999999999454</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12599,7 +12623,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>574.7999999999995</v>
+        <v>74.799999999999457</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -12630,8 +12654,8 @@
         <v>166</v>
       </c>
       <c r="C7" s="57">
-        <f>('July 2024 - September 2024'!C7)+SUM(E80,E87,E95)</f>
-        <v>-7539</v>
+        <f>('July 2024 - September 2024'!C7)+SUM(E79,E86,E94)</f>
+        <v>-6739</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -12685,13 +12709,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12719,10 +12743,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="90"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -12734,10 +12758,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="122"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12759,13 +12783,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12793,10 +12817,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -12808,10 +12832,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12836,13 +12860,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12870,10 +12894,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -12885,10 +12909,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="128"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -12931,11 +12955,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -12950,11 +12974,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -12996,16 +13020,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="131"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="132"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="114"/>
-      <c r="C36" s="133"/>
+      <c r="C36" s="115"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -13054,11 +13078,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -13093,11 +13117,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -13139,11 +13163,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -13167,11 +13191,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="124"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -13195,11 +13219,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="131" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
+      <c r="C57" s="97"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -13243,11 +13267,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -13314,11 +13338,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="142"/>
-      <c r="C69" s="98"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -13326,7 +13350,7 @@
       </c>
       <c r="B70" s="38"/>
       <c r="C70" s="49">
-        <f>'July 2024 - September 2024'!C71</f>
+        <f>'July 2024 - September 2024'!C72</f>
         <v>9939</v>
       </c>
     </row>
@@ -13378,283 +13402,276 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="90"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="91" t="s">
+      <c r="A78" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="91" t="s">
+      <c r="B78" s="124"/>
+      <c r="C78" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="95"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="150" t="s">
+      <c r="A79" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="150"/>
-      <c r="C79" s="148" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="149"/>
+      <c r="B79" s="135"/>
+      <c r="C79" s="147" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="148"/>
       <c r="E79" s="75">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="151"/>
-      <c r="B80" s="151"/>
-      <c r="C80" s="152" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="153"/>
-      <c r="E80" s="52">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="116" t="s">
+      <c r="A80" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="117"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="44">
+      <c r="B80" s="133"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="99" t="s">
+    <row r="81" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C81" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="89"/>
-      <c r="E82" s="37">
-        <f>(C6+E13)-SUM(E79:E81)</f>
-        <v>880.79999999999927</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="37">
+        <f>(C6+E13)-SUM(E79:E80)</f>
+        <v>380.79999999999927</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
+    <row r="83" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A83" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="86"/>
+    </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B84" s="89"/>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="90"/>
+      <c r="A84" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="86"/>
+      <c r="C84" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="86"/>
+      <c r="E84" s="23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="90"/>
-      <c r="C85" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="90"/>
-      <c r="E85" s="23" t="s">
-        <v>4</v>
+      <c r="A85" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="94"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="154"/>
+      <c r="E85" s="37">
+        <f>E81</f>
+        <v>380.79999999999927</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="140" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="122"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="147"/>
-      <c r="E86" s="37">
-        <f>E82</f>
-        <v>880.79999999999927</v>
+      <c r="A86" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="103"/>
+      <c r="C86" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="153"/>
+      <c r="E86" s="52">
+        <v>1200</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="144"/>
-      <c r="C87" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="D87" s="146"/>
-      <c r="E87" s="52">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="140" t="s">
+      <c r="A87" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="122"/>
-      <c r="C88" s="103"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="66">
+      <c r="B87" s="94"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
+    <row r="88" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C88" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="86"/>
+      <c r="E88" s="37">
+        <f>(E18+E85)-SUM(E86:E87)</f>
+        <v>286.79999999999927</v>
+      </c>
+    </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C89" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="90"/>
-      <c r="E89" s="37">
-        <f>(E18+E86)-SUM(E87:E88)</f>
-        <v>786.79999999999927</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A89" s="24"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" customHeight="1">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="24"/>
     </row>
-    <row r="91" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
+    <row r="91" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A91" s="95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="97"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="141" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" s="124"/>
-      <c r="C92" s="124"/>
-      <c r="D92" s="124"/>
-      <c r="E92" s="115"/>
+      <c r="A92" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="86"/>
+      <c r="C92" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="86"/>
+      <c r="E92" s="23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="90"/>
-      <c r="C93" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="D93" s="90"/>
-      <c r="E93" s="23" t="s">
-        <v>4</v>
+      <c r="A93" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="94"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="37">
+        <f>E88</f>
+        <v>286.79999999999927</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="140" t="s">
-        <v>116</v>
-      </c>
-      <c r="B94" s="122"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="37">
-        <f>E89</f>
-        <v>786.79999999999927</v>
+      <c r="A94" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="103"/>
+      <c r="C94" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" s="107"/>
+      <c r="E94" s="52">
+        <v>1200</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="140" t="s">
-        <v>82</v>
-      </c>
-      <c r="B95" s="144"/>
-      <c r="C95" s="101" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" s="107"/>
-      <c r="E95" s="52">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="140" t="s">
+      <c r="A95" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="122"/>
-      <c r="C96" s="103"/>
-      <c r="D96" s="90"/>
-      <c r="E96" s="66">
+      <c r="B95" s="94"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C97" s="106" t="s">
+    <row r="96" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C96" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="90"/>
-      <c r="E97" s="52">
-        <f>(E23+E94)-SUM(E95:E96)</f>
-        <v>692.79999999999927</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="13.5" customHeight="1">
+      <c r="D96" s="86"/>
+      <c r="E96" s="52">
+        <f>(E23+E93)-SUM(E94:E95)</f>
+        <v>192.79999999999927</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+    </row>
+    <row r="98" spans="1:2" ht="13.5" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+    <row r="99" spans="1:2" ht="13.5" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1">
+    <row r="100" spans="1:2" ht="13.5" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+    <row r="101" spans="1:2" ht="13.5" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:5" ht="13.5" customHeight="1">
+    <row r="102" spans="1:2" ht="13.5" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:5" ht="13.5" customHeight="1">
+    <row r="103" spans="1:2" ht="13.5" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:5" ht="13.5" customHeight="1">
+    <row r="104" spans="1:2" ht="13.5" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:5" ht="13.5" customHeight="1">
+    <row r="105" spans="1:2" ht="13.5" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:5" ht="13.5" customHeight="1">
+    <row r="106" spans="1:2" ht="13.5" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:5" ht="13.5" customHeight="1">
+    <row r="107" spans="1:2" ht="13.5" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:5" ht="13.5" customHeight="1">
+    <row r="108" spans="1:2" ht="13.5" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:5" ht="13.5" customHeight="1">
+    <row r="109" spans="1:2" ht="13.5" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
     </row>
-    <row r="110" spans="1:5" ht="13.5" customHeight="1">
+    <row r="110" spans="1:2" ht="13.5" customHeight="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
     </row>
-    <row r="111" spans="1:5" ht="13.5" customHeight="1">
+    <row r="111" spans="1:2" ht="13.5" customHeight="1">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
     </row>
-    <row r="112" spans="1:5" ht="13.5" customHeight="1">
+    <row r="112" spans="1:2" ht="13.5" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
     </row>
@@ -17246,18 +17263,38 @@
       <c r="A1009" s="11"/>
       <c r="B1009" s="11"/>
     </row>
-    <row r="1010" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1010" s="11"/>
-      <c r="B1010" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
+  <mergeCells count="48">
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A20:E20"/>
@@ -17270,37 +17307,12 @@
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A79:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17312,7 +17324,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E81">
     <cfRule type="cellIs" dxfId="45" priority="11" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17320,7 +17332,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="43" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17328,7 +17340,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="41" priority="9" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17336,7 +17348,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="E93">
     <cfRule type="cellIs" dxfId="39" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17344,7 +17356,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="37" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -17360,8 +17372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5AAEA1-C3EE-4B36-938E-0F583AF15471}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17378,13 +17390,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17405,8 +17417,8 @@
         <v>50</v>
       </c>
       <c r="C3" s="5">
-        <f>'October 2024 - December 2024'!E97</f>
-        <v>692.79999999999927</v>
+        <f>'October 2024 - December 2024'!E96</f>
+        <v>192.79999999999927</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17501,7 +17513,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>718.99999999999932</v>
+        <v>218.99999999999926</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17533,7 +17545,7 @@
       </c>
       <c r="C7" s="57">
         <f>('October 2024 - December 2024'!C7)+SUM(E79,E86,E94)</f>
-        <v>-4139</v>
+        <v>-3339</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -17587,13 +17599,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="122" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17621,10 +17633,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="90"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -17636,10 +17648,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="122"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17661,13 +17673,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17695,10 +17707,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -17710,10 +17722,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17738,13 +17750,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17772,10 +17784,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -17787,10 +17799,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="128"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -17833,11 +17845,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -17852,11 +17864,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -17898,16 +17910,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="131"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="132"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="114"/>
-      <c r="C36" s="133"/>
+      <c r="C36" s="115"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -17956,11 +17968,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -17995,11 +18007,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -18041,11 +18053,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -18069,11 +18081,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="124"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -18097,11 +18109,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="131" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
+      <c r="C57" s="97"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -18145,11 +18157,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -18216,11 +18228,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="142"/>
-      <c r="C69" s="98"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -18280,130 +18292,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="106" t="s">
         <v>126</v>
       </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="90"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="91" t="s">
+      <c r="A78" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="91" t="s">
+      <c r="B78" s="124"/>
+      <c r="C78" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="95"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="150" t="s">
+      <c r="A79" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="148" t="s">
+      <c r="B79" s="135"/>
+      <c r="C79" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="149"/>
+      <c r="D79" s="148"/>
       <c r="E79" s="75">
         <v>1200</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="116" t="s">
+      <c r="A80" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="117"/>
-      <c r="C80" s="137"/>
-      <c r="D80" s="138"/>
+      <c r="B80" s="133"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="99" t="s">
+      <c r="C81" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="89"/>
+      <c r="D81" s="85"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>624.99999999999909</v>
+        <v>124.99999999999909</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="88" t="s">
+      <c r="A83" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="90"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="86"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="88" t="s">
+      <c r="A84" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="88" t="s">
+      <c r="B84" s="86"/>
+      <c r="C84" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="90"/>
+      <c r="D84" s="86"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="140" t="s">
+      <c r="A85" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="122"/>
+      <c r="B85" s="94"/>
       <c r="C85" s="104"/>
-      <c r="D85" s="147"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>624.99999999999909</v>
+        <v>124.99999999999909</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="144"/>
-      <c r="C86" s="101" t="s">
+      <c r="B86" s="103"/>
+      <c r="C86" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="D86" s="146"/>
+      <c r="D86" s="153"/>
       <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="140" t="s">
+      <c r="A87" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="122"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="90"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="86"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="106" t="s">
+      <c r="C88" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="90"/>
+      <c r="D88" s="86"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>630.99999999999909</v>
+        <v>130.99999999999909</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18421,45 +18433,45 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="141" t="s">
+      <c r="A91" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="124"/>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="115"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="97"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="88" t="s">
+      <c r="A92" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="90"/>
-      <c r="C92" s="88" t="s">
+      <c r="B92" s="86"/>
+      <c r="C92" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="90"/>
+      <c r="D92" s="86"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="140" t="s">
+      <c r="A93" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="122"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="90"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="86"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>630.99999999999909</v>
+        <v>130.99999999999909</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="140" t="s">
+      <c r="A94" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="144"/>
-      <c r="C94" s="101" t="s">
+      <c r="B94" s="103"/>
+      <c r="C94" s="82" t="s">
         <v>163</v>
       </c>
       <c r="D94" s="107"/>
@@ -18468,25 +18480,25 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="140" t="s">
+      <c r="A95" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="122"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="90"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="86"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="106" t="s">
+      <c r="C96" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="90"/>
+      <c r="D96" s="86"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>636.99999999999909</v>
+        <v>136.99999999999909</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22143,29 +22155,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -22179,18 +22180,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22250,8 +22262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22268,13 +22280,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22296,7 +22308,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>636.99999999999909</v>
+        <v>136.99999999999909</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22391,7 +22403,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>663.19999999999914</v>
+        <v>163.19999999999908</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22423,7 +22435,7 @@
       </c>
       <c r="C7" s="57">
         <f>('January 2025 - March 2025'!C7)+SUM(E79,E86,E94)</f>
-        <v>-839</v>
+        <v>0</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -22477,13 +22489,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22511,10 +22523,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="90"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -22526,10 +22538,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="122"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22551,13 +22563,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22585,10 +22597,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -22600,10 +22612,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22628,13 +22640,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22662,10 +22674,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -22677,10 +22689,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="128"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -22723,11 +22735,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="146" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22742,11 +22754,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -22788,16 +22800,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="131"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="132"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="114"/>
-      <c r="C36" s="133"/>
+      <c r="C36" s="115"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -22846,11 +22858,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -22885,11 +22897,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -22931,11 +22943,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -22959,11 +22971,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="124"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -22987,11 +22999,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="131" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
+      <c r="C57" s="97"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -23035,11 +23047,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -23106,11 +23118,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="142"/>
-      <c r="C69" s="98"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -23170,130 +23182,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="90"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="91" t="s">
+      <c r="A78" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="91" t="s">
+      <c r="B78" s="124"/>
+      <c r="C78" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="95"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="150" t="s">
+      <c r="A79" s="149" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="83"/>
-      <c r="C79" s="148" t="s">
+      <c r="B79" s="135"/>
+      <c r="C79" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="149"/>
+      <c r="D79" s="148"/>
       <c r="E79" s="75">
         <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="116" t="s">
+      <c r="A80" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="117"/>
-      <c r="C80" s="137"/>
-      <c r="D80" s="138"/>
+      <c r="B80" s="133"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="90"/>
       <c r="E80" s="44">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="99" t="s">
+      <c r="C81" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="89"/>
+      <c r="D81" s="85"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>669.19999999999891</v>
+        <v>169.19999999999891</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="88" t="s">
+      <c r="A83" s="106" t="s">
         <v>141</v>
       </c>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="90"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="86"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="88" t="s">
+      <c r="A84" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="88" t="s">
+      <c r="B84" s="86"/>
+      <c r="C84" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="90"/>
+      <c r="D84" s="86"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="140" t="s">
+      <c r="A85" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="B85" s="122"/>
+      <c r="B85" s="94"/>
       <c r="C85" s="104"/>
-      <c r="D85" s="147"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>669.19999999999891</v>
+        <v>169.19999999999891</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="144"/>
-      <c r="C86" s="101" t="s">
+      <c r="B86" s="103"/>
+      <c r="C86" s="82" t="s">
         <v>164</v>
       </c>
-      <c r="D86" s="146"/>
+      <c r="D86" s="153"/>
       <c r="E86" s="52">
         <v>1100</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="140" t="s">
+      <c r="A87" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="122"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="90"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="86"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="106" t="s">
+      <c r="C88" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="90"/>
+      <c r="D88" s="86"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>675.19999999999891</v>
+        <v>175.19999999999891</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23311,72 +23323,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="141" t="s">
+      <c r="A91" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="B91" s="124"/>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="115"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="97"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="88" t="s">
+      <c r="A92" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="90"/>
-      <c r="C92" s="88" t="s">
+      <c r="B92" s="86"/>
+      <c r="C92" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="90"/>
+      <c r="D92" s="86"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="140" t="s">
+      <c r="A93" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="B93" s="122"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="90"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="86"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>675.19999999999891</v>
+        <v>175.19999999999891</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="140" t="s">
+      <c r="A94" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="144"/>
-      <c r="C94" s="101" t="s">
-        <v>163</v>
+      <c r="B94" s="103"/>
+      <c r="C94" s="82" t="s">
+        <v>173</v>
       </c>
       <c r="D94" s="107"/>
       <c r="E94" s="52">
-        <v>1100</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="140" t="s">
+      <c r="A95" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="122"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="90"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="86"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="106" t="s">
+      <c r="C96" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="90"/>
+      <c r="D96" s="86"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>681.19999999999891</v>
+        <v>142.19999999999891</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27033,29 +27045,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -27069,18 +27070,29 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27140,8 +27152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -27158,13 +27170,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="120"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27186,7 +27198,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>681.19999999999891</v>
+        <v>142.19999999999891</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27281,7 +27293,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>707.39999999999895</v>
+        <v>168.3999999999989</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -27367,13 +27379,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="115"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27401,10 +27413,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="125" t="s">
+      <c r="C11" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="90"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -27416,10 +27428,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="122"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -27441,13 +27453,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="115"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27475,10 +27487,10 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -27490,10 +27502,10 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -27518,13 +27530,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="123" t="s">
+      <c r="A20" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="115"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27552,10 +27564,10 @@
       <c r="B21" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="74" t="s">
         <v>4</v>
       </c>
@@ -27567,10 +27579,10 @@
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="128"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -27613,11 +27625,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -27632,11 +27644,11 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="108" t="s">
+      <c r="A30" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
@@ -27678,16 +27690,16 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="131"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="132"/>
+      <c r="A36" s="113"/>
       <c r="B36" s="114"/>
-      <c r="C36" s="133"/>
+      <c r="C36" s="115"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -27736,11 +27748,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -27775,11 +27787,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="110"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -27821,11 +27833,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="108" t="s">
+      <c r="A51" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="110"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -27849,11 +27861,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="124"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -27877,11 +27889,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="113" t="s">
+      <c r="A57" s="131" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="114"/>
-      <c r="C57" s="115"/>
+      <c r="C57" s="97"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -27925,11 +27937,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="98"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="100"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -27996,11 +28008,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="142"/>
-      <c r="C69" s="98"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="100"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -28059,23 +28071,23 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="88" t="s">
+      <c r="A77" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="90"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="86"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A78" s="91" t="s">
+      <c r="A78" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="91" t="s">
+      <c r="B78" s="124"/>
+      <c r="C78" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="95"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
@@ -28085,12 +28097,10 @@
         <v>82</v>
       </c>
       <c r="B79" s="155"/>
-      <c r="C79" s="158" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="159"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="157"/>
       <c r="E79" s="52">
-        <v>839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
@@ -28098,8 +28108,8 @@
         <v>40</v>
       </c>
       <c r="B80" s="155"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="158"/>
       <c r="E80" s="80">
         <f>C74</f>
         <v>1299</v>
@@ -28108,81 +28118,81 @@
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
       <c r="A81" s="78"/>
       <c r="B81" s="78"/>
-      <c r="C81" s="157" t="s">
+      <c r="C81" s="159" t="s">
         <v>41</v>
       </c>
       <c r="D81" s="114"/>
       <c r="E81" s="79">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>974.39999999999873</v>
+        <v>1274.3999999999987</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="88" t="s">
+      <c r="A83" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="B83" s="89"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="90"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="86"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="88" t="s">
+      <c r="A84" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="90"/>
-      <c r="C84" s="88" t="s">
+      <c r="B84" s="86"/>
+      <c r="C84" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="90"/>
+      <c r="D84" s="86"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="140" t="s">
+      <c r="A85" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="B85" s="122"/>
+      <c r="B85" s="94"/>
       <c r="C85" s="104"/>
-      <c r="D85" s="147"/>
+      <c r="D85" s="154"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>974.39999999999873</v>
+        <v>1274.3999999999987</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="144"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="146"/>
+      <c r="B86" s="103"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="153"/>
       <c r="E86" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="140" t="s">
+      <c r="A87" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="122"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="90"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="86"/>
       <c r="E87" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C88" s="106" t="s">
+      <c r="C88" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="90"/>
+      <c r="D88" s="86"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>2080.3999999999987</v>
+        <v>2380.3999999999987</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -28200,70 +28210,70 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="141" t="s">
+      <c r="A91" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="124"/>
-      <c r="C91" s="124"/>
-      <c r="D91" s="124"/>
-      <c r="E91" s="115"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="96"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="97"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="88" t="s">
+      <c r="A92" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="90"/>
-      <c r="C92" s="88" t="s">
+      <c r="B92" s="86"/>
+      <c r="C92" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="90"/>
+      <c r="D92" s="86"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="140" t="s">
+      <c r="A93" s="93" t="s">
         <v>159</v>
       </c>
-      <c r="B93" s="122"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="90"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="86"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>2080.3999999999987</v>
+        <v>2380.3999999999987</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="140" t="s">
+      <c r="A94" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="144"/>
-      <c r="C94" s="101"/>
+      <c r="B94" s="103"/>
+      <c r="C94" s="82"/>
       <c r="D94" s="107"/>
       <c r="E94" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="140" t="s">
+      <c r="A95" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="122"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="90"/>
+      <c r="B95" s="94"/>
+      <c r="C95" s="101"/>
+      <c r="D95" s="86"/>
       <c r="E95" s="66">
         <f>C74</f>
         <v>1299</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C96" s="106" t="s">
+      <c r="C96" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="90"/>
+      <c r="D96" s="86"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>3186.3999999999987</v>
+        <v>3486.3999999999987</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -31920,18 +31930,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -31945,29 +31966,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">

--- a/Alan Tang_s Income Expense Now.xlsx
+++ b/Alan Tang_s Income Expense Now.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-Expenditure-Forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4C647-D375-44A8-9EAA-2E849AF55417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC563EB5-2A26-49E5-9D79-6A98C47A2FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 2024 - June 2024" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="178">
   <si>
     <t>Assets</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Entertainment</t>
   </si>
   <si>
-    <t>Night Club</t>
-  </si>
-  <si>
     <t>cash</t>
   </si>
   <si>
@@ -591,12 +588,6 @@
     <t>Sosim Prepaid</t>
   </si>
   <si>
-    <t>1. Payback $1100 to Mom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Payback $1100 to Mom </t>
-  </si>
-  <si>
     <t>04th June 2024</t>
   </si>
   <si>
@@ -615,8 +606,35 @@
     <t xml:space="preserve">Deduct 10 packet of cigarette </t>
   </si>
   <si>
+    <t>2. Payback $500 to Ng Wing Lam</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>3. SmartTone broadband fee</t>
+  </si>
+  <si>
+    <t>SmartTone Broadband</t>
+  </si>
+  <si>
+    <t>1. Payback $1000 to Mom</t>
+  </si>
+  <si>
+    <t>1. Payback $900 to Mom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Payback $900 to Mom </t>
+  </si>
+  <si>
+    <t>3. Music</t>
+  </si>
+  <si>
+    <t>1. Payback $1100 to Ng Wing Lam</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">2. Payback $1600 to Ng Wing Lam - </t>
+      <t xml:space="preserve">1. Payback $939 to Mom - </t>
     </r>
     <r>
       <rPr>
@@ -627,24 +645,6 @@
         <family val="2"/>
       </rPr>
       <t>Last Payment</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Payback $800 to Mom</t>
-  </si>
-  <si>
-    <r>
-      <t>1. Payback $1139 to Mom -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Last Payment</t>
     </r>
   </si>
 </sst>
@@ -1302,7 +1302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1510,13 +1510,10 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1531,12 +1528,6 @@
     <xf numFmtId="167" fontId="26" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1549,71 +1540,38 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1621,14 +1579,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1654,11 +1615,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1669,8 +1630,20 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1684,6 +1657,33 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1696,32 +1696,29 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1737,12 +1734,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1762,6 +1753,15 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1771,23 +1771,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2535,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1013"/>
+  <dimension ref="A1:Y1014"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2555,13 +2549,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -2579,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5">
         <v>9.9700000000000006</v>
@@ -2610,7 +2604,7 @@
     <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5">
         <v>10.199999999999999</v>
@@ -2641,7 +2635,7 @@
     <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="5">
         <v>11</v>
@@ -2766,11 +2760,11 @@
     <row r="9" spans="1:25" ht="13.5" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C9" s="57">
         <f>(-C75+SUM(E88,E97))</f>
-        <v>-13139</v>
+        <v>-13439</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2824,13 +2818,13 @@
     </row>
     <row r="11" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="97"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="112"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -2858,10 +2852,10 @@
       <c r="B13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="86"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="17" t="s">
         <v>4</v>
       </c>
@@ -2873,10 +2867,10 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="94"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="18">
         <v>2405</v>
       </c>
@@ -2898,13 +2892,13 @@
       <c r="B16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="112"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -2926,17 +2920,17 @@
       <c r="Y17" s="14"/>
     </row>
     <row r="18" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="74" t="s">
+      <c r="D18" s="115"/>
+      <c r="E18" s="73" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2947,25 +2941,25 @@
       <c r="B19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="125" t="s">
+      <c r="C19" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="126"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="67">
         <v>2405</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.15" customHeight="1">
       <c r="A20" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="117" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="118"/>
+      <c r="C20" s="118" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="119"/>
       <c r="E20" s="67">
         <v>1035</v>
       </c>
@@ -2990,13 +2984,13 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="112"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -3024,10 +3018,10 @@
       <c r="B24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="86"/>
+      <c r="D24" s="89"/>
       <c r="E24" s="17" t="s">
         <v>4</v>
       </c>
@@ -3039,25 +3033,25 @@
       <c r="B25" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="109" t="s">
+      <c r="C25" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="27">
         <v>2405</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="13.15" customHeight="1">
       <c r="A26" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="137"/>
       <c r="E26" s="67">
         <v>50</v>
       </c>
@@ -3093,11 +3087,11 @@
       <c r="B30" s="11"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A31" s="116" t="s">
+      <c r="A31" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="89"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="20" t="s">
@@ -3112,11 +3106,11 @@
       <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="89"/>
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
       <c r="A34" s="25" t="s">
@@ -3129,7 +3123,7 @@
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="27">
@@ -3158,16 +3152,16 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="110" t="s">
+      <c r="A38" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="111"/>
-      <c r="C38" s="112"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A39" s="113"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="102"/>
     </row>
     <row r="40" spans="1:3" ht="13.5" customHeight="1">
       <c r="A40" s="2" t="s">
@@ -3216,11 +3210,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="86"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="89"/>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
       <c r="A46" s="2" t="s">
@@ -3255,11 +3249,11 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A49" s="84" t="s">
+      <c r="A49" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
     </row>
     <row r="50" spans="1:3" ht="13.5" customHeight="1">
       <c r="A50" s="2" t="s">
@@ -3284,7 +3278,7 @@
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="26"/>
       <c r="B52" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C52" s="31">
         <v>0</v>
@@ -3301,11 +3295,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="84" t="s">
+      <c r="A54" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="88"/>
+      <c r="B54" s="133"/>
+      <c r="C54" s="134"/>
     </row>
     <row r="55" spans="1:3" ht="13.5" customHeight="1">
       <c r="A55" s="2" t="s">
@@ -3329,11 +3323,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="124"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="115"/>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1">
       <c r="A58" s="32" t="s">
@@ -3357,11 +3351,11 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A60" s="131" t="s">
+      <c r="A60" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B60" s="114"/>
-      <c r="C60" s="97"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="112"/>
     </row>
     <row r="61" spans="1:3" ht="13.5" customHeight="1">
       <c r="A61" s="26" t="s">
@@ -3405,11 +3399,11 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="142"/>
-      <c r="C65" s="100"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="124"/>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1">
       <c r="A66" s="58" t="s">
@@ -3438,7 +3432,7 @@
         <v>46</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="31">
         <v>760</v>
@@ -3465,11 +3459,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="99"/>
-      <c r="C71" s="100"/>
+      <c r="B71" s="123"/>
+      <c r="C71" s="124"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -3481,8 +3475,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="71" t="s">
-        <v>90</v>
+      <c r="A73" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="B73" s="38"/>
       <c r="C73" s="49">
@@ -3528,7 +3522,7 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="106" t="s">
+      <c r="A79" s="94" t="s">
         <v>62</v>
       </c>
       <c r="B79" s="129"/>
@@ -3550,94 +3544,94 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="132" t="s">
+      <c r="A81" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="133"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="90"/>
+      <c r="B81" s="132"/>
+      <c r="C81" s="135"/>
+      <c r="D81" s="136"/>
       <c r="E81" s="44">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C82" s="143" t="s">
+      <c r="C82" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D82" s="144"/>
+      <c r="D82" s="143"/>
       <c r="E82" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="86"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="104"/>
+      <c r="E84" s="89"/>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="106" t="s">
+      <c r="A85" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="86"/>
-      <c r="C85" s="106" t="s">
+      <c r="B85" s="89"/>
+      <c r="C85" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="86"/>
+      <c r="D85" s="89"/>
       <c r="E85" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="B86" s="103"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="102"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="125"/>
       <c r="E86" s="37">
         <f>E82</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="134" t="s">
+      <c r="A87" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="135"/>
-      <c r="C87" s="82" t="s">
+      <c r="B87" s="81"/>
+      <c r="C87" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="107"/>
+      <c r="D87" s="93"/>
       <c r="E87" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="138"/>
-      <c r="B88" s="139"/>
-      <c r="C88" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="145"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" s="87"/>
       <c r="E88" s="52">
         <v>1000</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="93" t="s">
+      <c r="A89" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B89" s="94"/>
-      <c r="C89" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="105"/>
+      <c r="B89" s="109"/>
+      <c r="C89" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="91"/>
       <c r="E89" s="66">
         <f>C76</f>
         <v>1503</v>
@@ -3647,7 +3641,7 @@
       <c r="C90" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="86"/>
+      <c r="D90" s="89"/>
       <c r="E90" s="37">
         <f>SUM(C3:C7)</f>
         <v>57.370000000000005</v>
@@ -3668,99 +3662,106 @@
       <c r="E92" s="24"/>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="95" t="s">
+      <c r="A93" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="96"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96"/>
-      <c r="E93" s="97"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="111"/>
+      <c r="E93" s="112"/>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="106" t="s">
+      <c r="A94" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B94" s="86"/>
-      <c r="C94" s="106" t="s">
+      <c r="B94" s="89"/>
+      <c r="C94" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D94" s="86"/>
+      <c r="D94" s="89"/>
       <c r="E94" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="94"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="86"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="89"/>
       <c r="E95" s="37">
         <f>E90</f>
         <v>57.370000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="134" t="s">
+      <c r="A96" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="135"/>
-      <c r="C96" s="82" t="s">
+      <c r="B96" s="81"/>
+      <c r="C96" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D96" s="107"/>
+      <c r="D96" s="93"/>
       <c r="E96" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="136"/>
-      <c r="B97" s="137"/>
-      <c r="C97" s="82" t="s">
+      <c r="A97" s="82"/>
+      <c r="B97" s="83"/>
+      <c r="C97" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="D97" s="83"/>
+      <c r="D97" s="95"/>
       <c r="E97" s="52">
-        <v>800</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="138"/>
-      <c r="B98" s="139"/>
-      <c r="C98" s="82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="145"/>
+      <c r="A98" s="82"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" s="95"/>
       <c r="E98" s="52">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A99" s="84"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="87"/>
+      <c r="E99" s="52">
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="93" t="s">
+    <row r="100" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A100" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B99" s="103"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="105"/>
-      <c r="E99" s="52">
+      <c r="B100" s="126"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="52">
         <f>C76</f>
         <v>1503</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C100" s="92" t="s">
+    <row r="101" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C101" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="86"/>
-      <c r="E100" s="52">
-        <f>(E27+E95)-SUM(E96:E99)</f>
-        <v>199.39999999999964</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="52">
+        <f>(E27+E95)-SUM(E96:E100)</f>
+        <v>443.39999999999964</v>
+      </c>
     </row>
     <row r="102" spans="1:5" ht="13.5" customHeight="1">
       <c r="A102" s="11"/>
@@ -7410,38 +7411,25 @@
       <c r="A1013" s="11"/>
       <c r="B1013" s="11"/>
     </row>
+    <row r="1014" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1014" s="11"/>
+      <c r="B1014" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="52">
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A38:C39"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="A93:E93"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C96:D96"/>
@@ -7449,20 +7437,38 @@
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A79:E79"/>
     <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A96:B98"/>
+    <mergeCell ref="A87:B88"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C94:D94"/>
     <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A87:B88"/>
-    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A96:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="C9">
@@ -7502,7 +7508,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
+  <conditionalFormatting sqref="E101">
     <cfRule type="cellIs" dxfId="61" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -7517,10 +7523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5F3FA5-5013-4B35-A74B-6269617B858B}">
-  <dimension ref="A1:Y1015"/>
+  <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -7537,13 +7543,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="A1" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -7564,8 +7570,8 @@
         <v>50</v>
       </c>
       <c r="C3" s="5">
-        <f>'April 2024 - June 2024'!E100</f>
-        <v>199.39999999999964</v>
+        <f>'April 2024 - June 2024'!E101</f>
+        <v>443.39999999999964</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -7660,7 +7666,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>225.59999999999962</v>
+        <v>469.59999999999962</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7688,11 +7694,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="57">
-        <f>('April 2024 - June 2024'!C9)+SUM(E82,E90,E100)</f>
-        <v>-9939</v>
+        <f>('April 2024 - June 2024'!C9)+SUM(E82,E90,E101)</f>
+        <v>-11039</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -7746,13 +7752,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -7780,10 +7786,10 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -7795,10 +7801,10 @@
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -7820,13 +7826,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="122" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="A15" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -7854,25 +7860,25 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -7897,13 +7903,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="122" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="A20" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -7925,31 +7931,31 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="74" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -7957,10 +7963,10 @@
     <row r="23" spans="1:25" ht="13.15" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="161"/>
+        <v>118</v>
+      </c>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="67">
         <v>204</v>
       </c>
@@ -7968,10 +7974,10 @@
     <row r="24" spans="1:25" ht="13.15" customHeight="1">
       <c r="A24" s="33"/>
       <c r="B24" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
+        <v>167</v>
+      </c>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="67">
         <v>300</v>
       </c>
@@ -8014,11 +8020,11 @@
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="146" t="s">
-        <v>99</v>
-      </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="A30" s="150" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="104"/>
+      <c r="C30" s="89"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="20" t="s">
@@ -8033,11 +8039,11 @@
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A32" s="84" t="s">
+      <c r="A32" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="89"/>
     </row>
     <row r="33" spans="1:3" ht="13.5" customHeight="1">
       <c r="A33" s="25" t="s">
@@ -8050,7 +8056,7 @@
     </row>
     <row r="34" spans="1:3" ht="13.5" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="27">
@@ -8079,16 +8085,16 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="111"/>
-      <c r="C37" s="112"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
     </row>
     <row r="38" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A38" s="113"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="102"/>
     </row>
     <row r="39" spans="1:3" ht="13.5" customHeight="1">
       <c r="A39" s="2" t="s">
@@ -8137,11 +8143,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="86"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="89"/>
     </row>
     <row r="45" spans="1:3" ht="13.5" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -8176,11 +8182,11 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="88"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="134"/>
     </row>
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="2" t="s">
@@ -8205,7 +8211,7 @@
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
       <c r="A51" s="26"/>
       <c r="B51" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="31">
         <v>0</v>
@@ -8222,11 +8228,11 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A53" s="84" t="s">
+      <c r="A53" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="88"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="134"/>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
       <c r="A54" s="2" t="s">
@@ -8250,11 +8256,11 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A56" s="140" t="s">
+      <c r="A56" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="141"/>
-      <c r="C56" s="124"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="115"/>
     </row>
     <row r="57" spans="1:3" ht="33" customHeight="1">
       <c r="A57" s="32" t="s">
@@ -8278,11 +8284,11 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="114"/>
-      <c r="C59" s="97"/>
+      <c r="B59" s="101"/>
+      <c r="C59" s="112"/>
     </row>
     <row r="60" spans="1:3" ht="13.5" customHeight="1">
       <c r="A60" s="26" t="s">
@@ -8326,11 +8332,11 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A64" s="98" t="s">
+      <c r="A64" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="142"/>
-      <c r="C64" s="100"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="124"/>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
       <c r="A65" s="58" t="s">
@@ -8347,11 +8353,11 @@
       <c r="A66" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="70">
-        <v>0</v>
+      <c r="B66" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="69">
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1">
@@ -8370,7 +8376,7 @@
         <v>46</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="31">
         <v>760</v>
@@ -8383,7 +8389,7 @@
       </c>
       <c r="C69" s="39">
         <f>SUM(C65:C68)</f>
-        <v>1060</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
@@ -8393,15 +8399,15 @@
       </c>
       <c r="C70" s="39">
         <f>C36+C43+C47+C52+C55+C58+C63+C69</f>
-        <v>1503</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="99"/>
-      <c r="C71" s="100"/>
+      <c r="B71" s="123"/>
+      <c r="C71" s="124"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1">
       <c r="A72" s="42" t="s">
@@ -8414,8 +8420,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A73" s="71" t="s">
-        <v>90</v>
+      <c r="A73" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="B73" s="38"/>
       <c r="C73" s="49">
@@ -8448,7 +8454,7 @@
       </c>
       <c r="C76" s="41">
         <f>C70</f>
-        <v>1503</v>
+        <v>1559</v>
       </c>
       <c r="H76" s="36"/>
     </row>
@@ -8461,114 +8467,114 @@
       <c r="B78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="86"/>
+      <c r="A79" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="104"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="89"/>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
       <c r="A80" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B80" s="124"/>
+      <c r="B80" s="115"/>
       <c r="C80" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D80" s="124"/>
+      <c r="D80" s="115"/>
       <c r="E80" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="149" t="s">
+      <c r="A81" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="149"/>
-      <c r="C81" s="147" t="s">
+      <c r="B81" s="146"/>
+      <c r="C81" s="144" t="s">
         <v>83</v>
       </c>
-      <c r="D81" s="148"/>
-      <c r="E81" s="75">
+      <c r="D81" s="145"/>
+      <c r="E81" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A82" s="150"/>
-      <c r="B82" s="150"/>
-      <c r="C82" s="151" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82" s="152"/>
+      <c r="A82" s="147"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="D82" s="149"/>
       <c r="E82" s="52">
         <v>800</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="132" t="s">
+      <c r="A83" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="133"/>
-      <c r="C83" s="89"/>
-      <c r="D83" s="90"/>
+      <c r="B83" s="132"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="136"/>
       <c r="E83" s="44">
         <f>C76</f>
-        <v>1503</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C84" s="143" t="s">
+      <c r="C84" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D84" s="85"/>
+      <c r="D84" s="104"/>
       <c r="E84" s="37">
         <f>(C6+E13)-SUM(E81:E83)</f>
-        <v>327.59999999999945</v>
+        <v>515.59999999999945</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="86"/>
+      <c r="A86" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="104"/>
+      <c r="E86" s="89"/>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="106" t="s">
+      <c r="A87" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="86"/>
-      <c r="C87" s="106" t="s">
+      <c r="B87" s="89"/>
+      <c r="C87" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D87" s="86"/>
+      <c r="D87" s="89"/>
       <c r="E87" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A88" s="93" t="s">
+      <c r="A88" s="120" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="94"/>
-      <c r="C88" s="104"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="154"/>
       <c r="E88" s="37">
         <f>E84</f>
-        <v>327.59999999999945</v>
+        <v>515.59999999999945</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A89" s="134" t="s">
+      <c r="A89" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="135"/>
-      <c r="C89" s="104" t="s">
+      <c r="B89" s="81"/>
+      <c r="C89" s="90" t="s">
         <v>83</v>
       </c>
       <c r="D89" s="153"/>
@@ -8577,47 +8583,47 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A90" s="136"/>
-      <c r="B90" s="137"/>
-      <c r="C90" s="82" t="s">
-        <v>168</v>
-      </c>
-      <c r="D90" s="83"/>
+      <c r="A90" s="82"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="95"/>
       <c r="E90" s="52">
         <v>800</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="138"/>
-      <c r="B91" s="139"/>
-      <c r="C91" s="82" t="s">
-        <v>167</v>
-      </c>
-      <c r="D91" s="83"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" s="95"/>
       <c r="E91" s="52">
         <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="93" t="s">
+      <c r="A92" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="94"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="86"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="89"/>
       <c r="E92" s="66">
         <f>C76</f>
-        <v>1503</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
       <c r="C93" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="86"/>
+      <c r="D93" s="89"/>
       <c r="E93" s="37">
         <f>(E18+E88)-SUM(E89:E92)</f>
-        <v>242.59999999999945</v>
+        <v>374.59999999999945</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
@@ -8635,88 +8641,95 @@
       <c r="E95" s="24"/>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A96" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" s="96"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="96"/>
-      <c r="E96" s="97"/>
+      <c r="A96" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" s="111"/>
+      <c r="C96" s="111"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="112"/>
     </row>
     <row r="97" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A97" s="106" t="s">
+      <c r="A97" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="86"/>
-      <c r="C97" s="106" t="s">
+      <c r="B97" s="89"/>
+      <c r="C97" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="86"/>
+      <c r="D97" s="89"/>
       <c r="E97" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A98" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="94"/>
-      <c r="C98" s="101"/>
-      <c r="D98" s="86"/>
+      <c r="A98" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="109"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="89"/>
       <c r="E98" s="37">
         <f>E93</f>
-        <v>242.59999999999945</v>
+        <v>374.59999999999945</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A99" s="93" t="s">
+      <c r="A99" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="103"/>
-      <c r="C99" s="82" t="s">
+      <c r="B99" s="81"/>
+      <c r="C99" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D99" s="107"/>
+      <c r="D99" s="93"/>
       <c r="E99" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A100" s="76"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D100" s="83"/>
+      <c r="A100" s="82"/>
+      <c r="B100" s="83"/>
+      <c r="C100" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" s="95"/>
       <c r="E100" s="52">
-        <v>1600</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A101" s="93" t="s">
+      <c r="A101" s="84"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="D101" s="95"/>
+      <c r="E101" s="52">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A102" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="94"/>
-      <c r="C101" s="101"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="66">
+      <c r="B102" s="109"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="66">
         <f>C76</f>
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C102" s="92" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="13.5" customHeight="1">
+      <c r="C103" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D102" s="86"/>
-      <c r="E102" s="52">
-        <f>(E25+E98)-SUM(E99:E101)</f>
-        <v>48.599999999999454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="52">
+        <f>(E25+E98)-SUM(E99:E102)</f>
+        <v>836.59999999999945</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="13.5" customHeight="1">
       <c r="A104" s="11"/>
@@ -12366,15 +12379,13 @@
       <c r="A1015" s="11"/>
       <c r="B1015" s="11"/>
     </row>
+    <row r="1016" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1016" s="11"/>
+      <c r="B1016" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A89:B91"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
+  <mergeCells count="55">
+    <mergeCell ref="A79:E79"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="A86:E86"/>
@@ -12382,31 +12393,8 @@
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A81:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A89:B91"/>
+    <mergeCell ref="C90:D90"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
@@ -12419,9 +12407,39 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="A30:C30"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A99:B101"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A81:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A83:B83"/>
     <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="A80:B80"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="59" priority="2" operator="lessThan">
@@ -12465,7 +12483,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E103">
     <cfRule type="cellIs" dxfId="49" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
@@ -12482,8 +12500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EAFDB-34A9-4E8B-8792-A6B6BA3CC3A2}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86:D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -12500,13 +12518,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="119" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="A1" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -12527,8 +12545,8 @@
         <v>50</v>
       </c>
       <c r="C3" s="5">
-        <f>'July 2024 - September 2024'!E102</f>
-        <v>48.599999999999454</v>
+        <f>'July 2024 - September 2024'!E103</f>
+        <v>836.59999999999945</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -12623,7 +12641,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>74.799999999999457</v>
+        <v>862.7999999999995</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -12651,11 +12669,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="57">
         <f>('July 2024 - September 2024'!C7)+SUM(E79,E86,E94)</f>
-        <v>-6739</v>
+        <v>-7539</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -12709,13 +12727,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="122" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
+      <c r="A10" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -12743,25 +12761,25 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -12783,13 +12801,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="122" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="A15" s="110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -12817,25 +12835,25 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -12860,13 +12878,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="122" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="A20" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -12888,31 +12906,31 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="74" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -12955,11 +12973,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="146" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
+      <c r="A28" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="104"/>
+      <c r="C28" s="89"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -12974,24 +12992,24 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="89"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27">
@@ -13016,20 +13034,20 @@
       </c>
       <c r="C34" s="29">
         <f>SUM(C31:C33)</f>
-        <v>239</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -13078,11 +13096,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="89"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -13117,11 +13135,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -13146,7 +13164,7 @@
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="31">
         <v>0</v>
@@ -13163,11 +13181,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -13191,11 +13209,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="140" t="s">
+      <c r="A54" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="141"/>
-      <c r="C54" s="124"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="115"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -13219,11 +13237,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="112"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -13267,11 +13285,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="124"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -13288,11 +13306,11 @@
       <c r="A64" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="70">
-        <v>0</v>
+      <c r="B64" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="69">
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
@@ -13311,7 +13329,7 @@
         <v>46</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="31">
         <v>760</v>
@@ -13324,7 +13342,7 @@
       </c>
       <c r="C67" s="39">
         <f>SUM(C63:C66)</f>
-        <v>1060</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
@@ -13334,15 +13352,15 @@
       </c>
       <c r="C68" s="39">
         <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="99"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="124"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -13355,8 +13373,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="71" t="s">
-        <v>90</v>
+      <c r="A71" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="49">
@@ -13389,7 +13407,7 @@
       </c>
       <c r="C74" s="41">
         <f>C68</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -13402,104 +13420,104 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="86"/>
+      <c r="A77" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="89"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
       <c r="A78" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="124"/>
+      <c r="B78" s="115"/>
       <c r="C78" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="124"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="149" t="s">
+      <c r="A79" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="135"/>
-      <c r="C79" s="147" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" s="148"/>
-      <c r="E79" s="75">
-        <v>800</v>
+      <c r="B79" s="81"/>
+      <c r="C79" s="144" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="145"/>
+      <c r="E79" s="74">
+        <v>1100</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="132" t="s">
+      <c r="A80" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="135"/>
+      <c r="D80" s="136"/>
       <c r="E80" s="44">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="143" t="s">
+      <c r="C81" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="85"/>
+      <c r="D81" s="104"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>380.79999999999927</v>
+        <v>724.79999999999927</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="106" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="86"/>
+      <c r="A83" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="89"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="106" t="s">
+      <c r="B84" s="89"/>
+      <c r="C84" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="86"/>
+      <c r="D84" s="89"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="93" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="104"/>
+      <c r="A85" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="109"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="154"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>380.79999999999927</v>
+        <v>724.79999999999927</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="103"/>
-      <c r="C86" s="82" t="s">
-        <v>146</v>
+      <c r="B86" s="126"/>
+      <c r="C86" s="86" t="s">
+        <v>145</v>
       </c>
       <c r="D86" s="153"/>
       <c r="E86" s="52">
@@ -13507,25 +13525,25 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="94"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="86"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="89"/>
       <c r="E87" s="66">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
       <c r="C88" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="86"/>
+      <c r="D88" s="89"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>286.79999999999927</v>
+        <v>486.79999999999927</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -13543,72 +13561,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="97"/>
+      <c r="A91" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="112"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="106" t="s">
+      <c r="A92" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="86"/>
-      <c r="C92" s="106" t="s">
+      <c r="B92" s="89"/>
+      <c r="C92" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="86"/>
+      <c r="D92" s="89"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="94"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="86"/>
+      <c r="A93" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="109"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="89"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>286.79999999999927</v>
+        <v>486.79999999999927</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="93" t="s">
+      <c r="A94" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="103"/>
-      <c r="C94" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="D94" s="107"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="93"/>
       <c r="E94" s="52">
         <v>1200</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="94"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="86"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="89"/>
       <c r="E95" s="66">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
       <c r="C96" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="86"/>
+      <c r="D96" s="89"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>192.79999999999927</v>
+        <v>248.79999999999927</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -17265,6 +17283,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A35:C36"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A86:B86"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
@@ -17281,38 +17331,6 @@
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A35:C36"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="47" priority="2" operator="lessThan">
@@ -17373,7 +17391,7 @@
   <dimension ref="A1:Y1009"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -17390,13 +17408,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="A1" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -17418,7 +17436,7 @@
       </c>
       <c r="C3" s="5">
         <f>'October 2024 - December 2024'!E96</f>
-        <v>192.79999999999927</v>
+        <v>248.79999999999927</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -17513,7 +17531,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>218.99999999999926</v>
+        <v>274.99999999999926</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -17541,11 +17559,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="57">
         <f>('October 2024 - December 2024'!C7)+SUM(E79,E86,E94)</f>
-        <v>-3339</v>
+        <v>-4539</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -17599,13 +17617,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
+      <c r="A10" s="110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -17633,25 +17651,25 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -17673,13 +17691,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="122" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="A15" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -17707,25 +17725,25 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -17750,13 +17768,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="A20" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -17778,31 +17796,31 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="74" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -17845,11 +17863,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="146" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
+      <c r="A28" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="104"/>
+      <c r="C28" s="89"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -17864,24 +17882,24 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="89"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27">
@@ -17906,20 +17924,20 @@
       </c>
       <c r="C34" s="29">
         <f>SUM(C31:C33)</f>
-        <v>239</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -17968,11 +17986,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="89"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -18007,11 +18025,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -18036,7 +18054,7 @@
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="31">
         <v>0</v>
@@ -18053,11 +18071,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -18081,11 +18099,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="140" t="s">
+      <c r="A54" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="141"/>
-      <c r="C54" s="124"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="115"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -18109,11 +18127,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="112"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -18157,11 +18175,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="124"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -18178,11 +18196,11 @@
       <c r="A64" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="70">
-        <v>0</v>
+      <c r="B64" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="69">
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
@@ -18201,7 +18219,7 @@
         <v>46</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="31">
         <v>760</v>
@@ -18214,7 +18232,7 @@
       </c>
       <c r="C67" s="39">
         <f>SUM(C63:C66)</f>
-        <v>1060</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
@@ -18224,15 +18242,15 @@
       </c>
       <c r="C68" s="39">
         <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="99"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="124"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -18245,8 +18263,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="71" t="s">
-        <v>90</v>
+      <c r="A71" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="49">
@@ -18279,7 +18297,7 @@
       </c>
       <c r="C74" s="41">
         <f>C68</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -18292,130 +18310,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="106" t="s">
-        <v>126</v>
-      </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="86"/>
+      <c r="A77" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="89"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
       <c r="A78" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="124"/>
+      <c r="B78" s="115"/>
       <c r="C78" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="124"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="149" t="s">
+      <c r="A79" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="135"/>
-      <c r="C79" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" s="148"/>
-      <c r="E79" s="75">
-        <v>1200</v>
+      <c r="B79" s="81"/>
+      <c r="C79" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="145"/>
+      <c r="E79" s="74">
+        <v>1000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="132" t="s">
+      <c r="A80" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="135"/>
+      <c r="D80" s="136"/>
       <c r="E80" s="44">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="143" t="s">
+      <c r="C81" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="85"/>
+      <c r="D81" s="104"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>124.99999999999909</v>
+        <v>236.99999999999909</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="86"/>
+      <c r="A83" s="94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="89"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="106" t="s">
+      <c r="B84" s="89"/>
+      <c r="C84" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="86"/>
+      <c r="D84" s="89"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="93" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="104"/>
+      <c r="A85" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="109"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="154"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>124.99999999999909</v>
+        <v>236.99999999999909</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="103"/>
-      <c r="C86" s="82" t="s">
-        <v>163</v>
+      <c r="B86" s="126"/>
+      <c r="C86" s="86" t="s">
+        <v>172</v>
       </c>
       <c r="D86" s="153"/>
       <c r="E86" s="52">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="94"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="86"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="89"/>
       <c r="E87" s="66">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
       <c r="C88" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="86"/>
+      <c r="D88" s="89"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>130.99999999999909</v>
+        <v>198.99999999999909</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -18433,72 +18451,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="95" t="s">
-        <v>127</v>
-      </c>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="97"/>
+      <c r="A91" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="112"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="106" t="s">
+      <c r="A92" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="86"/>
-      <c r="C92" s="106" t="s">
+      <c r="B92" s="89"/>
+      <c r="C92" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="86"/>
+      <c r="D92" s="89"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="B93" s="94"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="86"/>
+      <c r="A93" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="109"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="89"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>130.99999999999909</v>
+        <v>198.99999999999909</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="93" t="s">
+      <c r="A94" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="103"/>
-      <c r="C94" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="D94" s="107"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="93"/>
       <c r="E94" s="52">
-        <v>1100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="94"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="86"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="89"/>
       <c r="E95" s="66">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
       <c r="C96" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="86"/>
+      <c r="D96" s="89"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>136.99999999999909</v>
+        <v>160.99999999999909</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -22155,18 +22173,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -22180,29 +22209,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="lessThan">
@@ -22262,8 +22280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0D0F5D-D1BD-4315-A79D-5F8D7D39DF80}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -22280,13 +22298,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="119" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="A1" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -22308,7 +22326,7 @@
       </c>
       <c r="C3" s="5">
         <f>'January 2025 - March 2025'!E96</f>
-        <v>136.99999999999909</v>
+        <v>160.99999999999909</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -22403,7 +22421,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>163.19999999999908</v>
+        <v>187.19999999999908</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -22431,11 +22449,11 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="57">
         <f>('January 2025 - March 2025'!C7)+SUM(E79,E86,E94)</f>
-        <v>0</v>
+        <v>-1839</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -22489,13 +22507,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
+      <c r="A10" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -22523,25 +22541,25 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -22563,13 +22581,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="A15" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -22597,25 +22615,25 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -22640,13 +22658,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="122" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="A20" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -22668,31 +22686,31 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="74" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -22735,11 +22753,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
+      <c r="A28" s="150" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="104"/>
+      <c r="C28" s="89"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -22754,24 +22772,24 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="89"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27">
@@ -22796,20 +22814,20 @@
       </c>
       <c r="C34" s="29">
         <f>SUM(C31:C33)</f>
-        <v>239</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -22858,11 +22876,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="89"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -22897,11 +22915,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -22926,7 +22944,7 @@
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="31">
         <v>0</v>
@@ -22943,11 +22961,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -22971,11 +22989,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="140" t="s">
+      <c r="A54" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="141"/>
-      <c r="C54" s="124"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="115"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -22999,11 +23017,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="112"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -23047,11 +23065,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="124"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -23068,11 +23086,11 @@
       <c r="A64" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="70">
-        <v>0</v>
+      <c r="B64" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="69">
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
@@ -23091,7 +23109,7 @@
         <v>46</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="31">
         <v>760</v>
@@ -23104,7 +23122,7 @@
       </c>
       <c r="C67" s="39">
         <f>SUM(C63:C66)</f>
-        <v>1060</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
@@ -23114,15 +23132,15 @@
       </c>
       <c r="C68" s="39">
         <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="99"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="124"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -23135,8 +23153,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="71" t="s">
-        <v>90</v>
+      <c r="A71" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="49">
@@ -23169,7 +23187,7 @@
       </c>
       <c r="C74" s="41">
         <f>C68</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -23182,130 +23200,130 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="106" t="s">
-        <v>133</v>
-      </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="86"/>
+      <c r="A77" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="89"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
       <c r="A78" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="124"/>
+      <c r="B78" s="115"/>
       <c r="C78" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="124"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A79" s="149" t="s">
+      <c r="A79" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="135"/>
-      <c r="C79" s="147" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" s="148"/>
-      <c r="E79" s="75">
-        <v>1100</v>
+      <c r="B79" s="81"/>
+      <c r="C79" s="144" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="145"/>
+      <c r="E79" s="74">
+        <v>900</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A80" s="132" t="s">
+      <c r="A80" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
+      <c r="B80" s="132"/>
+      <c r="C80" s="135"/>
+      <c r="D80" s="136"/>
       <c r="E80" s="44">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="C81" s="143" t="s">
+      <c r="C81" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="85"/>
+      <c r="D81" s="104"/>
       <c r="E81" s="37">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>169.19999999999891</v>
+        <v>249.19999999999891</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="106" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="86"/>
+      <c r="A83" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="89"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="106" t="s">
+      <c r="B84" s="89"/>
+      <c r="C84" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="86"/>
+      <c r="D84" s="89"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="104"/>
+      <c r="A85" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" s="109"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="154"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>169.19999999999891</v>
+        <v>249.19999999999891</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="103"/>
-      <c r="C86" s="82" t="s">
-        <v>164</v>
+      <c r="B86" s="126"/>
+      <c r="C86" s="86" t="s">
+        <v>174</v>
       </c>
       <c r="D86" s="153"/>
       <c r="E86" s="52">
-        <v>1100</v>
+        <v>900</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="94"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="86"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="89"/>
       <c r="E87" s="66">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="13.5" customHeight="1">
       <c r="C88" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="86"/>
+      <c r="D88" s="89"/>
       <c r="E88" s="37">
         <f>(E18+E85)-SUM(E86:E87)</f>
-        <v>175.19999999999891</v>
+        <v>311.19999999999891</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="13.5" customHeight="1">
@@ -23323,72 +23341,72 @@
       <c r="E90" s="24"/>
     </row>
     <row r="91" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A91" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="B91" s="96"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="96"/>
-      <c r="E91" s="97"/>
+      <c r="A91" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="112"/>
     </row>
     <row r="92" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A92" s="106" t="s">
+      <c r="A92" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="86"/>
-      <c r="C92" s="106" t="s">
+      <c r="B92" s="89"/>
+      <c r="C92" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D92" s="86"/>
+      <c r="D92" s="89"/>
       <c r="E92" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A93" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" s="94"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="86"/>
+      <c r="A93" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="109"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="89"/>
       <c r="E93" s="37">
         <f>E88</f>
-        <v>175.19999999999891</v>
+        <v>311.19999999999891</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A94" s="93" t="s">
+      <c r="A94" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="103"/>
-      <c r="C94" s="82" t="s">
+      <c r="B94" s="126"/>
+      <c r="C94" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="107"/>
+      <c r="D94" s="93"/>
       <c r="E94" s="52">
-        <v>1139</v>
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="94"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="86"/>
+      <c r="B95" s="109"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="89"/>
       <c r="E95" s="66">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="13.5" customHeight="1">
       <c r="C96" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="86"/>
+      <c r="D96" s="89"/>
       <c r="E96" s="52">
         <f>(E23+E93)-SUM(E94:E95)</f>
-        <v>142.19999999999891</v>
+        <v>373.19999999999891</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.5" customHeight="1">
@@ -27045,18 +27063,29 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="A35:C36"/>
@@ -27070,29 +27099,18 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <conditionalFormatting sqref="C3">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
@@ -27152,8 +27170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DD8682-0711-4837-AA14-B5688B0442EE}">
   <dimension ref="A1:Y1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -27170,13 +27188,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A1" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
+      <c r="A1" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -27198,7 +27216,7 @@
       </c>
       <c r="C3" s="5">
         <f>'April 2025 - June 2025'!E96</f>
-        <v>142.19999999999891</v>
+        <v>373.19999999999891</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -27293,7 +27311,7 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(C3:C5)</f>
-        <v>168.3999999999989</v>
+        <v>399.3999999999989</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -27321,10 +27339,10 @@
     <row r="7" spans="1:25" ht="13.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="57">
-        <f>('April 2025 - June 2025'!C7)+E79</f>
+        <f>('April 2025 - June 2025'!C7)+SUM(E79,E86,E94)</f>
         <v>0</v>
       </c>
       <c r="D7" s="6"/>
@@ -27379,13 +27397,13 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1"/>
     <row r="10" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A10" s="122" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
+      <c r="A10" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="112"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -27413,25 +27431,25 @@
       <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="86"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="13.5" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="109"/>
       <c r="E12" s="18">
         <v>2405</v>
       </c>
@@ -27453,13 +27471,13 @@
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A15" s="122" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="A15" s="110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="112"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -27487,25 +27505,25 @@
       <c r="B16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.15" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="19">
         <v>2405</v>
       </c>
@@ -27530,13 +27548,13 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A20" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="A20" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="112"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
@@ -27558,31 +27576,31 @@
       <c r="Y20" s="14"/>
     </row>
     <row r="21" spans="1:25" ht="13.15" customHeight="1">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="74" t="s">
+      <c r="D21" s="115"/>
+      <c r="E21" s="73" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.15" customHeight="1">
       <c r="A22" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="126"/>
+      <c r="D22" s="117"/>
       <c r="E22" s="67">
         <v>2405</v>
       </c>
@@ -27625,11 +27643,11 @@
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A28" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
+      <c r="A28" s="150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="104"/>
+      <c r="C28" s="89"/>
     </row>
     <row r="29" spans="1:25" ht="13.5" customHeight="1">
       <c r="A29" s="20" t="s">
@@ -27644,24 +27662,24 @@
       <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="89"/>
     </row>
     <row r="31" spans="1:25" ht="13.5" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="19">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="13.5" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="27">
@@ -27686,20 +27704,20 @@
       </c>
       <c r="C34" s="29">
         <f>SUM(C31:C33)</f>
-        <v>239</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="112"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="99"/>
     </row>
     <row r="36" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A36" s="113"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="102"/>
     </row>
     <row r="37" spans="1:3" ht="13.5" customHeight="1">
       <c r="A37" s="2" t="s">
@@ -27748,11 +27766,11 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="89"/>
     </row>
     <row r="43" spans="1:3" ht="13.5" customHeight="1">
       <c r="A43" s="2" t="s">
@@ -27787,11 +27805,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="134"/>
     </row>
     <row r="47" spans="1:3" ht="13.5" customHeight="1">
       <c r="A47" s="2" t="s">
@@ -27816,7 +27834,7 @@
     <row r="49" spans="1:3" ht="13.5" customHeight="1">
       <c r="A49" s="26"/>
       <c r="B49" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C49" s="31">
         <v>0</v>
@@ -27833,11 +27851,11 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A51" s="84" t="s">
+      <c r="A51" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="134"/>
     </row>
     <row r="52" spans="1:3" ht="13.5" customHeight="1">
       <c r="A52" s="2" t="s">
@@ -27861,11 +27879,11 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A54" s="140" t="s">
+      <c r="A54" s="139" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="141"/>
-      <c r="C54" s="124"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="115"/>
     </row>
     <row r="55" spans="1:3" ht="33" customHeight="1">
       <c r="A55" s="32" t="s">
@@ -27889,11 +27907,11 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="114"/>
-      <c r="C57" s="97"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="112"/>
     </row>
     <row r="58" spans="1:3" ht="13.5" customHeight="1">
       <c r="A58" s="26" t="s">
@@ -27937,11 +27955,11 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.5" customHeight="1">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="100"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="124"/>
     </row>
     <row r="63" spans="1:3" ht="13.5" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -27958,11 +27976,11 @@
       <c r="A64" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="70">
-        <v>0</v>
+      <c r="B64" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="69">
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1">
@@ -27981,7 +27999,7 @@
         <v>46</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="31">
         <v>760</v>
@@ -27994,7 +28012,7 @@
       </c>
       <c r="C67" s="39">
         <f>SUM(C63:C66)</f>
-        <v>1060</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1">
@@ -28004,15 +28022,15 @@
       </c>
       <c r="C68" s="39">
         <f>C34+C41+C45+C50+C53+C56+C61+C67</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B69" s="99"/>
-      <c r="C69" s="100"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="124"/>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1">
       <c r="A70" s="42" t="s">
@@ -28024,8 +28042,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A71" s="71" t="s">
-        <v>90</v>
+      <c r="A71" s="70" t="s">
+        <v>89</v>
       </c>
       <c r="B71" s="38"/>
       <c r="C71" s="49">
@@ -28058,7 +28076,7 @@
       </c>
       <c r="C74" s="41">
         <f>C68</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
       <c r="H74" s="36"/>
     </row>
@@ -28071,23 +28089,23 @@
       <c r="B76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A77" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="86"/>
+      <c r="A77" s="94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="89"/>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1">
       <c r="A78" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="124"/>
+      <c r="B78" s="115"/>
       <c r="C78" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="124"/>
+      <c r="D78" s="115"/>
       <c r="E78" s="43" t="s">
         <v>4</v>
       </c>
@@ -28097,10 +28115,12 @@
         <v>82</v>
       </c>
       <c r="B79" s="155"/>
-      <c r="C79" s="156"/>
-      <c r="D79" s="157"/>
+      <c r="C79" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="159"/>
       <c r="E79" s="52">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1">
@@ -28108,91 +28128,93 @@
         <v>40</v>
       </c>
       <c r="B80" s="155"/>
-      <c r="C80" s="158"/>
-      <c r="D80" s="158"/>
-      <c r="E80" s="80">
+      <c r="C80" s="156"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="77">
         <f>C74</f>
-        <v>1299</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A81" s="78"/>
-      <c r="B81" s="78"/>
-      <c r="C81" s="159" t="s">
+      <c r="A81" s="75"/>
+      <c r="B81" s="75"/>
+      <c r="C81" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="114"/>
-      <c r="E81" s="79">
+      <c r="D81" s="101"/>
+      <c r="E81" s="76">
         <f>(C6+E13)-SUM(E79:E80)</f>
-        <v>1274.3999999999987</v>
+        <v>461.39999999999873</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="13.5" customHeight="1"/>
     <row r="83" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A83" s="106" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="86"/>
+      <c r="A83" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="104"/>
+      <c r="E83" s="89"/>
     </row>
     <row r="84" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A84" s="106" t="s">
+      <c r="A84" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="86"/>
-      <c r="C84" s="106" t="s">
+      <c r="B84" s="89"/>
+      <c r="C84" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="86"/>
+      <c r="D84" s="89"/>
       <c r="E84" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A85" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="104"/>
+      <c r="A85" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="109"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="154"/>
       <c r="E85" s="37">
         <f>E81</f>
-        <v>1274.3999999999987</v>
+        <v>461.39999999999873</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="103"/>
-      <c r="C86" s="82"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="86" t="s">
+        <v>177</v>
+      </c>
       <c r="D86" s="153"/>
       <c r="E86" s="52">
-        <v>0</v>
+        <v>939</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="B87" s="94"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="86"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="89"/>
       <c r="E87" s="66">
         <f>C